--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>FMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25183000</v>
+        <v>22807100</v>
       </c>
       <c r="E8" s="3">
-        <v>23584800</v>
+        <v>21143200</v>
       </c>
       <c r="F8" s="3">
-        <v>21417600</v>
+        <v>19801300</v>
       </c>
       <c r="G8" s="3">
-        <v>16704300</v>
+        <v>17981800</v>
       </c>
       <c r="H8" s="3">
-        <v>14123500</v>
+        <v>14024600</v>
       </c>
       <c r="I8" s="3">
-        <v>13836600</v>
+        <v>11857800</v>
       </c>
       <c r="J8" s="3">
+        <v>11616900</v>
+      </c>
+      <c r="K8" s="3">
         <v>12775700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10423600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15792100</v>
+        <v>14188500</v>
       </c>
       <c r="E9" s="3">
-        <v>14895100</v>
+        <v>13258800</v>
       </c>
       <c r="F9" s="3">
-        <v>13472400</v>
+        <v>12505700</v>
       </c>
       <c r="G9" s="3">
-        <v>10100700</v>
+        <v>11311100</v>
       </c>
       <c r="H9" s="3">
-        <v>8217200</v>
+        <v>8480300</v>
       </c>
       <c r="I9" s="3">
-        <v>7958000</v>
+        <v>6899000</v>
       </c>
       <c r="J9" s="3">
+        <v>6681400</v>
+      </c>
+      <c r="K9" s="3">
         <v>7345100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6063900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9390900</v>
+        <v>8618600</v>
       </c>
       <c r="E10" s="3">
-        <v>8689600</v>
+        <v>7884400</v>
       </c>
       <c r="F10" s="3">
-        <v>7945200</v>
+        <v>7295700</v>
       </c>
       <c r="G10" s="3">
-        <v>6603600</v>
+        <v>6670700</v>
       </c>
       <c r="H10" s="3">
-        <v>5906300</v>
+        <v>5544300</v>
       </c>
       <c r="I10" s="3">
-        <v>5878600</v>
+        <v>4958800</v>
       </c>
       <c r="J10" s="3">
+        <v>4935500</v>
+      </c>
+      <c r="K10" s="3">
         <v>5430700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4359800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>22500</v>
+        <v>44900</v>
       </c>
       <c r="E14" s="3">
-        <v>110400</v>
+        <v>18900</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>92700</v>
       </c>
       <c r="G14" s="3">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>6000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>81200</v>
+        <v>67300</v>
       </c>
       <c r="E15" s="3">
-        <v>60400</v>
+        <v>68100</v>
       </c>
       <c r="F15" s="3">
-        <v>44900</v>
+        <v>50700</v>
       </c>
       <c r="G15" s="3">
-        <v>29100</v>
+        <v>37700</v>
       </c>
       <c r="H15" s="3">
-        <v>22000</v>
+        <v>24400</v>
       </c>
       <c r="I15" s="3">
-        <v>21800</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+        <v>18500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22984400</v>
+        <v>20746100</v>
       </c>
       <c r="E17" s="3">
-        <v>21490100</v>
+        <v>19297300</v>
       </c>
       <c r="F17" s="3">
-        <v>19639100</v>
+        <v>18042700</v>
       </c>
       <c r="G17" s="3">
-        <v>14946900</v>
+        <v>16488600</v>
       </c>
       <c r="H17" s="3">
-        <v>12476000</v>
+        <v>12549100</v>
       </c>
       <c r="I17" s="3">
-        <v>12264300</v>
+        <v>10474600</v>
       </c>
       <c r="J17" s="3">
+        <v>10296800</v>
+      </c>
+      <c r="K17" s="3">
         <v>11197800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9195400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2198500</v>
+        <v>2060900</v>
       </c>
       <c r="E18" s="3">
-        <v>2094700</v>
+        <v>1845900</v>
       </c>
       <c r="F18" s="3">
-        <v>1778500</v>
+        <v>1758700</v>
       </c>
       <c r="G18" s="3">
-        <v>1757400</v>
+        <v>1493200</v>
       </c>
       <c r="H18" s="3">
-        <v>1647500</v>
+        <v>1475500</v>
       </c>
       <c r="I18" s="3">
-        <v>1572300</v>
+        <v>1383200</v>
       </c>
       <c r="J18" s="3">
+        <v>1320100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1578000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1228200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33500</v>
+        <v>-317700</v>
       </c>
       <c r="E20" s="3">
-        <v>164300</v>
+        <v>-28100</v>
       </c>
       <c r="F20" s="3">
-        <v>55900</v>
+        <v>138000</v>
       </c>
       <c r="G20" s="3">
-        <v>-165800</v>
+        <v>46900</v>
       </c>
       <c r="H20" s="3">
-        <v>-166600</v>
+        <v>-139200</v>
       </c>
       <c r="I20" s="3">
-        <v>-66300</v>
+        <v>-139800</v>
       </c>
       <c r="J20" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="K20" s="3">
         <v>32300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>108900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3092200</v>
+        <v>2901300</v>
       </c>
       <c r="E21" s="3">
-        <v>3100300</v>
+        <v>2591200</v>
       </c>
       <c r="F21" s="3">
-        <v>2571800</v>
+        <v>2598400</v>
       </c>
       <c r="G21" s="3">
-        <v>2173900</v>
+        <v>2155300</v>
       </c>
       <c r="H21" s="3">
-        <v>2019600</v>
+        <v>1822000</v>
       </c>
       <c r="I21" s="3">
-        <v>2027600</v>
+        <v>1692700</v>
       </c>
       <c r="J21" s="3">
+        <v>1699500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2034600</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>362100</v>
+        <v>289600</v>
       </c>
       <c r="E22" s="3">
-        <v>341300</v>
+        <v>304000</v>
       </c>
       <c r="F22" s="3">
-        <v>303500</v>
+        <v>286600</v>
       </c>
       <c r="G22" s="3">
-        <v>242600</v>
+        <v>254800</v>
       </c>
       <c r="H22" s="3">
-        <v>208100</v>
+        <v>203700</v>
       </c>
       <c r="I22" s="3">
-        <v>161500</v>
+        <v>174700</v>
       </c>
       <c r="J22" s="3">
+        <v>135600</v>
+      </c>
+      <c r="K22" s="3">
         <v>134300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>119100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1802900</v>
+        <v>1453600</v>
       </c>
       <c r="E23" s="3">
-        <v>1917700</v>
+        <v>1513700</v>
       </c>
       <c r="F23" s="3">
-        <v>1530900</v>
+        <v>1610100</v>
       </c>
       <c r="G23" s="3">
-        <v>1349000</v>
+        <v>1285300</v>
       </c>
       <c r="H23" s="3">
-        <v>1272900</v>
+        <v>1132600</v>
       </c>
       <c r="I23" s="3">
-        <v>1344500</v>
+        <v>1068700</v>
       </c>
       <c r="J23" s="3">
+        <v>1128900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1475900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1218100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>545200</v>
+        <v>471500</v>
       </c>
       <c r="E24" s="3">
-        <v>547500</v>
+        <v>457700</v>
       </c>
       <c r="F24" s="3">
-        <v>422900</v>
+        <v>459700</v>
       </c>
       <c r="G24" s="3">
-        <v>425200</v>
+        <v>355000</v>
       </c>
       <c r="H24" s="3">
-        <v>335200</v>
+        <v>357000</v>
       </c>
       <c r="I24" s="3">
-        <v>415800</v>
+        <v>281400</v>
       </c>
       <c r="J24" s="3">
+        <v>349100</v>
+      </c>
+      <c r="K24" s="3">
         <v>426100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>394000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1257700</v>
+        <v>982100</v>
       </c>
       <c r="E26" s="3">
-        <v>1370200</v>
+        <v>1056000</v>
       </c>
       <c r="F26" s="3">
-        <v>1108000</v>
+        <v>1150400</v>
       </c>
       <c r="G26" s="3">
-        <v>923800</v>
+        <v>930300</v>
       </c>
       <c r="H26" s="3">
-        <v>937700</v>
+        <v>775600</v>
       </c>
       <c r="I26" s="3">
-        <v>928700</v>
+        <v>787300</v>
       </c>
       <c r="J26" s="3">
+        <v>779800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1049700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>824100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1105700</v>
+        <v>931700</v>
       </c>
       <c r="E27" s="3">
-        <v>2073700</v>
+        <v>928300</v>
       </c>
       <c r="F27" s="3">
-        <v>1133300</v>
+        <v>1741100</v>
       </c>
       <c r="G27" s="3">
-        <v>948000</v>
+        <v>951500</v>
       </c>
       <c r="H27" s="3">
-        <v>895300</v>
+        <v>795900</v>
       </c>
       <c r="I27" s="3">
-        <v>853600</v>
+        <v>751700</v>
       </c>
       <c r="J27" s="3">
+        <v>716600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1110100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>797500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>180500</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>199800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>151500</v>
+      </c>
+      <c r="F29" s="3">
+        <v>167700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33500</v>
+        <v>317700</v>
       </c>
       <c r="E32" s="3">
-        <v>-164300</v>
+        <v>28100</v>
       </c>
       <c r="F32" s="3">
-        <v>-55900</v>
+        <v>-138000</v>
       </c>
       <c r="G32" s="3">
-        <v>165800</v>
+        <v>-46900</v>
       </c>
       <c r="H32" s="3">
-        <v>166600</v>
+        <v>139200</v>
       </c>
       <c r="I32" s="3">
-        <v>66300</v>
+        <v>139800</v>
       </c>
       <c r="J32" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-32300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-108900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1286100</v>
+        <v>931700</v>
       </c>
       <c r="E33" s="3">
-        <v>2273500</v>
+        <v>1079800</v>
       </c>
       <c r="F33" s="3">
-        <v>1133300</v>
+        <v>1908800</v>
       </c>
       <c r="G33" s="3">
-        <v>948000</v>
+        <v>951500</v>
       </c>
       <c r="H33" s="3">
-        <v>895300</v>
+        <v>795900</v>
       </c>
       <c r="I33" s="3">
-        <v>853600</v>
+        <v>751700</v>
       </c>
       <c r="J33" s="3">
+        <v>716600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1110100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>797500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1286100</v>
+        <v>931700</v>
       </c>
       <c r="E35" s="3">
-        <v>2273500</v>
+        <v>1079800</v>
       </c>
       <c r="F35" s="3">
-        <v>1133300</v>
+        <v>1908800</v>
       </c>
       <c r="G35" s="3">
-        <v>948000</v>
+        <v>951500</v>
       </c>
       <c r="H35" s="3">
-        <v>895300</v>
+        <v>795900</v>
       </c>
       <c r="I35" s="3">
-        <v>853600</v>
+        <v>751700</v>
       </c>
       <c r="J35" s="3">
+        <v>716600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1110100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>797500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3326300</v>
+        <v>2957500</v>
       </c>
       <c r="E41" s="3">
-        <v>5197200</v>
+        <v>2798900</v>
       </c>
       <c r="F41" s="3">
-        <v>2339400</v>
+        <v>4373100</v>
       </c>
       <c r="G41" s="3">
-        <v>1575900</v>
+        <v>1968500</v>
       </c>
       <c r="H41" s="3">
-        <v>1903000</v>
+        <v>1326100</v>
       </c>
       <c r="I41" s="3">
-        <v>2929500</v>
+        <v>1601300</v>
       </c>
       <c r="J41" s="3">
+        <v>2465000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1957900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1336500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1657800</v>
+        <v>557800</v>
       </c>
       <c r="E42" s="3">
-        <v>115800</v>
+        <v>1395000</v>
       </c>
       <c r="F42" s="3">
-        <v>6400</v>
+        <v>97400</v>
       </c>
       <c r="G42" s="3">
-        <v>131700</v>
+        <v>5400</v>
       </c>
       <c r="H42" s="3">
-        <v>7700</v>
+        <v>110800</v>
       </c>
       <c r="I42" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="J42" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K42" s="3">
         <v>91200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>96100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2396000</v>
+        <v>2185100</v>
       </c>
       <c r="E43" s="3">
-        <v>2338400</v>
+        <v>2016100</v>
       </c>
       <c r="F43" s="3">
-        <v>1901100</v>
+        <v>1967700</v>
       </c>
       <c r="G43" s="3">
-        <v>2229800</v>
+        <v>1599700</v>
       </c>
       <c r="H43" s="3">
-        <v>1226200</v>
+        <v>1876300</v>
       </c>
       <c r="I43" s="3">
-        <v>1952600</v>
+        <v>1031800</v>
       </c>
       <c r="J43" s="3">
+        <v>1643000</v>
+      </c>
+      <c r="K43" s="3">
         <v>969800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>819300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1913100</v>
+        <v>1850500</v>
       </c>
       <c r="E44" s="3">
-        <v>1867800</v>
+        <v>1609800</v>
       </c>
       <c r="F44" s="3">
-        <v>1711900</v>
+        <v>1571600</v>
       </c>
       <c r="G44" s="3">
-        <v>1323100</v>
+        <v>1440500</v>
       </c>
       <c r="H44" s="3">
-        <v>922800</v>
+        <v>1113300</v>
       </c>
       <c r="I44" s="3">
-        <v>1960900</v>
+        <v>776500</v>
       </c>
       <c r="J44" s="3">
+        <v>1650000</v>
+      </c>
+      <c r="K44" s="3">
         <v>876300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1486600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>228200</v>
+        <v>234000</v>
       </c>
       <c r="E45" s="3">
-        <v>194300</v>
+        <v>192000</v>
       </c>
       <c r="F45" s="3">
-        <v>364500</v>
+        <v>163500</v>
       </c>
       <c r="G45" s="3">
-        <v>457600</v>
+        <v>306700</v>
       </c>
       <c r="H45" s="3">
-        <v>181500</v>
+        <v>385000</v>
       </c>
       <c r="I45" s="3">
-        <v>1021500</v>
+        <v>152700</v>
       </c>
       <c r="J45" s="3">
+        <v>859500</v>
+      </c>
+      <c r="K45" s="3">
         <v>150100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>107700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9521500</v>
+        <v>7785000</v>
       </c>
       <c r="E46" s="3">
-        <v>9713500</v>
+        <v>8011900</v>
       </c>
       <c r="F46" s="3">
-        <v>6323400</v>
+        <v>8173400</v>
       </c>
       <c r="G46" s="3">
-        <v>4649200</v>
+        <v>5320800</v>
       </c>
       <c r="H46" s="3">
-        <v>4241200</v>
+        <v>3912100</v>
       </c>
       <c r="I46" s="3">
-        <v>3944000</v>
+        <v>3568700</v>
       </c>
       <c r="J46" s="3">
+        <v>3318700</v>
+      </c>
+      <c r="K46" s="3">
         <v>4045100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3102300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5740600</v>
+        <v>4907000</v>
       </c>
       <c r="E47" s="3">
-        <v>5824200</v>
+        <v>4830400</v>
       </c>
       <c r="F47" s="3">
-        <v>7799900</v>
+        <v>4900800</v>
       </c>
       <c r="G47" s="3">
-        <v>6559000</v>
+        <v>6563200</v>
       </c>
       <c r="H47" s="3">
-        <v>5894000</v>
+        <v>5519000</v>
       </c>
       <c r="I47" s="3">
-        <v>5420300</v>
+        <v>4959500</v>
       </c>
       <c r="J47" s="3">
+        <v>4560900</v>
+      </c>
+      <c r="K47" s="3">
         <v>4705500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8044400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5822200</v>
+        <v>7542300</v>
       </c>
       <c r="E48" s="3">
-        <v>6256900</v>
+        <v>4899000</v>
       </c>
       <c r="F48" s="3">
-        <v>5480200</v>
+        <v>5264900</v>
       </c>
       <c r="G48" s="3">
-        <v>8609300</v>
+        <v>4611300</v>
       </c>
       <c r="H48" s="3">
-        <v>4054500</v>
+        <v>7244300</v>
       </c>
       <c r="I48" s="3">
-        <v>7929500</v>
+        <v>3411600</v>
       </c>
       <c r="J48" s="3">
+        <v>6672200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3305000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6016600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7806200</v>
+        <v>6611400</v>
       </c>
       <c r="E49" s="3">
-        <v>8260900</v>
+        <v>6568500</v>
       </c>
       <c r="F49" s="3">
-        <v>8216700</v>
+        <v>6951100</v>
       </c>
       <c r="G49" s="3">
-        <v>11616300</v>
+        <v>6913900</v>
       </c>
       <c r="H49" s="3">
-        <v>5442900</v>
+        <v>9774500</v>
       </c>
       <c r="I49" s="3">
-        <v>11075100</v>
+        <v>4579900</v>
       </c>
       <c r="J49" s="3">
+        <v>9319100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3639700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13061400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2009400</v>
+        <v>1913700</v>
       </c>
       <c r="E52" s="3">
-        <v>1496100</v>
+        <v>1690800</v>
       </c>
       <c r="F52" s="3">
-        <v>1430700</v>
+        <v>1258900</v>
       </c>
       <c r="G52" s="3">
-        <v>853300</v>
+        <v>1203900</v>
       </c>
       <c r="H52" s="3">
-        <v>534100</v>
+        <v>718000</v>
       </c>
       <c r="I52" s="3">
-        <v>919500</v>
+        <v>449400</v>
       </c>
       <c r="J52" s="3">
+        <v>773700</v>
+      </c>
+      <c r="K52" s="3">
         <v>170100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>328300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30899800</v>
+        <v>28759500</v>
       </c>
       <c r="E54" s="3">
-        <v>31551700</v>
+        <v>26000500</v>
       </c>
       <c r="F54" s="3">
-        <v>29250800</v>
+        <v>26549100</v>
       </c>
       <c r="G54" s="3">
-        <v>21944300</v>
+        <v>24613100</v>
       </c>
       <c r="H54" s="3">
-        <v>20166600</v>
+        <v>18465000</v>
       </c>
       <c r="I54" s="3">
-        <v>19256300</v>
+        <v>16969200</v>
       </c>
       <c r="J54" s="3">
+        <v>16203200</v>
+      </c>
+      <c r="K54" s="3">
         <v>15865500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13621100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3520500</v>
+        <v>3458900</v>
       </c>
       <c r="E57" s="3">
-        <v>3547000</v>
+        <v>2962300</v>
       </c>
       <c r="F57" s="3">
-        <v>3167800</v>
+        <v>2984600</v>
       </c>
       <c r="G57" s="3">
-        <v>2412900</v>
+        <v>2665500</v>
       </c>
       <c r="H57" s="3">
-        <v>1835900</v>
+        <v>2030300</v>
       </c>
       <c r="I57" s="3">
-        <v>1798200</v>
+        <v>1544800</v>
       </c>
       <c r="J57" s="3">
+        <v>1513100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1833700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1925900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>733100</v>
+        <v>1064200</v>
       </c>
       <c r="E58" s="3">
-        <v>728600</v>
+        <v>616800</v>
       </c>
       <c r="F58" s="3">
-        <v>390300</v>
+        <v>613000</v>
       </c>
       <c r="G58" s="3">
-        <v>632800</v>
+        <v>328400</v>
       </c>
       <c r="H58" s="3">
-        <v>83300</v>
+        <v>532500</v>
       </c>
       <c r="I58" s="3">
-        <v>205200</v>
+        <v>70100</v>
       </c>
       <c r="J58" s="3">
+        <v>172600</v>
+      </c>
+      <c r="K58" s="3">
         <v>466500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>288200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1185900</v>
+        <v>1636000</v>
       </c>
       <c r="E59" s="3">
-        <v>1354700</v>
+        <v>997900</v>
       </c>
       <c r="F59" s="3">
-        <v>1067900</v>
+        <v>1139900</v>
       </c>
       <c r="G59" s="3">
-        <v>1553100</v>
+        <v>898500</v>
       </c>
       <c r="H59" s="3">
-        <v>724900</v>
+        <v>1306800</v>
       </c>
       <c r="I59" s="3">
-        <v>2669600</v>
+        <v>609900</v>
       </c>
       <c r="J59" s="3">
+        <v>2246300</v>
+      </c>
+      <c r="K59" s="3">
         <v>300700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>244100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5439500</v>
+        <v>6159000</v>
       </c>
       <c r="E60" s="3">
-        <v>5630200</v>
+        <v>4577000</v>
       </c>
       <c r="F60" s="3">
-        <v>4626000</v>
+        <v>4737500</v>
       </c>
       <c r="G60" s="3">
-        <v>3503200</v>
+        <v>3892500</v>
       </c>
       <c r="H60" s="3">
-        <v>2644000</v>
+        <v>2947700</v>
       </c>
       <c r="I60" s="3">
-        <v>2619900</v>
+        <v>2224800</v>
       </c>
       <c r="J60" s="3">
+        <v>2204500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2600900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2033900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6164600</v>
+        <v>6723100</v>
       </c>
       <c r="E61" s="3">
-        <v>6313000</v>
+        <v>5187200</v>
       </c>
       <c r="F61" s="3">
-        <v>7074800</v>
+        <v>5312100</v>
       </c>
       <c r="G61" s="3">
-        <v>4608800</v>
+        <v>5953000</v>
       </c>
       <c r="H61" s="3">
-        <v>4446100</v>
+        <v>3878100</v>
       </c>
       <c r="I61" s="3">
-        <v>3869800</v>
+        <v>3741200</v>
       </c>
       <c r="J61" s="3">
+        <v>3256300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1535400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1231900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1307300</v>
+        <v>1182600</v>
       </c>
       <c r="E62" s="3">
-        <v>1546600</v>
+        <v>1100000</v>
       </c>
       <c r="F62" s="3">
-        <v>2208600</v>
+        <v>1301400</v>
       </c>
       <c r="G62" s="3">
-        <v>1119600</v>
+        <v>1858400</v>
       </c>
       <c r="H62" s="3">
-        <v>739700</v>
+        <v>942100</v>
       </c>
       <c r="I62" s="3">
-        <v>1631900</v>
+        <v>622400</v>
       </c>
       <c r="J62" s="3">
+        <v>1373100</v>
+      </c>
+      <c r="K62" s="3">
         <v>462400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>416200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17119200</v>
+        <v>17392300</v>
       </c>
       <c r="E66" s="3">
-        <v>18133600</v>
+        <v>14404900</v>
       </c>
       <c r="F66" s="3">
-        <v>17890700</v>
+        <v>15258500</v>
       </c>
       <c r="G66" s="3">
-        <v>12212800</v>
+        <v>15054100</v>
       </c>
       <c r="H66" s="3">
-        <v>11027600</v>
+        <v>10276400</v>
       </c>
       <c r="I66" s="3">
-        <v>7325400</v>
+        <v>9279100</v>
       </c>
       <c r="J66" s="3">
+        <v>6163900</v>
+      </c>
+      <c r="K66" s="3">
         <v>7542000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6161900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11676400</v>
+        <v>10366000</v>
       </c>
       <c r="E72" s="3">
-        <v>10822100</v>
+        <v>9825000</v>
       </c>
       <c r="F72" s="3">
-        <v>9049200</v>
+        <v>9106300</v>
       </c>
       <c r="G72" s="3">
-        <v>8424200</v>
+        <v>7614400</v>
       </c>
       <c r="H72" s="3">
-        <v>7887200</v>
+        <v>7088500</v>
       </c>
       <c r="I72" s="3">
-        <v>7014300</v>
+        <v>6636700</v>
       </c>
       <c r="J72" s="3">
+        <v>5902200</v>
+      </c>
+      <c r="K72" s="3">
         <v>6889300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5921300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13780600</v>
+        <v>11367200</v>
       </c>
       <c r="E76" s="3">
-        <v>13418100</v>
+        <v>11595700</v>
       </c>
       <c r="F76" s="3">
-        <v>11360200</v>
+        <v>11290600</v>
       </c>
       <c r="G76" s="3">
-        <v>9731500</v>
+        <v>9559000</v>
       </c>
       <c r="H76" s="3">
-        <v>9139100</v>
+        <v>8188600</v>
       </c>
       <c r="I76" s="3">
-        <v>11930900</v>
+        <v>7690000</v>
       </c>
       <c r="J76" s="3">
+        <v>10039200</v>
+      </c>
+      <c r="K76" s="3">
         <v>8323400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7459200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1286100</v>
+        <v>931700</v>
       </c>
       <c r="E81" s="3">
-        <v>2273500</v>
+        <v>1079800</v>
       </c>
       <c r="F81" s="3">
-        <v>1133300</v>
+        <v>1908800</v>
       </c>
       <c r="G81" s="3">
-        <v>948000</v>
+        <v>951500</v>
       </c>
       <c r="H81" s="3">
-        <v>895300</v>
+        <v>795900</v>
       </c>
       <c r="I81" s="3">
-        <v>853600</v>
+        <v>751700</v>
       </c>
       <c r="J81" s="3">
+        <v>716600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1110100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>797500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>924100</v>
+        <v>1161700</v>
       </c>
       <c r="E83" s="3">
-        <v>838500</v>
+        <v>775800</v>
       </c>
       <c r="F83" s="3">
-        <v>734900</v>
+        <v>704000</v>
       </c>
       <c r="G83" s="3">
-        <v>580300</v>
+        <v>617000</v>
       </c>
       <c r="H83" s="3">
-        <v>536900</v>
+        <v>487200</v>
       </c>
       <c r="I83" s="3">
-        <v>519800</v>
+        <v>450700</v>
       </c>
       <c r="J83" s="3">
+        <v>436400</v>
+      </c>
+      <c r="K83" s="3">
         <v>423000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2593500</v>
+        <v>2774300</v>
       </c>
       <c r="E89" s="3">
-        <v>2276800</v>
+        <v>2177400</v>
       </c>
       <c r="F89" s="3">
-        <v>2687500</v>
+        <v>1911600</v>
       </c>
       <c r="G89" s="3">
-        <v>1969800</v>
+        <v>2256400</v>
       </c>
       <c r="H89" s="3">
-        <v>2003100</v>
+        <v>1653800</v>
       </c>
       <c r="I89" s="3">
-        <v>1541700</v>
+        <v>1681800</v>
       </c>
       <c r="J89" s="3">
+        <v>1294400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1650400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1098900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1157100</v>
+        <v>-1085000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1044500</v>
+        <v>-971500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1023000</v>
+        <v>-877000</v>
       </c>
       <c r="G91" s="3">
-        <v>-937400</v>
+        <v>-858900</v>
       </c>
       <c r="H91" s="3">
-        <v>-910600</v>
+        <v>-787000</v>
       </c>
       <c r="I91" s="3">
-        <v>-878100</v>
+        <v>-764500</v>
       </c>
       <c r="J91" s="3">
+        <v>-737300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-795800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3091300</v>
+        <v>-636100</v>
       </c>
       <c r="E94" s="3">
-        <v>1533000</v>
+        <v>-2595400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2071800</v>
+        <v>1287100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1520300</v>
+        <v>-1739400</v>
       </c>
       <c r="H94" s="3">
-        <v>-836700</v>
+        <v>-1276400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2960900</v>
+        <v>-702500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2485900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-785000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-693300</v>
+        <v>-613400</v>
       </c>
       <c r="E96" s="3">
-        <v>-667400</v>
+        <v>-582100</v>
       </c>
       <c r="F96" s="3">
-        <v>-645700</v>
+        <v>-560400</v>
       </c>
       <c r="G96" s="3">
-        <v>-573700</v>
+        <v>-542100</v>
       </c>
       <c r="H96" s="3">
-        <v>-169000</v>
+        <v>-481600</v>
       </c>
       <c r="I96" s="3">
-        <v>-884200</v>
+        <v>-141900</v>
       </c>
       <c r="J96" s="3">
+        <v>-742300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-492500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-342600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1233600</v>
+        <v>-1729900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1128700</v>
+        <v>-1035700</v>
       </c>
       <c r="F100" s="3">
-        <v>69500</v>
+        <v>-947600</v>
       </c>
       <c r="G100" s="3">
-        <v>-736700</v>
+        <v>58400</v>
       </c>
       <c r="H100" s="3">
-        <v>-497900</v>
+        <v>-618500</v>
       </c>
       <c r="I100" s="3">
-        <v>1103500</v>
+        <v>-418100</v>
       </c>
       <c r="J100" s="3">
+        <v>926500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-183200</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-139500</v>
+        <v>-250200</v>
       </c>
       <c r="E101" s="3">
-        <v>176600</v>
+        <v>-117100</v>
       </c>
       <c r="F101" s="3">
-        <v>78200</v>
+        <v>148300</v>
       </c>
       <c r="G101" s="3">
-        <v>-39800</v>
+        <v>65600</v>
       </c>
       <c r="H101" s="3">
-        <v>-226800</v>
+        <v>-33400</v>
       </c>
       <c r="I101" s="3">
-        <v>-180800</v>
+        <v>-190400</v>
       </c>
       <c r="J101" s="3">
+        <v>-151800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-109600</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1870900</v>
+        <v>158200</v>
       </c>
       <c r="E102" s="3">
-        <v>2857800</v>
+        <v>-1570800</v>
       </c>
       <c r="F102" s="3">
-        <v>763500</v>
+        <v>2399300</v>
       </c>
       <c r="G102" s="3">
-        <v>-327100</v>
+        <v>641000</v>
       </c>
       <c r="H102" s="3">
-        <v>441600</v>
+        <v>-274600</v>
       </c>
       <c r="I102" s="3">
-        <v>-496500</v>
+        <v>370800</v>
       </c>
       <c r="J102" s="3">
+        <v>-416900</v>
+      </c>
+      <c r="K102" s="3">
         <v>572600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22807100</v>
+        <v>23106000</v>
       </c>
       <c r="E8" s="3">
-        <v>21143200</v>
+        <v>21420300</v>
       </c>
       <c r="F8" s="3">
-        <v>19801300</v>
+        <v>20060900</v>
       </c>
       <c r="G8" s="3">
-        <v>17981800</v>
+        <v>18217500</v>
       </c>
       <c r="H8" s="3">
-        <v>14024600</v>
+        <v>14208500</v>
       </c>
       <c r="I8" s="3">
-        <v>11857800</v>
+        <v>12013300</v>
       </c>
       <c r="J8" s="3">
-        <v>11616900</v>
+        <v>11769200</v>
       </c>
       <c r="K8" s="3">
         <v>12775700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14188500</v>
+        <v>14374500</v>
       </c>
       <c r="E9" s="3">
-        <v>13258800</v>
+        <v>13432600</v>
       </c>
       <c r="F9" s="3">
-        <v>12505700</v>
+        <v>12669600</v>
       </c>
       <c r="G9" s="3">
-        <v>11311100</v>
+        <v>11459400</v>
       </c>
       <c r="H9" s="3">
-        <v>8480300</v>
+        <v>8591500</v>
       </c>
       <c r="I9" s="3">
-        <v>6899000</v>
+        <v>6989500</v>
       </c>
       <c r="J9" s="3">
-        <v>6681400</v>
+        <v>6769000</v>
       </c>
       <c r="K9" s="3">
         <v>7345100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8618600</v>
+        <v>8731500</v>
       </c>
       <c r="E10" s="3">
-        <v>7884400</v>
+        <v>7987800</v>
       </c>
       <c r="F10" s="3">
-        <v>7295700</v>
+        <v>7391300</v>
       </c>
       <c r="G10" s="3">
-        <v>6670700</v>
+        <v>6758100</v>
       </c>
       <c r="H10" s="3">
-        <v>5544300</v>
+        <v>5617000</v>
       </c>
       <c r="I10" s="3">
-        <v>4958800</v>
+        <v>5023800</v>
       </c>
       <c r="J10" s="3">
-        <v>4935500</v>
+        <v>5000200</v>
       </c>
       <c r="K10" s="3">
         <v>5430700</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>44900</v>
+        <v>45500</v>
       </c>
       <c r="E14" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="F14" s="3">
-        <v>92700</v>
+        <v>93900</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I14" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>67300</v>
+        <v>68200</v>
       </c>
       <c r="E15" s="3">
-        <v>68100</v>
+        <v>69000</v>
       </c>
       <c r="F15" s="3">
-        <v>50700</v>
+        <v>51400</v>
       </c>
       <c r="G15" s="3">
-        <v>37700</v>
+        <v>38200</v>
       </c>
       <c r="H15" s="3">
-        <v>24400</v>
+        <v>24800</v>
       </c>
       <c r="I15" s="3">
+        <v>18700</v>
+      </c>
+      <c r="J15" s="3">
         <v>18500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>18300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20746100</v>
+        <v>21018100</v>
       </c>
       <c r="E17" s="3">
-        <v>19297300</v>
+        <v>19550300</v>
       </c>
       <c r="F17" s="3">
-        <v>18042700</v>
+        <v>18279200</v>
       </c>
       <c r="G17" s="3">
-        <v>16488600</v>
+        <v>16704700</v>
       </c>
       <c r="H17" s="3">
-        <v>12549100</v>
+        <v>12713600</v>
       </c>
       <c r="I17" s="3">
-        <v>10474600</v>
+        <v>10611900</v>
       </c>
       <c r="J17" s="3">
-        <v>10296800</v>
+        <v>10431800</v>
       </c>
       <c r="K17" s="3">
         <v>11197800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2060900</v>
+        <v>2087900</v>
       </c>
       <c r="E18" s="3">
-        <v>1845900</v>
+        <v>1870100</v>
       </c>
       <c r="F18" s="3">
-        <v>1758700</v>
+        <v>1781700</v>
       </c>
       <c r="G18" s="3">
-        <v>1493200</v>
+        <v>1512800</v>
       </c>
       <c r="H18" s="3">
-        <v>1475500</v>
+        <v>1494800</v>
       </c>
       <c r="I18" s="3">
-        <v>1383200</v>
+        <v>1401400</v>
       </c>
       <c r="J18" s="3">
-        <v>1320100</v>
+        <v>1337400</v>
       </c>
       <c r="K18" s="3">
         <v>1578000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-317700</v>
+        <v>-321800</v>
       </c>
       <c r="E20" s="3">
-        <v>-28100</v>
+        <v>-28500</v>
       </c>
       <c r="F20" s="3">
-        <v>138000</v>
+        <v>139800</v>
       </c>
       <c r="G20" s="3">
-        <v>46900</v>
+        <v>47600</v>
       </c>
       <c r="H20" s="3">
-        <v>-139200</v>
+        <v>-141000</v>
       </c>
       <c r="I20" s="3">
-        <v>-139800</v>
+        <v>-141700</v>
       </c>
       <c r="J20" s="3">
-        <v>-55600</v>
+        <v>-56400</v>
       </c>
       <c r="K20" s="3">
         <v>32300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2901300</v>
+        <v>2945300</v>
       </c>
       <c r="E21" s="3">
-        <v>2591200</v>
+        <v>2629100</v>
       </c>
       <c r="F21" s="3">
-        <v>2598400</v>
+        <v>2636100</v>
       </c>
       <c r="G21" s="3">
-        <v>2155300</v>
+        <v>2186700</v>
       </c>
       <c r="H21" s="3">
-        <v>1822000</v>
+        <v>1848400</v>
       </c>
       <c r="I21" s="3">
-        <v>1692700</v>
+        <v>1717200</v>
       </c>
       <c r="J21" s="3">
-        <v>1699500</v>
+        <v>1724100</v>
       </c>
       <c r="K21" s="3">
         <v>2034600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>289600</v>
+        <v>293400</v>
       </c>
       <c r="E22" s="3">
-        <v>304000</v>
+        <v>308000</v>
       </c>
       <c r="F22" s="3">
-        <v>286600</v>
+        <v>290300</v>
       </c>
       <c r="G22" s="3">
-        <v>254800</v>
+        <v>258200</v>
       </c>
       <c r="H22" s="3">
-        <v>203700</v>
+        <v>206400</v>
       </c>
       <c r="I22" s="3">
-        <v>174700</v>
+        <v>177000</v>
       </c>
       <c r="J22" s="3">
-        <v>135600</v>
+        <v>137400</v>
       </c>
       <c r="K22" s="3">
         <v>134300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1453600</v>
+        <v>1472700</v>
       </c>
       <c r="E23" s="3">
-        <v>1513700</v>
+        <v>1533500</v>
       </c>
       <c r="F23" s="3">
-        <v>1610100</v>
+        <v>1631200</v>
       </c>
       <c r="G23" s="3">
-        <v>1285300</v>
+        <v>1302200</v>
       </c>
       <c r="H23" s="3">
-        <v>1132600</v>
+        <v>1147400</v>
       </c>
       <c r="I23" s="3">
-        <v>1068700</v>
+        <v>1082700</v>
       </c>
       <c r="J23" s="3">
-        <v>1128900</v>
+        <v>1143600</v>
       </c>
       <c r="K23" s="3">
         <v>1475900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>471500</v>
+        <v>477700</v>
       </c>
       <c r="E24" s="3">
-        <v>457700</v>
+        <v>463700</v>
       </c>
       <c r="F24" s="3">
-        <v>459700</v>
+        <v>465700</v>
       </c>
       <c r="G24" s="3">
-        <v>355000</v>
+        <v>359700</v>
       </c>
       <c r="H24" s="3">
-        <v>357000</v>
+        <v>361700</v>
       </c>
       <c r="I24" s="3">
-        <v>281400</v>
+        <v>285100</v>
       </c>
       <c r="J24" s="3">
-        <v>349100</v>
+        <v>353700</v>
       </c>
       <c r="K24" s="3">
         <v>426100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>982100</v>
+        <v>995000</v>
       </c>
       <c r="E26" s="3">
-        <v>1056000</v>
+        <v>1069800</v>
       </c>
       <c r="F26" s="3">
-        <v>1150400</v>
+        <v>1165400</v>
       </c>
       <c r="G26" s="3">
-        <v>930300</v>
+        <v>942500</v>
       </c>
       <c r="H26" s="3">
-        <v>775600</v>
+        <v>785700</v>
       </c>
       <c r="I26" s="3">
-        <v>787300</v>
+        <v>797600</v>
       </c>
       <c r="J26" s="3">
-        <v>779800</v>
+        <v>790000</v>
       </c>
       <c r="K26" s="3">
         <v>1049700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>931700</v>
+        <v>943900</v>
       </c>
       <c r="E27" s="3">
-        <v>928300</v>
+        <v>940500</v>
       </c>
       <c r="F27" s="3">
-        <v>1741100</v>
+        <v>1763900</v>
       </c>
       <c r="G27" s="3">
-        <v>951500</v>
+        <v>964000</v>
       </c>
       <c r="H27" s="3">
-        <v>795900</v>
+        <v>806300</v>
       </c>
       <c r="I27" s="3">
-        <v>751700</v>
+        <v>761600</v>
       </c>
       <c r="J27" s="3">
-        <v>716600</v>
+        <v>726000</v>
       </c>
       <c r="K27" s="3">
         <v>1110100</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>151500</v>
+        <v>153500</v>
       </c>
       <c r="F29" s="3">
-        <v>167700</v>
+        <v>169900</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>317700</v>
+        <v>321800</v>
       </c>
       <c r="E32" s="3">
-        <v>28100</v>
+        <v>28500</v>
       </c>
       <c r="F32" s="3">
-        <v>-138000</v>
+        <v>-139800</v>
       </c>
       <c r="G32" s="3">
-        <v>-46900</v>
+        <v>-47600</v>
       </c>
       <c r="H32" s="3">
-        <v>139200</v>
+        <v>141000</v>
       </c>
       <c r="I32" s="3">
-        <v>139800</v>
+        <v>141700</v>
       </c>
       <c r="J32" s="3">
-        <v>55600</v>
+        <v>56400</v>
       </c>
       <c r="K32" s="3">
         <v>-32300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>931700</v>
+        <v>943900</v>
       </c>
       <c r="E33" s="3">
-        <v>1079800</v>
+        <v>1093900</v>
       </c>
       <c r="F33" s="3">
-        <v>1908800</v>
+        <v>1933800</v>
       </c>
       <c r="G33" s="3">
-        <v>951500</v>
+        <v>964000</v>
       </c>
       <c r="H33" s="3">
-        <v>795900</v>
+        <v>806300</v>
       </c>
       <c r="I33" s="3">
-        <v>751700</v>
+        <v>761600</v>
       </c>
       <c r="J33" s="3">
-        <v>716600</v>
+        <v>726000</v>
       </c>
       <c r="K33" s="3">
         <v>1110100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>931700</v>
+        <v>943900</v>
       </c>
       <c r="E35" s="3">
-        <v>1079800</v>
+        <v>1093900</v>
       </c>
       <c r="F35" s="3">
-        <v>1908800</v>
+        <v>1933800</v>
       </c>
       <c r="G35" s="3">
-        <v>951500</v>
+        <v>964000</v>
       </c>
       <c r="H35" s="3">
-        <v>795900</v>
+        <v>806300</v>
       </c>
       <c r="I35" s="3">
-        <v>751700</v>
+        <v>761600</v>
       </c>
       <c r="J35" s="3">
-        <v>716600</v>
+        <v>726000</v>
       </c>
       <c r="K35" s="3">
         <v>1110100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2957500</v>
+        <v>2989600</v>
       </c>
       <c r="E41" s="3">
-        <v>2798900</v>
+        <v>2829300</v>
       </c>
       <c r="F41" s="3">
-        <v>4373100</v>
+        <v>4420600</v>
       </c>
       <c r="G41" s="3">
-        <v>1968500</v>
+        <v>1989800</v>
       </c>
       <c r="H41" s="3">
-        <v>1326100</v>
+        <v>1340500</v>
       </c>
       <c r="I41" s="3">
-        <v>1601300</v>
+        <v>1618700</v>
       </c>
       <c r="J41" s="3">
-        <v>2465000</v>
+        <v>2491800</v>
       </c>
       <c r="K41" s="3">
         <v>1957900</v>
@@ -1685,22 +1685,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>557800</v>
+        <v>563900</v>
       </c>
       <c r="E42" s="3">
-        <v>1395000</v>
+        <v>1410100</v>
       </c>
       <c r="F42" s="3">
-        <v>97400</v>
+        <v>98500</v>
       </c>
       <c r="G42" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H42" s="3">
-        <v>110800</v>
+        <v>112000</v>
       </c>
       <c r="I42" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="J42" s="3">
         <v>5700</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2185100</v>
+        <v>2208900</v>
       </c>
       <c r="E43" s="3">
-        <v>2016100</v>
+        <v>2038000</v>
       </c>
       <c r="F43" s="3">
-        <v>1967700</v>
+        <v>1989000</v>
       </c>
       <c r="G43" s="3">
-        <v>1599700</v>
+        <v>1617100</v>
       </c>
       <c r="H43" s="3">
-        <v>1876300</v>
+        <v>1896700</v>
       </c>
       <c r="I43" s="3">
-        <v>1031800</v>
+        <v>1043000</v>
       </c>
       <c r="J43" s="3">
-        <v>1643000</v>
+        <v>1660900</v>
       </c>
       <c r="K43" s="3">
         <v>969800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1850500</v>
+        <v>1870600</v>
       </c>
       <c r="E44" s="3">
-        <v>1609800</v>
+        <v>1627300</v>
       </c>
       <c r="F44" s="3">
-        <v>1571600</v>
+        <v>1588700</v>
       </c>
       <c r="G44" s="3">
-        <v>1440500</v>
+        <v>1456100</v>
       </c>
       <c r="H44" s="3">
-        <v>1113300</v>
+        <v>1125400</v>
       </c>
       <c r="I44" s="3">
-        <v>776500</v>
+        <v>785000</v>
       </c>
       <c r="J44" s="3">
-        <v>1650000</v>
+        <v>1668000</v>
       </c>
       <c r="K44" s="3">
         <v>876300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>234000</v>
+        <v>236600</v>
       </c>
       <c r="E45" s="3">
-        <v>192000</v>
+        <v>194100</v>
       </c>
       <c r="F45" s="3">
-        <v>163500</v>
+        <v>165300</v>
       </c>
       <c r="G45" s="3">
-        <v>306700</v>
+        <v>310100</v>
       </c>
       <c r="H45" s="3">
-        <v>385000</v>
+        <v>389200</v>
       </c>
       <c r="I45" s="3">
-        <v>152700</v>
+        <v>154400</v>
       </c>
       <c r="J45" s="3">
-        <v>859500</v>
+        <v>868900</v>
       </c>
       <c r="K45" s="3">
         <v>150100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7785000</v>
+        <v>7869600</v>
       </c>
       <c r="E46" s="3">
-        <v>8011900</v>
+        <v>8098900</v>
       </c>
       <c r="F46" s="3">
-        <v>8173400</v>
+        <v>8262200</v>
       </c>
       <c r="G46" s="3">
-        <v>5320800</v>
+        <v>5378600</v>
       </c>
       <c r="H46" s="3">
-        <v>3912100</v>
+        <v>3954600</v>
       </c>
       <c r="I46" s="3">
-        <v>3568700</v>
+        <v>3607500</v>
       </c>
       <c r="J46" s="3">
-        <v>3318700</v>
+        <v>3354700</v>
       </c>
       <c r="K46" s="3">
         <v>4045100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4907000</v>
+        <v>4960300</v>
       </c>
       <c r="E47" s="3">
-        <v>4830400</v>
+        <v>4882800</v>
       </c>
       <c r="F47" s="3">
-        <v>4900800</v>
+        <v>4954000</v>
       </c>
       <c r="G47" s="3">
-        <v>6563200</v>
+        <v>6634500</v>
       </c>
       <c r="H47" s="3">
-        <v>5519000</v>
+        <v>5579000</v>
       </c>
       <c r="I47" s="3">
-        <v>4959500</v>
+        <v>5013400</v>
       </c>
       <c r="J47" s="3">
-        <v>4560900</v>
+        <v>4610500</v>
       </c>
       <c r="K47" s="3">
         <v>4705500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7542300</v>
+        <v>7624200</v>
       </c>
       <c r="E48" s="3">
-        <v>4899000</v>
+        <v>4952300</v>
       </c>
       <c r="F48" s="3">
-        <v>5264900</v>
+        <v>5322100</v>
       </c>
       <c r="G48" s="3">
-        <v>4611300</v>
+        <v>4661400</v>
       </c>
       <c r="H48" s="3">
-        <v>7244300</v>
+        <v>7323000</v>
       </c>
       <c r="I48" s="3">
-        <v>3411600</v>
+        <v>3448700</v>
       </c>
       <c r="J48" s="3">
-        <v>6672200</v>
+        <v>6744700</v>
       </c>
       <c r="K48" s="3">
         <v>3305000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6611400</v>
+        <v>6683200</v>
       </c>
       <c r="E49" s="3">
-        <v>6568500</v>
+        <v>6639800</v>
       </c>
       <c r="F49" s="3">
-        <v>6951100</v>
+        <v>7026600</v>
       </c>
       <c r="G49" s="3">
-        <v>6913900</v>
+        <v>6989000</v>
       </c>
       <c r="H49" s="3">
-        <v>9774500</v>
+        <v>9880700</v>
       </c>
       <c r="I49" s="3">
-        <v>4579900</v>
+        <v>4629600</v>
       </c>
       <c r="J49" s="3">
-        <v>9319100</v>
+        <v>9420300</v>
       </c>
       <c r="K49" s="3">
         <v>3639700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1913700</v>
+        <v>1934500</v>
       </c>
       <c r="E52" s="3">
-        <v>1690800</v>
+        <v>1709200</v>
       </c>
       <c r="F52" s="3">
-        <v>1258900</v>
+        <v>1272600</v>
       </c>
       <c r="G52" s="3">
-        <v>1203900</v>
+        <v>1216900</v>
       </c>
       <c r="H52" s="3">
-        <v>718000</v>
+        <v>725800</v>
       </c>
       <c r="I52" s="3">
-        <v>449400</v>
+        <v>454300</v>
       </c>
       <c r="J52" s="3">
-        <v>773700</v>
+        <v>782100</v>
       </c>
       <c r="K52" s="3">
         <v>170100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28759500</v>
+        <v>29071900</v>
       </c>
       <c r="E54" s="3">
-        <v>26000500</v>
+        <v>26283000</v>
       </c>
       <c r="F54" s="3">
-        <v>26549100</v>
+        <v>26837500</v>
       </c>
       <c r="G54" s="3">
-        <v>24613100</v>
+        <v>24880400</v>
       </c>
       <c r="H54" s="3">
-        <v>18465000</v>
+        <v>18665600</v>
       </c>
       <c r="I54" s="3">
-        <v>16969200</v>
+        <v>17153500</v>
       </c>
       <c r="J54" s="3">
-        <v>16203200</v>
+        <v>16379200</v>
       </c>
       <c r="K54" s="3">
         <v>15865500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3458900</v>
+        <v>3496400</v>
       </c>
       <c r="E57" s="3">
-        <v>2962300</v>
+        <v>2994500</v>
       </c>
       <c r="F57" s="3">
-        <v>2984600</v>
+        <v>3017000</v>
       </c>
       <c r="G57" s="3">
-        <v>2665500</v>
+        <v>2694500</v>
       </c>
       <c r="H57" s="3">
-        <v>2030300</v>
+        <v>2052400</v>
       </c>
       <c r="I57" s="3">
-        <v>1544800</v>
+        <v>1561600</v>
       </c>
       <c r="J57" s="3">
-        <v>1513100</v>
+        <v>1529600</v>
       </c>
       <c r="K57" s="3">
         <v>1833700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1064200</v>
+        <v>1075700</v>
       </c>
       <c r="E58" s="3">
-        <v>616800</v>
+        <v>623500</v>
       </c>
       <c r="F58" s="3">
-        <v>613000</v>
+        <v>619700</v>
       </c>
       <c r="G58" s="3">
-        <v>328400</v>
+        <v>332000</v>
       </c>
       <c r="H58" s="3">
-        <v>532500</v>
+        <v>538300</v>
       </c>
       <c r="I58" s="3">
-        <v>70100</v>
+        <v>70800</v>
       </c>
       <c r="J58" s="3">
-        <v>172600</v>
+        <v>174500</v>
       </c>
       <c r="K58" s="3">
         <v>466500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1636000</v>
+        <v>1653800</v>
       </c>
       <c r="E59" s="3">
-        <v>997900</v>
+        <v>1008700</v>
       </c>
       <c r="F59" s="3">
-        <v>1139900</v>
+        <v>1152300</v>
       </c>
       <c r="G59" s="3">
-        <v>898500</v>
+        <v>908300</v>
       </c>
       <c r="H59" s="3">
-        <v>1306800</v>
+        <v>1321000</v>
       </c>
       <c r="I59" s="3">
-        <v>609900</v>
+        <v>616600</v>
       </c>
       <c r="J59" s="3">
-        <v>2246300</v>
+        <v>2270700</v>
       </c>
       <c r="K59" s="3">
         <v>300700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6159000</v>
+        <v>6226000</v>
       </c>
       <c r="E60" s="3">
-        <v>4577000</v>
+        <v>4626800</v>
       </c>
       <c r="F60" s="3">
-        <v>4737500</v>
+        <v>4789000</v>
       </c>
       <c r="G60" s="3">
-        <v>3892500</v>
+        <v>3934800</v>
       </c>
       <c r="H60" s="3">
-        <v>2947700</v>
+        <v>2979800</v>
       </c>
       <c r="I60" s="3">
-        <v>2224800</v>
+        <v>2248900</v>
       </c>
       <c r="J60" s="3">
-        <v>2204500</v>
+        <v>2228400</v>
       </c>
       <c r="K60" s="3">
         <v>2600900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6723100</v>
+        <v>6796200</v>
       </c>
       <c r="E61" s="3">
-        <v>5187200</v>
+        <v>5243500</v>
       </c>
       <c r="F61" s="3">
-        <v>5312100</v>
+        <v>5369800</v>
       </c>
       <c r="G61" s="3">
-        <v>5953000</v>
+        <v>6017700</v>
       </c>
       <c r="H61" s="3">
-        <v>3878100</v>
+        <v>3920200</v>
       </c>
       <c r="I61" s="3">
-        <v>3741200</v>
+        <v>3781800</v>
       </c>
       <c r="J61" s="3">
-        <v>3256300</v>
+        <v>3291600</v>
       </c>
       <c r="K61" s="3">
         <v>1535400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1182600</v>
+        <v>1195500</v>
       </c>
       <c r="E62" s="3">
-        <v>1100000</v>
+        <v>1112000</v>
       </c>
       <c r="F62" s="3">
-        <v>1301400</v>
+        <v>1315500</v>
       </c>
       <c r="G62" s="3">
-        <v>1858400</v>
+        <v>1878600</v>
       </c>
       <c r="H62" s="3">
-        <v>942100</v>
+        <v>952400</v>
       </c>
       <c r="I62" s="3">
-        <v>622400</v>
+        <v>629100</v>
       </c>
       <c r="J62" s="3">
-        <v>1373100</v>
+        <v>1388100</v>
       </c>
       <c r="K62" s="3">
         <v>462400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17392300</v>
+        <v>17581200</v>
       </c>
       <c r="E66" s="3">
-        <v>14404900</v>
+        <v>14561400</v>
       </c>
       <c r="F66" s="3">
-        <v>15258500</v>
+        <v>15424200</v>
       </c>
       <c r="G66" s="3">
-        <v>15054100</v>
+        <v>15217600</v>
       </c>
       <c r="H66" s="3">
-        <v>10276400</v>
+        <v>10388100</v>
       </c>
       <c r="I66" s="3">
-        <v>9279100</v>
+        <v>9379900</v>
       </c>
       <c r="J66" s="3">
-        <v>6163900</v>
+        <v>6230900</v>
       </c>
       <c r="K66" s="3">
         <v>7542000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10366000</v>
+        <v>10478600</v>
       </c>
       <c r="E72" s="3">
-        <v>9825000</v>
+        <v>9931800</v>
       </c>
       <c r="F72" s="3">
-        <v>9106300</v>
+        <v>9205200</v>
       </c>
       <c r="G72" s="3">
-        <v>7614400</v>
+        <v>7697100</v>
       </c>
       <c r="H72" s="3">
-        <v>7088500</v>
+        <v>7165500</v>
       </c>
       <c r="I72" s="3">
-        <v>6636700</v>
+        <v>6708800</v>
       </c>
       <c r="J72" s="3">
-        <v>5902200</v>
+        <v>5966300</v>
       </c>
       <c r="K72" s="3">
         <v>6889300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11367200</v>
+        <v>11490700</v>
       </c>
       <c r="E76" s="3">
-        <v>11595700</v>
+        <v>11721600</v>
       </c>
       <c r="F76" s="3">
-        <v>11290600</v>
+        <v>11413300</v>
       </c>
       <c r="G76" s="3">
-        <v>9559000</v>
+        <v>9662800</v>
       </c>
       <c r="H76" s="3">
-        <v>8188600</v>
+        <v>8277500</v>
       </c>
       <c r="I76" s="3">
-        <v>7690000</v>
+        <v>7773600</v>
       </c>
       <c r="J76" s="3">
-        <v>10039200</v>
+        <v>10148300</v>
       </c>
       <c r="K76" s="3">
         <v>8323400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>931700</v>
+        <v>943900</v>
       </c>
       <c r="E81" s="3">
-        <v>1079800</v>
+        <v>1093900</v>
       </c>
       <c r="F81" s="3">
-        <v>1908800</v>
+        <v>1933800</v>
       </c>
       <c r="G81" s="3">
-        <v>951500</v>
+        <v>964000</v>
       </c>
       <c r="H81" s="3">
-        <v>795900</v>
+        <v>806300</v>
       </c>
       <c r="I81" s="3">
-        <v>751700</v>
+        <v>761600</v>
       </c>
       <c r="J81" s="3">
-        <v>716600</v>
+        <v>726000</v>
       </c>
       <c r="K81" s="3">
         <v>1110100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1161700</v>
+        <v>1176900</v>
       </c>
       <c r="E83" s="3">
-        <v>775800</v>
+        <v>786000</v>
       </c>
       <c r="F83" s="3">
-        <v>704000</v>
+        <v>713200</v>
       </c>
       <c r="G83" s="3">
-        <v>617000</v>
+        <v>625100</v>
       </c>
       <c r="H83" s="3">
-        <v>487200</v>
+        <v>493600</v>
       </c>
       <c r="I83" s="3">
-        <v>450700</v>
+        <v>456600</v>
       </c>
       <c r="J83" s="3">
-        <v>436400</v>
+        <v>442100</v>
       </c>
       <c r="K83" s="3">
         <v>423000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2774300</v>
+        <v>2810700</v>
       </c>
       <c r="E89" s="3">
-        <v>2177400</v>
+        <v>2206000</v>
       </c>
       <c r="F89" s="3">
-        <v>1911600</v>
+        <v>1936600</v>
       </c>
       <c r="G89" s="3">
-        <v>2256400</v>
+        <v>2286000</v>
       </c>
       <c r="H89" s="3">
-        <v>1653800</v>
+        <v>1675500</v>
       </c>
       <c r="I89" s="3">
-        <v>1681800</v>
+        <v>1703800</v>
       </c>
       <c r="J89" s="3">
-        <v>1294400</v>
+        <v>1311400</v>
       </c>
       <c r="K89" s="3">
         <v>1650400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1085000</v>
+        <v>-1099200</v>
       </c>
       <c r="E91" s="3">
-        <v>-971500</v>
+        <v>-984200</v>
       </c>
       <c r="F91" s="3">
-        <v>-877000</v>
+        <v>-888500</v>
       </c>
       <c r="G91" s="3">
-        <v>-858900</v>
+        <v>-870200</v>
       </c>
       <c r="H91" s="3">
-        <v>-787000</v>
+        <v>-797300</v>
       </c>
       <c r="I91" s="3">
-        <v>-764500</v>
+        <v>-774500</v>
       </c>
       <c r="J91" s="3">
-        <v>-737300</v>
+        <v>-746900</v>
       </c>
       <c r="K91" s="3">
         <v>-795800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-636100</v>
+        <v>-644400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2595400</v>
+        <v>-2629400</v>
       </c>
       <c r="F94" s="3">
-        <v>1287100</v>
+        <v>1304000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1739400</v>
+        <v>-1762200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1276400</v>
+        <v>-1293200</v>
       </c>
       <c r="I94" s="3">
-        <v>-702500</v>
+        <v>-711700</v>
       </c>
       <c r="J94" s="3">
-        <v>-2485900</v>
+        <v>-2518500</v>
       </c>
       <c r="K94" s="3">
         <v>-785000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-613400</v>
+        <v>-621500</v>
       </c>
       <c r="E96" s="3">
-        <v>-582100</v>
+        <v>-589700</v>
       </c>
       <c r="F96" s="3">
-        <v>-560400</v>
+        <v>-567700</v>
       </c>
       <c r="G96" s="3">
-        <v>-542100</v>
+        <v>-549300</v>
       </c>
       <c r="H96" s="3">
-        <v>-481600</v>
+        <v>-488000</v>
       </c>
       <c r="I96" s="3">
-        <v>-141900</v>
+        <v>-143700</v>
       </c>
       <c r="J96" s="3">
-        <v>-742300</v>
+        <v>-752100</v>
       </c>
       <c r="K96" s="3">
         <v>-492500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1729900</v>
+        <v>-1752500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1035700</v>
+        <v>-1049300</v>
       </c>
       <c r="F100" s="3">
-        <v>-947600</v>
+        <v>-960100</v>
       </c>
       <c r="G100" s="3">
-        <v>58400</v>
+        <v>59100</v>
       </c>
       <c r="H100" s="3">
-        <v>-618500</v>
+        <v>-626600</v>
       </c>
       <c r="I100" s="3">
-        <v>-418100</v>
+        <v>-423500</v>
       </c>
       <c r="J100" s="3">
-        <v>926500</v>
+        <v>938600</v>
       </c>
       <c r="K100" s="3">
         <v>-183200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-250200</v>
+        <v>-253400</v>
       </c>
       <c r="E101" s="3">
-        <v>-117100</v>
+        <v>-118700</v>
       </c>
       <c r="F101" s="3">
-        <v>148300</v>
+        <v>150300</v>
       </c>
       <c r="G101" s="3">
-        <v>65600</v>
+        <v>66500</v>
       </c>
       <c r="H101" s="3">
-        <v>-33400</v>
+        <v>-33900</v>
       </c>
       <c r="I101" s="3">
-        <v>-190400</v>
+        <v>-192900</v>
       </c>
       <c r="J101" s="3">
-        <v>-151800</v>
+        <v>-153800</v>
       </c>
       <c r="K101" s="3">
         <v>-109600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>158200</v>
+        <v>160300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1570800</v>
+        <v>-1591300</v>
       </c>
       <c r="F102" s="3">
-        <v>2399300</v>
+        <v>2430800</v>
       </c>
       <c r="G102" s="3">
-        <v>641000</v>
+        <v>649400</v>
       </c>
       <c r="H102" s="3">
-        <v>-274600</v>
+        <v>-278200</v>
       </c>
       <c r="I102" s="3">
-        <v>370800</v>
+        <v>375700</v>
       </c>
       <c r="J102" s="3">
-        <v>-416900</v>
+        <v>-422300</v>
       </c>
       <c r="K102" s="3">
         <v>572600</v>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23106000</v>
+        <v>25300100</v>
       </c>
       <c r="E8" s="3">
-        <v>21420300</v>
+        <v>23454300</v>
       </c>
       <c r="F8" s="3">
-        <v>20060900</v>
+        <v>21965800</v>
       </c>
       <c r="G8" s="3">
-        <v>18217500</v>
+        <v>19947400</v>
       </c>
       <c r="H8" s="3">
-        <v>14208500</v>
+        <v>15557600</v>
       </c>
       <c r="I8" s="3">
-        <v>12013300</v>
+        <v>13154000</v>
       </c>
       <c r="J8" s="3">
-        <v>11769200</v>
+        <v>12886800</v>
       </c>
       <c r="K8" s="3">
         <v>12775700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14374500</v>
+        <v>15739400</v>
       </c>
       <c r="E9" s="3">
-        <v>13432600</v>
+        <v>14708100</v>
       </c>
       <c r="F9" s="3">
-        <v>12669600</v>
+        <v>13872700</v>
       </c>
       <c r="G9" s="3">
-        <v>11459400</v>
+        <v>12547600</v>
       </c>
       <c r="H9" s="3">
-        <v>8591500</v>
+        <v>9407300</v>
       </c>
       <c r="I9" s="3">
-        <v>6989500</v>
+        <v>7653200</v>
       </c>
       <c r="J9" s="3">
-        <v>6769000</v>
+        <v>7411800</v>
       </c>
       <c r="K9" s="3">
         <v>7345100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8731500</v>
+        <v>9560600</v>
       </c>
       <c r="E10" s="3">
-        <v>7987800</v>
+        <v>8746200</v>
       </c>
       <c r="F10" s="3">
-        <v>7391300</v>
+        <v>8093200</v>
       </c>
       <c r="G10" s="3">
-        <v>6758100</v>
+        <v>7399800</v>
       </c>
       <c r="H10" s="3">
-        <v>5617000</v>
+        <v>6150300</v>
       </c>
       <c r="I10" s="3">
-        <v>5023800</v>
+        <v>5500800</v>
       </c>
       <c r="J10" s="3">
-        <v>5000200</v>
+        <v>5475000</v>
       </c>
       <c r="K10" s="3">
         <v>5430700</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>45500</v>
+        <v>49800</v>
       </c>
       <c r="E14" s="3">
-        <v>19100</v>
+        <v>20900</v>
       </c>
       <c r="F14" s="3">
-        <v>93900</v>
+        <v>102900</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>6100</v>
+        <v>6700</v>
       </c>
       <c r="I14" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>68200</v>
+        <v>74600</v>
       </c>
       <c r="E15" s="3">
-        <v>69000</v>
+        <v>75600</v>
       </c>
       <c r="F15" s="3">
-        <v>51400</v>
+        <v>56300</v>
       </c>
       <c r="G15" s="3">
-        <v>38200</v>
+        <v>41800</v>
       </c>
       <c r="H15" s="3">
-        <v>24800</v>
+        <v>27100</v>
       </c>
       <c r="I15" s="3">
-        <v>18700</v>
+        <v>20500</v>
       </c>
       <c r="J15" s="3">
-        <v>18500</v>
+        <v>20300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21018100</v>
+        <v>23013900</v>
       </c>
       <c r="E17" s="3">
-        <v>19550300</v>
+        <v>21406700</v>
       </c>
       <c r="F17" s="3">
-        <v>18279200</v>
+        <v>20014900</v>
       </c>
       <c r="G17" s="3">
-        <v>16704700</v>
+        <v>18291000</v>
       </c>
       <c r="H17" s="3">
-        <v>12713600</v>
+        <v>13920900</v>
       </c>
       <c r="I17" s="3">
-        <v>10611900</v>
+        <v>11619600</v>
       </c>
       <c r="J17" s="3">
-        <v>10431800</v>
+        <v>11422400</v>
       </c>
       <c r="K17" s="3">
         <v>11197800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2087900</v>
+        <v>2286200</v>
       </c>
       <c r="E18" s="3">
-        <v>1870100</v>
+        <v>2047600</v>
       </c>
       <c r="F18" s="3">
-        <v>1781700</v>
+        <v>1950900</v>
       </c>
       <c r="G18" s="3">
-        <v>1512800</v>
+        <v>1656400</v>
       </c>
       <c r="H18" s="3">
-        <v>1494800</v>
+        <v>1636800</v>
       </c>
       <c r="I18" s="3">
-        <v>1401400</v>
+        <v>1534400</v>
       </c>
       <c r="J18" s="3">
-        <v>1337400</v>
+        <v>1464400</v>
       </c>
       <c r="K18" s="3">
         <v>1578000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-321800</v>
+        <v>-352400</v>
       </c>
       <c r="E20" s="3">
-        <v>-28500</v>
+        <v>-31200</v>
       </c>
       <c r="F20" s="3">
-        <v>139800</v>
+        <v>153000</v>
       </c>
       <c r="G20" s="3">
-        <v>47600</v>
+        <v>52100</v>
       </c>
       <c r="H20" s="3">
-        <v>-141000</v>
+        <v>-154400</v>
       </c>
       <c r="I20" s="3">
-        <v>-141700</v>
+        <v>-155100</v>
       </c>
       <c r="J20" s="3">
-        <v>-56400</v>
+        <v>-61700</v>
       </c>
       <c r="K20" s="3">
         <v>32300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2945300</v>
+        <v>3222500</v>
       </c>
       <c r="E21" s="3">
-        <v>2629100</v>
+        <v>2877100</v>
       </c>
       <c r="F21" s="3">
-        <v>2636100</v>
+        <v>2884900</v>
       </c>
       <c r="G21" s="3">
-        <v>2186700</v>
+        <v>2393000</v>
       </c>
       <c r="H21" s="3">
-        <v>1848400</v>
+        <v>2022900</v>
       </c>
       <c r="I21" s="3">
-        <v>1717200</v>
+        <v>1879300</v>
       </c>
       <c r="J21" s="3">
-        <v>1724100</v>
+        <v>1886800</v>
       </c>
       <c r="K21" s="3">
         <v>2034600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>293400</v>
+        <v>321200</v>
       </c>
       <c r="E22" s="3">
-        <v>308000</v>
+        <v>337300</v>
       </c>
       <c r="F22" s="3">
-        <v>290300</v>
+        <v>317900</v>
       </c>
       <c r="G22" s="3">
-        <v>258200</v>
+        <v>282700</v>
       </c>
       <c r="H22" s="3">
-        <v>206400</v>
+        <v>226000</v>
       </c>
       <c r="I22" s="3">
-        <v>177000</v>
+        <v>193800</v>
       </c>
       <c r="J22" s="3">
-        <v>137400</v>
+        <v>150400</v>
       </c>
       <c r="K22" s="3">
         <v>134300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1472700</v>
+        <v>1612500</v>
       </c>
       <c r="E23" s="3">
-        <v>1533500</v>
+        <v>1679100</v>
       </c>
       <c r="F23" s="3">
-        <v>1631200</v>
+        <v>1786000</v>
       </c>
       <c r="G23" s="3">
-        <v>1302200</v>
+        <v>1425800</v>
       </c>
       <c r="H23" s="3">
-        <v>1147400</v>
+        <v>1256400</v>
       </c>
       <c r="I23" s="3">
-        <v>1082700</v>
+        <v>1185500</v>
       </c>
       <c r="J23" s="3">
-        <v>1143600</v>
+        <v>1252200</v>
       </c>
       <c r="K23" s="3">
         <v>1475900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>477700</v>
+        <v>523100</v>
       </c>
       <c r="E24" s="3">
-        <v>463700</v>
+        <v>507700</v>
       </c>
       <c r="F24" s="3">
-        <v>465700</v>
+        <v>509900</v>
       </c>
       <c r="G24" s="3">
-        <v>359700</v>
+        <v>393800</v>
       </c>
       <c r="H24" s="3">
-        <v>361700</v>
+        <v>396000</v>
       </c>
       <c r="I24" s="3">
-        <v>285100</v>
+        <v>312200</v>
       </c>
       <c r="J24" s="3">
-        <v>353700</v>
+        <v>387300</v>
       </c>
       <c r="K24" s="3">
         <v>426100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>995000</v>
+        <v>1089500</v>
       </c>
       <c r="E26" s="3">
-        <v>1069800</v>
+        <v>1171400</v>
       </c>
       <c r="F26" s="3">
-        <v>1165400</v>
+        <v>1276100</v>
       </c>
       <c r="G26" s="3">
-        <v>942500</v>
+        <v>1032000</v>
       </c>
       <c r="H26" s="3">
-        <v>785700</v>
+        <v>860300</v>
       </c>
       <c r="I26" s="3">
-        <v>797600</v>
+        <v>873300</v>
       </c>
       <c r="J26" s="3">
-        <v>790000</v>
+        <v>865000</v>
       </c>
       <c r="K26" s="3">
         <v>1049700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>943900</v>
+        <v>1033500</v>
       </c>
       <c r="E27" s="3">
-        <v>940500</v>
+        <v>1029800</v>
       </c>
       <c r="F27" s="3">
-        <v>1763900</v>
+        <v>1931400</v>
       </c>
       <c r="G27" s="3">
-        <v>964000</v>
+        <v>1055500</v>
       </c>
       <c r="H27" s="3">
-        <v>806300</v>
+        <v>882900</v>
       </c>
       <c r="I27" s="3">
-        <v>761600</v>
+        <v>833900</v>
       </c>
       <c r="J27" s="3">
-        <v>726000</v>
+        <v>795000</v>
       </c>
       <c r="K27" s="3">
         <v>1110100</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>153500</v>
+        <v>168100</v>
       </c>
       <c r="F29" s="3">
-        <v>169900</v>
+        <v>186000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>321800</v>
+        <v>352400</v>
       </c>
       <c r="E32" s="3">
-        <v>28500</v>
+        <v>31200</v>
       </c>
       <c r="F32" s="3">
-        <v>-139800</v>
+        <v>-153000</v>
       </c>
       <c r="G32" s="3">
-        <v>-47600</v>
+        <v>-52100</v>
       </c>
       <c r="H32" s="3">
-        <v>141000</v>
+        <v>154400</v>
       </c>
       <c r="I32" s="3">
-        <v>141700</v>
+        <v>155100</v>
       </c>
       <c r="J32" s="3">
-        <v>56400</v>
+        <v>61700</v>
       </c>
       <c r="K32" s="3">
         <v>-32300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>943900</v>
+        <v>1033500</v>
       </c>
       <c r="E33" s="3">
-        <v>1093900</v>
+        <v>1197800</v>
       </c>
       <c r="F33" s="3">
-        <v>1933800</v>
+        <v>2117400</v>
       </c>
       <c r="G33" s="3">
-        <v>964000</v>
+        <v>1055500</v>
       </c>
       <c r="H33" s="3">
-        <v>806300</v>
+        <v>882900</v>
       </c>
       <c r="I33" s="3">
-        <v>761600</v>
+        <v>833900</v>
       </c>
       <c r="J33" s="3">
-        <v>726000</v>
+        <v>795000</v>
       </c>
       <c r="K33" s="3">
         <v>1110100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>943900</v>
+        <v>1033500</v>
       </c>
       <c r="E35" s="3">
-        <v>1093900</v>
+        <v>1197800</v>
       </c>
       <c r="F35" s="3">
-        <v>1933800</v>
+        <v>2117400</v>
       </c>
       <c r="G35" s="3">
-        <v>964000</v>
+        <v>1055500</v>
       </c>
       <c r="H35" s="3">
-        <v>806300</v>
+        <v>882900</v>
       </c>
       <c r="I35" s="3">
-        <v>761600</v>
+        <v>833900</v>
       </c>
       <c r="J35" s="3">
-        <v>726000</v>
+        <v>795000</v>
       </c>
       <c r="K35" s="3">
         <v>1110100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2989600</v>
+        <v>3273500</v>
       </c>
       <c r="E41" s="3">
-        <v>2829300</v>
+        <v>3098000</v>
       </c>
       <c r="F41" s="3">
-        <v>4420600</v>
+        <v>4840400</v>
       </c>
       <c r="G41" s="3">
-        <v>1989800</v>
+        <v>2178800</v>
       </c>
       <c r="H41" s="3">
-        <v>1340500</v>
+        <v>1467800</v>
       </c>
       <c r="I41" s="3">
-        <v>1618700</v>
+        <v>1772400</v>
       </c>
       <c r="J41" s="3">
-        <v>2491800</v>
+        <v>2728400</v>
       </c>
       <c r="K41" s="3">
         <v>1957900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>563900</v>
+        <v>617400</v>
       </c>
       <c r="E42" s="3">
-        <v>1410100</v>
+        <v>1544000</v>
       </c>
       <c r="F42" s="3">
-        <v>98500</v>
+        <v>107800</v>
       </c>
       <c r="G42" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="H42" s="3">
-        <v>112000</v>
+        <v>122600</v>
       </c>
       <c r="I42" s="3">
-        <v>6600</v>
+        <v>7200</v>
       </c>
       <c r="J42" s="3">
-        <v>5700</v>
+        <v>6300</v>
       </c>
       <c r="K42" s="3">
         <v>91200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2208900</v>
+        <v>2418600</v>
       </c>
       <c r="E43" s="3">
-        <v>2038000</v>
+        <v>2231600</v>
       </c>
       <c r="F43" s="3">
-        <v>1989000</v>
+        <v>2177900</v>
       </c>
       <c r="G43" s="3">
-        <v>1617100</v>
+        <v>1770600</v>
       </c>
       <c r="H43" s="3">
-        <v>1896700</v>
+        <v>2076800</v>
       </c>
       <c r="I43" s="3">
-        <v>1043000</v>
+        <v>1142000</v>
       </c>
       <c r="J43" s="3">
-        <v>1660900</v>
+        <v>1818600</v>
       </c>
       <c r="K43" s="3">
         <v>969800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1870600</v>
+        <v>2048300</v>
       </c>
       <c r="E44" s="3">
-        <v>1627300</v>
+        <v>1781800</v>
       </c>
       <c r="F44" s="3">
-        <v>1588700</v>
+        <v>1739600</v>
       </c>
       <c r="G44" s="3">
-        <v>1456100</v>
+        <v>1594400</v>
       </c>
       <c r="H44" s="3">
-        <v>1125400</v>
+        <v>1232300</v>
       </c>
       <c r="I44" s="3">
-        <v>785000</v>
+        <v>859500</v>
       </c>
       <c r="J44" s="3">
-        <v>1668000</v>
+        <v>1826300</v>
       </c>
       <c r="K44" s="3">
         <v>876300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>236600</v>
+        <v>259000</v>
       </c>
       <c r="E45" s="3">
-        <v>194100</v>
+        <v>212500</v>
       </c>
       <c r="F45" s="3">
-        <v>165300</v>
+        <v>181000</v>
       </c>
       <c r="G45" s="3">
-        <v>310100</v>
+        <v>339500</v>
       </c>
       <c r="H45" s="3">
-        <v>389200</v>
+        <v>426200</v>
       </c>
       <c r="I45" s="3">
-        <v>154400</v>
+        <v>169000</v>
       </c>
       <c r="J45" s="3">
-        <v>868900</v>
+        <v>951400</v>
       </c>
       <c r="K45" s="3">
         <v>150100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7869600</v>
+        <v>8616900</v>
       </c>
       <c r="E46" s="3">
-        <v>8098900</v>
+        <v>8867900</v>
       </c>
       <c r="F46" s="3">
-        <v>8262200</v>
+        <v>9046700</v>
       </c>
       <c r="G46" s="3">
-        <v>5378600</v>
+        <v>5889300</v>
       </c>
       <c r="H46" s="3">
-        <v>3954600</v>
+        <v>4330100</v>
       </c>
       <c r="I46" s="3">
-        <v>3607500</v>
+        <v>3950100</v>
       </c>
       <c r="J46" s="3">
-        <v>3354700</v>
+        <v>3673300</v>
       </c>
       <c r="K46" s="3">
         <v>4045100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4960300</v>
+        <v>5431300</v>
       </c>
       <c r="E47" s="3">
-        <v>4882800</v>
+        <v>5346500</v>
       </c>
       <c r="F47" s="3">
-        <v>4954000</v>
+        <v>5424400</v>
       </c>
       <c r="G47" s="3">
-        <v>6634500</v>
+        <v>7264500</v>
       </c>
       <c r="H47" s="3">
-        <v>5579000</v>
+        <v>6108700</v>
       </c>
       <c r="I47" s="3">
-        <v>5013400</v>
+        <v>5489400</v>
       </c>
       <c r="J47" s="3">
-        <v>4610500</v>
+        <v>5048300</v>
       </c>
       <c r="K47" s="3">
         <v>4705500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7624200</v>
+        <v>8348100</v>
       </c>
       <c r="E48" s="3">
-        <v>4952300</v>
+        <v>5422500</v>
       </c>
       <c r="F48" s="3">
-        <v>5322100</v>
+        <v>5827400</v>
       </c>
       <c r="G48" s="3">
-        <v>4661400</v>
+        <v>5104000</v>
       </c>
       <c r="H48" s="3">
-        <v>7323000</v>
+        <v>8018300</v>
       </c>
       <c r="I48" s="3">
-        <v>3448700</v>
+        <v>3776200</v>
       </c>
       <c r="J48" s="3">
-        <v>6744700</v>
+        <v>7385100</v>
       </c>
       <c r="K48" s="3">
         <v>3305000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6683200</v>
+        <v>7317800</v>
       </c>
       <c r="E49" s="3">
-        <v>6639800</v>
+        <v>7270300</v>
       </c>
       <c r="F49" s="3">
-        <v>7026600</v>
+        <v>7693900</v>
       </c>
       <c r="G49" s="3">
-        <v>6989000</v>
+        <v>7652700</v>
       </c>
       <c r="H49" s="3">
-        <v>9880700</v>
+        <v>10818900</v>
       </c>
       <c r="I49" s="3">
-        <v>4629600</v>
+        <v>5069200</v>
       </c>
       <c r="J49" s="3">
-        <v>9420300</v>
+        <v>10314800</v>
       </c>
       <c r="K49" s="3">
         <v>3639700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1934500</v>
+        <v>2118200</v>
       </c>
       <c r="E52" s="3">
-        <v>1709200</v>
+        <v>1871500</v>
       </c>
       <c r="F52" s="3">
-        <v>1272600</v>
+        <v>1393400</v>
       </c>
       <c r="G52" s="3">
-        <v>1216900</v>
+        <v>1332500</v>
       </c>
       <c r="H52" s="3">
-        <v>725800</v>
+        <v>794700</v>
       </c>
       <c r="I52" s="3">
-        <v>454300</v>
+        <v>497500</v>
       </c>
       <c r="J52" s="3">
-        <v>782100</v>
+        <v>856400</v>
       </c>
       <c r="K52" s="3">
         <v>170100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29071900</v>
+        <v>31832400</v>
       </c>
       <c r="E54" s="3">
-        <v>26283000</v>
+        <v>28778700</v>
       </c>
       <c r="F54" s="3">
-        <v>26837500</v>
+        <v>29385900</v>
       </c>
       <c r="G54" s="3">
-        <v>24880400</v>
+        <v>27243000</v>
       </c>
       <c r="H54" s="3">
-        <v>18665600</v>
+        <v>20438000</v>
       </c>
       <c r="I54" s="3">
-        <v>17153500</v>
+        <v>18782300</v>
       </c>
       <c r="J54" s="3">
-        <v>16379200</v>
+        <v>17934500</v>
       </c>
       <c r="K54" s="3">
         <v>15865500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3496400</v>
+        <v>3828400</v>
       </c>
       <c r="E57" s="3">
-        <v>2994500</v>
+        <v>3278900</v>
       </c>
       <c r="F57" s="3">
-        <v>3017000</v>
+        <v>3303500</v>
       </c>
       <c r="G57" s="3">
-        <v>2694500</v>
+        <v>2950300</v>
       </c>
       <c r="H57" s="3">
-        <v>2052400</v>
+        <v>2247300</v>
       </c>
       <c r="I57" s="3">
-        <v>1561600</v>
+        <v>1709900</v>
       </c>
       <c r="J57" s="3">
-        <v>1529600</v>
+        <v>1674800</v>
       </c>
       <c r="K57" s="3">
         <v>1833700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1075700</v>
+        <v>1177900</v>
       </c>
       <c r="E58" s="3">
-        <v>623500</v>
+        <v>682700</v>
       </c>
       <c r="F58" s="3">
-        <v>619700</v>
+        <v>678500</v>
       </c>
       <c r="G58" s="3">
-        <v>332000</v>
+        <v>363500</v>
       </c>
       <c r="H58" s="3">
-        <v>538300</v>
+        <v>589400</v>
       </c>
       <c r="I58" s="3">
-        <v>70800</v>
+        <v>77500</v>
       </c>
       <c r="J58" s="3">
-        <v>174500</v>
+        <v>191100</v>
       </c>
       <c r="K58" s="3">
         <v>466500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1653800</v>
+        <v>1810800</v>
       </c>
       <c r="E59" s="3">
-        <v>1008700</v>
+        <v>1104500</v>
       </c>
       <c r="F59" s="3">
-        <v>1152300</v>
+        <v>1261700</v>
       </c>
       <c r="G59" s="3">
-        <v>908300</v>
+        <v>994600</v>
       </c>
       <c r="H59" s="3">
-        <v>1321000</v>
+        <v>1446500</v>
       </c>
       <c r="I59" s="3">
-        <v>616600</v>
+        <v>675100</v>
       </c>
       <c r="J59" s="3">
-        <v>2270700</v>
+        <v>2486300</v>
       </c>
       <c r="K59" s="3">
         <v>300700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6226000</v>
+        <v>6817100</v>
       </c>
       <c r="E60" s="3">
-        <v>4626800</v>
+        <v>5066100</v>
       </c>
       <c r="F60" s="3">
-        <v>4789000</v>
+        <v>5243700</v>
       </c>
       <c r="G60" s="3">
-        <v>3934800</v>
+        <v>4308400</v>
       </c>
       <c r="H60" s="3">
-        <v>2979800</v>
+        <v>3262700</v>
       </c>
       <c r="I60" s="3">
-        <v>2248900</v>
+        <v>2462500</v>
       </c>
       <c r="J60" s="3">
-        <v>2228400</v>
+        <v>2440000</v>
       </c>
       <c r="K60" s="3">
         <v>2600900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6796200</v>
+        <v>7441500</v>
       </c>
       <c r="E61" s="3">
-        <v>5243500</v>
+        <v>5741500</v>
       </c>
       <c r="F61" s="3">
-        <v>5369800</v>
+        <v>5879700</v>
       </c>
       <c r="G61" s="3">
-        <v>6017700</v>
+        <v>6589100</v>
       </c>
       <c r="H61" s="3">
-        <v>3920200</v>
+        <v>4292500</v>
       </c>
       <c r="I61" s="3">
-        <v>3781800</v>
+        <v>4140900</v>
       </c>
       <c r="J61" s="3">
-        <v>3291600</v>
+        <v>3604200</v>
       </c>
       <c r="K61" s="3">
         <v>1535400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1195500</v>
+        <v>1309000</v>
       </c>
       <c r="E62" s="3">
-        <v>1112000</v>
+        <v>1217500</v>
       </c>
       <c r="F62" s="3">
-        <v>1315500</v>
+        <v>1440400</v>
       </c>
       <c r="G62" s="3">
-        <v>1878600</v>
+        <v>2057000</v>
       </c>
       <c r="H62" s="3">
-        <v>952400</v>
+        <v>1042800</v>
       </c>
       <c r="I62" s="3">
-        <v>629100</v>
+        <v>688900</v>
       </c>
       <c r="J62" s="3">
-        <v>1388100</v>
+        <v>1519900</v>
       </c>
       <c r="K62" s="3">
         <v>462400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17581200</v>
+        <v>19250600</v>
       </c>
       <c r="E66" s="3">
-        <v>14561400</v>
+        <v>15944000</v>
       </c>
       <c r="F66" s="3">
-        <v>15424200</v>
+        <v>16888800</v>
       </c>
       <c r="G66" s="3">
-        <v>15217600</v>
+        <v>16662600</v>
       </c>
       <c r="H66" s="3">
-        <v>10388100</v>
+        <v>11374500</v>
       </c>
       <c r="I66" s="3">
-        <v>9379900</v>
+        <v>10270600</v>
       </c>
       <c r="J66" s="3">
-        <v>6230900</v>
+        <v>6822500</v>
       </c>
       <c r="K66" s="3">
         <v>7542000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10478600</v>
+        <v>11473600</v>
       </c>
       <c r="E72" s="3">
-        <v>9931800</v>
+        <v>10874900</v>
       </c>
       <c r="F72" s="3">
-        <v>9205200</v>
+        <v>10079300</v>
       </c>
       <c r="G72" s="3">
-        <v>7697100</v>
+        <v>8428000</v>
       </c>
       <c r="H72" s="3">
-        <v>7165500</v>
+        <v>7845900</v>
       </c>
       <c r="I72" s="3">
-        <v>6708800</v>
+        <v>7345800</v>
       </c>
       <c r="J72" s="3">
-        <v>5966300</v>
+        <v>6532800</v>
       </c>
       <c r="K72" s="3">
         <v>6889300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11490700</v>
+        <v>12581800</v>
       </c>
       <c r="E76" s="3">
-        <v>11721600</v>
+        <v>12834700</v>
       </c>
       <c r="F76" s="3">
-        <v>11413300</v>
+        <v>12497000</v>
       </c>
       <c r="G76" s="3">
-        <v>9662800</v>
+        <v>10580400</v>
       </c>
       <c r="H76" s="3">
-        <v>8277500</v>
+        <v>9063500</v>
       </c>
       <c r="I76" s="3">
-        <v>7773600</v>
+        <v>8511700</v>
       </c>
       <c r="J76" s="3">
-        <v>10148300</v>
+        <v>11111900</v>
       </c>
       <c r="K76" s="3">
         <v>8323400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>943900</v>
+        <v>1033500</v>
       </c>
       <c r="E81" s="3">
-        <v>1093900</v>
+        <v>1197800</v>
       </c>
       <c r="F81" s="3">
-        <v>1933800</v>
+        <v>2117400</v>
       </c>
       <c r="G81" s="3">
-        <v>964000</v>
+        <v>1055500</v>
       </c>
       <c r="H81" s="3">
-        <v>806300</v>
+        <v>882900</v>
       </c>
       <c r="I81" s="3">
-        <v>761600</v>
+        <v>833900</v>
       </c>
       <c r="J81" s="3">
-        <v>726000</v>
+        <v>795000</v>
       </c>
       <c r="K81" s="3">
         <v>1110100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1176900</v>
+        <v>1288700</v>
       </c>
       <c r="E83" s="3">
-        <v>786000</v>
+        <v>860600</v>
       </c>
       <c r="F83" s="3">
-        <v>713200</v>
+        <v>780900</v>
       </c>
       <c r="G83" s="3">
-        <v>625100</v>
+        <v>684500</v>
       </c>
       <c r="H83" s="3">
-        <v>493600</v>
+        <v>540500</v>
       </c>
       <c r="I83" s="3">
-        <v>456600</v>
+        <v>500000</v>
       </c>
       <c r="J83" s="3">
-        <v>442100</v>
+        <v>484100</v>
       </c>
       <c r="K83" s="3">
         <v>423000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2810700</v>
+        <v>3077600</v>
       </c>
       <c r="E89" s="3">
-        <v>2206000</v>
+        <v>2415500</v>
       </c>
       <c r="F89" s="3">
-        <v>1936600</v>
+        <v>2120500</v>
       </c>
       <c r="G89" s="3">
-        <v>2286000</v>
+        <v>2503000</v>
       </c>
       <c r="H89" s="3">
-        <v>1675500</v>
+        <v>1834500</v>
       </c>
       <c r="I89" s="3">
-        <v>1703800</v>
+        <v>1865600</v>
       </c>
       <c r="J89" s="3">
-        <v>1311400</v>
+        <v>1435900</v>
       </c>
       <c r="K89" s="3">
         <v>1650400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1099200</v>
+        <v>-1203600</v>
       </c>
       <c r="E91" s="3">
-        <v>-984200</v>
+        <v>-1077700</v>
       </c>
       <c r="F91" s="3">
-        <v>-888500</v>
+        <v>-972800</v>
       </c>
       <c r="G91" s="3">
-        <v>-870200</v>
+        <v>-952800</v>
       </c>
       <c r="H91" s="3">
-        <v>-797300</v>
+        <v>-873000</v>
       </c>
       <c r="I91" s="3">
-        <v>-774500</v>
+        <v>-848100</v>
       </c>
       <c r="J91" s="3">
-        <v>-746900</v>
+        <v>-817900</v>
       </c>
       <c r="K91" s="3">
         <v>-795800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-644400</v>
+        <v>-705600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2629400</v>
+        <v>-2879100</v>
       </c>
       <c r="F94" s="3">
-        <v>1304000</v>
+        <v>1427800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1762200</v>
+        <v>-1929500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1293200</v>
+        <v>-1415900</v>
       </c>
       <c r="I94" s="3">
-        <v>-711700</v>
+        <v>-779300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2518500</v>
+        <v>-2757700</v>
       </c>
       <c r="K94" s="3">
         <v>-785000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-621500</v>
+        <v>-680500</v>
       </c>
       <c r="E96" s="3">
-        <v>-589700</v>
+        <v>-645700</v>
       </c>
       <c r="F96" s="3">
-        <v>-567700</v>
+        <v>-621600</v>
       </c>
       <c r="G96" s="3">
-        <v>-549300</v>
+        <v>-601400</v>
       </c>
       <c r="H96" s="3">
-        <v>-488000</v>
+        <v>-534300</v>
       </c>
       <c r="I96" s="3">
-        <v>-143700</v>
+        <v>-157400</v>
       </c>
       <c r="J96" s="3">
-        <v>-752100</v>
+        <v>-823500</v>
       </c>
       <c r="K96" s="3">
         <v>-492500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1752500</v>
+        <v>-1919000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1049300</v>
+        <v>-1148900</v>
       </c>
       <c r="F100" s="3">
-        <v>-960100</v>
+        <v>-1051200</v>
       </c>
       <c r="G100" s="3">
-        <v>59100</v>
+        <v>64800</v>
       </c>
       <c r="H100" s="3">
-        <v>-626600</v>
+        <v>-686100</v>
       </c>
       <c r="I100" s="3">
-        <v>-423500</v>
+        <v>-463700</v>
       </c>
       <c r="J100" s="3">
-        <v>938600</v>
+        <v>1027800</v>
       </c>
       <c r="K100" s="3">
         <v>-183200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-253400</v>
+        <v>-277500</v>
       </c>
       <c r="E101" s="3">
-        <v>-118700</v>
+        <v>-129900</v>
       </c>
       <c r="F101" s="3">
-        <v>150300</v>
+        <v>164500</v>
       </c>
       <c r="G101" s="3">
-        <v>66500</v>
+        <v>72800</v>
       </c>
       <c r="H101" s="3">
-        <v>-33900</v>
+        <v>-37100</v>
       </c>
       <c r="I101" s="3">
-        <v>-192900</v>
+        <v>-211200</v>
       </c>
       <c r="J101" s="3">
-        <v>-153800</v>
+        <v>-168400</v>
       </c>
       <c r="K101" s="3">
         <v>-109600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>160300</v>
+        <v>175500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1591300</v>
+        <v>-1742500</v>
       </c>
       <c r="F102" s="3">
-        <v>2430800</v>
+        <v>2661600</v>
       </c>
       <c r="G102" s="3">
-        <v>649400</v>
+        <v>711100</v>
       </c>
       <c r="H102" s="3">
-        <v>-278200</v>
+        <v>-304600</v>
       </c>
       <c r="I102" s="3">
-        <v>375700</v>
+        <v>411300</v>
       </c>
       <c r="J102" s="3">
-        <v>-422300</v>
+        <v>-462500</v>
       </c>
       <c r="K102" s="3">
         <v>572600</v>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>FMX</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25300100</v>
+        <v>24509600</v>
       </c>
       <c r="E8" s="3">
-        <v>23454300</v>
+        <v>22721500</v>
       </c>
       <c r="F8" s="3">
-        <v>21965800</v>
+        <v>21279500</v>
       </c>
       <c r="G8" s="3">
-        <v>19947400</v>
+        <v>19324200</v>
       </c>
       <c r="H8" s="3">
-        <v>15557600</v>
+        <v>15071600</v>
       </c>
       <c r="I8" s="3">
-        <v>13154000</v>
+        <v>12743000</v>
       </c>
       <c r="J8" s="3">
-        <v>12886800</v>
+        <v>12484200</v>
       </c>
       <c r="K8" s="3">
         <v>12775700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15739400</v>
+        <v>15247700</v>
       </c>
       <c r="E9" s="3">
-        <v>14708100</v>
+        <v>14248500</v>
       </c>
       <c r="F9" s="3">
-        <v>13872700</v>
+        <v>13439200</v>
       </c>
       <c r="G9" s="3">
-        <v>12547600</v>
+        <v>12155500</v>
       </c>
       <c r="H9" s="3">
-        <v>9407300</v>
+        <v>9113400</v>
       </c>
       <c r="I9" s="3">
-        <v>7653200</v>
+        <v>7414100</v>
       </c>
       <c r="J9" s="3">
-        <v>7411800</v>
+        <v>7180200</v>
       </c>
       <c r="K9" s="3">
         <v>7345100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9560600</v>
+        <v>9261900</v>
       </c>
       <c r="E10" s="3">
-        <v>8746200</v>
+        <v>8473000</v>
       </c>
       <c r="F10" s="3">
-        <v>8093200</v>
+        <v>7840300</v>
       </c>
       <c r="G10" s="3">
-        <v>7399800</v>
+        <v>7168600</v>
       </c>
       <c r="H10" s="3">
-        <v>6150300</v>
+        <v>5958200</v>
       </c>
       <c r="I10" s="3">
-        <v>5500800</v>
+        <v>5329000</v>
       </c>
       <c r="J10" s="3">
-        <v>5475000</v>
+        <v>5304000</v>
       </c>
       <c r="K10" s="3">
         <v>5430700</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>49800</v>
+        <v>48200</v>
       </c>
       <c r="E14" s="3">
-        <v>20900</v>
+        <v>20300</v>
       </c>
       <c r="F14" s="3">
-        <v>102900</v>
+        <v>99600</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="I14" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>74600</v>
+        <v>72300</v>
       </c>
       <c r="E15" s="3">
-        <v>75600</v>
+        <v>73200</v>
       </c>
       <c r="F15" s="3">
-        <v>56300</v>
+        <v>54500</v>
       </c>
       <c r="G15" s="3">
-        <v>41800</v>
+        <v>40500</v>
       </c>
       <c r="H15" s="3">
-        <v>27100</v>
+        <v>26300</v>
       </c>
       <c r="I15" s="3">
-        <v>20500</v>
+        <v>19900</v>
       </c>
       <c r="J15" s="3">
-        <v>20300</v>
+        <v>19600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23013900</v>
+        <v>22294800</v>
       </c>
       <c r="E17" s="3">
-        <v>21406700</v>
+        <v>20737900</v>
       </c>
       <c r="F17" s="3">
-        <v>20014900</v>
+        <v>19389500</v>
       </c>
       <c r="G17" s="3">
-        <v>18291000</v>
+        <v>17719500</v>
       </c>
       <c r="H17" s="3">
-        <v>13920900</v>
+        <v>13485900</v>
       </c>
       <c r="I17" s="3">
-        <v>11619600</v>
+        <v>11256500</v>
       </c>
       <c r="J17" s="3">
-        <v>11422400</v>
+        <v>11065500</v>
       </c>
       <c r="K17" s="3">
         <v>11197800</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2286200</v>
+        <v>2214800</v>
       </c>
       <c r="E18" s="3">
-        <v>2047600</v>
+        <v>1983700</v>
       </c>
       <c r="F18" s="3">
-        <v>1950900</v>
+        <v>1890000</v>
       </c>
       <c r="G18" s="3">
-        <v>1656400</v>
+        <v>1604700</v>
       </c>
       <c r="H18" s="3">
-        <v>1636800</v>
+        <v>1585600</v>
       </c>
       <c r="I18" s="3">
-        <v>1534400</v>
+        <v>1486500</v>
       </c>
       <c r="J18" s="3">
-        <v>1464400</v>
+        <v>1418600</v>
       </c>
       <c r="K18" s="3">
         <v>1578000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-352400</v>
+        <v>-341400</v>
       </c>
       <c r="E20" s="3">
-        <v>-31200</v>
+        <v>-30200</v>
       </c>
       <c r="F20" s="3">
-        <v>153000</v>
+        <v>148300</v>
       </c>
       <c r="G20" s="3">
-        <v>52100</v>
+        <v>50400</v>
       </c>
       <c r="H20" s="3">
-        <v>-154400</v>
+        <v>-149600</v>
       </c>
       <c r="I20" s="3">
-        <v>-155100</v>
+        <v>-150300</v>
       </c>
       <c r="J20" s="3">
-        <v>-61700</v>
+        <v>-59800</v>
       </c>
       <c r="K20" s="3">
         <v>32300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3222500</v>
+        <v>3107100</v>
       </c>
       <c r="E21" s="3">
-        <v>2877100</v>
+        <v>2777400</v>
       </c>
       <c r="F21" s="3">
-        <v>2884900</v>
+        <v>2785800</v>
       </c>
       <c r="G21" s="3">
-        <v>2393000</v>
+        <v>2310400</v>
       </c>
       <c r="H21" s="3">
-        <v>2022900</v>
+        <v>1953500</v>
       </c>
       <c r="I21" s="3">
-        <v>1879300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1886800</v>
+        <v>1814900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>2034600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>321200</v>
+        <v>311200</v>
       </c>
       <c r="E22" s="3">
-        <v>337300</v>
+        <v>326700</v>
       </c>
       <c r="F22" s="3">
-        <v>317900</v>
+        <v>308000</v>
       </c>
       <c r="G22" s="3">
-        <v>282700</v>
+        <v>273900</v>
       </c>
       <c r="H22" s="3">
-        <v>226000</v>
+        <v>218900</v>
       </c>
       <c r="I22" s="3">
-        <v>193800</v>
+        <v>187700</v>
       </c>
       <c r="J22" s="3">
-        <v>150400</v>
+        <v>145700</v>
       </c>
       <c r="K22" s="3">
         <v>134300</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1612500</v>
+        <v>1562200</v>
       </c>
       <c r="E23" s="3">
-        <v>1679100</v>
+        <v>1626700</v>
       </c>
       <c r="F23" s="3">
-        <v>1786000</v>
+        <v>1730200</v>
       </c>
       <c r="G23" s="3">
-        <v>1425800</v>
+        <v>1381300</v>
       </c>
       <c r="H23" s="3">
-        <v>1256400</v>
+        <v>1217100</v>
       </c>
       <c r="I23" s="3">
-        <v>1185500</v>
+        <v>1148500</v>
       </c>
       <c r="J23" s="3">
-        <v>1252200</v>
+        <v>1213100</v>
       </c>
       <c r="K23" s="3">
         <v>1475900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>523100</v>
+        <v>506700</v>
       </c>
       <c r="E24" s="3">
-        <v>507700</v>
+        <v>491900</v>
       </c>
       <c r="F24" s="3">
-        <v>509900</v>
+        <v>494000</v>
       </c>
       <c r="G24" s="3">
-        <v>393800</v>
+        <v>381500</v>
       </c>
       <c r="H24" s="3">
-        <v>396000</v>
+        <v>383700</v>
       </c>
       <c r="I24" s="3">
-        <v>312200</v>
+        <v>302500</v>
       </c>
       <c r="J24" s="3">
-        <v>387300</v>
+        <v>375200</v>
       </c>
       <c r="K24" s="3">
         <v>426100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1089500</v>
+        <v>1055400</v>
       </c>
       <c r="E26" s="3">
-        <v>1171400</v>
+        <v>1134800</v>
       </c>
       <c r="F26" s="3">
-        <v>1276100</v>
+        <v>1236200</v>
       </c>
       <c r="G26" s="3">
-        <v>1032000</v>
+        <v>999700</v>
       </c>
       <c r="H26" s="3">
-        <v>860300</v>
+        <v>833500</v>
       </c>
       <c r="I26" s="3">
-        <v>873300</v>
+        <v>846000</v>
       </c>
       <c r="J26" s="3">
-        <v>865000</v>
+        <v>838000</v>
       </c>
       <c r="K26" s="3">
         <v>1049700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1033500</v>
+        <v>1001200</v>
       </c>
       <c r="E27" s="3">
-        <v>1029800</v>
+        <v>997600</v>
       </c>
       <c r="F27" s="3">
-        <v>1931400</v>
+        <v>1871000</v>
       </c>
       <c r="G27" s="3">
-        <v>1055500</v>
+        <v>1022500</v>
       </c>
       <c r="H27" s="3">
-        <v>882900</v>
+        <v>855300</v>
       </c>
       <c r="I27" s="3">
-        <v>833900</v>
+        <v>807800</v>
       </c>
       <c r="J27" s="3">
-        <v>795000</v>
+        <v>770100</v>
       </c>
       <c r="K27" s="3">
         <v>1110100</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>168100</v>
+        <v>162800</v>
       </c>
       <c r="F29" s="3">
-        <v>186000</v>
+        <v>180200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>352400</v>
+        <v>341400</v>
       </c>
       <c r="E32" s="3">
-        <v>31200</v>
+        <v>30200</v>
       </c>
       <c r="F32" s="3">
-        <v>-153000</v>
+        <v>-148300</v>
       </c>
       <c r="G32" s="3">
-        <v>-52100</v>
+        <v>-50400</v>
       </c>
       <c r="H32" s="3">
-        <v>154400</v>
+        <v>149600</v>
       </c>
       <c r="I32" s="3">
-        <v>155100</v>
+        <v>150300</v>
       </c>
       <c r="J32" s="3">
-        <v>61700</v>
+        <v>59800</v>
       </c>
       <c r="K32" s="3">
         <v>-32300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1033500</v>
+        <v>1001200</v>
       </c>
       <c r="E33" s="3">
-        <v>1197800</v>
+        <v>1160400</v>
       </c>
       <c r="F33" s="3">
-        <v>2117400</v>
+        <v>2051300</v>
       </c>
       <c r="G33" s="3">
-        <v>1055500</v>
+        <v>1022500</v>
       </c>
       <c r="H33" s="3">
-        <v>882900</v>
+        <v>855300</v>
       </c>
       <c r="I33" s="3">
-        <v>833900</v>
+        <v>807800</v>
       </c>
       <c r="J33" s="3">
-        <v>795000</v>
+        <v>770100</v>
       </c>
       <c r="K33" s="3">
         <v>1110100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1033500</v>
+        <v>1001200</v>
       </c>
       <c r="E35" s="3">
-        <v>1197800</v>
+        <v>1160400</v>
       </c>
       <c r="F35" s="3">
-        <v>2117400</v>
+        <v>2051300</v>
       </c>
       <c r="G35" s="3">
-        <v>1055500</v>
+        <v>1022500</v>
       </c>
       <c r="H35" s="3">
-        <v>882900</v>
+        <v>855300</v>
       </c>
       <c r="I35" s="3">
-        <v>833900</v>
+        <v>807800</v>
       </c>
       <c r="J35" s="3">
-        <v>795000</v>
+        <v>770100</v>
       </c>
       <c r="K35" s="3">
         <v>1110100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3273500</v>
+        <v>3171200</v>
       </c>
       <c r="E41" s="3">
-        <v>3098000</v>
+        <v>3001200</v>
       </c>
       <c r="F41" s="3">
-        <v>4840400</v>
+        <v>4689200</v>
       </c>
       <c r="G41" s="3">
-        <v>2178800</v>
+        <v>2110700</v>
       </c>
       <c r="H41" s="3">
-        <v>1467800</v>
+        <v>1421900</v>
       </c>
       <c r="I41" s="3">
-        <v>1772400</v>
+        <v>1717000</v>
       </c>
       <c r="J41" s="3">
-        <v>2728400</v>
+        <v>2643100</v>
       </c>
       <c r="K41" s="3">
         <v>1957900</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>617400</v>
+        <v>598100</v>
       </c>
       <c r="E42" s="3">
-        <v>1544000</v>
+        <v>1495800</v>
       </c>
       <c r="F42" s="3">
-        <v>107800</v>
+        <v>104500</v>
       </c>
       <c r="G42" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="H42" s="3">
-        <v>122600</v>
+        <v>118800</v>
       </c>
       <c r="I42" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J42" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="K42" s="3">
         <v>91200</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2418600</v>
+        <v>2343000</v>
       </c>
       <c r="E43" s="3">
-        <v>2231600</v>
+        <v>2161800</v>
       </c>
       <c r="F43" s="3">
-        <v>2177900</v>
+        <v>2109900</v>
       </c>
       <c r="G43" s="3">
-        <v>1770600</v>
+        <v>1715300</v>
       </c>
       <c r="H43" s="3">
-        <v>2076800</v>
+        <v>2011900</v>
       </c>
       <c r="I43" s="3">
-        <v>1142000</v>
+        <v>1106300</v>
       </c>
       <c r="J43" s="3">
-        <v>1818600</v>
+        <v>1761800</v>
       </c>
       <c r="K43" s="3">
         <v>969800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2048300</v>
+        <v>1984300</v>
       </c>
       <c r="E44" s="3">
-        <v>1781800</v>
+        <v>1726100</v>
       </c>
       <c r="F44" s="3">
-        <v>1739600</v>
+        <v>1685200</v>
       </c>
       <c r="G44" s="3">
-        <v>1594400</v>
+        <v>1544600</v>
       </c>
       <c r="H44" s="3">
-        <v>1232300</v>
+        <v>1193800</v>
       </c>
       <c r="I44" s="3">
-        <v>859500</v>
+        <v>832600</v>
       </c>
       <c r="J44" s="3">
-        <v>1826300</v>
+        <v>1769300</v>
       </c>
       <c r="K44" s="3">
         <v>876300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>259000</v>
+        <v>250900</v>
       </c>
       <c r="E45" s="3">
-        <v>212500</v>
+        <v>205900</v>
       </c>
       <c r="F45" s="3">
-        <v>181000</v>
+        <v>175300</v>
       </c>
       <c r="G45" s="3">
-        <v>339500</v>
+        <v>328900</v>
       </c>
       <c r="H45" s="3">
-        <v>426200</v>
+        <v>412800</v>
       </c>
       <c r="I45" s="3">
-        <v>169000</v>
+        <v>163700</v>
       </c>
       <c r="J45" s="3">
-        <v>951400</v>
+        <v>921600</v>
       </c>
       <c r="K45" s="3">
         <v>150100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8616900</v>
+        <v>8347600</v>
       </c>
       <c r="E46" s="3">
-        <v>8867900</v>
+        <v>8590900</v>
       </c>
       <c r="F46" s="3">
-        <v>9046700</v>
+        <v>8764100</v>
       </c>
       <c r="G46" s="3">
-        <v>5889300</v>
+        <v>5705300</v>
       </c>
       <c r="H46" s="3">
-        <v>4330100</v>
+        <v>4194800</v>
       </c>
       <c r="I46" s="3">
-        <v>3950100</v>
+        <v>3826600</v>
       </c>
       <c r="J46" s="3">
-        <v>3673300</v>
+        <v>3558500</v>
       </c>
       <c r="K46" s="3">
         <v>4045100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5431300</v>
+        <v>5261600</v>
       </c>
       <c r="E47" s="3">
-        <v>5346500</v>
+        <v>5179500</v>
       </c>
       <c r="F47" s="3">
-        <v>5424400</v>
+        <v>5255000</v>
       </c>
       <c r="G47" s="3">
-        <v>7264500</v>
+        <v>7037500</v>
       </c>
       <c r="H47" s="3">
-        <v>6108700</v>
+        <v>5917900</v>
       </c>
       <c r="I47" s="3">
-        <v>5489400</v>
+        <v>5317900</v>
       </c>
       <c r="J47" s="3">
-        <v>5048300</v>
+        <v>4890500</v>
       </c>
       <c r="K47" s="3">
         <v>4705500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8348100</v>
+        <v>8087300</v>
       </c>
       <c r="E48" s="3">
-        <v>5422500</v>
+        <v>5253100</v>
       </c>
       <c r="F48" s="3">
-        <v>5827400</v>
+        <v>5645400</v>
       </c>
       <c r="G48" s="3">
-        <v>5104000</v>
+        <v>4944500</v>
       </c>
       <c r="H48" s="3">
-        <v>8018300</v>
+        <v>7767800</v>
       </c>
       <c r="I48" s="3">
-        <v>3776200</v>
+        <v>3658200</v>
       </c>
       <c r="J48" s="3">
-        <v>7385100</v>
+        <v>7154400</v>
       </c>
       <c r="K48" s="3">
         <v>3305000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7317800</v>
+        <v>7089200</v>
       </c>
       <c r="E49" s="3">
-        <v>7270300</v>
+        <v>7043200</v>
       </c>
       <c r="F49" s="3">
-        <v>7693900</v>
+        <v>7453500</v>
       </c>
       <c r="G49" s="3">
-        <v>7652700</v>
+        <v>7413600</v>
       </c>
       <c r="H49" s="3">
-        <v>10818900</v>
+        <v>10480900</v>
       </c>
       <c r="I49" s="3">
-        <v>5069200</v>
+        <v>4910900</v>
       </c>
       <c r="J49" s="3">
-        <v>10314800</v>
+        <v>9992600</v>
       </c>
       <c r="K49" s="3">
         <v>3639700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2118200</v>
+        <v>2052000</v>
       </c>
       <c r="E52" s="3">
-        <v>1871500</v>
+        <v>1813000</v>
       </c>
       <c r="F52" s="3">
-        <v>1393400</v>
+        <v>1349900</v>
       </c>
       <c r="G52" s="3">
-        <v>1332500</v>
+        <v>1290900</v>
       </c>
       <c r="H52" s="3">
-        <v>794700</v>
+        <v>769900</v>
       </c>
       <c r="I52" s="3">
-        <v>497500</v>
+        <v>481900</v>
       </c>
       <c r="J52" s="3">
-        <v>856400</v>
+        <v>829600</v>
       </c>
       <c r="K52" s="3">
         <v>170100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31832400</v>
+        <v>30837900</v>
       </c>
       <c r="E54" s="3">
-        <v>28778700</v>
+        <v>27879500</v>
       </c>
       <c r="F54" s="3">
-        <v>29385900</v>
+        <v>28467700</v>
       </c>
       <c r="G54" s="3">
-        <v>27243000</v>
+        <v>26391800</v>
       </c>
       <c r="H54" s="3">
-        <v>20438000</v>
+        <v>19799400</v>
       </c>
       <c r="I54" s="3">
-        <v>18782300</v>
+        <v>18195500</v>
       </c>
       <c r="J54" s="3">
-        <v>17934500</v>
+        <v>17374100</v>
       </c>
       <c r="K54" s="3">
         <v>15865500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3828400</v>
+        <v>3708800</v>
       </c>
       <c r="E57" s="3">
-        <v>3278900</v>
+        <v>3176400</v>
       </c>
       <c r="F57" s="3">
-        <v>3303500</v>
+        <v>3200300</v>
       </c>
       <c r="G57" s="3">
-        <v>2950300</v>
+        <v>2858100</v>
       </c>
       <c r="H57" s="3">
-        <v>2247300</v>
+        <v>2177100</v>
       </c>
       <c r="I57" s="3">
-        <v>1709900</v>
+        <v>1656400</v>
       </c>
       <c r="J57" s="3">
-        <v>1674800</v>
+        <v>1622500</v>
       </c>
       <c r="K57" s="3">
         <v>1833700</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1177900</v>
+        <v>1141100</v>
       </c>
       <c r="E58" s="3">
-        <v>682700</v>
+        <v>661400</v>
       </c>
       <c r="F58" s="3">
-        <v>678500</v>
+        <v>657300</v>
       </c>
       <c r="G58" s="3">
-        <v>363500</v>
+        <v>352200</v>
       </c>
       <c r="H58" s="3">
-        <v>589400</v>
+        <v>571000</v>
       </c>
       <c r="I58" s="3">
-        <v>77500</v>
+        <v>75100</v>
       </c>
       <c r="J58" s="3">
-        <v>191100</v>
+        <v>185100</v>
       </c>
       <c r="K58" s="3">
         <v>466500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1810800</v>
+        <v>1754200</v>
       </c>
       <c r="E59" s="3">
-        <v>1104500</v>
+        <v>1070000</v>
       </c>
       <c r="F59" s="3">
-        <v>1261700</v>
+        <v>1222300</v>
       </c>
       <c r="G59" s="3">
-        <v>994600</v>
+        <v>963500</v>
       </c>
       <c r="H59" s="3">
-        <v>1446500</v>
+        <v>1401300</v>
       </c>
       <c r="I59" s="3">
-        <v>675100</v>
+        <v>654000</v>
       </c>
       <c r="J59" s="3">
-        <v>2486300</v>
+        <v>2408600</v>
       </c>
       <c r="K59" s="3">
         <v>300700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6817100</v>
+        <v>6604100</v>
       </c>
       <c r="E60" s="3">
-        <v>5066100</v>
+        <v>4907800</v>
       </c>
       <c r="F60" s="3">
-        <v>5243700</v>
+        <v>5079900</v>
       </c>
       <c r="G60" s="3">
-        <v>4308400</v>
+        <v>4173800</v>
       </c>
       <c r="H60" s="3">
-        <v>3262700</v>
+        <v>3160800</v>
       </c>
       <c r="I60" s="3">
-        <v>2462500</v>
+        <v>2385600</v>
       </c>
       <c r="J60" s="3">
-        <v>2440000</v>
+        <v>2363800</v>
       </c>
       <c r="K60" s="3">
         <v>2600900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7441500</v>
+        <v>7209000</v>
       </c>
       <c r="E61" s="3">
-        <v>5741500</v>
+        <v>5562100</v>
       </c>
       <c r="F61" s="3">
-        <v>5879700</v>
+        <v>5696000</v>
       </c>
       <c r="G61" s="3">
-        <v>6589100</v>
+        <v>6383200</v>
       </c>
       <c r="H61" s="3">
-        <v>4292500</v>
+        <v>4158300</v>
       </c>
       <c r="I61" s="3">
-        <v>4140900</v>
+        <v>4011600</v>
       </c>
       <c r="J61" s="3">
-        <v>3604200</v>
+        <v>3491600</v>
       </c>
       <c r="K61" s="3">
         <v>1535400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1309000</v>
+        <v>1268100</v>
       </c>
       <c r="E62" s="3">
-        <v>1217500</v>
+        <v>1179500</v>
       </c>
       <c r="F62" s="3">
-        <v>1440400</v>
+        <v>1395400</v>
       </c>
       <c r="G62" s="3">
-        <v>2057000</v>
+        <v>1992700</v>
       </c>
       <c r="H62" s="3">
-        <v>1042800</v>
+        <v>1010200</v>
       </c>
       <c r="I62" s="3">
-        <v>688900</v>
+        <v>667400</v>
       </c>
       <c r="J62" s="3">
-        <v>1519900</v>
+        <v>1472400</v>
       </c>
       <c r="K62" s="3">
         <v>462400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19250600</v>
+        <v>18649200</v>
       </c>
       <c r="E66" s="3">
-        <v>15944000</v>
+        <v>15445900</v>
       </c>
       <c r="F66" s="3">
-        <v>16888800</v>
+        <v>16361200</v>
       </c>
       <c r="G66" s="3">
-        <v>16662600</v>
+        <v>16142000</v>
       </c>
       <c r="H66" s="3">
-        <v>11374500</v>
+        <v>11019100</v>
       </c>
       <c r="I66" s="3">
-        <v>10270600</v>
+        <v>9949700</v>
       </c>
       <c r="J66" s="3">
-        <v>6822500</v>
+        <v>6609400</v>
       </c>
       <c r="K66" s="3">
         <v>7542000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11473600</v>
+        <v>11115100</v>
       </c>
       <c r="E72" s="3">
-        <v>10874900</v>
+        <v>10535100</v>
       </c>
       <c r="F72" s="3">
-        <v>10079300</v>
+        <v>9764400</v>
       </c>
       <c r="G72" s="3">
-        <v>8428000</v>
+        <v>8164700</v>
       </c>
       <c r="H72" s="3">
-        <v>7845900</v>
+        <v>7600800</v>
       </c>
       <c r="I72" s="3">
-        <v>7345800</v>
+        <v>7116300</v>
       </c>
       <c r="J72" s="3">
-        <v>6532800</v>
+        <v>6328700</v>
       </c>
       <c r="K72" s="3">
         <v>6889300</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12581800</v>
+        <v>12188700</v>
       </c>
       <c r="E76" s="3">
-        <v>12834700</v>
+        <v>12433700</v>
       </c>
       <c r="F76" s="3">
-        <v>12497000</v>
+        <v>12106600</v>
       </c>
       <c r="G76" s="3">
-        <v>10580400</v>
+        <v>10249800</v>
       </c>
       <c r="H76" s="3">
-        <v>9063500</v>
+        <v>8780300</v>
       </c>
       <c r="I76" s="3">
-        <v>8511700</v>
+        <v>8245800</v>
       </c>
       <c r="J76" s="3">
-        <v>11111900</v>
+        <v>10764700</v>
       </c>
       <c r="K76" s="3">
         <v>8323400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1033500</v>
+        <v>1001200</v>
       </c>
       <c r="E81" s="3">
-        <v>1197800</v>
+        <v>1160400</v>
       </c>
       <c r="F81" s="3">
-        <v>2117400</v>
+        <v>2051300</v>
       </c>
       <c r="G81" s="3">
-        <v>1055500</v>
+        <v>1022500</v>
       </c>
       <c r="H81" s="3">
-        <v>882900</v>
+        <v>855300</v>
       </c>
       <c r="I81" s="3">
-        <v>833900</v>
+        <v>807800</v>
       </c>
       <c r="J81" s="3">
-        <v>795000</v>
+        <v>770100</v>
       </c>
       <c r="K81" s="3">
         <v>1110100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1288700</v>
+        <v>1248400</v>
       </c>
       <c r="E83" s="3">
-        <v>860600</v>
+        <v>833800</v>
       </c>
       <c r="F83" s="3">
-        <v>780900</v>
+        <v>756500</v>
       </c>
       <c r="G83" s="3">
-        <v>684500</v>
+        <v>663100</v>
       </c>
       <c r="H83" s="3">
-        <v>540500</v>
+        <v>523600</v>
       </c>
       <c r="I83" s="3">
-        <v>500000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>484100</v>
+        <v>484400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>423000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3077600</v>
+        <v>2981400</v>
       </c>
       <c r="E89" s="3">
-        <v>2415500</v>
+        <v>2340000</v>
       </c>
       <c r="F89" s="3">
-        <v>2120500</v>
+        <v>2054300</v>
       </c>
       <c r="G89" s="3">
-        <v>2503000</v>
+        <v>2424800</v>
       </c>
       <c r="H89" s="3">
-        <v>1834500</v>
+        <v>1777200</v>
       </c>
       <c r="I89" s="3">
-        <v>1865600</v>
+        <v>1807300</v>
       </c>
       <c r="J89" s="3">
-        <v>1435900</v>
+        <v>1391000</v>
       </c>
       <c r="K89" s="3">
         <v>1650400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1203600</v>
+        <v>-1166000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1077700</v>
+        <v>-1044000</v>
       </c>
       <c r="F91" s="3">
-        <v>-972800</v>
+        <v>-942400</v>
       </c>
       <c r="G91" s="3">
-        <v>-952800</v>
+        <v>-923000</v>
       </c>
       <c r="H91" s="3">
-        <v>-873000</v>
+        <v>-845700</v>
       </c>
       <c r="I91" s="3">
-        <v>-848100</v>
+        <v>-821600</v>
       </c>
       <c r="J91" s="3">
-        <v>-817900</v>
+        <v>-792300</v>
       </c>
       <c r="K91" s="3">
         <v>-795800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-705600</v>
+        <v>-683600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2879100</v>
+        <v>-2789100</v>
       </c>
       <c r="F94" s="3">
-        <v>1427800</v>
+        <v>1383200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1929500</v>
+        <v>-1869300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1415900</v>
+        <v>-1371700</v>
       </c>
       <c r="I94" s="3">
-        <v>-779300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2757700</v>
+        <v>-755000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-785000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-680500</v>
+        <v>-659200</v>
       </c>
       <c r="E96" s="3">
-        <v>-645700</v>
+        <v>-625600</v>
       </c>
       <c r="F96" s="3">
-        <v>-621600</v>
+        <v>-602200</v>
       </c>
       <c r="G96" s="3">
-        <v>-601400</v>
+        <v>-582600</v>
       </c>
       <c r="H96" s="3">
-        <v>-534300</v>
+        <v>-517600</v>
       </c>
       <c r="I96" s="3">
-        <v>-157400</v>
+        <v>-152500</v>
       </c>
       <c r="J96" s="3">
-        <v>-823500</v>
+        <v>-797800</v>
       </c>
       <c r="K96" s="3">
         <v>-492500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1919000</v>
+        <v>-1859000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1148900</v>
+        <v>-1113000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1051200</v>
+        <v>-1018400</v>
       </c>
       <c r="G100" s="3">
-        <v>64800</v>
+        <v>62700</v>
       </c>
       <c r="H100" s="3">
-        <v>-686100</v>
+        <v>-664700</v>
       </c>
       <c r="I100" s="3">
-        <v>-463700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1027800</v>
+        <v>-449300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-183200</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-277500</v>
+        <v>-268800</v>
       </c>
       <c r="E101" s="3">
-        <v>-129900</v>
+        <v>-125900</v>
       </c>
       <c r="F101" s="3">
-        <v>164500</v>
+        <v>159400</v>
       </c>
       <c r="G101" s="3">
-        <v>72800</v>
+        <v>70500</v>
       </c>
       <c r="H101" s="3">
-        <v>-37100</v>
+        <v>-35900</v>
       </c>
       <c r="I101" s="3">
-        <v>-211200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-168400</v>
+        <v>-204600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-109600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>175500</v>
+        <v>170000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1742500</v>
+        <v>-1688000</v>
       </c>
       <c r="F102" s="3">
-        <v>2661600</v>
+        <v>2578500</v>
       </c>
       <c r="G102" s="3">
-        <v>711100</v>
+        <v>688800</v>
       </c>
       <c r="H102" s="3">
-        <v>-304600</v>
+        <v>-295100</v>
       </c>
       <c r="I102" s="3">
-        <v>411300</v>
+        <v>398500</v>
       </c>
       <c r="J102" s="3">
-        <v>-462500</v>
+        <v>-448000</v>
       </c>
       <c r="K102" s="3">
         <v>572600</v>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>FMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24509600</v>
+        <v>24756800</v>
       </c>
       <c r="E8" s="3">
-        <v>22721500</v>
+        <v>25447000</v>
       </c>
       <c r="F8" s="3">
-        <v>21279500</v>
+        <v>23590500</v>
       </c>
       <c r="G8" s="3">
-        <v>19324200</v>
+        <v>22093400</v>
       </c>
       <c r="H8" s="3">
-        <v>15071600</v>
+        <v>20063200</v>
       </c>
       <c r="I8" s="3">
-        <v>12743000</v>
+        <v>15648000</v>
       </c>
       <c r="J8" s="3">
+        <v>13230400</v>
+      </c>
+      <c r="K8" s="3">
         <v>12484200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12775700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10423600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15247700</v>
+        <v>15232400</v>
       </c>
       <c r="E9" s="3">
-        <v>14248500</v>
+        <v>15830900</v>
       </c>
       <c r="F9" s="3">
-        <v>13439200</v>
+        <v>14793500</v>
       </c>
       <c r="G9" s="3">
-        <v>12155500</v>
+        <v>13953200</v>
       </c>
       <c r="H9" s="3">
-        <v>9113400</v>
+        <v>12620400</v>
       </c>
       <c r="I9" s="3">
-        <v>7414100</v>
+        <v>9462000</v>
       </c>
       <c r="J9" s="3">
+        <v>7697600</v>
+      </c>
+      <c r="K9" s="3">
         <v>7180200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7345100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6063900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9261900</v>
+        <v>9524400</v>
       </c>
       <c r="E10" s="3">
-        <v>8473000</v>
+        <v>9616200</v>
       </c>
       <c r="F10" s="3">
-        <v>7840300</v>
+        <v>8797000</v>
       </c>
       <c r="G10" s="3">
-        <v>7168600</v>
+        <v>8140200</v>
       </c>
       <c r="H10" s="3">
-        <v>5958200</v>
+        <v>7442800</v>
       </c>
       <c r="I10" s="3">
-        <v>5329000</v>
+        <v>6186000</v>
       </c>
       <c r="J10" s="3">
+        <v>5532800</v>
+      </c>
+      <c r="K10" s="3">
         <v>5304000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5430700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4359800</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>48200</v>
+        <v>255200</v>
       </c>
       <c r="E14" s="3">
-        <v>20300</v>
+        <v>50100</v>
       </c>
       <c r="F14" s="3">
-        <v>99600</v>
+        <v>21000</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>103500</v>
       </c>
       <c r="H14" s="3">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>6700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>72300</v>
+        <v>109300</v>
       </c>
       <c r="E15" s="3">
-        <v>73200</v>
+        <v>75100</v>
       </c>
       <c r="F15" s="3">
-        <v>54500</v>
+        <v>76000</v>
       </c>
       <c r="G15" s="3">
-        <v>40500</v>
+        <v>56600</v>
       </c>
       <c r="H15" s="3">
-        <v>26300</v>
+        <v>42000</v>
       </c>
       <c r="I15" s="3">
-        <v>19900</v>
+        <v>27300</v>
       </c>
       <c r="J15" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K15" s="3">
         <v>19600</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22294800</v>
+        <v>23038100</v>
       </c>
       <c r="E17" s="3">
-        <v>20737900</v>
+        <v>23147600</v>
       </c>
       <c r="F17" s="3">
-        <v>19389500</v>
+        <v>21531000</v>
       </c>
       <c r="G17" s="3">
-        <v>17719500</v>
+        <v>20131100</v>
       </c>
       <c r="H17" s="3">
-        <v>13485900</v>
+        <v>18397200</v>
       </c>
       <c r="I17" s="3">
-        <v>11256500</v>
+        <v>14001700</v>
       </c>
       <c r="J17" s="3">
+        <v>11687000</v>
+      </c>
+      <c r="K17" s="3">
         <v>11065500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11197800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9195400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2214800</v>
+        <v>1718600</v>
       </c>
       <c r="E18" s="3">
-        <v>1983700</v>
+        <v>2299500</v>
       </c>
       <c r="F18" s="3">
-        <v>1890000</v>
+        <v>2059500</v>
       </c>
       <c r="G18" s="3">
-        <v>1604700</v>
+        <v>1962200</v>
       </c>
       <c r="H18" s="3">
-        <v>1585600</v>
+        <v>1666000</v>
       </c>
       <c r="I18" s="3">
-        <v>1486500</v>
+        <v>1646300</v>
       </c>
       <c r="J18" s="3">
+        <v>1543400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1418600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1578000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1228200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-341400</v>
+        <v>47900</v>
       </c>
       <c r="E20" s="3">
-        <v>-30200</v>
+        <v>-354500</v>
       </c>
       <c r="F20" s="3">
-        <v>148300</v>
+        <v>-31400</v>
       </c>
       <c r="G20" s="3">
-        <v>50400</v>
+        <v>153900</v>
       </c>
       <c r="H20" s="3">
-        <v>-149600</v>
+        <v>52400</v>
       </c>
       <c r="I20" s="3">
-        <v>-150300</v>
+        <v>-155300</v>
       </c>
       <c r="J20" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-59800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>108900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3107100</v>
+        <v>3179600</v>
       </c>
       <c r="E21" s="3">
-        <v>2777400</v>
+        <v>3245300</v>
       </c>
       <c r="F21" s="3">
-        <v>2785800</v>
+        <v>2896500</v>
       </c>
       <c r="G21" s="3">
-        <v>2310400</v>
+        <v>2904100</v>
       </c>
       <c r="H21" s="3">
-        <v>1953500</v>
+        <v>2409100</v>
       </c>
       <c r="I21" s="3">
-        <v>1814900</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>2036400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1891800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2034600</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>311200</v>
+        <v>796700</v>
       </c>
       <c r="E22" s="3">
-        <v>326700</v>
+        <v>323100</v>
       </c>
       <c r="F22" s="3">
-        <v>308000</v>
+        <v>339200</v>
       </c>
       <c r="G22" s="3">
-        <v>273900</v>
+        <v>319800</v>
       </c>
       <c r="H22" s="3">
-        <v>218900</v>
+        <v>284300</v>
       </c>
       <c r="I22" s="3">
-        <v>187700</v>
+        <v>227300</v>
       </c>
       <c r="J22" s="3">
+        <v>194900</v>
+      </c>
+      <c r="K22" s="3">
         <v>145700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>134300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>119100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1562200</v>
+        <v>969800</v>
       </c>
       <c r="E23" s="3">
-        <v>1626700</v>
+        <v>1621900</v>
       </c>
       <c r="F23" s="3">
-        <v>1730200</v>
+        <v>1688900</v>
       </c>
       <c r="G23" s="3">
-        <v>1381300</v>
+        <v>1796400</v>
       </c>
       <c r="H23" s="3">
-        <v>1217100</v>
+        <v>1434100</v>
       </c>
       <c r="I23" s="3">
-        <v>1148500</v>
+        <v>1263700</v>
       </c>
       <c r="J23" s="3">
+        <v>1192400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1213100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1475900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1218100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>506700</v>
+        <v>744200</v>
       </c>
       <c r="E24" s="3">
-        <v>491900</v>
+        <v>526100</v>
       </c>
       <c r="F24" s="3">
-        <v>494000</v>
+        <v>510700</v>
       </c>
       <c r="G24" s="3">
-        <v>381500</v>
+        <v>512900</v>
       </c>
       <c r="H24" s="3">
-        <v>383700</v>
+        <v>396100</v>
       </c>
       <c r="I24" s="3">
-        <v>302500</v>
+        <v>398300</v>
       </c>
       <c r="J24" s="3">
+        <v>314000</v>
+      </c>
+      <c r="K24" s="3">
         <v>375200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>426100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>394000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1055400</v>
+        <v>225600</v>
       </c>
       <c r="E26" s="3">
-        <v>1134800</v>
+        <v>1095800</v>
       </c>
       <c r="F26" s="3">
-        <v>1236200</v>
+        <v>1178200</v>
       </c>
       <c r="G26" s="3">
-        <v>999700</v>
+        <v>1283500</v>
       </c>
       <c r="H26" s="3">
-        <v>833500</v>
+        <v>1037900</v>
       </c>
       <c r="I26" s="3">
-        <v>846000</v>
+        <v>865300</v>
       </c>
       <c r="J26" s="3">
+        <v>878400</v>
+      </c>
+      <c r="K26" s="3">
         <v>838000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1049700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>824100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1001200</v>
+        <v>-96900</v>
       </c>
       <c r="E27" s="3">
-        <v>997600</v>
+        <v>1039500</v>
       </c>
       <c r="F27" s="3">
-        <v>1871000</v>
+        <v>1035700</v>
       </c>
       <c r="G27" s="3">
-        <v>1022500</v>
+        <v>1942600</v>
       </c>
       <c r="H27" s="3">
-        <v>855300</v>
+        <v>1061700</v>
       </c>
       <c r="I27" s="3">
-        <v>807800</v>
+        <v>888000</v>
       </c>
       <c r="J27" s="3">
+        <v>838700</v>
+      </c>
+      <c r="K27" s="3">
         <v>770100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1110100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>797500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1356,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>162800</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>180200</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>169000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>187100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>341400</v>
+        <v>-47900</v>
       </c>
       <c r="E32" s="3">
-        <v>30200</v>
+        <v>354500</v>
       </c>
       <c r="F32" s="3">
-        <v>-148300</v>
+        <v>31400</v>
       </c>
       <c r="G32" s="3">
-        <v>-50400</v>
+        <v>-153900</v>
       </c>
       <c r="H32" s="3">
-        <v>149600</v>
+        <v>-52400</v>
       </c>
       <c r="I32" s="3">
-        <v>150300</v>
+        <v>155300</v>
       </c>
       <c r="J32" s="3">
+        <v>156000</v>
+      </c>
+      <c r="K32" s="3">
         <v>59800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-108900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1001200</v>
+        <v>-96900</v>
       </c>
       <c r="E33" s="3">
-        <v>1160400</v>
+        <v>1039500</v>
       </c>
       <c r="F33" s="3">
-        <v>2051300</v>
+        <v>1204800</v>
       </c>
       <c r="G33" s="3">
-        <v>1022500</v>
+        <v>2129700</v>
       </c>
       <c r="H33" s="3">
-        <v>855300</v>
+        <v>1061700</v>
       </c>
       <c r="I33" s="3">
-        <v>807800</v>
+        <v>888000</v>
       </c>
       <c r="J33" s="3">
+        <v>838700</v>
+      </c>
+      <c r="K33" s="3">
         <v>770100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1110100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>797500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1001200</v>
+        <v>-96900</v>
       </c>
       <c r="E35" s="3">
-        <v>1160400</v>
+        <v>1039500</v>
       </c>
       <c r="F35" s="3">
-        <v>2051300</v>
+        <v>1204800</v>
       </c>
       <c r="G35" s="3">
-        <v>1022500</v>
+        <v>2129700</v>
       </c>
       <c r="H35" s="3">
-        <v>855300</v>
+        <v>1061700</v>
       </c>
       <c r="I35" s="3">
-        <v>807800</v>
+        <v>888000</v>
       </c>
       <c r="J35" s="3">
+        <v>838700</v>
+      </c>
+      <c r="K35" s="3">
         <v>770100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1110100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>797500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3171200</v>
+        <v>5404900</v>
       </c>
       <c r="E41" s="3">
-        <v>3001200</v>
+        <v>3292500</v>
       </c>
       <c r="F41" s="3">
-        <v>4689200</v>
+        <v>3116000</v>
       </c>
       <c r="G41" s="3">
-        <v>2110700</v>
+        <v>4868500</v>
       </c>
       <c r="H41" s="3">
-        <v>1421900</v>
+        <v>2191500</v>
       </c>
       <c r="I41" s="3">
-        <v>1717000</v>
+        <v>1476300</v>
       </c>
       <c r="J41" s="3">
+        <v>1782700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2643100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1957900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1336500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>598100</v>
+        <v>33200</v>
       </c>
       <c r="E42" s="3">
-        <v>1495800</v>
+        <v>621000</v>
       </c>
       <c r="F42" s="3">
-        <v>104500</v>
+        <v>1553000</v>
       </c>
       <c r="G42" s="3">
-        <v>5800</v>
+        <v>108500</v>
       </c>
       <c r="H42" s="3">
-        <v>118800</v>
+        <v>6000</v>
       </c>
       <c r="I42" s="3">
-        <v>7000</v>
+        <v>123300</v>
       </c>
       <c r="J42" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K42" s="3">
         <v>6100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>91200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>96100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2343000</v>
+        <v>2279000</v>
       </c>
       <c r="E43" s="3">
-        <v>2161800</v>
+        <v>2432700</v>
       </c>
       <c r="F43" s="3">
-        <v>2109900</v>
+        <v>2244500</v>
       </c>
       <c r="G43" s="3">
-        <v>1715300</v>
+        <v>2190500</v>
       </c>
       <c r="H43" s="3">
-        <v>2011900</v>
+        <v>1780900</v>
       </c>
       <c r="I43" s="3">
-        <v>1106300</v>
+        <v>2088800</v>
       </c>
       <c r="J43" s="3">
+        <v>1148600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1761800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>969800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>819300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1984300</v>
+        <v>2211400</v>
       </c>
       <c r="E44" s="3">
-        <v>1726100</v>
+        <v>2060200</v>
       </c>
       <c r="F44" s="3">
-        <v>1685200</v>
+        <v>1792200</v>
       </c>
       <c r="G44" s="3">
-        <v>1544600</v>
+        <v>1749700</v>
       </c>
       <c r="H44" s="3">
-        <v>1193800</v>
+        <v>1603600</v>
       </c>
       <c r="I44" s="3">
-        <v>832600</v>
+        <v>1239500</v>
       </c>
       <c r="J44" s="3">
+        <v>864500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1769300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>876300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1486600</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>250900</v>
+        <v>179200</v>
       </c>
       <c r="E45" s="3">
-        <v>205900</v>
+        <v>260500</v>
       </c>
       <c r="F45" s="3">
-        <v>175300</v>
+        <v>213700</v>
       </c>
       <c r="G45" s="3">
-        <v>328900</v>
+        <v>182000</v>
       </c>
       <c r="H45" s="3">
-        <v>412800</v>
+        <v>341500</v>
       </c>
       <c r="I45" s="3">
-        <v>163700</v>
+        <v>428600</v>
       </c>
       <c r="J45" s="3">
+        <v>170000</v>
+      </c>
+      <c r="K45" s="3">
         <v>921600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>150100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8347600</v>
+        <v>10107700</v>
       </c>
       <c r="E46" s="3">
-        <v>8590900</v>
+        <v>8666900</v>
       </c>
       <c r="F46" s="3">
-        <v>8764100</v>
+        <v>8919400</v>
       </c>
       <c r="G46" s="3">
-        <v>5705300</v>
+        <v>9099300</v>
       </c>
       <c r="H46" s="3">
-        <v>4194800</v>
+        <v>5923500</v>
       </c>
       <c r="I46" s="3">
-        <v>3826600</v>
+        <v>4355200</v>
       </c>
       <c r="J46" s="3">
+        <v>3973000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3558500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4045100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3102300</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5261600</v>
+        <v>5787200</v>
       </c>
       <c r="E47" s="3">
-        <v>5179500</v>
+        <v>5462900</v>
       </c>
       <c r="F47" s="3">
-        <v>5255000</v>
+        <v>5377600</v>
       </c>
       <c r="G47" s="3">
-        <v>7037500</v>
+        <v>5456000</v>
       </c>
       <c r="H47" s="3">
-        <v>5917900</v>
+        <v>7306700</v>
       </c>
       <c r="I47" s="3">
-        <v>5317900</v>
+        <v>6144200</v>
       </c>
       <c r="J47" s="3">
+        <v>5521300</v>
+      </c>
+      <c r="K47" s="3">
         <v>4890500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4705500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8044400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8087300</v>
+        <v>8429600</v>
       </c>
       <c r="E48" s="3">
-        <v>5253100</v>
+        <v>8396600</v>
       </c>
       <c r="F48" s="3">
-        <v>5645400</v>
+        <v>5454000</v>
       </c>
       <c r="G48" s="3">
-        <v>4944500</v>
+        <v>5861300</v>
       </c>
       <c r="H48" s="3">
-        <v>7767800</v>
+        <v>5133600</v>
       </c>
       <c r="I48" s="3">
-        <v>3658200</v>
+        <v>8064900</v>
       </c>
       <c r="J48" s="3">
+        <v>3798100</v>
+      </c>
+      <c r="K48" s="3">
         <v>7154400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3305000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6016600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7089200</v>
+        <v>7809300</v>
       </c>
       <c r="E49" s="3">
-        <v>7043200</v>
+        <v>7360300</v>
       </c>
       <c r="F49" s="3">
-        <v>7453500</v>
+        <v>7312500</v>
       </c>
       <c r="G49" s="3">
-        <v>7413600</v>
+        <v>7738600</v>
       </c>
       <c r="H49" s="3">
-        <v>10480900</v>
+        <v>7697100</v>
       </c>
       <c r="I49" s="3">
-        <v>4910900</v>
+        <v>10881800</v>
       </c>
       <c r="J49" s="3">
+        <v>5098700</v>
+      </c>
+      <c r="K49" s="3">
         <v>9992600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3639700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13061400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2052000</v>
+        <v>2259300</v>
       </c>
       <c r="E52" s="3">
-        <v>1813000</v>
+        <v>2130500</v>
       </c>
       <c r="F52" s="3">
-        <v>1349900</v>
+        <v>1882300</v>
       </c>
       <c r="G52" s="3">
-        <v>1290900</v>
+        <v>1401500</v>
       </c>
       <c r="H52" s="3">
-        <v>769900</v>
+        <v>1340200</v>
       </c>
       <c r="I52" s="3">
-        <v>481900</v>
+        <v>799300</v>
       </c>
       <c r="J52" s="3">
+        <v>500300</v>
+      </c>
+      <c r="K52" s="3">
         <v>829600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>170100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>328300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30837900</v>
+        <v>34393100</v>
       </c>
       <c r="E54" s="3">
-        <v>27879500</v>
+        <v>32017300</v>
       </c>
       <c r="F54" s="3">
-        <v>28467700</v>
+        <v>28945900</v>
       </c>
       <c r="G54" s="3">
-        <v>26391800</v>
+        <v>29556500</v>
       </c>
       <c r="H54" s="3">
-        <v>19799400</v>
+        <v>27401200</v>
       </c>
       <c r="I54" s="3">
-        <v>18195500</v>
+        <v>20556700</v>
       </c>
       <c r="J54" s="3">
+        <v>18891400</v>
+      </c>
+      <c r="K54" s="3">
         <v>17374100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15865500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13621100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3708800</v>
+        <v>3774900</v>
       </c>
       <c r="E57" s="3">
-        <v>3176400</v>
+        <v>3850700</v>
       </c>
       <c r="F57" s="3">
-        <v>3200300</v>
+        <v>3297900</v>
       </c>
       <c r="G57" s="3">
-        <v>2858100</v>
+        <v>3322700</v>
       </c>
       <c r="H57" s="3">
-        <v>2177100</v>
+        <v>2967400</v>
       </c>
       <c r="I57" s="3">
-        <v>1656400</v>
+        <v>2260300</v>
       </c>
       <c r="J57" s="3">
+        <v>1719800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1622500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1833700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1925900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1141100</v>
+        <v>782100</v>
       </c>
       <c r="E58" s="3">
-        <v>661400</v>
+        <v>1184700</v>
       </c>
       <c r="F58" s="3">
-        <v>657300</v>
+        <v>686700</v>
       </c>
       <c r="G58" s="3">
-        <v>352200</v>
+        <v>682500</v>
       </c>
       <c r="H58" s="3">
-        <v>571000</v>
+        <v>365700</v>
       </c>
       <c r="I58" s="3">
-        <v>75100</v>
+        <v>592800</v>
       </c>
       <c r="J58" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K58" s="3">
         <v>185100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>466500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>288200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1754200</v>
+        <v>1389700</v>
       </c>
       <c r="E59" s="3">
-        <v>1070000</v>
+        <v>1821300</v>
       </c>
       <c r="F59" s="3">
-        <v>1222300</v>
+        <v>1110900</v>
       </c>
       <c r="G59" s="3">
-        <v>963500</v>
+        <v>1269000</v>
       </c>
       <c r="H59" s="3">
-        <v>1401300</v>
+        <v>1000300</v>
       </c>
       <c r="I59" s="3">
-        <v>654000</v>
+        <v>1454900</v>
       </c>
       <c r="J59" s="3">
+        <v>679000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2408600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>244100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6604100</v>
+        <v>5946700</v>
       </c>
       <c r="E60" s="3">
-        <v>4907800</v>
+        <v>6856700</v>
       </c>
       <c r="F60" s="3">
-        <v>5079900</v>
+        <v>5095500</v>
       </c>
       <c r="G60" s="3">
-        <v>4173800</v>
+        <v>5274200</v>
       </c>
       <c r="H60" s="3">
-        <v>3160800</v>
+        <v>4333400</v>
       </c>
       <c r="I60" s="3">
-        <v>2385600</v>
+        <v>3281700</v>
       </c>
       <c r="J60" s="3">
+        <v>2476800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2363800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2033900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7209000</v>
+        <v>11620900</v>
       </c>
       <c r="E61" s="3">
-        <v>5562100</v>
+        <v>7484700</v>
       </c>
       <c r="F61" s="3">
-        <v>5696000</v>
+        <v>5774800</v>
       </c>
       <c r="G61" s="3">
-        <v>6383200</v>
+        <v>5913800</v>
       </c>
       <c r="H61" s="3">
-        <v>4158300</v>
+        <v>6627400</v>
       </c>
       <c r="I61" s="3">
-        <v>4011600</v>
+        <v>4317400</v>
       </c>
       <c r="J61" s="3">
+        <v>4165000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3491600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1535400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1231900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1268100</v>
+        <v>1398500</v>
       </c>
       <c r="E62" s="3">
-        <v>1179500</v>
+        <v>1316600</v>
       </c>
       <c r="F62" s="3">
-        <v>1395400</v>
+        <v>1224600</v>
       </c>
       <c r="G62" s="3">
-        <v>1992700</v>
+        <v>1448800</v>
       </c>
       <c r="H62" s="3">
-        <v>1010200</v>
+        <v>2068900</v>
       </c>
       <c r="I62" s="3">
-        <v>667400</v>
+        <v>1048800</v>
       </c>
       <c r="J62" s="3">
+        <v>692900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1472400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>462400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>416200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18649200</v>
+        <v>22453600</v>
       </c>
       <c r="E66" s="3">
-        <v>15445900</v>
+        <v>19362400</v>
       </c>
       <c r="F66" s="3">
-        <v>16361200</v>
+        <v>16036700</v>
       </c>
       <c r="G66" s="3">
-        <v>16142000</v>
+        <v>16986900</v>
       </c>
       <c r="H66" s="3">
-        <v>11019100</v>
+        <v>16759400</v>
       </c>
       <c r="I66" s="3">
-        <v>9949700</v>
+        <v>11440500</v>
       </c>
       <c r="J66" s="3">
+        <v>10330300</v>
+      </c>
+      <c r="K66" s="3">
         <v>6609400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7542000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6161900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11115100</v>
+        <v>10919300</v>
       </c>
       <c r="E72" s="3">
-        <v>10535100</v>
+        <v>11540300</v>
       </c>
       <c r="F72" s="3">
-        <v>9764400</v>
+        <v>10938000</v>
       </c>
       <c r="G72" s="3">
-        <v>8164700</v>
+        <v>10137800</v>
       </c>
       <c r="H72" s="3">
-        <v>7600800</v>
+        <v>8476900</v>
       </c>
       <c r="I72" s="3">
-        <v>7116300</v>
+        <v>7891500</v>
       </c>
       <c r="J72" s="3">
+        <v>7388500</v>
+      </c>
+      <c r="K72" s="3">
         <v>6328700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6889300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5921300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12188700</v>
+        <v>11939500</v>
       </c>
       <c r="E76" s="3">
-        <v>12433700</v>
+        <v>12654900</v>
       </c>
       <c r="F76" s="3">
-        <v>12106600</v>
+        <v>12909200</v>
       </c>
       <c r="G76" s="3">
-        <v>10249800</v>
+        <v>12569600</v>
       </c>
       <c r="H76" s="3">
-        <v>8780300</v>
+        <v>10641800</v>
       </c>
       <c r="I76" s="3">
-        <v>8245800</v>
+        <v>9116200</v>
       </c>
       <c r="J76" s="3">
+        <v>8561200</v>
+      </c>
+      <c r="K76" s="3">
         <v>10764700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8323400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7459200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1001200</v>
+        <v>-96900</v>
       </c>
       <c r="E81" s="3">
-        <v>1160400</v>
+        <v>1039500</v>
       </c>
       <c r="F81" s="3">
-        <v>2051300</v>
+        <v>1204800</v>
       </c>
       <c r="G81" s="3">
-        <v>1022500</v>
+        <v>2129700</v>
       </c>
       <c r="H81" s="3">
-        <v>855300</v>
+        <v>1061700</v>
       </c>
       <c r="I81" s="3">
-        <v>807800</v>
+        <v>888000</v>
       </c>
       <c r="J81" s="3">
+        <v>838700</v>
+      </c>
+      <c r="K81" s="3">
         <v>770100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1110100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>797500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1248400</v>
+        <v>1408600</v>
       </c>
       <c r="E83" s="3">
-        <v>833800</v>
+        <v>1296200</v>
       </c>
       <c r="F83" s="3">
-        <v>756500</v>
+        <v>865600</v>
       </c>
       <c r="G83" s="3">
-        <v>663100</v>
+        <v>785400</v>
       </c>
       <c r="H83" s="3">
-        <v>523600</v>
+        <v>688500</v>
       </c>
       <c r="I83" s="3">
-        <v>484400</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>543600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>502900</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>423000</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2981400</v>
+        <v>2670300</v>
       </c>
       <c r="E89" s="3">
-        <v>2340000</v>
+        <v>3095500</v>
       </c>
       <c r="F89" s="3">
-        <v>2054300</v>
+        <v>2429500</v>
       </c>
       <c r="G89" s="3">
-        <v>2424800</v>
+        <v>2132800</v>
       </c>
       <c r="H89" s="3">
-        <v>1777200</v>
+        <v>2517600</v>
       </c>
       <c r="I89" s="3">
-        <v>1807300</v>
+        <v>1845200</v>
       </c>
       <c r="J89" s="3">
+        <v>1876400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1391000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1650400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1098900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1166000</v>
+        <v>-991400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1044000</v>
+        <v>-1210600</v>
       </c>
       <c r="F91" s="3">
-        <v>-942400</v>
+        <v>-1083900</v>
       </c>
       <c r="G91" s="3">
-        <v>-923000</v>
+        <v>-978500</v>
       </c>
       <c r="H91" s="3">
-        <v>-845700</v>
+        <v>-958300</v>
       </c>
       <c r="I91" s="3">
-        <v>-821600</v>
+        <v>-878100</v>
       </c>
       <c r="J91" s="3">
+        <v>-853000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-792300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-795800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-683600</v>
+        <v>-1575300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2789100</v>
+        <v>-709700</v>
       </c>
       <c r="F94" s="3">
-        <v>1383200</v>
+        <v>-2895800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1869300</v>
+        <v>1436100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1371700</v>
+        <v>-1940800</v>
       </c>
       <c r="I94" s="3">
-        <v>-755000</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-1424200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-783800</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-785000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-659200</v>
+        <v>-796900</v>
       </c>
       <c r="E96" s="3">
-        <v>-625600</v>
+        <v>-684400</v>
       </c>
       <c r="F96" s="3">
-        <v>-602200</v>
+        <v>-649500</v>
       </c>
       <c r="G96" s="3">
-        <v>-582600</v>
+        <v>-625200</v>
       </c>
       <c r="H96" s="3">
-        <v>-517600</v>
+        <v>-604900</v>
       </c>
       <c r="I96" s="3">
-        <v>-152500</v>
+        <v>-537400</v>
       </c>
       <c r="J96" s="3">
+        <v>-158300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-797800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-492500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-342600</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1859000</v>
+        <v>983100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1113000</v>
+        <v>-1930100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1018400</v>
+        <v>-1155600</v>
       </c>
       <c r="G100" s="3">
-        <v>62700</v>
+        <v>-1057300</v>
       </c>
       <c r="H100" s="3">
-        <v>-664700</v>
+        <v>65100</v>
       </c>
       <c r="I100" s="3">
-        <v>-449300</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-690100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-466400</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-183200</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-268800</v>
+        <v>34200</v>
       </c>
       <c r="E101" s="3">
-        <v>-125900</v>
+        <v>-279100</v>
       </c>
       <c r="F101" s="3">
-        <v>159400</v>
+        <v>-130700</v>
       </c>
       <c r="G101" s="3">
-        <v>70500</v>
+        <v>165500</v>
       </c>
       <c r="H101" s="3">
-        <v>-35900</v>
+        <v>73200</v>
       </c>
       <c r="I101" s="3">
-        <v>-204600</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-37300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-212400</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-109600</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>170000</v>
+        <v>2112400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1688000</v>
+        <v>176500</v>
       </c>
       <c r="F102" s="3">
-        <v>2578500</v>
+        <v>-1752600</v>
       </c>
       <c r="G102" s="3">
-        <v>688800</v>
+        <v>2677100</v>
       </c>
       <c r="H102" s="3">
-        <v>-295100</v>
+        <v>715200</v>
       </c>
       <c r="I102" s="3">
-        <v>398500</v>
+        <v>-306400</v>
       </c>
       <c r="J102" s="3">
+        <v>413700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-448000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>572600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-44700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24756800</v>
+        <v>24461000</v>
       </c>
       <c r="E8" s="3">
-        <v>25447000</v>
+        <v>25143000</v>
       </c>
       <c r="F8" s="3">
-        <v>23590500</v>
+        <v>23308700</v>
       </c>
       <c r="G8" s="3">
-        <v>22093400</v>
+        <v>21829400</v>
       </c>
       <c r="H8" s="3">
-        <v>20063200</v>
+        <v>19823500</v>
       </c>
       <c r="I8" s="3">
-        <v>15648000</v>
+        <v>15461000</v>
       </c>
       <c r="J8" s="3">
-        <v>13230400</v>
+        <v>13072300</v>
       </c>
       <c r="K8" s="3">
         <v>12484200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15232400</v>
+        <v>15050400</v>
       </c>
       <c r="E9" s="3">
-        <v>15830900</v>
+        <v>15641700</v>
       </c>
       <c r="F9" s="3">
-        <v>14793500</v>
+        <v>14616800</v>
       </c>
       <c r="G9" s="3">
-        <v>13953200</v>
+        <v>13786500</v>
       </c>
       <c r="H9" s="3">
-        <v>12620400</v>
+        <v>12469700</v>
       </c>
       <c r="I9" s="3">
-        <v>9462000</v>
+        <v>9348900</v>
       </c>
       <c r="J9" s="3">
-        <v>7697600</v>
+        <v>7605700</v>
       </c>
       <c r="K9" s="3">
         <v>7180200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9524400</v>
+        <v>9410600</v>
       </c>
       <c r="E10" s="3">
-        <v>9616200</v>
+        <v>9501300</v>
       </c>
       <c r="F10" s="3">
-        <v>8797000</v>
+        <v>8691900</v>
       </c>
       <c r="G10" s="3">
-        <v>8140200</v>
+        <v>8042900</v>
       </c>
       <c r="H10" s="3">
-        <v>7442800</v>
+        <v>7353900</v>
       </c>
       <c r="I10" s="3">
-        <v>6186000</v>
+        <v>6112100</v>
       </c>
       <c r="J10" s="3">
-        <v>5532800</v>
+        <v>5466700</v>
       </c>
       <c r="K10" s="3">
         <v>5304000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>255200</v>
+        <v>252200</v>
       </c>
       <c r="E14" s="3">
-        <v>50100</v>
+        <v>49500</v>
       </c>
       <c r="F14" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="G14" s="3">
-        <v>103500</v>
+        <v>102200</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="J14" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>109300</v>
+        <v>108000</v>
       </c>
       <c r="E15" s="3">
+        <v>74200</v>
+      </c>
+      <c r="F15" s="3">
         <v>75100</v>
       </c>
-      <c r="F15" s="3">
-        <v>76000</v>
-      </c>
       <c r="G15" s="3">
-        <v>56600</v>
+        <v>55900</v>
       </c>
       <c r="H15" s="3">
-        <v>42000</v>
+        <v>41500</v>
       </c>
       <c r="I15" s="3">
-        <v>27300</v>
+        <v>26900</v>
       </c>
       <c r="J15" s="3">
-        <v>20600</v>
+        <v>20400</v>
       </c>
       <c r="K15" s="3">
         <v>19600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23038100</v>
+        <v>22762900</v>
       </c>
       <c r="E17" s="3">
-        <v>23147600</v>
+        <v>22871000</v>
       </c>
       <c r="F17" s="3">
-        <v>21531000</v>
+        <v>21273800</v>
       </c>
       <c r="G17" s="3">
-        <v>20131100</v>
+        <v>19890600</v>
       </c>
       <c r="H17" s="3">
-        <v>18397200</v>
+        <v>18177400</v>
       </c>
       <c r="I17" s="3">
-        <v>14001700</v>
+        <v>13834500</v>
       </c>
       <c r="J17" s="3">
-        <v>11687000</v>
+        <v>11547400</v>
       </c>
       <c r="K17" s="3">
         <v>11065500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1718600</v>
+        <v>1698100</v>
       </c>
       <c r="E18" s="3">
-        <v>2299500</v>
+        <v>2272000</v>
       </c>
       <c r="F18" s="3">
-        <v>2059500</v>
+        <v>2034900</v>
       </c>
       <c r="G18" s="3">
-        <v>1962200</v>
+        <v>1938800</v>
       </c>
       <c r="H18" s="3">
-        <v>1666000</v>
+        <v>1646100</v>
       </c>
       <c r="I18" s="3">
-        <v>1646300</v>
+        <v>1626600</v>
       </c>
       <c r="J18" s="3">
-        <v>1543400</v>
+        <v>1524900</v>
       </c>
       <c r="K18" s="3">
         <v>1418600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47900</v>
+        <v>47300</v>
       </c>
       <c r="E20" s="3">
-        <v>-354500</v>
+        <v>-350200</v>
       </c>
       <c r="F20" s="3">
-        <v>-31400</v>
+        <v>-31000</v>
       </c>
       <c r="G20" s="3">
-        <v>153900</v>
+        <v>152100</v>
       </c>
       <c r="H20" s="3">
-        <v>52400</v>
+        <v>51800</v>
       </c>
       <c r="I20" s="3">
-        <v>-155300</v>
+        <v>-153400</v>
       </c>
       <c r="J20" s="3">
-        <v>-156000</v>
+        <v>-154200</v>
       </c>
       <c r="K20" s="3">
         <v>-59800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3179600</v>
+        <v>3144700</v>
       </c>
       <c r="E21" s="3">
-        <v>3245300</v>
+        <v>3209400</v>
       </c>
       <c r="F21" s="3">
-        <v>2896500</v>
+        <v>2863900</v>
       </c>
       <c r="G21" s="3">
-        <v>2904100</v>
+        <v>2871200</v>
       </c>
       <c r="H21" s="3">
-        <v>2409100</v>
+        <v>2381800</v>
       </c>
       <c r="I21" s="3">
-        <v>2036400</v>
+        <v>2013200</v>
       </c>
       <c r="J21" s="3">
-        <v>1891800</v>
+        <v>1870400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>796700</v>
+        <v>787200</v>
       </c>
       <c r="E22" s="3">
-        <v>323100</v>
+        <v>319300</v>
       </c>
       <c r="F22" s="3">
-        <v>339200</v>
+        <v>335200</v>
       </c>
       <c r="G22" s="3">
-        <v>319800</v>
+        <v>315900</v>
       </c>
       <c r="H22" s="3">
-        <v>284300</v>
+        <v>280900</v>
       </c>
       <c r="I22" s="3">
-        <v>227300</v>
+        <v>224600</v>
       </c>
       <c r="J22" s="3">
-        <v>194900</v>
+        <v>192600</v>
       </c>
       <c r="K22" s="3">
         <v>145700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>969800</v>
+        <v>958200</v>
       </c>
       <c r="E23" s="3">
-        <v>1621900</v>
+        <v>1602500</v>
       </c>
       <c r="F23" s="3">
-        <v>1688900</v>
+        <v>1668700</v>
       </c>
       <c r="G23" s="3">
-        <v>1796400</v>
+        <v>1775000</v>
       </c>
       <c r="H23" s="3">
-        <v>1434100</v>
+        <v>1416900</v>
       </c>
       <c r="I23" s="3">
-        <v>1263700</v>
+        <v>1248600</v>
       </c>
       <c r="J23" s="3">
-        <v>1192400</v>
+        <v>1178200</v>
       </c>
       <c r="K23" s="3">
         <v>1213100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>744200</v>
+        <v>735300</v>
       </c>
       <c r="E24" s="3">
-        <v>526100</v>
+        <v>519800</v>
       </c>
       <c r="F24" s="3">
-        <v>510700</v>
+        <v>504600</v>
       </c>
       <c r="G24" s="3">
-        <v>512900</v>
+        <v>506800</v>
       </c>
       <c r="H24" s="3">
-        <v>396100</v>
+        <v>391400</v>
       </c>
       <c r="I24" s="3">
-        <v>398300</v>
+        <v>393600</v>
       </c>
       <c r="J24" s="3">
-        <v>314000</v>
+        <v>310300</v>
       </c>
       <c r="K24" s="3">
         <v>375200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>225600</v>
+        <v>222900</v>
       </c>
       <c r="E26" s="3">
-        <v>1095800</v>
+        <v>1082700</v>
       </c>
       <c r="F26" s="3">
-        <v>1178200</v>
+        <v>1164100</v>
       </c>
       <c r="G26" s="3">
-        <v>1283500</v>
+        <v>1268200</v>
       </c>
       <c r="H26" s="3">
-        <v>1037900</v>
+        <v>1025500</v>
       </c>
       <c r="I26" s="3">
-        <v>865300</v>
+        <v>855000</v>
       </c>
       <c r="J26" s="3">
-        <v>878400</v>
+        <v>867900</v>
       </c>
       <c r="K26" s="3">
         <v>838000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-96900</v>
+        <v>-95800</v>
       </c>
       <c r="E27" s="3">
-        <v>1039500</v>
+        <v>1027100</v>
       </c>
       <c r="F27" s="3">
-        <v>1035700</v>
+        <v>1023400</v>
       </c>
       <c r="G27" s="3">
-        <v>1942600</v>
+        <v>1919400</v>
       </c>
       <c r="H27" s="3">
-        <v>1061700</v>
+        <v>1049000</v>
       </c>
       <c r="I27" s="3">
-        <v>888000</v>
+        <v>877400</v>
       </c>
       <c r="J27" s="3">
-        <v>838700</v>
+        <v>828700</v>
       </c>
       <c r="K27" s="3">
         <v>770100</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>169000</v>
+        <v>167000</v>
       </c>
       <c r="G29" s="3">
-        <v>187100</v>
+        <v>184900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47900</v>
+        <v>-47300</v>
       </c>
       <c r="E32" s="3">
-        <v>354500</v>
+        <v>350200</v>
       </c>
       <c r="F32" s="3">
-        <v>31400</v>
+        <v>31000</v>
       </c>
       <c r="G32" s="3">
-        <v>-153900</v>
+        <v>-152100</v>
       </c>
       <c r="H32" s="3">
-        <v>-52400</v>
+        <v>-51800</v>
       </c>
       <c r="I32" s="3">
-        <v>155300</v>
+        <v>153400</v>
       </c>
       <c r="J32" s="3">
-        <v>156000</v>
+        <v>154200</v>
       </c>
       <c r="K32" s="3">
         <v>59800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-96900</v>
+        <v>-95800</v>
       </c>
       <c r="E33" s="3">
-        <v>1039500</v>
+        <v>1027100</v>
       </c>
       <c r="F33" s="3">
-        <v>1204800</v>
+        <v>1190400</v>
       </c>
       <c r="G33" s="3">
-        <v>2129700</v>
+        <v>2104300</v>
       </c>
       <c r="H33" s="3">
-        <v>1061700</v>
+        <v>1049000</v>
       </c>
       <c r="I33" s="3">
-        <v>888000</v>
+        <v>877400</v>
       </c>
       <c r="J33" s="3">
-        <v>838700</v>
+        <v>828700</v>
       </c>
       <c r="K33" s="3">
         <v>770100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-96900</v>
+        <v>-95800</v>
       </c>
       <c r="E35" s="3">
-        <v>1039500</v>
+        <v>1027100</v>
       </c>
       <c r="F35" s="3">
-        <v>1204800</v>
+        <v>1190400</v>
       </c>
       <c r="G35" s="3">
-        <v>2129700</v>
+        <v>2104300</v>
       </c>
       <c r="H35" s="3">
-        <v>1061700</v>
+        <v>1049000</v>
       </c>
       <c r="I35" s="3">
-        <v>888000</v>
+        <v>877400</v>
       </c>
       <c r="J35" s="3">
-        <v>838700</v>
+        <v>828700</v>
       </c>
       <c r="K35" s="3">
         <v>770100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5404900</v>
+        <v>5340300</v>
       </c>
       <c r="E41" s="3">
-        <v>3292500</v>
+        <v>3253200</v>
       </c>
       <c r="F41" s="3">
-        <v>3116000</v>
+        <v>3078800</v>
       </c>
       <c r="G41" s="3">
-        <v>4868500</v>
+        <v>4810400</v>
       </c>
       <c r="H41" s="3">
-        <v>2191500</v>
+        <v>2165300</v>
       </c>
       <c r="I41" s="3">
-        <v>1476300</v>
+        <v>1458600</v>
       </c>
       <c r="J41" s="3">
-        <v>1782700</v>
+        <v>1761400</v>
       </c>
       <c r="K41" s="3">
         <v>2643100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>33200</v>
+        <v>99500</v>
       </c>
       <c r="E42" s="3">
-        <v>621000</v>
+        <v>613600</v>
       </c>
       <c r="F42" s="3">
-        <v>1553000</v>
+        <v>1534400</v>
       </c>
       <c r="G42" s="3">
-        <v>108500</v>
+        <v>107200</v>
       </c>
       <c r="H42" s="3">
         <v>6000</v>
       </c>
       <c r="I42" s="3">
-        <v>123300</v>
+        <v>121900</v>
       </c>
       <c r="J42" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="K42" s="3">
         <v>6100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2279000</v>
+        <v>3435100</v>
       </c>
       <c r="E43" s="3">
-        <v>2432700</v>
+        <v>2403600</v>
       </c>
       <c r="F43" s="3">
-        <v>2244500</v>
+        <v>2217700</v>
       </c>
       <c r="G43" s="3">
-        <v>2190500</v>
+        <v>2164400</v>
       </c>
       <c r="H43" s="3">
-        <v>1780900</v>
+        <v>1759600</v>
       </c>
       <c r="I43" s="3">
-        <v>2088800</v>
+        <v>2063900</v>
       </c>
       <c r="J43" s="3">
-        <v>1148600</v>
+        <v>1134900</v>
       </c>
       <c r="K43" s="3">
         <v>1761800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2211400</v>
+        <v>2185000</v>
       </c>
       <c r="E44" s="3">
-        <v>2060200</v>
+        <v>2035600</v>
       </c>
       <c r="F44" s="3">
-        <v>1792200</v>
+        <v>1770700</v>
       </c>
       <c r="G44" s="3">
-        <v>1749700</v>
+        <v>1728800</v>
       </c>
       <c r="H44" s="3">
-        <v>1603600</v>
+        <v>1584500</v>
       </c>
       <c r="I44" s="3">
-        <v>1239500</v>
+        <v>1224600</v>
       </c>
       <c r="J44" s="3">
-        <v>864500</v>
+        <v>854200</v>
       </c>
       <c r="K44" s="3">
         <v>1769300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>179200</v>
+        <v>321900</v>
       </c>
       <c r="E45" s="3">
-        <v>260500</v>
+        <v>257400</v>
       </c>
       <c r="F45" s="3">
-        <v>213700</v>
+        <v>211200</v>
       </c>
       <c r="G45" s="3">
-        <v>182000</v>
+        <v>179900</v>
       </c>
       <c r="H45" s="3">
-        <v>341500</v>
+        <v>337400</v>
       </c>
       <c r="I45" s="3">
-        <v>428600</v>
+        <v>423500</v>
       </c>
       <c r="J45" s="3">
-        <v>170000</v>
+        <v>168000</v>
       </c>
       <c r="K45" s="3">
         <v>921600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10107700</v>
+        <v>9986900</v>
       </c>
       <c r="E46" s="3">
-        <v>8666900</v>
+        <v>8563400</v>
       </c>
       <c r="F46" s="3">
-        <v>8919400</v>
+        <v>8812900</v>
       </c>
       <c r="G46" s="3">
-        <v>9099300</v>
+        <v>8990500</v>
       </c>
       <c r="H46" s="3">
-        <v>5923500</v>
+        <v>5852700</v>
       </c>
       <c r="I46" s="3">
-        <v>4355200</v>
+        <v>4303200</v>
       </c>
       <c r="J46" s="3">
-        <v>3973000</v>
+        <v>3925500</v>
       </c>
       <c r="K46" s="3">
         <v>3558500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5787200</v>
+        <v>6616300</v>
       </c>
       <c r="E47" s="3">
-        <v>5462900</v>
+        <v>5397600</v>
       </c>
       <c r="F47" s="3">
-        <v>5377600</v>
+        <v>5313300</v>
       </c>
       <c r="G47" s="3">
-        <v>5456000</v>
+        <v>5390800</v>
       </c>
       <c r="H47" s="3">
-        <v>7306700</v>
+        <v>7219400</v>
       </c>
       <c r="I47" s="3">
-        <v>6144200</v>
+        <v>6070800</v>
       </c>
       <c r="J47" s="3">
-        <v>5521300</v>
+        <v>5455300</v>
       </c>
       <c r="K47" s="3">
         <v>4890500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8429600</v>
+        <v>16657700</v>
       </c>
       <c r="E48" s="3">
-        <v>8396600</v>
+        <v>8296300</v>
       </c>
       <c r="F48" s="3">
-        <v>5454000</v>
+        <v>5388800</v>
       </c>
       <c r="G48" s="3">
-        <v>5861300</v>
+        <v>5791200</v>
       </c>
       <c r="H48" s="3">
-        <v>5133600</v>
+        <v>5072300</v>
       </c>
       <c r="I48" s="3">
-        <v>8064900</v>
+        <v>7968600</v>
       </c>
       <c r="J48" s="3">
-        <v>3798100</v>
+        <v>3752700</v>
       </c>
       <c r="K48" s="3">
         <v>7154400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7809300</v>
+        <v>15431900</v>
       </c>
       <c r="E49" s="3">
-        <v>7360300</v>
+        <v>7272400</v>
       </c>
       <c r="F49" s="3">
-        <v>7312500</v>
+        <v>7225200</v>
       </c>
       <c r="G49" s="3">
-        <v>7738600</v>
+        <v>7646100</v>
       </c>
       <c r="H49" s="3">
-        <v>7697100</v>
+        <v>7605200</v>
       </c>
       <c r="I49" s="3">
-        <v>10881800</v>
+        <v>10751800</v>
       </c>
       <c r="J49" s="3">
-        <v>5098700</v>
+        <v>5037800</v>
       </c>
       <c r="K49" s="3">
         <v>9992600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2259300</v>
+        <v>1671900</v>
       </c>
       <c r="E52" s="3">
-        <v>2130500</v>
+        <v>2105100</v>
       </c>
       <c r="F52" s="3">
-        <v>1882300</v>
+        <v>1859900</v>
       </c>
       <c r="G52" s="3">
-        <v>1401500</v>
+        <v>1384700</v>
       </c>
       <c r="H52" s="3">
-        <v>1340200</v>
+        <v>1324200</v>
       </c>
       <c r="I52" s="3">
-        <v>799300</v>
+        <v>789800</v>
       </c>
       <c r="J52" s="3">
-        <v>500300</v>
+        <v>494400</v>
       </c>
       <c r="K52" s="3">
         <v>829600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34393100</v>
+        <v>33982200</v>
       </c>
       <c r="E54" s="3">
-        <v>32017300</v>
+        <v>31634800</v>
       </c>
       <c r="F54" s="3">
-        <v>28945900</v>
+        <v>28600000</v>
       </c>
       <c r="G54" s="3">
-        <v>29556500</v>
+        <v>29203400</v>
       </c>
       <c r="H54" s="3">
-        <v>27401200</v>
+        <v>27073800</v>
       </c>
       <c r="I54" s="3">
-        <v>20556700</v>
+        <v>20311100</v>
       </c>
       <c r="J54" s="3">
-        <v>18891400</v>
+        <v>18665700</v>
       </c>
       <c r="K54" s="3">
         <v>17374100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3774900</v>
+        <v>3729800</v>
       </c>
       <c r="E57" s="3">
-        <v>3850700</v>
+        <v>3804700</v>
       </c>
       <c r="F57" s="3">
-        <v>3297900</v>
+        <v>3258500</v>
       </c>
       <c r="G57" s="3">
-        <v>3322700</v>
+        <v>3283000</v>
       </c>
       <c r="H57" s="3">
-        <v>2967400</v>
+        <v>2932000</v>
       </c>
       <c r="I57" s="3">
-        <v>2260300</v>
+        <v>2233300</v>
       </c>
       <c r="J57" s="3">
-        <v>1719800</v>
+        <v>1699200</v>
       </c>
       <c r="K57" s="3">
         <v>1622500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>782100</v>
+        <v>1545500</v>
       </c>
       <c r="E58" s="3">
-        <v>1184700</v>
+        <v>1170600</v>
       </c>
       <c r="F58" s="3">
-        <v>686700</v>
+        <v>678500</v>
       </c>
       <c r="G58" s="3">
-        <v>682500</v>
+        <v>674300</v>
       </c>
       <c r="H58" s="3">
-        <v>365700</v>
+        <v>361300</v>
       </c>
       <c r="I58" s="3">
-        <v>592800</v>
+        <v>585700</v>
       </c>
       <c r="J58" s="3">
-        <v>78000</v>
+        <v>77100</v>
       </c>
       <c r="K58" s="3">
         <v>185100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1389700</v>
+        <v>3221100</v>
       </c>
       <c r="E59" s="3">
-        <v>1821300</v>
+        <v>1799600</v>
       </c>
       <c r="F59" s="3">
-        <v>1110900</v>
+        <v>1097600</v>
       </c>
       <c r="G59" s="3">
-        <v>1269000</v>
+        <v>1253800</v>
       </c>
       <c r="H59" s="3">
-        <v>1000300</v>
+        <v>988400</v>
       </c>
       <c r="I59" s="3">
-        <v>1454900</v>
+        <v>1437500</v>
       </c>
       <c r="J59" s="3">
-        <v>679000</v>
+        <v>670900</v>
       </c>
       <c r="K59" s="3">
         <v>2408600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5946700</v>
+        <v>5875700</v>
       </c>
       <c r="E60" s="3">
-        <v>6856700</v>
+        <v>6774800</v>
       </c>
       <c r="F60" s="3">
-        <v>5095500</v>
+        <v>5034600</v>
       </c>
       <c r="G60" s="3">
-        <v>5274200</v>
+        <v>5211200</v>
       </c>
       <c r="H60" s="3">
-        <v>4333400</v>
+        <v>4281700</v>
       </c>
       <c r="I60" s="3">
-        <v>3281700</v>
+        <v>3242500</v>
       </c>
       <c r="J60" s="3">
-        <v>2476800</v>
+        <v>2447200</v>
       </c>
       <c r="K60" s="3">
         <v>2363800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11620900</v>
+        <v>11482100</v>
       </c>
       <c r="E61" s="3">
-        <v>7484700</v>
+        <v>7395300</v>
       </c>
       <c r="F61" s="3">
-        <v>5774800</v>
+        <v>5705800</v>
       </c>
       <c r="G61" s="3">
-        <v>5913800</v>
+        <v>5843200</v>
       </c>
       <c r="H61" s="3">
-        <v>6627400</v>
+        <v>6548200</v>
       </c>
       <c r="I61" s="3">
-        <v>4317400</v>
+        <v>4265800</v>
       </c>
       <c r="J61" s="3">
-        <v>4165000</v>
+        <v>4115200</v>
       </c>
       <c r="K61" s="3">
         <v>3491600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1398500</v>
+        <v>1990900</v>
       </c>
       <c r="E62" s="3">
-        <v>1316600</v>
+        <v>1300900</v>
       </c>
       <c r="F62" s="3">
-        <v>1224600</v>
+        <v>1210000</v>
       </c>
       <c r="G62" s="3">
-        <v>1448800</v>
+        <v>1431500</v>
       </c>
       <c r="H62" s="3">
-        <v>2068900</v>
+        <v>2044200</v>
       </c>
       <c r="I62" s="3">
-        <v>1048800</v>
+        <v>1036300</v>
       </c>
       <c r="J62" s="3">
-        <v>692900</v>
+        <v>684600</v>
       </c>
       <c r="K62" s="3">
         <v>1472400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22453600</v>
+        <v>22185400</v>
       </c>
       <c r="E66" s="3">
-        <v>19362400</v>
+        <v>19131100</v>
       </c>
       <c r="F66" s="3">
-        <v>16036700</v>
+        <v>15845100</v>
       </c>
       <c r="G66" s="3">
-        <v>16986900</v>
+        <v>16784000</v>
       </c>
       <c r="H66" s="3">
-        <v>16759400</v>
+        <v>16559100</v>
       </c>
       <c r="I66" s="3">
-        <v>11440500</v>
+        <v>11303800</v>
       </c>
       <c r="J66" s="3">
-        <v>10330300</v>
+        <v>10206800</v>
       </c>
       <c r="K66" s="3">
         <v>6609400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10919300</v>
+        <v>10698800</v>
       </c>
       <c r="E72" s="3">
-        <v>11540300</v>
+        <v>11402400</v>
       </c>
       <c r="F72" s="3">
-        <v>10938000</v>
+        <v>10807300</v>
       </c>
       <c r="G72" s="3">
-        <v>10137800</v>
+        <v>10016700</v>
       </c>
       <c r="H72" s="3">
-        <v>8476900</v>
+        <v>8375700</v>
       </c>
       <c r="I72" s="3">
-        <v>7891500</v>
+        <v>7797200</v>
       </c>
       <c r="J72" s="3">
-        <v>7388500</v>
+        <v>7300200</v>
       </c>
       <c r="K72" s="3">
         <v>6328700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11939500</v>
+        <v>11796800</v>
       </c>
       <c r="E76" s="3">
-        <v>12654900</v>
+        <v>12503700</v>
       </c>
       <c r="F76" s="3">
-        <v>12909200</v>
+        <v>12755000</v>
       </c>
       <c r="G76" s="3">
-        <v>12569600</v>
+        <v>12419400</v>
       </c>
       <c r="H76" s="3">
-        <v>10641800</v>
+        <v>10514700</v>
       </c>
       <c r="I76" s="3">
-        <v>9116200</v>
+        <v>9007200</v>
       </c>
       <c r="J76" s="3">
-        <v>8561200</v>
+        <v>8458900</v>
       </c>
       <c r="K76" s="3">
         <v>10764700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-96900</v>
+        <v>-95800</v>
       </c>
       <c r="E81" s="3">
-        <v>1039500</v>
+        <v>1027100</v>
       </c>
       <c r="F81" s="3">
-        <v>1204800</v>
+        <v>1190400</v>
       </c>
       <c r="G81" s="3">
-        <v>2129700</v>
+        <v>2104300</v>
       </c>
       <c r="H81" s="3">
-        <v>1061700</v>
+        <v>1049000</v>
       </c>
       <c r="I81" s="3">
-        <v>888000</v>
+        <v>877400</v>
       </c>
       <c r="J81" s="3">
-        <v>838700</v>
+        <v>828700</v>
       </c>
       <c r="K81" s="3">
         <v>770100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1408600</v>
+        <v>1391800</v>
       </c>
       <c r="E83" s="3">
-        <v>1296200</v>
+        <v>1280700</v>
       </c>
       <c r="F83" s="3">
-        <v>865600</v>
+        <v>855300</v>
       </c>
       <c r="G83" s="3">
-        <v>785400</v>
+        <v>776100</v>
       </c>
       <c r="H83" s="3">
-        <v>688500</v>
+        <v>680200</v>
       </c>
       <c r="I83" s="3">
-        <v>543600</v>
+        <v>537200</v>
       </c>
       <c r="J83" s="3">
-        <v>502900</v>
+        <v>496900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2670300</v>
+        <v>2638400</v>
       </c>
       <c r="E89" s="3">
-        <v>3095500</v>
+        <v>3058500</v>
       </c>
       <c r="F89" s="3">
-        <v>2429500</v>
+        <v>2400500</v>
       </c>
       <c r="G89" s="3">
-        <v>2132800</v>
+        <v>2107400</v>
       </c>
       <c r="H89" s="3">
-        <v>2517600</v>
+        <v>2487500</v>
       </c>
       <c r="I89" s="3">
-        <v>1845200</v>
+        <v>1823200</v>
       </c>
       <c r="J89" s="3">
-        <v>1876400</v>
+        <v>1854000</v>
       </c>
       <c r="K89" s="3">
         <v>1391000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-991400</v>
+        <v>-979600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1210600</v>
+        <v>-1196100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1083900</v>
+        <v>-1071000</v>
       </c>
       <c r="G91" s="3">
-        <v>-978500</v>
+        <v>-966800</v>
       </c>
       <c r="H91" s="3">
-        <v>-958300</v>
+        <v>-946900</v>
       </c>
       <c r="I91" s="3">
-        <v>-878100</v>
+        <v>-867600</v>
       </c>
       <c r="J91" s="3">
-        <v>-853000</v>
+        <v>-842800</v>
       </c>
       <c r="K91" s="3">
         <v>-792300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1575300</v>
+        <v>-1556400</v>
       </c>
       <c r="E94" s="3">
-        <v>-709700</v>
+        <v>-701200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2895800</v>
+        <v>-2861200</v>
       </c>
       <c r="G94" s="3">
-        <v>1436100</v>
+        <v>1418900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1940800</v>
+        <v>-1917600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1424200</v>
+        <v>-1407200</v>
       </c>
       <c r="J94" s="3">
-        <v>-783800</v>
+        <v>-774500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-796900</v>
+        <v>-787400</v>
       </c>
       <c r="E96" s="3">
-        <v>-684400</v>
+        <v>-676300</v>
       </c>
       <c r="F96" s="3">
-        <v>-649500</v>
+        <v>-641700</v>
       </c>
       <c r="G96" s="3">
-        <v>-625200</v>
+        <v>-617800</v>
       </c>
       <c r="H96" s="3">
-        <v>-604900</v>
+        <v>-597700</v>
       </c>
       <c r="I96" s="3">
-        <v>-537400</v>
+        <v>-531000</v>
       </c>
       <c r="J96" s="3">
-        <v>-158300</v>
+        <v>-156400</v>
       </c>
       <c r="K96" s="3">
         <v>-797800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>983100</v>
+        <v>971300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1930100</v>
+        <v>-1907000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1155600</v>
+        <v>-1141800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1057300</v>
+        <v>-1044700</v>
       </c>
       <c r="H100" s="3">
-        <v>65100</v>
+        <v>64400</v>
       </c>
       <c r="I100" s="3">
-        <v>-690100</v>
+        <v>-681800</v>
       </c>
       <c r="J100" s="3">
-        <v>-466400</v>
+        <v>-460900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>34200</v>
+        <v>33800</v>
       </c>
       <c r="E101" s="3">
-        <v>-279100</v>
+        <v>-275800</v>
       </c>
       <c r="F101" s="3">
-        <v>-130700</v>
+        <v>-129100</v>
       </c>
       <c r="G101" s="3">
-        <v>165500</v>
+        <v>163500</v>
       </c>
       <c r="H101" s="3">
-        <v>73200</v>
+        <v>72300</v>
       </c>
       <c r="I101" s="3">
-        <v>-37300</v>
+        <v>-36900</v>
       </c>
       <c r="J101" s="3">
-        <v>-212400</v>
+        <v>-209900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2112400</v>
+        <v>2087100</v>
       </c>
       <c r="E102" s="3">
-        <v>176500</v>
+        <v>174400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1752600</v>
+        <v>-1731600</v>
       </c>
       <c r="G102" s="3">
-        <v>2677100</v>
+        <v>2645100</v>
       </c>
       <c r="H102" s="3">
-        <v>715200</v>
+        <v>706600</v>
       </c>
       <c r="I102" s="3">
-        <v>-306400</v>
+        <v>-302700</v>
       </c>
       <c r="J102" s="3">
-        <v>413700</v>
+        <v>408800</v>
       </c>
       <c r="K102" s="3">
         <v>-448000</v>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24461000</v>
+        <v>22750400</v>
       </c>
       <c r="E8" s="3">
-        <v>25143000</v>
+        <v>23384700</v>
       </c>
       <c r="F8" s="3">
-        <v>23308700</v>
+        <v>21678700</v>
       </c>
       <c r="G8" s="3">
-        <v>21829400</v>
+        <v>20302900</v>
       </c>
       <c r="H8" s="3">
-        <v>19823500</v>
+        <v>18437200</v>
       </c>
       <c r="I8" s="3">
-        <v>15461000</v>
+        <v>14379800</v>
       </c>
       <c r="J8" s="3">
-        <v>13072300</v>
+        <v>12158200</v>
       </c>
       <c r="K8" s="3">
         <v>12484200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15050400</v>
+        <v>13997900</v>
       </c>
       <c r="E9" s="3">
-        <v>15641700</v>
+        <v>14547900</v>
       </c>
       <c r="F9" s="3">
-        <v>14616800</v>
+        <v>13594600</v>
       </c>
       <c r="G9" s="3">
-        <v>13786500</v>
+        <v>12822400</v>
       </c>
       <c r="H9" s="3">
-        <v>12469700</v>
+        <v>11597600</v>
       </c>
       <c r="I9" s="3">
-        <v>9348900</v>
+        <v>8695100</v>
       </c>
       <c r="J9" s="3">
-        <v>7605700</v>
+        <v>7073800</v>
       </c>
       <c r="K9" s="3">
         <v>7180200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9410600</v>
+        <v>8752500</v>
       </c>
       <c r="E10" s="3">
-        <v>9501300</v>
+        <v>8836800</v>
       </c>
       <c r="F10" s="3">
-        <v>8691900</v>
+        <v>8084100</v>
       </c>
       <c r="G10" s="3">
-        <v>8042900</v>
+        <v>7480500</v>
       </c>
       <c r="H10" s="3">
-        <v>7353900</v>
+        <v>6839600</v>
       </c>
       <c r="I10" s="3">
-        <v>6112100</v>
+        <v>5684700</v>
       </c>
       <c r="J10" s="3">
-        <v>5466700</v>
+        <v>5084400</v>
       </c>
       <c r="K10" s="3">
         <v>5304000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>252200</v>
+        <v>234500</v>
       </c>
       <c r="E14" s="3">
-        <v>49500</v>
+        <v>46000</v>
       </c>
       <c r="F14" s="3">
-        <v>20800</v>
+        <v>19300</v>
       </c>
       <c r="G14" s="3">
-        <v>102200</v>
+        <v>95100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="J14" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>108000</v>
+        <v>100500</v>
       </c>
       <c r="E15" s="3">
-        <v>74200</v>
+        <v>69000</v>
       </c>
       <c r="F15" s="3">
-        <v>75100</v>
+        <v>69900</v>
       </c>
       <c r="G15" s="3">
-        <v>55900</v>
+        <v>52000</v>
       </c>
       <c r="H15" s="3">
-        <v>41500</v>
+        <v>38600</v>
       </c>
       <c r="I15" s="3">
-        <v>26900</v>
+        <v>25100</v>
       </c>
       <c r="J15" s="3">
-        <v>20400</v>
+        <v>19000</v>
       </c>
       <c r="K15" s="3">
         <v>19600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22762900</v>
+        <v>21171000</v>
       </c>
       <c r="E17" s="3">
-        <v>22871000</v>
+        <v>21271600</v>
       </c>
       <c r="F17" s="3">
-        <v>21273800</v>
+        <v>19786100</v>
       </c>
       <c r="G17" s="3">
-        <v>19890600</v>
+        <v>18499600</v>
       </c>
       <c r="H17" s="3">
-        <v>18177400</v>
+        <v>16906200</v>
       </c>
       <c r="I17" s="3">
-        <v>13834500</v>
+        <v>12867000</v>
       </c>
       <c r="J17" s="3">
-        <v>11547400</v>
+        <v>10739900</v>
       </c>
       <c r="K17" s="3">
         <v>11065500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1698100</v>
+        <v>1579300</v>
       </c>
       <c r="E18" s="3">
-        <v>2272000</v>
+        <v>2113100</v>
       </c>
       <c r="F18" s="3">
-        <v>2034900</v>
+        <v>1892600</v>
       </c>
       <c r="G18" s="3">
-        <v>1938800</v>
+        <v>1803200</v>
       </c>
       <c r="H18" s="3">
-        <v>1646100</v>
+        <v>1531000</v>
       </c>
       <c r="I18" s="3">
-        <v>1626600</v>
+        <v>1512800</v>
       </c>
       <c r="J18" s="3">
-        <v>1524900</v>
+        <v>1418300</v>
       </c>
       <c r="K18" s="3">
         <v>1418600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47300</v>
+        <v>44000</v>
       </c>
       <c r="E20" s="3">
-        <v>-350200</v>
+        <v>-325700</v>
       </c>
       <c r="F20" s="3">
-        <v>-31000</v>
+        <v>-28800</v>
       </c>
       <c r="G20" s="3">
-        <v>152100</v>
+        <v>141400</v>
       </c>
       <c r="H20" s="3">
-        <v>51800</v>
+        <v>48100</v>
       </c>
       <c r="I20" s="3">
-        <v>-153400</v>
+        <v>-142700</v>
       </c>
       <c r="J20" s="3">
-        <v>-154200</v>
+        <v>-143400</v>
       </c>
       <c r="K20" s="3">
         <v>-59800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3144700</v>
+        <v>2903500</v>
       </c>
       <c r="E21" s="3">
-        <v>3209400</v>
+        <v>2965400</v>
       </c>
       <c r="F21" s="3">
-        <v>2863900</v>
+        <v>2650500</v>
       </c>
       <c r="G21" s="3">
-        <v>2871200</v>
+        <v>2658500</v>
       </c>
       <c r="H21" s="3">
-        <v>2381800</v>
+        <v>2204800</v>
       </c>
       <c r="I21" s="3">
-        <v>2013200</v>
+        <v>1864200</v>
       </c>
       <c r="J21" s="3">
-        <v>1870400</v>
+        <v>1731900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>787200</v>
+        <v>732100</v>
       </c>
       <c r="E22" s="3">
-        <v>319300</v>
+        <v>296900</v>
       </c>
       <c r="F22" s="3">
-        <v>335200</v>
+        <v>311700</v>
       </c>
       <c r="G22" s="3">
-        <v>315900</v>
+        <v>293800</v>
       </c>
       <c r="H22" s="3">
-        <v>280900</v>
+        <v>261300</v>
       </c>
       <c r="I22" s="3">
-        <v>224600</v>
+        <v>208900</v>
       </c>
       <c r="J22" s="3">
-        <v>192600</v>
+        <v>179100</v>
       </c>
       <c r="K22" s="3">
         <v>145700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>958200</v>
+        <v>891200</v>
       </c>
       <c r="E23" s="3">
-        <v>1602500</v>
+        <v>1490500</v>
       </c>
       <c r="F23" s="3">
-        <v>1668700</v>
+        <v>1552000</v>
       </c>
       <c r="G23" s="3">
-        <v>1775000</v>
+        <v>1650800</v>
       </c>
       <c r="H23" s="3">
-        <v>1416900</v>
+        <v>1317900</v>
       </c>
       <c r="I23" s="3">
-        <v>1248600</v>
+        <v>1161300</v>
       </c>
       <c r="J23" s="3">
-        <v>1178200</v>
+        <v>1095800</v>
       </c>
       <c r="K23" s="3">
         <v>1213100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>735300</v>
+        <v>683900</v>
       </c>
       <c r="E24" s="3">
-        <v>519800</v>
+        <v>483500</v>
       </c>
       <c r="F24" s="3">
-        <v>504600</v>
+        <v>469300</v>
       </c>
       <c r="G24" s="3">
-        <v>506800</v>
+        <v>471300</v>
       </c>
       <c r="H24" s="3">
-        <v>391400</v>
+        <v>364000</v>
       </c>
       <c r="I24" s="3">
-        <v>393600</v>
+        <v>366100</v>
       </c>
       <c r="J24" s="3">
-        <v>310300</v>
+        <v>288600</v>
       </c>
       <c r="K24" s="3">
         <v>375200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>222900</v>
+        <v>207300</v>
       </c>
       <c r="E26" s="3">
+        <v>1007000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1082700</v>
       </c>
-      <c r="F26" s="3">
-        <v>1164100</v>
-      </c>
       <c r="G26" s="3">
-        <v>1268200</v>
+        <v>1179500</v>
       </c>
       <c r="H26" s="3">
-        <v>1025500</v>
+        <v>953800</v>
       </c>
       <c r="I26" s="3">
-        <v>855000</v>
+        <v>795200</v>
       </c>
       <c r="J26" s="3">
-        <v>867900</v>
+        <v>807200</v>
       </c>
       <c r="K26" s="3">
         <v>838000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-95800</v>
+        <v>-89100</v>
       </c>
       <c r="E27" s="3">
-        <v>1027100</v>
+        <v>955300</v>
       </c>
       <c r="F27" s="3">
-        <v>1023400</v>
+        <v>951800</v>
       </c>
       <c r="G27" s="3">
-        <v>1919400</v>
+        <v>1785200</v>
       </c>
       <c r="H27" s="3">
-        <v>1049000</v>
+        <v>975600</v>
       </c>
       <c r="I27" s="3">
-        <v>877400</v>
+        <v>816100</v>
       </c>
       <c r="J27" s="3">
-        <v>828700</v>
+        <v>770800</v>
       </c>
       <c r="K27" s="3">
         <v>770100</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>167000</v>
+        <v>155300</v>
       </c>
       <c r="G29" s="3">
-        <v>184900</v>
+        <v>172000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47300</v>
+        <v>-44000</v>
       </c>
       <c r="E32" s="3">
-        <v>350200</v>
+        <v>325700</v>
       </c>
       <c r="F32" s="3">
-        <v>31000</v>
+        <v>28800</v>
       </c>
       <c r="G32" s="3">
-        <v>-152100</v>
+        <v>-141400</v>
       </c>
       <c r="H32" s="3">
-        <v>-51800</v>
+        <v>-48100</v>
       </c>
       <c r="I32" s="3">
-        <v>153400</v>
+        <v>142700</v>
       </c>
       <c r="J32" s="3">
-        <v>154200</v>
+        <v>143400</v>
       </c>
       <c r="K32" s="3">
         <v>59800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-95800</v>
+        <v>-89100</v>
       </c>
       <c r="E33" s="3">
-        <v>1027100</v>
+        <v>955300</v>
       </c>
       <c r="F33" s="3">
-        <v>1190400</v>
+        <v>1107100</v>
       </c>
       <c r="G33" s="3">
-        <v>2104300</v>
+        <v>1957100</v>
       </c>
       <c r="H33" s="3">
-        <v>1049000</v>
+        <v>975600</v>
       </c>
       <c r="I33" s="3">
-        <v>877400</v>
+        <v>816100</v>
       </c>
       <c r="J33" s="3">
-        <v>828700</v>
+        <v>770800</v>
       </c>
       <c r="K33" s="3">
         <v>770100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-95800</v>
+        <v>-89100</v>
       </c>
       <c r="E35" s="3">
-        <v>1027100</v>
+        <v>955300</v>
       </c>
       <c r="F35" s="3">
-        <v>1190400</v>
+        <v>1107100</v>
       </c>
       <c r="G35" s="3">
-        <v>2104300</v>
+        <v>1957100</v>
       </c>
       <c r="H35" s="3">
-        <v>1049000</v>
+        <v>975600</v>
       </c>
       <c r="I35" s="3">
-        <v>877400</v>
+        <v>816100</v>
       </c>
       <c r="J35" s="3">
-        <v>828700</v>
+        <v>770800</v>
       </c>
       <c r="K35" s="3">
         <v>770100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5340300</v>
+        <v>4966900</v>
       </c>
       <c r="E41" s="3">
-        <v>3253200</v>
+        <v>3025700</v>
       </c>
       <c r="F41" s="3">
-        <v>3078800</v>
+        <v>2863500</v>
       </c>
       <c r="G41" s="3">
-        <v>4810400</v>
+        <v>4474000</v>
       </c>
       <c r="H41" s="3">
-        <v>2165300</v>
+        <v>2013800</v>
       </c>
       <c r="I41" s="3">
-        <v>1458600</v>
+        <v>1356600</v>
       </c>
       <c r="J41" s="3">
-        <v>1761400</v>
+        <v>1638200</v>
       </c>
       <c r="K41" s="3">
         <v>2643100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>99500</v>
+        <v>92500</v>
       </c>
       <c r="E42" s="3">
-        <v>613600</v>
+        <v>570700</v>
       </c>
       <c r="F42" s="3">
-        <v>1534400</v>
+        <v>1427100</v>
       </c>
       <c r="G42" s="3">
-        <v>107200</v>
+        <v>99700</v>
       </c>
       <c r="H42" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="I42" s="3">
-        <v>121900</v>
+        <v>113300</v>
       </c>
       <c r="J42" s="3">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="K42" s="3">
         <v>6100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3435100</v>
+        <v>3194800</v>
       </c>
       <c r="E43" s="3">
-        <v>2403600</v>
+        <v>2235500</v>
       </c>
       <c r="F43" s="3">
-        <v>2217700</v>
+        <v>2062600</v>
       </c>
       <c r="G43" s="3">
-        <v>2164400</v>
+        <v>2013000</v>
       </c>
       <c r="H43" s="3">
-        <v>1759600</v>
+        <v>1636600</v>
       </c>
       <c r="I43" s="3">
-        <v>2063900</v>
+        <v>1919500</v>
       </c>
       <c r="J43" s="3">
-        <v>1134900</v>
+        <v>1055500</v>
       </c>
       <c r="K43" s="3">
         <v>1761800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2185000</v>
+        <v>2032200</v>
       </c>
       <c r="E44" s="3">
-        <v>2035600</v>
+        <v>1893200</v>
       </c>
       <c r="F44" s="3">
-        <v>1770700</v>
+        <v>1646900</v>
       </c>
       <c r="G44" s="3">
-        <v>1728800</v>
+        <v>1607900</v>
       </c>
       <c r="H44" s="3">
-        <v>1584500</v>
+        <v>1473700</v>
       </c>
       <c r="I44" s="3">
-        <v>1224600</v>
+        <v>1139000</v>
       </c>
       <c r="J44" s="3">
-        <v>854200</v>
+        <v>794400</v>
       </c>
       <c r="K44" s="3">
         <v>1769300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>321900</v>
+        <v>299400</v>
       </c>
       <c r="E45" s="3">
-        <v>257400</v>
+        <v>239400</v>
       </c>
       <c r="F45" s="3">
-        <v>211200</v>
+        <v>196400</v>
       </c>
       <c r="G45" s="3">
-        <v>179900</v>
+        <v>167300</v>
       </c>
       <c r="H45" s="3">
-        <v>337400</v>
+        <v>313800</v>
       </c>
       <c r="I45" s="3">
-        <v>423500</v>
+        <v>393900</v>
       </c>
       <c r="J45" s="3">
-        <v>168000</v>
+        <v>156200</v>
       </c>
       <c r="K45" s="3">
         <v>921600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9986900</v>
+        <v>9288500</v>
       </c>
       <c r="E46" s="3">
-        <v>8563400</v>
+        <v>7964500</v>
       </c>
       <c r="F46" s="3">
-        <v>8812900</v>
+        <v>8196600</v>
       </c>
       <c r="G46" s="3">
-        <v>8990500</v>
+        <v>8361800</v>
       </c>
       <c r="H46" s="3">
-        <v>5852700</v>
+        <v>5443400</v>
       </c>
       <c r="I46" s="3">
-        <v>4303200</v>
+        <v>4002300</v>
       </c>
       <c r="J46" s="3">
-        <v>3925500</v>
+        <v>3651000</v>
       </c>
       <c r="K46" s="3">
         <v>3558500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6616300</v>
+        <v>6153600</v>
       </c>
       <c r="E47" s="3">
-        <v>5397600</v>
+        <v>5020200</v>
       </c>
       <c r="F47" s="3">
-        <v>5313300</v>
+        <v>4941700</v>
       </c>
       <c r="G47" s="3">
-        <v>5390800</v>
+        <v>5013800</v>
       </c>
       <c r="H47" s="3">
-        <v>7219400</v>
+        <v>6714500</v>
       </c>
       <c r="I47" s="3">
-        <v>6070800</v>
+        <v>5646300</v>
       </c>
       <c r="J47" s="3">
-        <v>5455300</v>
+        <v>5073800</v>
       </c>
       <c r="K47" s="3">
         <v>4890500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16657700</v>
+        <v>15492800</v>
       </c>
       <c r="E48" s="3">
-        <v>8296300</v>
+        <v>7716100</v>
       </c>
       <c r="F48" s="3">
-        <v>5388800</v>
+        <v>5012000</v>
       </c>
       <c r="G48" s="3">
-        <v>5791200</v>
+        <v>5386300</v>
       </c>
       <c r="H48" s="3">
-        <v>5072300</v>
+        <v>4717600</v>
       </c>
       <c r="I48" s="3">
-        <v>7968600</v>
+        <v>7411300</v>
       </c>
       <c r="J48" s="3">
-        <v>3752700</v>
+        <v>3490300</v>
       </c>
       <c r="K48" s="3">
         <v>7154400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15431900</v>
+        <v>14352800</v>
       </c>
       <c r="E49" s="3">
-        <v>7272400</v>
+        <v>6763800</v>
       </c>
       <c r="F49" s="3">
-        <v>7225200</v>
+        <v>6719900</v>
       </c>
       <c r="G49" s="3">
-        <v>7646100</v>
+        <v>7111400</v>
       </c>
       <c r="H49" s="3">
-        <v>7605200</v>
+        <v>7073300</v>
       </c>
       <c r="I49" s="3">
-        <v>10751800</v>
+        <v>9999900</v>
       </c>
       <c r="J49" s="3">
-        <v>5037800</v>
+        <v>4685500</v>
       </c>
       <c r="K49" s="3">
         <v>9992600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1671900</v>
+        <v>1555000</v>
       </c>
       <c r="E52" s="3">
-        <v>2105100</v>
+        <v>1957900</v>
       </c>
       <c r="F52" s="3">
-        <v>1859900</v>
+        <v>1729800</v>
       </c>
       <c r="G52" s="3">
-        <v>1384700</v>
+        <v>1287900</v>
       </c>
       <c r="H52" s="3">
-        <v>1324200</v>
+        <v>1231600</v>
       </c>
       <c r="I52" s="3">
-        <v>789800</v>
+        <v>734600</v>
       </c>
       <c r="J52" s="3">
-        <v>494400</v>
+        <v>459800</v>
       </c>
       <c r="K52" s="3">
         <v>829600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33982200</v>
+        <v>31605800</v>
       </c>
       <c r="E54" s="3">
-        <v>31634800</v>
+        <v>29422500</v>
       </c>
       <c r="F54" s="3">
-        <v>28600000</v>
+        <v>26600000</v>
       </c>
       <c r="G54" s="3">
-        <v>29203400</v>
+        <v>27161200</v>
       </c>
       <c r="H54" s="3">
-        <v>27073800</v>
+        <v>25180500</v>
       </c>
       <c r="I54" s="3">
-        <v>20311100</v>
+        <v>18890700</v>
       </c>
       <c r="J54" s="3">
-        <v>18665700</v>
+        <v>17360400</v>
       </c>
       <c r="K54" s="3">
         <v>17374100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3729800</v>
+        <v>3469000</v>
       </c>
       <c r="E57" s="3">
-        <v>3804700</v>
+        <v>3538600</v>
       </c>
       <c r="F57" s="3">
-        <v>3258500</v>
+        <v>3030600</v>
       </c>
       <c r="G57" s="3">
-        <v>3283000</v>
+        <v>3053400</v>
       </c>
       <c r="H57" s="3">
-        <v>2932000</v>
+        <v>2727000</v>
       </c>
       <c r="I57" s="3">
-        <v>2233300</v>
+        <v>2077200</v>
       </c>
       <c r="J57" s="3">
-        <v>1699200</v>
+        <v>1580400</v>
       </c>
       <c r="K57" s="3">
         <v>1622500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1545500</v>
+        <v>1437400</v>
       </c>
       <c r="E58" s="3">
-        <v>1170600</v>
+        <v>1088700</v>
       </c>
       <c r="F58" s="3">
-        <v>678500</v>
+        <v>631100</v>
       </c>
       <c r="G58" s="3">
-        <v>674300</v>
+        <v>627200</v>
       </c>
       <c r="H58" s="3">
-        <v>361300</v>
+        <v>336000</v>
       </c>
       <c r="I58" s="3">
-        <v>585700</v>
+        <v>544800</v>
       </c>
       <c r="J58" s="3">
-        <v>77100</v>
+        <v>71700</v>
       </c>
       <c r="K58" s="3">
         <v>185100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3221100</v>
+        <v>2995900</v>
       </c>
       <c r="E59" s="3">
-        <v>1799600</v>
+        <v>1673700</v>
       </c>
       <c r="F59" s="3">
-        <v>1097600</v>
+        <v>1020900</v>
       </c>
       <c r="G59" s="3">
-        <v>1253800</v>
+        <v>1166200</v>
       </c>
       <c r="H59" s="3">
-        <v>988400</v>
+        <v>919300</v>
       </c>
       <c r="I59" s="3">
-        <v>1437500</v>
+        <v>1336900</v>
       </c>
       <c r="J59" s="3">
-        <v>670900</v>
+        <v>624000</v>
       </c>
       <c r="K59" s="3">
         <v>2408600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5875700</v>
+        <v>5464800</v>
       </c>
       <c r="E60" s="3">
-        <v>6774800</v>
+        <v>6301000</v>
       </c>
       <c r="F60" s="3">
-        <v>5034600</v>
+        <v>4682600</v>
       </c>
       <c r="G60" s="3">
-        <v>5211200</v>
+        <v>4846800</v>
       </c>
       <c r="H60" s="3">
-        <v>4281700</v>
+        <v>3982200</v>
       </c>
       <c r="I60" s="3">
-        <v>3242500</v>
+        <v>3015700</v>
       </c>
       <c r="J60" s="3">
-        <v>2447200</v>
+        <v>2276100</v>
       </c>
       <c r="K60" s="3">
         <v>2363800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11482100</v>
+        <v>10679100</v>
       </c>
       <c r="E61" s="3">
-        <v>7395300</v>
+        <v>6878100</v>
       </c>
       <c r="F61" s="3">
-        <v>5705800</v>
+        <v>5306800</v>
       </c>
       <c r="G61" s="3">
-        <v>5843200</v>
+        <v>5434500</v>
       </c>
       <c r="H61" s="3">
-        <v>6548200</v>
+        <v>6090300</v>
       </c>
       <c r="I61" s="3">
-        <v>4265800</v>
+        <v>3967500</v>
       </c>
       <c r="J61" s="3">
-        <v>4115200</v>
+        <v>3827500</v>
       </c>
       <c r="K61" s="3">
         <v>3491600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1990900</v>
+        <v>1851700</v>
       </c>
       <c r="E62" s="3">
-        <v>1300900</v>
+        <v>1209900</v>
       </c>
       <c r="F62" s="3">
-        <v>1210000</v>
+        <v>1125400</v>
       </c>
       <c r="G62" s="3">
-        <v>1431500</v>
+        <v>1331400</v>
       </c>
       <c r="H62" s="3">
-        <v>2044200</v>
+        <v>1901200</v>
       </c>
       <c r="I62" s="3">
-        <v>1036300</v>
+        <v>963800</v>
       </c>
       <c r="J62" s="3">
-        <v>684600</v>
+        <v>636700</v>
       </c>
       <c r="K62" s="3">
         <v>1472400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22185400</v>
+        <v>20633900</v>
       </c>
       <c r="E66" s="3">
-        <v>19131100</v>
+        <v>17793200</v>
       </c>
       <c r="F66" s="3">
-        <v>15845100</v>
+        <v>14737000</v>
       </c>
       <c r="G66" s="3">
-        <v>16784000</v>
+        <v>15610200</v>
       </c>
       <c r="H66" s="3">
-        <v>16559100</v>
+        <v>15401100</v>
       </c>
       <c r="I66" s="3">
-        <v>11303800</v>
+        <v>10513300</v>
       </c>
       <c r="J66" s="3">
-        <v>10206800</v>
+        <v>9493100</v>
       </c>
       <c r="K66" s="3">
         <v>6609400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10698800</v>
+        <v>9950600</v>
       </c>
       <c r="E72" s="3">
-        <v>11402400</v>
+        <v>10605000</v>
       </c>
       <c r="F72" s="3">
-        <v>10807300</v>
+        <v>10051600</v>
       </c>
       <c r="G72" s="3">
-        <v>10016700</v>
+        <v>9316200</v>
       </c>
       <c r="H72" s="3">
-        <v>8375700</v>
+        <v>7789900</v>
       </c>
       <c r="I72" s="3">
-        <v>7797200</v>
+        <v>7251900</v>
       </c>
       <c r="J72" s="3">
-        <v>7300200</v>
+        <v>6789700</v>
       </c>
       <c r="K72" s="3">
         <v>6328700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11796800</v>
+        <v>10971900</v>
       </c>
       <c r="E76" s="3">
-        <v>12503700</v>
+        <v>11629300</v>
       </c>
       <c r="F76" s="3">
-        <v>12755000</v>
+        <v>11863000</v>
       </c>
       <c r="G76" s="3">
-        <v>12419400</v>
+        <v>11550900</v>
       </c>
       <c r="H76" s="3">
-        <v>10514700</v>
+        <v>9779400</v>
       </c>
       <c r="I76" s="3">
-        <v>9007200</v>
+        <v>8377300</v>
       </c>
       <c r="J76" s="3">
-        <v>8458900</v>
+        <v>7867300</v>
       </c>
       <c r="K76" s="3">
         <v>10764700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-95800</v>
+        <v>-89100</v>
       </c>
       <c r="E81" s="3">
-        <v>1027100</v>
+        <v>955300</v>
       </c>
       <c r="F81" s="3">
-        <v>1190400</v>
+        <v>1107100</v>
       </c>
       <c r="G81" s="3">
-        <v>2104300</v>
+        <v>1957100</v>
       </c>
       <c r="H81" s="3">
-        <v>1049000</v>
+        <v>975600</v>
       </c>
       <c r="I81" s="3">
-        <v>877400</v>
+        <v>816100</v>
       </c>
       <c r="J81" s="3">
-        <v>828700</v>
+        <v>770800</v>
       </c>
       <c r="K81" s="3">
         <v>770100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1391800</v>
+        <v>1294500</v>
       </c>
       <c r="E83" s="3">
-        <v>1280700</v>
+        <v>1191100</v>
       </c>
       <c r="F83" s="3">
-        <v>855300</v>
+        <v>795500</v>
       </c>
       <c r="G83" s="3">
-        <v>776100</v>
+        <v>721800</v>
       </c>
       <c r="H83" s="3">
-        <v>680200</v>
+        <v>632700</v>
       </c>
       <c r="I83" s="3">
-        <v>537200</v>
+        <v>499600</v>
       </c>
       <c r="J83" s="3">
-        <v>496900</v>
+        <v>462100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2638400</v>
+        <v>2453900</v>
       </c>
       <c r="E89" s="3">
-        <v>3058500</v>
+        <v>2844600</v>
       </c>
       <c r="F89" s="3">
-        <v>2400500</v>
+        <v>2232600</v>
       </c>
       <c r="G89" s="3">
-        <v>2107400</v>
+        <v>1960000</v>
       </c>
       <c r="H89" s="3">
-        <v>2487500</v>
+        <v>2313500</v>
       </c>
       <c r="I89" s="3">
-        <v>1823200</v>
+        <v>1695700</v>
       </c>
       <c r="J89" s="3">
-        <v>1854000</v>
+        <v>1724300</v>
       </c>
       <c r="K89" s="3">
         <v>1391000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-979600</v>
+        <v>-911100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1196100</v>
+        <v>-1112400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1071000</v>
+        <v>-996100</v>
       </c>
       <c r="G91" s="3">
-        <v>-966800</v>
+        <v>-899200</v>
       </c>
       <c r="H91" s="3">
-        <v>-946900</v>
+        <v>-880700</v>
       </c>
       <c r="I91" s="3">
-        <v>-867600</v>
+        <v>-806900</v>
       </c>
       <c r="J91" s="3">
-        <v>-842800</v>
+        <v>-783900</v>
       </c>
       <c r="K91" s="3">
         <v>-792300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1556400</v>
+        <v>-1447600</v>
       </c>
       <c r="E94" s="3">
-        <v>-701200</v>
+        <v>-652200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2861200</v>
+        <v>-2661100</v>
       </c>
       <c r="G94" s="3">
-        <v>1418900</v>
+        <v>1319700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1917600</v>
+        <v>-1783500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1407200</v>
+        <v>-1308800</v>
       </c>
       <c r="J94" s="3">
-        <v>-774500</v>
+        <v>-720300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-787400</v>
+        <v>-732300</v>
       </c>
       <c r="E96" s="3">
-        <v>-676300</v>
+        <v>-629000</v>
       </c>
       <c r="F96" s="3">
-        <v>-641700</v>
+        <v>-596900</v>
       </c>
       <c r="G96" s="3">
-        <v>-617800</v>
+        <v>-574600</v>
       </c>
       <c r="H96" s="3">
-        <v>-597700</v>
+        <v>-555900</v>
       </c>
       <c r="I96" s="3">
-        <v>-531000</v>
+        <v>-493800</v>
       </c>
       <c r="J96" s="3">
-        <v>-156400</v>
+        <v>-145500</v>
       </c>
       <c r="K96" s="3">
         <v>-797800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>971300</v>
+        <v>903400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1907000</v>
+        <v>-1773700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1141800</v>
+        <v>-1062000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1044700</v>
+        <v>-971600</v>
       </c>
       <c r="H100" s="3">
-        <v>64400</v>
+        <v>59900</v>
       </c>
       <c r="I100" s="3">
-        <v>-681800</v>
+        <v>-634200</v>
       </c>
       <c r="J100" s="3">
-        <v>-460900</v>
+        <v>-428600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>33800</v>
+        <v>31400</v>
       </c>
       <c r="E101" s="3">
-        <v>-275800</v>
+        <v>-256500</v>
       </c>
       <c r="F101" s="3">
-        <v>-129100</v>
+        <v>-120100</v>
       </c>
       <c r="G101" s="3">
-        <v>163500</v>
+        <v>152100</v>
       </c>
       <c r="H101" s="3">
-        <v>72300</v>
+        <v>67300</v>
       </c>
       <c r="I101" s="3">
-        <v>-36900</v>
+        <v>-34300</v>
       </c>
       <c r="J101" s="3">
-        <v>-209900</v>
+        <v>-195200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2087100</v>
+        <v>1941200</v>
       </c>
       <c r="E102" s="3">
-        <v>174400</v>
+        <v>162200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1731600</v>
+        <v>-1610500</v>
       </c>
       <c r="G102" s="3">
-        <v>2645100</v>
+        <v>2460100</v>
       </c>
       <c r="H102" s="3">
-        <v>706600</v>
+        <v>657200</v>
       </c>
       <c r="I102" s="3">
-        <v>-302700</v>
+        <v>-281500</v>
       </c>
       <c r="J102" s="3">
-        <v>408800</v>
+        <v>380200</v>
       </c>
       <c r="K102" s="3">
         <v>-448000</v>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>FMX</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22750400</v>
+        <v>23588400</v>
       </c>
       <c r="E8" s="3">
-        <v>23384700</v>
+        <v>24246100</v>
       </c>
       <c r="F8" s="3">
-        <v>21678700</v>
+        <v>22477300</v>
       </c>
       <c r="G8" s="3">
-        <v>20302900</v>
+        <v>21050700</v>
       </c>
       <c r="H8" s="3">
-        <v>18437200</v>
+        <v>19116400</v>
       </c>
       <c r="I8" s="3">
-        <v>14379800</v>
+        <v>14909500</v>
       </c>
       <c r="J8" s="3">
-        <v>12158200</v>
+        <v>12606000</v>
       </c>
       <c r="K8" s="3">
         <v>12484200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13997900</v>
+        <v>14513500</v>
       </c>
       <c r="E9" s="3">
-        <v>14547900</v>
+        <v>15083800</v>
       </c>
       <c r="F9" s="3">
-        <v>13594600</v>
+        <v>14095400</v>
       </c>
       <c r="G9" s="3">
-        <v>12822400</v>
+        <v>13294700</v>
       </c>
       <c r="H9" s="3">
-        <v>11597600</v>
+        <v>12024800</v>
       </c>
       <c r="I9" s="3">
-        <v>8695100</v>
+        <v>9015400</v>
       </c>
       <c r="J9" s="3">
-        <v>7073800</v>
+        <v>7334400</v>
       </c>
       <c r="K9" s="3">
         <v>7180200</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8752500</v>
+        <v>9074900</v>
       </c>
       <c r="E10" s="3">
-        <v>8836800</v>
+        <v>9162400</v>
       </c>
       <c r="F10" s="3">
-        <v>8084100</v>
+        <v>8381900</v>
       </c>
       <c r="G10" s="3">
-        <v>7480500</v>
+        <v>7756000</v>
       </c>
       <c r="H10" s="3">
-        <v>6839600</v>
+        <v>7091600</v>
       </c>
       <c r="I10" s="3">
-        <v>5684700</v>
+        <v>5894100</v>
       </c>
       <c r="J10" s="3">
-        <v>5084400</v>
+        <v>5271700</v>
       </c>
       <c r="K10" s="3">
         <v>5304000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>234500</v>
+        <v>243200</v>
       </c>
       <c r="E14" s="3">
-        <v>46000</v>
+        <v>47700</v>
       </c>
       <c r="F14" s="3">
-        <v>19300</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="3">
-        <v>95100</v>
+        <v>98600</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="J14" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100500</v>
+        <v>104200</v>
       </c>
       <c r="E15" s="3">
-        <v>69000</v>
+        <v>71500</v>
       </c>
       <c r="F15" s="3">
-        <v>69900</v>
+        <v>72400</v>
       </c>
       <c r="G15" s="3">
-        <v>52000</v>
+        <v>53900</v>
       </c>
       <c r="H15" s="3">
-        <v>38600</v>
+        <v>40100</v>
       </c>
       <c r="I15" s="3">
-        <v>25100</v>
+        <v>26000</v>
       </c>
       <c r="J15" s="3">
-        <v>19000</v>
+        <v>19700</v>
       </c>
       <c r="K15" s="3">
         <v>19600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21171000</v>
+        <v>21950900</v>
       </c>
       <c r="E17" s="3">
-        <v>21271600</v>
+        <v>22055200</v>
       </c>
       <c r="F17" s="3">
-        <v>19786100</v>
+        <v>20514900</v>
       </c>
       <c r="G17" s="3">
-        <v>18499600</v>
+        <v>19181100</v>
       </c>
       <c r="H17" s="3">
-        <v>16906200</v>
+        <v>17529000</v>
       </c>
       <c r="I17" s="3">
-        <v>12867000</v>
+        <v>13341000</v>
       </c>
       <c r="J17" s="3">
-        <v>10739900</v>
+        <v>11135500</v>
       </c>
       <c r="K17" s="3">
         <v>11065500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1579300</v>
+        <v>1637500</v>
       </c>
       <c r="E18" s="3">
-        <v>2113100</v>
+        <v>2191000</v>
       </c>
       <c r="F18" s="3">
-        <v>1892600</v>
+        <v>1962300</v>
       </c>
       <c r="G18" s="3">
-        <v>1803200</v>
+        <v>1869600</v>
       </c>
       <c r="H18" s="3">
-        <v>1531000</v>
+        <v>1587400</v>
       </c>
       <c r="I18" s="3">
-        <v>1512800</v>
+        <v>1568600</v>
       </c>
       <c r="J18" s="3">
-        <v>1418300</v>
+        <v>1470500</v>
       </c>
       <c r="K18" s="3">
         <v>1418600</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>44000</v>
+        <v>45600</v>
       </c>
       <c r="E20" s="3">
-        <v>-325700</v>
+        <v>-337700</v>
       </c>
       <c r="F20" s="3">
-        <v>-28800</v>
+        <v>-29900</v>
       </c>
       <c r="G20" s="3">
-        <v>141400</v>
+        <v>146700</v>
       </c>
       <c r="H20" s="3">
-        <v>48100</v>
+        <v>49900</v>
       </c>
       <c r="I20" s="3">
-        <v>-142700</v>
+        <v>-148000</v>
       </c>
       <c r="J20" s="3">
-        <v>-143400</v>
+        <v>-148700</v>
       </c>
       <c r="K20" s="3">
         <v>-59800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2903500</v>
+        <v>3025800</v>
       </c>
       <c r="E21" s="3">
-        <v>2965400</v>
+        <v>3088800</v>
       </c>
       <c r="F21" s="3">
-        <v>2650500</v>
+        <v>2757600</v>
       </c>
       <c r="G21" s="3">
-        <v>2658500</v>
+        <v>2765000</v>
       </c>
       <c r="H21" s="3">
-        <v>2204800</v>
+        <v>2293600</v>
       </c>
       <c r="I21" s="3">
-        <v>1864200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1731900</v>
+        <v>1938800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>732100</v>
+        <v>759100</v>
       </c>
       <c r="E22" s="3">
-        <v>296900</v>
+        <v>307900</v>
       </c>
       <c r="F22" s="3">
-        <v>311700</v>
+        <v>323200</v>
       </c>
       <c r="G22" s="3">
-        <v>293800</v>
+        <v>304700</v>
       </c>
       <c r="H22" s="3">
-        <v>261300</v>
+        <v>270900</v>
       </c>
       <c r="I22" s="3">
-        <v>208900</v>
+        <v>216600</v>
       </c>
       <c r="J22" s="3">
-        <v>179100</v>
+        <v>185700</v>
       </c>
       <c r="K22" s="3">
         <v>145700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>891200</v>
+        <v>924000</v>
       </c>
       <c r="E23" s="3">
-        <v>1490500</v>
+        <v>1545400</v>
       </c>
       <c r="F23" s="3">
-        <v>1552000</v>
+        <v>1609200</v>
       </c>
       <c r="G23" s="3">
-        <v>1650800</v>
+        <v>1711600</v>
       </c>
       <c r="H23" s="3">
-        <v>1317900</v>
+        <v>1366400</v>
       </c>
       <c r="I23" s="3">
-        <v>1161300</v>
+        <v>1204000</v>
       </c>
       <c r="J23" s="3">
-        <v>1095800</v>
+        <v>1136200</v>
       </c>
       <c r="K23" s="3">
         <v>1213100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>683900</v>
+        <v>709100</v>
       </c>
       <c r="E24" s="3">
-        <v>483500</v>
+        <v>501300</v>
       </c>
       <c r="F24" s="3">
-        <v>469300</v>
+        <v>486600</v>
       </c>
       <c r="G24" s="3">
-        <v>471300</v>
+        <v>488700</v>
       </c>
       <c r="H24" s="3">
-        <v>364000</v>
+        <v>377400</v>
       </c>
       <c r="I24" s="3">
-        <v>366100</v>
+        <v>379500</v>
       </c>
       <c r="J24" s="3">
-        <v>288600</v>
+        <v>299200</v>
       </c>
       <c r="K24" s="3">
         <v>375200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>207300</v>
+        <v>214900</v>
       </c>
       <c r="E26" s="3">
-        <v>1007000</v>
+        <v>1044100</v>
       </c>
       <c r="F26" s="3">
-        <v>1082700</v>
+        <v>1122600</v>
       </c>
       <c r="G26" s="3">
-        <v>1179500</v>
+        <v>1223000</v>
       </c>
       <c r="H26" s="3">
-        <v>953800</v>
+        <v>989000</v>
       </c>
       <c r="I26" s="3">
-        <v>795200</v>
+        <v>824500</v>
       </c>
       <c r="J26" s="3">
-        <v>807200</v>
+        <v>836900</v>
       </c>
       <c r="K26" s="3">
         <v>838000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-89100</v>
+        <v>-92400</v>
       </c>
       <c r="E27" s="3">
-        <v>955300</v>
+        <v>990400</v>
       </c>
       <c r="F27" s="3">
-        <v>951800</v>
+        <v>986900</v>
       </c>
       <c r="G27" s="3">
-        <v>1785200</v>
+        <v>1850900</v>
       </c>
       <c r="H27" s="3">
-        <v>975600</v>
+        <v>1011500</v>
       </c>
       <c r="I27" s="3">
-        <v>816100</v>
+        <v>846100</v>
       </c>
       <c r="J27" s="3">
-        <v>770800</v>
+        <v>799100</v>
       </c>
       <c r="K27" s="3">
         <v>770100</v>
@@ -1419,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>155300</v>
+        <v>161100</v>
       </c>
       <c r="G29" s="3">
-        <v>172000</v>
+        <v>178300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-44000</v>
+        <v>-45600</v>
       </c>
       <c r="E32" s="3">
-        <v>325700</v>
+        <v>337700</v>
       </c>
       <c r="F32" s="3">
-        <v>28800</v>
+        <v>29900</v>
       </c>
       <c r="G32" s="3">
-        <v>-141400</v>
+        <v>-146700</v>
       </c>
       <c r="H32" s="3">
-        <v>-48100</v>
+        <v>-49900</v>
       </c>
       <c r="I32" s="3">
-        <v>142700</v>
+        <v>148000</v>
       </c>
       <c r="J32" s="3">
-        <v>143400</v>
+        <v>148700</v>
       </c>
       <c r="K32" s="3">
         <v>59800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-89100</v>
+        <v>-92400</v>
       </c>
       <c r="E33" s="3">
-        <v>955300</v>
+        <v>990400</v>
       </c>
       <c r="F33" s="3">
-        <v>1107100</v>
+        <v>1147900</v>
       </c>
       <c r="G33" s="3">
-        <v>1957100</v>
+        <v>2029200</v>
       </c>
       <c r="H33" s="3">
-        <v>975600</v>
+        <v>1011500</v>
       </c>
       <c r="I33" s="3">
-        <v>816100</v>
+        <v>846100</v>
       </c>
       <c r="J33" s="3">
-        <v>770800</v>
+        <v>799100</v>
       </c>
       <c r="K33" s="3">
         <v>770100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-89100</v>
+        <v>-92400</v>
       </c>
       <c r="E35" s="3">
-        <v>955300</v>
+        <v>990400</v>
       </c>
       <c r="F35" s="3">
-        <v>1107100</v>
+        <v>1147900</v>
       </c>
       <c r="G35" s="3">
-        <v>1957100</v>
+        <v>2029200</v>
       </c>
       <c r="H35" s="3">
-        <v>975600</v>
+        <v>1011500</v>
       </c>
       <c r="I35" s="3">
-        <v>816100</v>
+        <v>846100</v>
       </c>
       <c r="J35" s="3">
-        <v>770800</v>
+        <v>799100</v>
       </c>
       <c r="K35" s="3">
         <v>770100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4966900</v>
+        <v>4660900</v>
       </c>
       <c r="E41" s="3">
-        <v>3025700</v>
+        <v>5149800</v>
       </c>
       <c r="F41" s="3">
-        <v>2863500</v>
+        <v>3137100</v>
       </c>
       <c r="G41" s="3">
-        <v>4474000</v>
+        <v>2968900</v>
       </c>
       <c r="H41" s="3">
-        <v>2013800</v>
+        <v>4638800</v>
       </c>
       <c r="I41" s="3">
-        <v>1356600</v>
+        <v>2088000</v>
       </c>
       <c r="J41" s="3">
-        <v>1638200</v>
+        <v>1406600</v>
       </c>
       <c r="K41" s="3">
         <v>2643100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>92500</v>
+        <v>1286900</v>
       </c>
       <c r="E42" s="3">
-        <v>570700</v>
+        <v>95900</v>
       </c>
       <c r="F42" s="3">
-        <v>1427100</v>
+        <v>591700</v>
       </c>
       <c r="G42" s="3">
-        <v>99700</v>
+        <v>1479700</v>
       </c>
       <c r="H42" s="3">
-        <v>5500</v>
+        <v>103400</v>
       </c>
       <c r="I42" s="3">
-        <v>113300</v>
+        <v>5700</v>
       </c>
       <c r="J42" s="3">
-        <v>6600</v>
+        <v>117500</v>
       </c>
       <c r="K42" s="3">
         <v>6100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3194800</v>
+        <v>2487700</v>
       </c>
       <c r="E43" s="3">
-        <v>2235500</v>
+        <v>3312500</v>
       </c>
       <c r="F43" s="3">
-        <v>2062600</v>
+        <v>2317900</v>
       </c>
       <c r="G43" s="3">
-        <v>2013000</v>
+        <v>2138600</v>
       </c>
       <c r="H43" s="3">
-        <v>1636600</v>
+        <v>2087200</v>
       </c>
       <c r="I43" s="3">
-        <v>1919500</v>
+        <v>1696900</v>
       </c>
       <c r="J43" s="3">
-        <v>1055500</v>
+        <v>1990200</v>
       </c>
       <c r="K43" s="3">
         <v>1761800</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2032200</v>
+        <v>2435400</v>
       </c>
       <c r="E44" s="3">
-        <v>1893200</v>
+        <v>2107000</v>
       </c>
       <c r="F44" s="3">
-        <v>1646900</v>
+        <v>1963000</v>
       </c>
       <c r="G44" s="3">
-        <v>1607900</v>
+        <v>1707600</v>
       </c>
       <c r="H44" s="3">
-        <v>1473700</v>
+        <v>1667100</v>
       </c>
       <c r="I44" s="3">
-        <v>1139000</v>
+        <v>1527900</v>
       </c>
       <c r="J44" s="3">
-        <v>794400</v>
+        <v>1181000</v>
       </c>
       <c r="K44" s="3">
         <v>1769300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>299400</v>
+        <v>169000</v>
       </c>
       <c r="E45" s="3">
-        <v>239400</v>
+        <v>310400</v>
       </c>
       <c r="F45" s="3">
-        <v>196400</v>
+        <v>248200</v>
       </c>
       <c r="G45" s="3">
-        <v>167300</v>
+        <v>203600</v>
       </c>
       <c r="H45" s="3">
-        <v>313800</v>
+        <v>173500</v>
       </c>
       <c r="I45" s="3">
-        <v>393900</v>
+        <v>325400</v>
       </c>
       <c r="J45" s="3">
-        <v>156200</v>
+        <v>408400</v>
       </c>
       <c r="K45" s="3">
         <v>921600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9288500</v>
+        <v>11039900</v>
       </c>
       <c r="E46" s="3">
-        <v>7964500</v>
+        <v>9630700</v>
       </c>
       <c r="F46" s="3">
-        <v>8196600</v>
+        <v>8257900</v>
       </c>
       <c r="G46" s="3">
-        <v>8361800</v>
+        <v>8498500</v>
       </c>
       <c r="H46" s="3">
-        <v>5443400</v>
+        <v>8669800</v>
       </c>
       <c r="I46" s="3">
-        <v>4002300</v>
+        <v>5644000</v>
       </c>
       <c r="J46" s="3">
-        <v>3651000</v>
+        <v>4149700</v>
       </c>
       <c r="K46" s="3">
         <v>3558500</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6153600</v>
+        <v>7190600</v>
       </c>
       <c r="E47" s="3">
-        <v>5020200</v>
+        <v>6380300</v>
       </c>
       <c r="F47" s="3">
-        <v>4941700</v>
+        <v>5205100</v>
       </c>
       <c r="G47" s="3">
-        <v>5013800</v>
+        <v>5123800</v>
       </c>
       <c r="H47" s="3">
-        <v>6714500</v>
+        <v>5198500</v>
       </c>
       <c r="I47" s="3">
-        <v>5646300</v>
+        <v>6961900</v>
       </c>
       <c r="J47" s="3">
-        <v>5073800</v>
+        <v>5854200</v>
       </c>
       <c r="K47" s="3">
         <v>4890500</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15492800</v>
+        <v>8237000</v>
       </c>
       <c r="E48" s="3">
-        <v>7716100</v>
+        <v>16063500</v>
       </c>
       <c r="F48" s="3">
-        <v>5012000</v>
+        <v>8000400</v>
       </c>
       <c r="G48" s="3">
-        <v>5386300</v>
+        <v>5196600</v>
       </c>
       <c r="H48" s="3">
-        <v>4717600</v>
+        <v>5584700</v>
       </c>
       <c r="I48" s="3">
-        <v>7411300</v>
+        <v>4891400</v>
       </c>
       <c r="J48" s="3">
-        <v>3490300</v>
+        <v>7684300</v>
       </c>
       <c r="K48" s="3">
         <v>7154400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14352800</v>
+        <v>7566900</v>
       </c>
       <c r="E49" s="3">
-        <v>6763800</v>
+        <v>14881500</v>
       </c>
       <c r="F49" s="3">
-        <v>6719900</v>
+        <v>7013000</v>
       </c>
       <c r="G49" s="3">
-        <v>7111400</v>
+        <v>6967400</v>
       </c>
       <c r="H49" s="3">
-        <v>7073300</v>
+        <v>7373400</v>
       </c>
       <c r="I49" s="3">
-        <v>9999900</v>
+        <v>7333900</v>
       </c>
       <c r="J49" s="3">
-        <v>4685500</v>
+        <v>10368200</v>
       </c>
       <c r="K49" s="3">
         <v>9992600</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1555000</v>
+        <v>1255000</v>
       </c>
       <c r="E52" s="3">
-        <v>1957900</v>
+        <v>1612200</v>
       </c>
       <c r="F52" s="3">
-        <v>1729800</v>
+        <v>2030000</v>
       </c>
       <c r="G52" s="3">
-        <v>1287900</v>
+        <v>1793500</v>
       </c>
       <c r="H52" s="3">
-        <v>1231600</v>
+        <v>1335300</v>
       </c>
       <c r="I52" s="3">
-        <v>734600</v>
+        <v>1277000</v>
       </c>
       <c r="J52" s="3">
-        <v>459800</v>
+        <v>761600</v>
       </c>
       <c r="K52" s="3">
         <v>829600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31605800</v>
+        <v>35289400</v>
       </c>
       <c r="E54" s="3">
-        <v>29422500</v>
+        <v>32770000</v>
       </c>
       <c r="F54" s="3">
-        <v>26600000</v>
+        <v>30506300</v>
       </c>
       <c r="G54" s="3">
-        <v>27161200</v>
+        <v>27579800</v>
       </c>
       <c r="H54" s="3">
-        <v>25180500</v>
+        <v>28161700</v>
       </c>
       <c r="I54" s="3">
-        <v>18890700</v>
+        <v>26108100</v>
       </c>
       <c r="J54" s="3">
-        <v>17360400</v>
+        <v>19586600</v>
       </c>
       <c r="K54" s="3">
         <v>17374100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3469000</v>
+        <v>4466800</v>
       </c>
       <c r="E57" s="3">
-        <v>3538600</v>
+        <v>3596800</v>
       </c>
       <c r="F57" s="3">
-        <v>3030600</v>
+        <v>3668900</v>
       </c>
       <c r="G57" s="3">
-        <v>3053400</v>
+        <v>3142300</v>
       </c>
       <c r="H57" s="3">
-        <v>2727000</v>
+        <v>3165900</v>
       </c>
       <c r="I57" s="3">
-        <v>2077200</v>
+        <v>2827400</v>
       </c>
       <c r="J57" s="3">
-        <v>1580400</v>
+        <v>2153700</v>
       </c>
       <c r="K57" s="3">
         <v>1622500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1437400</v>
+        <v>571600</v>
       </c>
       <c r="E58" s="3">
-        <v>1088700</v>
+        <v>1490300</v>
       </c>
       <c r="F58" s="3">
-        <v>631100</v>
+        <v>1128800</v>
       </c>
       <c r="G58" s="3">
-        <v>627200</v>
+        <v>654300</v>
       </c>
       <c r="H58" s="3">
-        <v>336000</v>
+        <v>650300</v>
       </c>
       <c r="I58" s="3">
-        <v>544800</v>
+        <v>348400</v>
       </c>
       <c r="J58" s="3">
-        <v>71700</v>
+        <v>564800</v>
       </c>
       <c r="K58" s="3">
         <v>185100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2995900</v>
+        <v>1503700</v>
       </c>
       <c r="E59" s="3">
-        <v>1673700</v>
+        <v>3106200</v>
       </c>
       <c r="F59" s="3">
-        <v>1020900</v>
+        <v>1735400</v>
       </c>
       <c r="G59" s="3">
-        <v>1166200</v>
+        <v>1058500</v>
       </c>
       <c r="H59" s="3">
-        <v>919300</v>
+        <v>1209100</v>
       </c>
       <c r="I59" s="3">
-        <v>1336900</v>
+        <v>953100</v>
       </c>
       <c r="J59" s="3">
-        <v>624000</v>
+        <v>1386200</v>
       </c>
       <c r="K59" s="3">
         <v>2408600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5464800</v>
+        <v>6542200</v>
       </c>
       <c r="E60" s="3">
-        <v>6301000</v>
+        <v>5666100</v>
       </c>
       <c r="F60" s="3">
-        <v>4682600</v>
+        <v>6533200</v>
       </c>
       <c r="G60" s="3">
-        <v>4846800</v>
+        <v>4855100</v>
       </c>
       <c r="H60" s="3">
-        <v>3982200</v>
+        <v>5025300</v>
       </c>
       <c r="I60" s="3">
-        <v>3015700</v>
+        <v>4128900</v>
       </c>
       <c r="J60" s="3">
-        <v>2276100</v>
+        <v>3126800</v>
       </c>
       <c r="K60" s="3">
         <v>2363800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10679100</v>
+        <v>11531600</v>
       </c>
       <c r="E61" s="3">
-        <v>6878100</v>
+        <v>11072500</v>
       </c>
       <c r="F61" s="3">
-        <v>5306800</v>
+        <v>7131500</v>
       </c>
       <c r="G61" s="3">
-        <v>5434500</v>
+        <v>5502300</v>
       </c>
       <c r="H61" s="3">
-        <v>6090300</v>
+        <v>5634700</v>
       </c>
       <c r="I61" s="3">
-        <v>3967500</v>
+        <v>6314600</v>
       </c>
       <c r="J61" s="3">
-        <v>3827500</v>
+        <v>4113600</v>
       </c>
       <c r="K61" s="3">
         <v>3491600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1851700</v>
+        <v>1194600</v>
       </c>
       <c r="E62" s="3">
-        <v>1209900</v>
+        <v>1919900</v>
       </c>
       <c r="F62" s="3">
-        <v>1125400</v>
+        <v>1254500</v>
       </c>
       <c r="G62" s="3">
-        <v>1331400</v>
+        <v>1166800</v>
       </c>
       <c r="H62" s="3">
-        <v>1901200</v>
+        <v>1380400</v>
       </c>
       <c r="I62" s="3">
-        <v>963800</v>
+        <v>1971300</v>
       </c>
       <c r="J62" s="3">
-        <v>636700</v>
+        <v>999400</v>
       </c>
       <c r="K62" s="3">
         <v>1472400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20633900</v>
+        <v>22738300</v>
       </c>
       <c r="E66" s="3">
-        <v>17793200</v>
+        <v>21394000</v>
       </c>
       <c r="F66" s="3">
-        <v>14737000</v>
+        <v>18448700</v>
       </c>
       <c r="G66" s="3">
-        <v>15610200</v>
+        <v>15279800</v>
       </c>
       <c r="H66" s="3">
-        <v>15401100</v>
+        <v>16185300</v>
       </c>
       <c r="I66" s="3">
-        <v>10513300</v>
+        <v>15968500</v>
       </c>
       <c r="J66" s="3">
-        <v>9493100</v>
+        <v>10900600</v>
       </c>
       <c r="K66" s="3">
         <v>6609400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9950600</v>
+        <v>11402900</v>
       </c>
       <c r="E72" s="3">
-        <v>10605000</v>
+        <v>10317100</v>
       </c>
       <c r="F72" s="3">
-        <v>10051600</v>
+        <v>10995600</v>
       </c>
       <c r="G72" s="3">
-        <v>9316200</v>
+        <v>10421800</v>
       </c>
       <c r="H72" s="3">
-        <v>7789900</v>
+        <v>9659400</v>
       </c>
       <c r="I72" s="3">
-        <v>7251900</v>
+        <v>8076900</v>
       </c>
       <c r="J72" s="3">
-        <v>6789700</v>
+        <v>7519100</v>
       </c>
       <c r="K72" s="3">
         <v>6328700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10971900</v>
+        <v>12551100</v>
       </c>
       <c r="E76" s="3">
-        <v>11629300</v>
+        <v>11376000</v>
       </c>
       <c r="F76" s="3">
-        <v>11863000</v>
+        <v>12057700</v>
       </c>
       <c r="G76" s="3">
-        <v>11550900</v>
+        <v>12300000</v>
       </c>
       <c r="H76" s="3">
-        <v>9779400</v>
+        <v>11976400</v>
       </c>
       <c r="I76" s="3">
-        <v>8377300</v>
+        <v>10139600</v>
       </c>
       <c r="J76" s="3">
-        <v>7867300</v>
+        <v>8685900</v>
       </c>
       <c r="K76" s="3">
         <v>10764700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-89100</v>
+        <v>-92400</v>
       </c>
       <c r="E81" s="3">
-        <v>955300</v>
+        <v>990400</v>
       </c>
       <c r="F81" s="3">
-        <v>1107100</v>
+        <v>1147900</v>
       </c>
       <c r="G81" s="3">
-        <v>1957100</v>
+        <v>2029200</v>
       </c>
       <c r="H81" s="3">
-        <v>975600</v>
+        <v>1011500</v>
       </c>
       <c r="I81" s="3">
-        <v>816100</v>
+        <v>846100</v>
       </c>
       <c r="J81" s="3">
-        <v>770800</v>
+        <v>799100</v>
       </c>
       <c r="K81" s="3">
         <v>770100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1294500</v>
+        <v>1342100</v>
       </c>
       <c r="E83" s="3">
-        <v>1191100</v>
+        <v>1235000</v>
       </c>
       <c r="F83" s="3">
-        <v>795500</v>
+        <v>824800</v>
       </c>
       <c r="G83" s="3">
-        <v>721800</v>
+        <v>748400</v>
       </c>
       <c r="H83" s="3">
-        <v>632700</v>
+        <v>656000</v>
       </c>
       <c r="I83" s="3">
-        <v>499600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>462100</v>
+        <v>518000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2453900</v>
+        <v>2544300</v>
       </c>
       <c r="E89" s="3">
-        <v>2844600</v>
+        <v>2949400</v>
       </c>
       <c r="F89" s="3">
-        <v>2232600</v>
+        <v>2314800</v>
       </c>
       <c r="G89" s="3">
-        <v>1960000</v>
+        <v>2032200</v>
       </c>
       <c r="H89" s="3">
-        <v>2313500</v>
+        <v>2398800</v>
       </c>
       <c r="I89" s="3">
-        <v>1695700</v>
+        <v>1758100</v>
       </c>
       <c r="J89" s="3">
-        <v>1724300</v>
+        <v>1787900</v>
       </c>
       <c r="K89" s="3">
         <v>1391000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-911100</v>
+        <v>-944700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1112400</v>
+        <v>-1153400</v>
       </c>
       <c r="F91" s="3">
-        <v>-996100</v>
+        <v>-1032800</v>
       </c>
       <c r="G91" s="3">
-        <v>-899200</v>
+        <v>-932300</v>
       </c>
       <c r="H91" s="3">
-        <v>-880700</v>
+        <v>-913100</v>
       </c>
       <c r="I91" s="3">
-        <v>-806900</v>
+        <v>-836600</v>
       </c>
       <c r="J91" s="3">
-        <v>-783900</v>
+        <v>-812700</v>
       </c>
       <c r="K91" s="3">
         <v>-792300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1447600</v>
+        <v>-1500900</v>
       </c>
       <c r="E94" s="3">
-        <v>-652200</v>
+        <v>-676200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2661100</v>
+        <v>-2759100</v>
       </c>
       <c r="G94" s="3">
-        <v>1319700</v>
+        <v>1368300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1783500</v>
+        <v>-1849200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1308800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-720300</v>
+        <v>-1357000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-732300</v>
+        <v>-759300</v>
       </c>
       <c r="E96" s="3">
-        <v>-629000</v>
+        <v>-652100</v>
       </c>
       <c r="F96" s="3">
-        <v>-596900</v>
+        <v>-618800</v>
       </c>
       <c r="G96" s="3">
-        <v>-574600</v>
+        <v>-595700</v>
       </c>
       <c r="H96" s="3">
-        <v>-555900</v>
+        <v>-576400</v>
       </c>
       <c r="I96" s="3">
-        <v>-493800</v>
+        <v>-512000</v>
       </c>
       <c r="J96" s="3">
-        <v>-145500</v>
+        <v>-150800</v>
       </c>
       <c r="K96" s="3">
         <v>-797800</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>903400</v>
+        <v>936700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1773700</v>
+        <v>-1839000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1062000</v>
+        <v>-1101100</v>
       </c>
       <c r="G100" s="3">
-        <v>-971600</v>
+        <v>-1007400</v>
       </c>
       <c r="H100" s="3">
-        <v>59900</v>
+        <v>62100</v>
       </c>
       <c r="I100" s="3">
-        <v>-634200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-428600</v>
+        <v>-657500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>31400</v>
+        <v>32600</v>
       </c>
       <c r="E101" s="3">
-        <v>-256500</v>
+        <v>-266000</v>
       </c>
       <c r="F101" s="3">
-        <v>-120100</v>
+        <v>-124500</v>
       </c>
       <c r="G101" s="3">
-        <v>152100</v>
+        <v>157700</v>
       </c>
       <c r="H101" s="3">
-        <v>67300</v>
+        <v>69800</v>
       </c>
       <c r="I101" s="3">
-        <v>-34300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-195200</v>
+        <v>-35600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1941200</v>
+        <v>2012700</v>
       </c>
       <c r="E102" s="3">
-        <v>162200</v>
+        <v>168200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1610500</v>
+        <v>-1669900</v>
       </c>
       <c r="G102" s="3">
-        <v>2460100</v>
+        <v>2550700</v>
       </c>
       <c r="H102" s="3">
-        <v>657200</v>
+        <v>681400</v>
       </c>
       <c r="I102" s="3">
-        <v>-281500</v>
+        <v>-291900</v>
       </c>
       <c r="J102" s="3">
-        <v>380200</v>
+        <v>394200</v>
       </c>
       <c r="K102" s="3">
         <v>-448000</v>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>FMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23588400</v>
+        <v>27479300</v>
       </c>
       <c r="E8" s="3">
-        <v>24246100</v>
+        <v>24352500</v>
       </c>
       <c r="F8" s="3">
-        <v>22477300</v>
+        <v>25031500</v>
       </c>
       <c r="G8" s="3">
-        <v>21050700</v>
+        <v>23205400</v>
       </c>
       <c r="H8" s="3">
-        <v>19116400</v>
+        <v>21732600</v>
       </c>
       <c r="I8" s="3">
-        <v>14909500</v>
+        <v>19735600</v>
       </c>
       <c r="J8" s="3">
+        <v>15392500</v>
+      </c>
+      <c r="K8" s="3">
         <v>12606000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12484200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12775700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10423600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14513500</v>
+        <v>16921900</v>
       </c>
       <c r="E9" s="3">
-        <v>15083800</v>
+        <v>14983700</v>
       </c>
       <c r="F9" s="3">
-        <v>14095400</v>
+        <v>15572400</v>
       </c>
       <c r="G9" s="3">
-        <v>13294700</v>
+        <v>14552000</v>
       </c>
       <c r="H9" s="3">
-        <v>12024800</v>
+        <v>13725400</v>
       </c>
       <c r="I9" s="3">
-        <v>9015400</v>
+        <v>12414400</v>
       </c>
       <c r="J9" s="3">
+        <v>9307500</v>
+      </c>
+      <c r="K9" s="3">
         <v>7334400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7180200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7345100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6063900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9074900</v>
+        <v>10557400</v>
       </c>
       <c r="E10" s="3">
-        <v>9162400</v>
+        <v>9368900</v>
       </c>
       <c r="F10" s="3">
-        <v>8381900</v>
+        <v>9459200</v>
       </c>
       <c r="G10" s="3">
-        <v>7756000</v>
+        <v>8653400</v>
       </c>
       <c r="H10" s="3">
-        <v>7091600</v>
+        <v>8007200</v>
       </c>
       <c r="I10" s="3">
-        <v>5894100</v>
+        <v>7321300</v>
       </c>
       <c r="J10" s="3">
+        <v>6085000</v>
+      </c>
+      <c r="K10" s="3">
         <v>5271700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5304000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5430700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4359800</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>243200</v>
+        <v>69300</v>
       </c>
       <c r="E14" s="3">
-        <v>47700</v>
+        <v>251100</v>
       </c>
       <c r="F14" s="3">
-        <v>20000</v>
+        <v>49300</v>
       </c>
       <c r="G14" s="3">
-        <v>98600</v>
+        <v>20700</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>101800</v>
       </c>
       <c r="I14" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K14" s="3">
         <v>4800</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>104200</v>
+        <v>120500</v>
       </c>
       <c r="E15" s="3">
-        <v>71500</v>
+        <v>107500</v>
       </c>
       <c r="F15" s="3">
-        <v>72400</v>
+        <v>73900</v>
       </c>
       <c r="G15" s="3">
-        <v>53900</v>
+        <v>74800</v>
       </c>
       <c r="H15" s="3">
-        <v>40100</v>
+        <v>55700</v>
       </c>
       <c r="I15" s="3">
-        <v>26000</v>
+        <v>41300</v>
       </c>
       <c r="J15" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K15" s="3">
         <v>19700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19600</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21950900</v>
+        <v>24783300</v>
       </c>
       <c r="E17" s="3">
-        <v>22055200</v>
+        <v>22662000</v>
       </c>
       <c r="F17" s="3">
-        <v>20514900</v>
+        <v>22769600</v>
       </c>
       <c r="G17" s="3">
-        <v>19181100</v>
+        <v>21179500</v>
       </c>
       <c r="H17" s="3">
-        <v>17529000</v>
+        <v>19802400</v>
       </c>
       <c r="I17" s="3">
-        <v>13341000</v>
+        <v>18096800</v>
       </c>
       <c r="J17" s="3">
+        <v>13773100</v>
+      </c>
+      <c r="K17" s="3">
         <v>11135500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11065500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11197800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9195400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1637500</v>
+        <v>2696000</v>
       </c>
       <c r="E18" s="3">
-        <v>2191000</v>
+        <v>1690600</v>
       </c>
       <c r="F18" s="3">
-        <v>1962300</v>
+        <v>2261900</v>
       </c>
       <c r="G18" s="3">
-        <v>1869600</v>
+        <v>2025900</v>
       </c>
       <c r="H18" s="3">
-        <v>1587400</v>
+        <v>1930200</v>
       </c>
       <c r="I18" s="3">
-        <v>1568600</v>
+        <v>1638800</v>
       </c>
       <c r="J18" s="3">
+        <v>1619400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1470500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1418600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1578000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1228200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>45600</v>
+        <v>53800</v>
       </c>
       <c r="E20" s="3">
-        <v>-337700</v>
+        <v>47100</v>
       </c>
       <c r="F20" s="3">
-        <v>-29900</v>
+        <v>-348700</v>
       </c>
       <c r="G20" s="3">
-        <v>146700</v>
+        <v>-30900</v>
       </c>
       <c r="H20" s="3">
-        <v>49900</v>
+        <v>151400</v>
       </c>
       <c r="I20" s="3">
-        <v>-148000</v>
+        <v>51500</v>
       </c>
       <c r="J20" s="3">
+        <v>-152700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-148700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-59800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>108900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3025800</v>
+        <v>4128200</v>
       </c>
       <c r="E21" s="3">
-        <v>3088800</v>
+        <v>3119100</v>
       </c>
       <c r="F21" s="3">
-        <v>2757600</v>
+        <v>3184400</v>
       </c>
       <c r="G21" s="3">
-        <v>2765000</v>
+        <v>2843900</v>
       </c>
       <c r="H21" s="3">
-        <v>2293600</v>
+        <v>2851900</v>
       </c>
       <c r="I21" s="3">
-        <v>1938800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>2365500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1999800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>2034600</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>759100</v>
+        <v>715000</v>
       </c>
       <c r="E22" s="3">
-        <v>307900</v>
+        <v>783700</v>
       </c>
       <c r="F22" s="3">
-        <v>323200</v>
+        <v>317800</v>
       </c>
       <c r="G22" s="3">
-        <v>304700</v>
+        <v>333700</v>
       </c>
       <c r="H22" s="3">
-        <v>270900</v>
+        <v>314500</v>
       </c>
       <c r="I22" s="3">
-        <v>216600</v>
+        <v>279700</v>
       </c>
       <c r="J22" s="3">
+        <v>223600</v>
+      </c>
+      <c r="K22" s="3">
         <v>185700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>145700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>134300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>119100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>924000</v>
+        <v>2034800</v>
       </c>
       <c r="E23" s="3">
-        <v>1545400</v>
+        <v>954000</v>
       </c>
       <c r="F23" s="3">
-        <v>1609200</v>
+        <v>1595400</v>
       </c>
       <c r="G23" s="3">
-        <v>1711600</v>
+        <v>1661300</v>
       </c>
       <c r="H23" s="3">
-        <v>1366400</v>
+        <v>1767100</v>
       </c>
       <c r="I23" s="3">
-        <v>1204000</v>
+        <v>1410700</v>
       </c>
       <c r="J23" s="3">
+        <v>1243100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1136200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1213100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1475900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1218100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>709100</v>
+        <v>705300</v>
       </c>
       <c r="E24" s="3">
-        <v>501300</v>
+        <v>732100</v>
       </c>
       <c r="F24" s="3">
-        <v>486600</v>
+        <v>517500</v>
       </c>
       <c r="G24" s="3">
-        <v>488700</v>
+        <v>502300</v>
       </c>
       <c r="H24" s="3">
-        <v>377400</v>
+        <v>504500</v>
       </c>
       <c r="I24" s="3">
-        <v>379500</v>
+        <v>389700</v>
       </c>
       <c r="J24" s="3">
+        <v>391800</v>
+      </c>
+      <c r="K24" s="3">
         <v>299200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>375200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>426100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>394000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>214900</v>
+        <v>1329500</v>
       </c>
       <c r="E26" s="3">
-        <v>1044100</v>
+        <v>221900</v>
       </c>
       <c r="F26" s="3">
-        <v>1122600</v>
+        <v>1077900</v>
       </c>
       <c r="G26" s="3">
-        <v>1223000</v>
+        <v>1159000</v>
       </c>
       <c r="H26" s="3">
-        <v>989000</v>
+        <v>1262600</v>
       </c>
       <c r="I26" s="3">
-        <v>824500</v>
+        <v>1021000</v>
       </c>
       <c r="J26" s="3">
+        <v>851200</v>
+      </c>
+      <c r="K26" s="3">
         <v>836900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>838000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1049700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>824100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-92400</v>
+        <v>1407700</v>
       </c>
       <c r="E27" s="3">
-        <v>990400</v>
+        <v>-95300</v>
       </c>
       <c r="F27" s="3">
-        <v>986900</v>
+        <v>1022500</v>
       </c>
       <c r="G27" s="3">
-        <v>1850900</v>
+        <v>1018800</v>
       </c>
       <c r="H27" s="3">
-        <v>1011500</v>
+        <v>1910900</v>
       </c>
       <c r="I27" s="3">
-        <v>846100</v>
+        <v>1044300</v>
       </c>
       <c r="J27" s="3">
+        <v>873500</v>
+      </c>
+      <c r="K27" s="3">
         <v>799100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>770100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1110100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>797500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,26 +1463,29 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>161100</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>178300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>166300</v>
+      </c>
+      <c r="H29" s="3">
+        <v>184100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-45600</v>
+        <v>-53800</v>
       </c>
       <c r="E32" s="3">
-        <v>337700</v>
+        <v>-47100</v>
       </c>
       <c r="F32" s="3">
-        <v>29900</v>
+        <v>348700</v>
       </c>
       <c r="G32" s="3">
-        <v>-146700</v>
+        <v>30900</v>
       </c>
       <c r="H32" s="3">
-        <v>-49900</v>
+        <v>-151400</v>
       </c>
       <c r="I32" s="3">
-        <v>148000</v>
+        <v>-51500</v>
       </c>
       <c r="J32" s="3">
+        <v>152700</v>
+      </c>
+      <c r="K32" s="3">
         <v>148700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>59800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-108900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-92400</v>
+        <v>1407700</v>
       </c>
       <c r="E33" s="3">
-        <v>990400</v>
+        <v>-95300</v>
       </c>
       <c r="F33" s="3">
-        <v>1147900</v>
+        <v>1022500</v>
       </c>
       <c r="G33" s="3">
-        <v>2029200</v>
+        <v>1185100</v>
       </c>
       <c r="H33" s="3">
-        <v>1011500</v>
+        <v>2095000</v>
       </c>
       <c r="I33" s="3">
-        <v>846100</v>
+        <v>1044300</v>
       </c>
       <c r="J33" s="3">
+        <v>873500</v>
+      </c>
+      <c r="K33" s="3">
         <v>799100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>770100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1110100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>797500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-92400</v>
+        <v>1407700</v>
       </c>
       <c r="E35" s="3">
-        <v>990400</v>
+        <v>-95300</v>
       </c>
       <c r="F35" s="3">
-        <v>1147900</v>
+        <v>1022500</v>
       </c>
       <c r="G35" s="3">
-        <v>2029200</v>
+        <v>1185100</v>
       </c>
       <c r="H35" s="3">
-        <v>1011500</v>
+        <v>2095000</v>
       </c>
       <c r="I35" s="3">
-        <v>846100</v>
+        <v>1044300</v>
       </c>
       <c r="J35" s="3">
+        <v>873500</v>
+      </c>
+      <c r="K35" s="3">
         <v>799100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>770100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1110100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>797500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4660900</v>
+        <v>4811900</v>
       </c>
       <c r="E41" s="3">
-        <v>5149800</v>
+        <v>5316600</v>
       </c>
       <c r="F41" s="3">
-        <v>3137100</v>
+        <v>3238800</v>
       </c>
       <c r="G41" s="3">
-        <v>2968900</v>
+        <v>3065100</v>
       </c>
       <c r="H41" s="3">
-        <v>4638800</v>
+        <v>4789000</v>
       </c>
       <c r="I41" s="3">
-        <v>2088000</v>
+        <v>2155700</v>
       </c>
       <c r="J41" s="3">
+        <v>1452200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1406600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2643100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1957900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1336500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1286900</v>
+        <v>1206100</v>
       </c>
       <c r="E42" s="3">
-        <v>95900</v>
+        <v>99000</v>
       </c>
       <c r="F42" s="3">
-        <v>591700</v>
+        <v>610900</v>
       </c>
       <c r="G42" s="3">
-        <v>1479700</v>
+        <v>1527600</v>
       </c>
       <c r="H42" s="3">
-        <v>103400</v>
+        <v>106700</v>
       </c>
       <c r="I42" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="J42" s="3">
+        <v>121300</v>
+      </c>
+      <c r="K42" s="3">
         <v>117500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>91200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>96100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2487700</v>
+        <v>2576300</v>
       </c>
       <c r="E43" s="3">
-        <v>3312500</v>
+        <v>3419800</v>
       </c>
       <c r="F43" s="3">
-        <v>2317900</v>
+        <v>2392900</v>
       </c>
       <c r="G43" s="3">
-        <v>2138600</v>
+        <v>2207900</v>
       </c>
       <c r="H43" s="3">
-        <v>2087200</v>
+        <v>2154800</v>
       </c>
       <c r="I43" s="3">
-        <v>1696900</v>
+        <v>1751800</v>
       </c>
       <c r="J43" s="3">
+        <v>2054700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1990200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1761800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>969800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>819300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2435400</v>
+        <v>2514300</v>
       </c>
       <c r="E44" s="3">
-        <v>2107000</v>
+        <v>2175300</v>
       </c>
       <c r="F44" s="3">
-        <v>1963000</v>
+        <v>2026500</v>
       </c>
       <c r="G44" s="3">
-        <v>1707600</v>
+        <v>1762900</v>
       </c>
       <c r="H44" s="3">
-        <v>1667100</v>
+        <v>1721100</v>
       </c>
       <c r="I44" s="3">
-        <v>1527900</v>
+        <v>1577400</v>
       </c>
       <c r="J44" s="3">
+        <v>1219200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1181000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1769300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>876300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1486600</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>169000</v>
+        <v>288900</v>
       </c>
       <c r="E45" s="3">
-        <v>310400</v>
+        <v>320500</v>
       </c>
       <c r="F45" s="3">
-        <v>248200</v>
+        <v>256300</v>
       </c>
       <c r="G45" s="3">
-        <v>203600</v>
+        <v>210200</v>
       </c>
       <c r="H45" s="3">
-        <v>173500</v>
+        <v>179100</v>
       </c>
       <c r="I45" s="3">
-        <v>325400</v>
+        <v>335900</v>
       </c>
       <c r="J45" s="3">
+        <v>421600</v>
+      </c>
+      <c r="K45" s="3">
         <v>408400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>921600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>150100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>107700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11039900</v>
+        <v>11397500</v>
       </c>
       <c r="E46" s="3">
-        <v>9630700</v>
+        <v>9942700</v>
       </c>
       <c r="F46" s="3">
-        <v>8257900</v>
+        <v>8525400</v>
       </c>
       <c r="G46" s="3">
-        <v>8498500</v>
+        <v>8773800</v>
       </c>
       <c r="H46" s="3">
-        <v>8669800</v>
+        <v>8950700</v>
       </c>
       <c r="I46" s="3">
-        <v>5644000</v>
+        <v>5826800</v>
       </c>
       <c r="J46" s="3">
+        <v>4284100</v>
+      </c>
+      <c r="K46" s="3">
         <v>4149700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3558500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4045100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3102300</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7190600</v>
+        <v>6270900</v>
       </c>
       <c r="E47" s="3">
-        <v>6380300</v>
+        <v>6587000</v>
       </c>
       <c r="F47" s="3">
-        <v>5205100</v>
+        <v>5373700</v>
       </c>
       <c r="G47" s="3">
-        <v>5123800</v>
+        <v>5289800</v>
       </c>
       <c r="H47" s="3">
-        <v>5198500</v>
+        <v>5366900</v>
       </c>
       <c r="I47" s="3">
-        <v>6961900</v>
+        <v>7187400</v>
       </c>
       <c r="J47" s="3">
+        <v>6043900</v>
+      </c>
+      <c r="K47" s="3">
         <v>5854200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4890500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4705500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8044400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8237000</v>
+        <v>8503800</v>
       </c>
       <c r="E48" s="3">
-        <v>16063500</v>
+        <v>16583900</v>
       </c>
       <c r="F48" s="3">
-        <v>8000400</v>
+        <v>8259500</v>
       </c>
       <c r="G48" s="3">
-        <v>5196600</v>
+        <v>5364900</v>
       </c>
       <c r="H48" s="3">
-        <v>5584700</v>
+        <v>5765600</v>
       </c>
       <c r="I48" s="3">
-        <v>4891400</v>
+        <v>5049800</v>
       </c>
       <c r="J48" s="3">
+        <v>7933200</v>
+      </c>
+      <c r="K48" s="3">
         <v>7684300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7154400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3305000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6016600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7566900</v>
+        <v>7812000</v>
       </c>
       <c r="E49" s="3">
-        <v>14881500</v>
+        <v>15363500</v>
       </c>
       <c r="F49" s="3">
-        <v>7013000</v>
+        <v>7240200</v>
       </c>
       <c r="G49" s="3">
-        <v>6967400</v>
+        <v>7193100</v>
       </c>
       <c r="H49" s="3">
-        <v>7373400</v>
+        <v>7612200</v>
       </c>
       <c r="I49" s="3">
-        <v>7333900</v>
+        <v>7571400</v>
       </c>
       <c r="J49" s="3">
+        <v>10704100</v>
+      </c>
+      <c r="K49" s="3">
         <v>10368200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9992600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3639700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13061400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1255000</v>
+        <v>2448400</v>
       </c>
       <c r="E52" s="3">
-        <v>1612200</v>
+        <v>1664500</v>
       </c>
       <c r="F52" s="3">
-        <v>2030000</v>
+        <v>2095700</v>
       </c>
       <c r="G52" s="3">
-        <v>1793500</v>
+        <v>1851600</v>
       </c>
       <c r="H52" s="3">
-        <v>1335300</v>
+        <v>1378600</v>
       </c>
       <c r="I52" s="3">
-        <v>1277000</v>
+        <v>1318300</v>
       </c>
       <c r="J52" s="3">
+        <v>786300</v>
+      </c>
+      <c r="K52" s="3">
         <v>761600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>829600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>170100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>328300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35289400</v>
+        <v>36432500</v>
       </c>
       <c r="E54" s="3">
-        <v>32770000</v>
+        <v>33831500</v>
       </c>
       <c r="F54" s="3">
-        <v>30506300</v>
+        <v>31494500</v>
       </c>
       <c r="G54" s="3">
-        <v>27579800</v>
+        <v>28473200</v>
       </c>
       <c r="H54" s="3">
-        <v>28161700</v>
+        <v>29073900</v>
       </c>
       <c r="I54" s="3">
-        <v>26108100</v>
+        <v>26953800</v>
       </c>
       <c r="J54" s="3">
+        <v>20221000</v>
+      </c>
+      <c r="K54" s="3">
         <v>19586600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17374100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15865500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13621100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4466800</v>
+        <v>4611600</v>
       </c>
       <c r="E57" s="3">
-        <v>3596800</v>
+        <v>3713300</v>
       </c>
       <c r="F57" s="3">
-        <v>3668900</v>
+        <v>3787800</v>
       </c>
       <c r="G57" s="3">
-        <v>3142300</v>
+        <v>3244000</v>
       </c>
       <c r="H57" s="3">
-        <v>3165900</v>
+        <v>3268500</v>
       </c>
       <c r="I57" s="3">
-        <v>2827400</v>
+        <v>2919000</v>
       </c>
       <c r="J57" s="3">
+        <v>2223400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2153700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1622500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1833700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1925900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>571600</v>
+        <v>590100</v>
       </c>
       <c r="E58" s="3">
-        <v>1490300</v>
+        <v>1538600</v>
       </c>
       <c r="F58" s="3">
-        <v>1128800</v>
+        <v>1165400</v>
       </c>
       <c r="G58" s="3">
-        <v>654300</v>
+        <v>675500</v>
       </c>
       <c r="H58" s="3">
-        <v>650300</v>
+        <v>671300</v>
       </c>
       <c r="I58" s="3">
-        <v>348400</v>
+        <v>359700</v>
       </c>
       <c r="J58" s="3">
+        <v>583100</v>
+      </c>
+      <c r="K58" s="3">
         <v>564800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>185100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>466500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>288200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1503700</v>
+        <v>1552400</v>
       </c>
       <c r="E59" s="3">
-        <v>3106200</v>
+        <v>3206900</v>
       </c>
       <c r="F59" s="3">
-        <v>1735400</v>
+        <v>1791600</v>
       </c>
       <c r="G59" s="3">
-        <v>1058500</v>
+        <v>1092800</v>
       </c>
       <c r="H59" s="3">
-        <v>1209100</v>
+        <v>1248300</v>
       </c>
       <c r="I59" s="3">
-        <v>953100</v>
+        <v>984000</v>
       </c>
       <c r="J59" s="3">
+        <v>1431100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1386200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2408600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>244100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6542200</v>
+        <v>6754100</v>
       </c>
       <c r="E60" s="3">
-        <v>5666100</v>
+        <v>5849600</v>
       </c>
       <c r="F60" s="3">
-        <v>6533200</v>
+        <v>6744800</v>
       </c>
       <c r="G60" s="3">
-        <v>4855100</v>
+        <v>5012300</v>
       </c>
       <c r="H60" s="3">
-        <v>5025300</v>
+        <v>5188100</v>
       </c>
       <c r="I60" s="3">
-        <v>4128900</v>
+        <v>4262700</v>
       </c>
       <c r="J60" s="3">
+        <v>3228100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3126800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2363800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2033900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11531600</v>
+        <v>11905100</v>
       </c>
       <c r="E61" s="3">
-        <v>11072500</v>
+        <v>11431200</v>
       </c>
       <c r="F61" s="3">
-        <v>7131500</v>
+        <v>7362500</v>
       </c>
       <c r="G61" s="3">
-        <v>5502300</v>
+        <v>5680500</v>
       </c>
       <c r="H61" s="3">
-        <v>5634700</v>
+        <v>5817200</v>
       </c>
       <c r="I61" s="3">
-        <v>6314600</v>
+        <v>6519200</v>
       </c>
       <c r="J61" s="3">
+        <v>4246900</v>
+      </c>
+      <c r="K61" s="3">
         <v>4113600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3491600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1535400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1231900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1194600</v>
+        <v>1218500</v>
       </c>
       <c r="E62" s="3">
-        <v>1919900</v>
+        <v>1982100</v>
       </c>
       <c r="F62" s="3">
-        <v>1254500</v>
+        <v>1295100</v>
       </c>
       <c r="G62" s="3">
-        <v>1166800</v>
+        <v>1204600</v>
       </c>
       <c r="H62" s="3">
-        <v>1380400</v>
+        <v>1425100</v>
       </c>
       <c r="I62" s="3">
-        <v>1971300</v>
+        <v>2035100</v>
       </c>
       <c r="J62" s="3">
+        <v>1031700</v>
+      </c>
+      <c r="K62" s="3">
         <v>999400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1472400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>462400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>416200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22738300</v>
+        <v>23460000</v>
       </c>
       <c r="E66" s="3">
-        <v>21394000</v>
+        <v>22087000</v>
       </c>
       <c r="F66" s="3">
-        <v>18448700</v>
+        <v>19046300</v>
       </c>
       <c r="G66" s="3">
-        <v>15279800</v>
+        <v>15774800</v>
       </c>
       <c r="H66" s="3">
-        <v>16185300</v>
+        <v>16709500</v>
       </c>
       <c r="I66" s="3">
-        <v>15968500</v>
+        <v>16485700</v>
       </c>
       <c r="J66" s="3">
+        <v>11253700</v>
+      </c>
+      <c r="K66" s="3">
         <v>10900600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6609400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7542000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6161900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11402900</v>
+        <v>11772300</v>
       </c>
       <c r="E72" s="3">
-        <v>10317100</v>
+        <v>10651400</v>
       </c>
       <c r="F72" s="3">
-        <v>10995600</v>
+        <v>11351800</v>
       </c>
       <c r="G72" s="3">
-        <v>10421800</v>
+        <v>10759400</v>
       </c>
       <c r="H72" s="3">
-        <v>9659400</v>
+        <v>9972300</v>
       </c>
       <c r="I72" s="3">
-        <v>8076900</v>
+        <v>8338500</v>
       </c>
       <c r="J72" s="3">
+        <v>7762600</v>
+      </c>
+      <c r="K72" s="3">
         <v>7519100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6328700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6889300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5921300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12551100</v>
+        <v>12972500</v>
       </c>
       <c r="E76" s="3">
-        <v>11376000</v>
+        <v>11744500</v>
       </c>
       <c r="F76" s="3">
-        <v>12057700</v>
+        <v>12448300</v>
       </c>
       <c r="G76" s="3">
-        <v>12300000</v>
+        <v>12698400</v>
       </c>
       <c r="H76" s="3">
-        <v>11976400</v>
+        <v>12364400</v>
       </c>
       <c r="I76" s="3">
-        <v>10139600</v>
+        <v>10468100</v>
       </c>
       <c r="J76" s="3">
+        <v>8967300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8685900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10764700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8323400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7459200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-92400</v>
+        <v>1407700</v>
       </c>
       <c r="E81" s="3">
-        <v>990400</v>
+        <v>-95300</v>
       </c>
       <c r="F81" s="3">
-        <v>1147900</v>
+        <v>1022500</v>
       </c>
       <c r="G81" s="3">
-        <v>2029200</v>
+        <v>1185100</v>
       </c>
       <c r="H81" s="3">
-        <v>1011500</v>
+        <v>2095000</v>
       </c>
       <c r="I81" s="3">
-        <v>846100</v>
+        <v>1044300</v>
       </c>
       <c r="J81" s="3">
+        <v>873500</v>
+      </c>
+      <c r="K81" s="3">
         <v>799100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>770100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1110100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>797500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1342100</v>
+        <v>1382600</v>
       </c>
       <c r="E83" s="3">
-        <v>1235000</v>
+        <v>1385600</v>
       </c>
       <c r="F83" s="3">
-        <v>824800</v>
+        <v>1275000</v>
       </c>
       <c r="G83" s="3">
-        <v>748400</v>
+        <v>851500</v>
       </c>
       <c r="H83" s="3">
-        <v>656000</v>
+        <v>772600</v>
       </c>
       <c r="I83" s="3">
-        <v>518000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>677200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>534800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>423000</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2544300</v>
+        <v>3610600</v>
       </c>
       <c r="E89" s="3">
-        <v>2949400</v>
+        <v>2626700</v>
       </c>
       <c r="F89" s="3">
-        <v>2314800</v>
+        <v>3044900</v>
       </c>
       <c r="G89" s="3">
-        <v>2032200</v>
+        <v>2389800</v>
       </c>
       <c r="H89" s="3">
-        <v>2398800</v>
+        <v>2098000</v>
       </c>
       <c r="I89" s="3">
-        <v>1758100</v>
+        <v>2476500</v>
       </c>
       <c r="J89" s="3">
+        <v>1815100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1787900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1391000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1650400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1098900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-944700</v>
+        <v>-953000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1153400</v>
+        <v>-975300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1032800</v>
+        <v>-1190800</v>
       </c>
       <c r="G91" s="3">
-        <v>-932300</v>
+        <v>-1066200</v>
       </c>
       <c r="H91" s="3">
-        <v>-913100</v>
+        <v>-962500</v>
       </c>
       <c r="I91" s="3">
-        <v>-836600</v>
+        <v>-942700</v>
       </c>
       <c r="J91" s="3">
+        <v>-863700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-812700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-792300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-795800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1500900</v>
+        <v>-2281000</v>
       </c>
       <c r="E94" s="3">
-        <v>-676200</v>
+        <v>-1549500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2759100</v>
+        <v>-698100</v>
       </c>
       <c r="G94" s="3">
-        <v>1368300</v>
+        <v>-2848500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1849200</v>
+        <v>1412600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1357000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-1909100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1400900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-785000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-759300</v>
+        <v>-661900</v>
       </c>
       <c r="E96" s="3">
-        <v>-652100</v>
+        <v>-783900</v>
       </c>
       <c r="F96" s="3">
-        <v>-618800</v>
+        <v>-673300</v>
       </c>
       <c r="G96" s="3">
-        <v>-595700</v>
+        <v>-638900</v>
       </c>
       <c r="H96" s="3">
-        <v>-576400</v>
+        <v>-615000</v>
       </c>
       <c r="I96" s="3">
-        <v>-512000</v>
+        <v>-595000</v>
       </c>
       <c r="J96" s="3">
+        <v>-528600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-150800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-797800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-492500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-342600</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>936700</v>
+        <v>-1827300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1839000</v>
+        <v>967000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1101100</v>
+        <v>-1898600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1007400</v>
+        <v>-1136700</v>
       </c>
       <c r="H100" s="3">
-        <v>62100</v>
+        <v>-1040100</v>
       </c>
       <c r="I100" s="3">
-        <v>-657500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>64100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-678800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-183200</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>32600</v>
+        <v>-7100</v>
       </c>
       <c r="E101" s="3">
-        <v>-266000</v>
+        <v>33600</v>
       </c>
       <c r="F101" s="3">
-        <v>-124500</v>
+        <v>-274600</v>
       </c>
       <c r="G101" s="3">
-        <v>157700</v>
+        <v>-128500</v>
       </c>
       <c r="H101" s="3">
-        <v>69800</v>
+        <v>162800</v>
       </c>
       <c r="I101" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>72000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-36700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-109600</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2012700</v>
+        <v>-504700</v>
       </c>
       <c r="E102" s="3">
-        <v>168200</v>
+        <v>2077900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1669900</v>
+        <v>173600</v>
       </c>
       <c r="G102" s="3">
-        <v>2550700</v>
+        <v>-1724000</v>
       </c>
       <c r="H102" s="3">
-        <v>681400</v>
+        <v>2633400</v>
       </c>
       <c r="I102" s="3">
-        <v>-291900</v>
+        <v>703500</v>
       </c>
       <c r="J102" s="3">
+        <v>-301400</v>
+      </c>
+      <c r="K102" s="3">
         <v>394200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-448000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>572600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-44700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27479300</v>
+        <v>27935400</v>
       </c>
       <c r="E8" s="3">
-        <v>24352500</v>
+        <v>24756800</v>
       </c>
       <c r="F8" s="3">
-        <v>25031500</v>
+        <v>25447000</v>
       </c>
       <c r="G8" s="3">
-        <v>23205400</v>
+        <v>23590500</v>
       </c>
       <c r="H8" s="3">
-        <v>21732600</v>
+        <v>22093400</v>
       </c>
       <c r="I8" s="3">
-        <v>19735600</v>
+        <v>20063200</v>
       </c>
       <c r="J8" s="3">
-        <v>15392500</v>
+        <v>15648000</v>
       </c>
       <c r="K8" s="3">
         <v>12606000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16921900</v>
+        <v>17202800</v>
       </c>
       <c r="E9" s="3">
-        <v>14983700</v>
+        <v>15232400</v>
       </c>
       <c r="F9" s="3">
-        <v>15572400</v>
+        <v>15830900</v>
       </c>
       <c r="G9" s="3">
-        <v>14552000</v>
+        <v>14793500</v>
       </c>
       <c r="H9" s="3">
-        <v>13725400</v>
+        <v>13953200</v>
       </c>
       <c r="I9" s="3">
-        <v>12414400</v>
+        <v>12620400</v>
       </c>
       <c r="J9" s="3">
-        <v>9307500</v>
+        <v>9462000</v>
       </c>
       <c r="K9" s="3">
         <v>7334400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10557400</v>
+        <v>10732700</v>
       </c>
       <c r="E10" s="3">
-        <v>9368900</v>
+        <v>9524400</v>
       </c>
       <c r="F10" s="3">
-        <v>9459200</v>
+        <v>9616200</v>
       </c>
       <c r="G10" s="3">
-        <v>8653400</v>
+        <v>8797000</v>
       </c>
       <c r="H10" s="3">
-        <v>8007200</v>
+        <v>8140200</v>
       </c>
       <c r="I10" s="3">
-        <v>7321300</v>
+        <v>7442800</v>
       </c>
       <c r="J10" s="3">
-        <v>6085000</v>
+        <v>6186000</v>
       </c>
       <c r="K10" s="3">
         <v>5271700</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>69300</v>
+        <v>70400</v>
       </c>
       <c r="E14" s="3">
-        <v>251100</v>
+        <v>255200</v>
       </c>
       <c r="F14" s="3">
-        <v>49300</v>
+        <v>50100</v>
       </c>
       <c r="G14" s="3">
-        <v>20700</v>
+        <v>21000</v>
       </c>
       <c r="H14" s="3">
-        <v>101800</v>
+        <v>103500</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="K14" s="3">
         <v>4800</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>120500</v>
+        <v>122500</v>
       </c>
       <c r="E15" s="3">
-        <v>107500</v>
+        <v>109300</v>
       </c>
       <c r="F15" s="3">
-        <v>73900</v>
+        <v>75100</v>
       </c>
       <c r="G15" s="3">
-        <v>74800</v>
+        <v>76000</v>
       </c>
       <c r="H15" s="3">
-        <v>55700</v>
+        <v>56600</v>
       </c>
       <c r="I15" s="3">
-        <v>41300</v>
+        <v>42000</v>
       </c>
       <c r="J15" s="3">
-        <v>26800</v>
+        <v>27300</v>
       </c>
       <c r="K15" s="3">
         <v>19700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>24783300</v>
+        <v>25194700</v>
       </c>
       <c r="E17" s="3">
-        <v>22662000</v>
+        <v>23038100</v>
       </c>
       <c r="F17" s="3">
-        <v>22769600</v>
+        <v>23147600</v>
       </c>
       <c r="G17" s="3">
-        <v>21179500</v>
+        <v>21531000</v>
       </c>
       <c r="H17" s="3">
-        <v>19802400</v>
+        <v>20131100</v>
       </c>
       <c r="I17" s="3">
-        <v>18096800</v>
+        <v>18397200</v>
       </c>
       <c r="J17" s="3">
-        <v>13773100</v>
+        <v>14001700</v>
       </c>
       <c r="K17" s="3">
         <v>11135500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2696000</v>
+        <v>2740800</v>
       </c>
       <c r="E18" s="3">
-        <v>1690600</v>
+        <v>1718600</v>
       </c>
       <c r="F18" s="3">
-        <v>2261900</v>
+        <v>2299500</v>
       </c>
       <c r="G18" s="3">
-        <v>2025900</v>
+        <v>2059500</v>
       </c>
       <c r="H18" s="3">
-        <v>1930200</v>
+        <v>1962200</v>
       </c>
       <c r="I18" s="3">
-        <v>1638800</v>
+        <v>1666000</v>
       </c>
       <c r="J18" s="3">
-        <v>1619400</v>
+        <v>1646300</v>
       </c>
       <c r="K18" s="3">
         <v>1470500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>53800</v>
+        <v>54700</v>
       </c>
       <c r="E20" s="3">
-        <v>47100</v>
+        <v>47900</v>
       </c>
       <c r="F20" s="3">
-        <v>-348700</v>
+        <v>-354500</v>
       </c>
       <c r="G20" s="3">
-        <v>-30900</v>
+        <v>-31400</v>
       </c>
       <c r="H20" s="3">
-        <v>151400</v>
+        <v>153900</v>
       </c>
       <c r="I20" s="3">
-        <v>51500</v>
+        <v>52400</v>
       </c>
       <c r="J20" s="3">
-        <v>-152700</v>
+        <v>-155300</v>
       </c>
       <c r="K20" s="3">
         <v>-148700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4128200</v>
+        <v>4203000</v>
       </c>
       <c r="E21" s="3">
-        <v>3119100</v>
+        <v>3177100</v>
       </c>
       <c r="F21" s="3">
-        <v>3184400</v>
+        <v>3243000</v>
       </c>
       <c r="G21" s="3">
-        <v>2843900</v>
+        <v>2895000</v>
       </c>
       <c r="H21" s="3">
-        <v>2851900</v>
+        <v>2902700</v>
       </c>
       <c r="I21" s="3">
-        <v>2365500</v>
+        <v>2407900</v>
       </c>
       <c r="J21" s="3">
-        <v>1999800</v>
+        <v>2035400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>715000</v>
+        <v>726900</v>
       </c>
       <c r="E22" s="3">
-        <v>783700</v>
+        <v>796700</v>
       </c>
       <c r="F22" s="3">
-        <v>317800</v>
+        <v>323100</v>
       </c>
       <c r="G22" s="3">
-        <v>333700</v>
+        <v>339200</v>
       </c>
       <c r="H22" s="3">
-        <v>314500</v>
+        <v>319800</v>
       </c>
       <c r="I22" s="3">
-        <v>279700</v>
+        <v>284300</v>
       </c>
       <c r="J22" s="3">
-        <v>223600</v>
+        <v>227300</v>
       </c>
       <c r="K22" s="3">
         <v>185700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2034800</v>
+        <v>2068600</v>
       </c>
       <c r="E23" s="3">
-        <v>954000</v>
+        <v>969800</v>
       </c>
       <c r="F23" s="3">
-        <v>1595400</v>
+        <v>1621900</v>
       </c>
       <c r="G23" s="3">
-        <v>1661300</v>
+        <v>1688900</v>
       </c>
       <c r="H23" s="3">
-        <v>1767100</v>
+        <v>1796400</v>
       </c>
       <c r="I23" s="3">
-        <v>1410700</v>
+        <v>1434100</v>
       </c>
       <c r="J23" s="3">
-        <v>1243100</v>
+        <v>1263700</v>
       </c>
       <c r="K23" s="3">
         <v>1136200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>705300</v>
+        <v>717000</v>
       </c>
       <c r="E24" s="3">
-        <v>732100</v>
+        <v>744200</v>
       </c>
       <c r="F24" s="3">
-        <v>517500</v>
+        <v>526100</v>
       </c>
       <c r="G24" s="3">
-        <v>502300</v>
+        <v>510700</v>
       </c>
       <c r="H24" s="3">
-        <v>504500</v>
+        <v>512900</v>
       </c>
       <c r="I24" s="3">
-        <v>389700</v>
+        <v>396100</v>
       </c>
       <c r="J24" s="3">
-        <v>391800</v>
+        <v>398300</v>
       </c>
       <c r="K24" s="3">
         <v>299200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1329500</v>
+        <v>1351600</v>
       </c>
       <c r="E26" s="3">
-        <v>221900</v>
+        <v>225600</v>
       </c>
       <c r="F26" s="3">
-        <v>1077900</v>
+        <v>1095800</v>
       </c>
       <c r="G26" s="3">
-        <v>1159000</v>
+        <v>1178200</v>
       </c>
       <c r="H26" s="3">
-        <v>1262600</v>
+        <v>1283500</v>
       </c>
       <c r="I26" s="3">
-        <v>1021000</v>
+        <v>1037900</v>
       </c>
       <c r="J26" s="3">
-        <v>851200</v>
+        <v>865300</v>
       </c>
       <c r="K26" s="3">
         <v>836900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1407700</v>
+        <v>1431000</v>
       </c>
       <c r="E27" s="3">
-        <v>-95300</v>
+        <v>-96900</v>
       </c>
       <c r="F27" s="3">
-        <v>1022500</v>
+        <v>1039500</v>
       </c>
       <c r="G27" s="3">
-        <v>1018800</v>
+        <v>1035700</v>
       </c>
       <c r="H27" s="3">
-        <v>1910900</v>
+        <v>1942600</v>
       </c>
       <c r="I27" s="3">
-        <v>1044300</v>
+        <v>1061700</v>
       </c>
       <c r="J27" s="3">
-        <v>873500</v>
+        <v>888000</v>
       </c>
       <c r="K27" s="3">
         <v>799100</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>166300</v>
+        <v>169000</v>
       </c>
       <c r="H29" s="3">
-        <v>184100</v>
+        <v>187100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-53800</v>
+        <v>-54700</v>
       </c>
       <c r="E32" s="3">
-        <v>-47100</v>
+        <v>-47900</v>
       </c>
       <c r="F32" s="3">
-        <v>348700</v>
+        <v>354500</v>
       </c>
       <c r="G32" s="3">
-        <v>30900</v>
+        <v>31400</v>
       </c>
       <c r="H32" s="3">
-        <v>-151400</v>
+        <v>-153900</v>
       </c>
       <c r="I32" s="3">
-        <v>-51500</v>
+        <v>-52400</v>
       </c>
       <c r="J32" s="3">
-        <v>152700</v>
+        <v>155300</v>
       </c>
       <c r="K32" s="3">
         <v>148700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1407700</v>
+        <v>1431000</v>
       </c>
       <c r="E33" s="3">
-        <v>-95300</v>
+        <v>-96900</v>
       </c>
       <c r="F33" s="3">
-        <v>1022500</v>
+        <v>1039500</v>
       </c>
       <c r="G33" s="3">
-        <v>1185100</v>
+        <v>1204800</v>
       </c>
       <c r="H33" s="3">
-        <v>2095000</v>
+        <v>2129700</v>
       </c>
       <c r="I33" s="3">
-        <v>1044300</v>
+        <v>1061700</v>
       </c>
       <c r="J33" s="3">
-        <v>873500</v>
+        <v>888000</v>
       </c>
       <c r="K33" s="3">
         <v>799100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1407700</v>
+        <v>1431000</v>
       </c>
       <c r="E35" s="3">
-        <v>-95300</v>
+        <v>-96900</v>
       </c>
       <c r="F35" s="3">
-        <v>1022500</v>
+        <v>1039500</v>
       </c>
       <c r="G35" s="3">
-        <v>1185100</v>
+        <v>1204800</v>
       </c>
       <c r="H35" s="3">
-        <v>2095000</v>
+        <v>2129700</v>
       </c>
       <c r="I35" s="3">
-        <v>1044300</v>
+        <v>1061700</v>
       </c>
       <c r="J35" s="3">
-        <v>873500</v>
+        <v>888000</v>
       </c>
       <c r="K35" s="3">
         <v>799100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4811900</v>
+        <v>4891800</v>
       </c>
       <c r="E41" s="3">
-        <v>5316600</v>
+        <v>5404900</v>
       </c>
       <c r="F41" s="3">
-        <v>3238800</v>
+        <v>3292500</v>
       </c>
       <c r="G41" s="3">
-        <v>3065100</v>
+        <v>3116000</v>
       </c>
       <c r="H41" s="3">
-        <v>4789000</v>
+        <v>4868500</v>
       </c>
       <c r="I41" s="3">
-        <v>2155700</v>
+        <v>2191500</v>
       </c>
       <c r="J41" s="3">
-        <v>1452200</v>
+        <v>1476300</v>
       </c>
       <c r="K41" s="3">
         <v>1406600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1206100</v>
+        <v>1226100</v>
       </c>
       <c r="E42" s="3">
-        <v>99000</v>
+        <v>100700</v>
       </c>
       <c r="F42" s="3">
-        <v>610900</v>
+        <v>621000</v>
       </c>
       <c r="G42" s="3">
-        <v>1527600</v>
+        <v>1553000</v>
       </c>
       <c r="H42" s="3">
-        <v>106700</v>
+        <v>108500</v>
       </c>
       <c r="I42" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J42" s="3">
-        <v>121300</v>
+        <v>123300</v>
       </c>
       <c r="K42" s="3">
         <v>117500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2576300</v>
+        <v>2619100</v>
       </c>
       <c r="E43" s="3">
-        <v>3419800</v>
+        <v>3476600</v>
       </c>
       <c r="F43" s="3">
-        <v>2392900</v>
+        <v>2432700</v>
       </c>
       <c r="G43" s="3">
-        <v>2207900</v>
+        <v>2244500</v>
       </c>
       <c r="H43" s="3">
-        <v>2154800</v>
+        <v>2190500</v>
       </c>
       <c r="I43" s="3">
-        <v>1751800</v>
+        <v>1780900</v>
       </c>
       <c r="J43" s="3">
-        <v>2054700</v>
+        <v>2088800</v>
       </c>
       <c r="K43" s="3">
         <v>1990200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2514300</v>
+        <v>2556000</v>
       </c>
       <c r="E44" s="3">
-        <v>2175300</v>
+        <v>2211400</v>
       </c>
       <c r="F44" s="3">
-        <v>2026500</v>
+        <v>2060200</v>
       </c>
       <c r="G44" s="3">
-        <v>1762900</v>
+        <v>1792200</v>
       </c>
       <c r="H44" s="3">
-        <v>1721100</v>
+        <v>1749700</v>
       </c>
       <c r="I44" s="3">
-        <v>1577400</v>
+        <v>1603600</v>
       </c>
       <c r="J44" s="3">
-        <v>1219200</v>
+        <v>1239500</v>
       </c>
       <c r="K44" s="3">
         <v>1181000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>288900</v>
+        <v>293700</v>
       </c>
       <c r="E45" s="3">
-        <v>320500</v>
+        <v>325800</v>
       </c>
       <c r="F45" s="3">
-        <v>256300</v>
+        <v>260500</v>
       </c>
       <c r="G45" s="3">
-        <v>210200</v>
+        <v>213700</v>
       </c>
       <c r="H45" s="3">
-        <v>179100</v>
+        <v>182000</v>
       </c>
       <c r="I45" s="3">
-        <v>335900</v>
+        <v>341500</v>
       </c>
       <c r="J45" s="3">
-        <v>421600</v>
+        <v>428600</v>
       </c>
       <c r="K45" s="3">
         <v>408400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11397500</v>
+        <v>11586700</v>
       </c>
       <c r="E46" s="3">
-        <v>9942700</v>
+        <v>10107700</v>
       </c>
       <c r="F46" s="3">
-        <v>8525400</v>
+        <v>8666900</v>
       </c>
       <c r="G46" s="3">
-        <v>8773800</v>
+        <v>8919400</v>
       </c>
       <c r="H46" s="3">
-        <v>8950700</v>
+        <v>9099300</v>
       </c>
       <c r="I46" s="3">
-        <v>5826800</v>
+        <v>5923500</v>
       </c>
       <c r="J46" s="3">
-        <v>4284100</v>
+        <v>4355200</v>
       </c>
       <c r="K46" s="3">
         <v>4149700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6270900</v>
+        <v>6375000</v>
       </c>
       <c r="E47" s="3">
-        <v>6587000</v>
+        <v>6696300</v>
       </c>
       <c r="F47" s="3">
-        <v>5373700</v>
+        <v>5462900</v>
       </c>
       <c r="G47" s="3">
-        <v>5289800</v>
+        <v>5377600</v>
       </c>
       <c r="H47" s="3">
-        <v>5366900</v>
+        <v>5456000</v>
       </c>
       <c r="I47" s="3">
-        <v>7187400</v>
+        <v>7306700</v>
       </c>
       <c r="J47" s="3">
-        <v>6043900</v>
+        <v>6144200</v>
       </c>
       <c r="K47" s="3">
         <v>5854200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8503800</v>
+        <v>8644900</v>
       </c>
       <c r="E48" s="3">
-        <v>16583900</v>
+        <v>16859100</v>
       </c>
       <c r="F48" s="3">
-        <v>8259500</v>
+        <v>8396600</v>
       </c>
       <c r="G48" s="3">
-        <v>5364900</v>
+        <v>5454000</v>
       </c>
       <c r="H48" s="3">
-        <v>5765600</v>
+        <v>5861300</v>
       </c>
       <c r="I48" s="3">
-        <v>5049800</v>
+        <v>5133600</v>
       </c>
       <c r="J48" s="3">
-        <v>7933200</v>
+        <v>8064900</v>
       </c>
       <c r="K48" s="3">
         <v>7684300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7812000</v>
+        <v>7941700</v>
       </c>
       <c r="E49" s="3">
-        <v>15363500</v>
+        <v>15618500</v>
       </c>
       <c r="F49" s="3">
-        <v>7240200</v>
+        <v>7360300</v>
       </c>
       <c r="G49" s="3">
-        <v>7193100</v>
+        <v>7312500</v>
       </c>
       <c r="H49" s="3">
-        <v>7612200</v>
+        <v>7738600</v>
       </c>
       <c r="I49" s="3">
-        <v>7571400</v>
+        <v>7697100</v>
       </c>
       <c r="J49" s="3">
-        <v>10704100</v>
+        <v>10881800</v>
       </c>
       <c r="K49" s="3">
         <v>10368200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2448400</v>
+        <v>2489000</v>
       </c>
       <c r="E52" s="3">
-        <v>1664500</v>
+        <v>1692100</v>
       </c>
       <c r="F52" s="3">
-        <v>2095700</v>
+        <v>2130500</v>
       </c>
       <c r="G52" s="3">
-        <v>1851600</v>
+        <v>1882300</v>
       </c>
       <c r="H52" s="3">
-        <v>1378600</v>
+        <v>1401500</v>
       </c>
       <c r="I52" s="3">
-        <v>1318300</v>
+        <v>1340200</v>
       </c>
       <c r="J52" s="3">
-        <v>786300</v>
+        <v>799300</v>
       </c>
       <c r="K52" s="3">
         <v>761600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36432500</v>
+        <v>37037300</v>
       </c>
       <c r="E54" s="3">
-        <v>33831500</v>
+        <v>34393100</v>
       </c>
       <c r="F54" s="3">
-        <v>31494500</v>
+        <v>32017300</v>
       </c>
       <c r="G54" s="3">
-        <v>28473200</v>
+        <v>28945900</v>
       </c>
       <c r="H54" s="3">
-        <v>29073900</v>
+        <v>29556500</v>
       </c>
       <c r="I54" s="3">
-        <v>26953800</v>
+        <v>27401200</v>
       </c>
       <c r="J54" s="3">
-        <v>20221000</v>
+        <v>20556700</v>
       </c>
       <c r="K54" s="3">
         <v>19586600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4611600</v>
+        <v>4688100</v>
       </c>
       <c r="E57" s="3">
-        <v>3713300</v>
+        <v>3774900</v>
       </c>
       <c r="F57" s="3">
-        <v>3787800</v>
+        <v>3850700</v>
       </c>
       <c r="G57" s="3">
-        <v>3244000</v>
+        <v>3297900</v>
       </c>
       <c r="H57" s="3">
-        <v>3268500</v>
+        <v>3322700</v>
       </c>
       <c r="I57" s="3">
-        <v>2919000</v>
+        <v>2967400</v>
       </c>
       <c r="J57" s="3">
-        <v>2223400</v>
+        <v>2260300</v>
       </c>
       <c r="K57" s="3">
         <v>2153700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>590100</v>
+        <v>599900</v>
       </c>
       <c r="E58" s="3">
-        <v>1538600</v>
+        <v>1564200</v>
       </c>
       <c r="F58" s="3">
-        <v>1165400</v>
+        <v>1184700</v>
       </c>
       <c r="G58" s="3">
-        <v>675500</v>
+        <v>686700</v>
       </c>
       <c r="H58" s="3">
-        <v>671300</v>
+        <v>682500</v>
       </c>
       <c r="I58" s="3">
-        <v>359700</v>
+        <v>365700</v>
       </c>
       <c r="J58" s="3">
-        <v>583100</v>
+        <v>592800</v>
       </c>
       <c r="K58" s="3">
         <v>564800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1552400</v>
+        <v>1578200</v>
       </c>
       <c r="E59" s="3">
-        <v>3206900</v>
+        <v>3260100</v>
       </c>
       <c r="F59" s="3">
-        <v>1791600</v>
+        <v>1821300</v>
       </c>
       <c r="G59" s="3">
-        <v>1092800</v>
+        <v>1110900</v>
       </c>
       <c r="H59" s="3">
-        <v>1248300</v>
+        <v>1269000</v>
       </c>
       <c r="I59" s="3">
-        <v>984000</v>
+        <v>1000300</v>
       </c>
       <c r="J59" s="3">
-        <v>1431100</v>
+        <v>1454900</v>
       </c>
       <c r="K59" s="3">
         <v>1386200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6754100</v>
+        <v>6866200</v>
       </c>
       <c r="E60" s="3">
-        <v>5849600</v>
+        <v>5946700</v>
       </c>
       <c r="F60" s="3">
-        <v>6744800</v>
+        <v>6856700</v>
       </c>
       <c r="G60" s="3">
-        <v>5012300</v>
+        <v>5095500</v>
       </c>
       <c r="H60" s="3">
-        <v>5188100</v>
+        <v>5274200</v>
       </c>
       <c r="I60" s="3">
-        <v>4262700</v>
+        <v>4333400</v>
       </c>
       <c r="J60" s="3">
-        <v>3228100</v>
+        <v>3281700</v>
       </c>
       <c r="K60" s="3">
         <v>3126800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11905100</v>
+        <v>12102700</v>
       </c>
       <c r="E61" s="3">
-        <v>11431200</v>
+        <v>11620900</v>
       </c>
       <c r="F61" s="3">
-        <v>7362500</v>
+        <v>7484700</v>
       </c>
       <c r="G61" s="3">
-        <v>5680500</v>
+        <v>5774800</v>
       </c>
       <c r="H61" s="3">
-        <v>5817200</v>
+        <v>5913800</v>
       </c>
       <c r="I61" s="3">
-        <v>6519200</v>
+        <v>6627400</v>
       </c>
       <c r="J61" s="3">
-        <v>4246900</v>
+        <v>4317400</v>
       </c>
       <c r="K61" s="3">
         <v>4113600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1218500</v>
+        <v>1238700</v>
       </c>
       <c r="E62" s="3">
-        <v>1982100</v>
+        <v>2015000</v>
       </c>
       <c r="F62" s="3">
-        <v>1295100</v>
+        <v>1316600</v>
       </c>
       <c r="G62" s="3">
-        <v>1204600</v>
+        <v>1224600</v>
       </c>
       <c r="H62" s="3">
-        <v>1425100</v>
+        <v>1448800</v>
       </c>
       <c r="I62" s="3">
-        <v>2035100</v>
+        <v>2068900</v>
       </c>
       <c r="J62" s="3">
-        <v>1031700</v>
+        <v>1048800</v>
       </c>
       <c r="K62" s="3">
         <v>999400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23460000</v>
+        <v>23849400</v>
       </c>
       <c r="E66" s="3">
-        <v>22087000</v>
+        <v>22453600</v>
       </c>
       <c r="F66" s="3">
-        <v>19046300</v>
+        <v>19362400</v>
       </c>
       <c r="G66" s="3">
-        <v>15774800</v>
+        <v>16036700</v>
       </c>
       <c r="H66" s="3">
-        <v>16709500</v>
+        <v>16986900</v>
       </c>
       <c r="I66" s="3">
-        <v>16485700</v>
+        <v>16759400</v>
       </c>
       <c r="J66" s="3">
-        <v>11253700</v>
+        <v>11440500</v>
       </c>
       <c r="K66" s="3">
         <v>10900600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11772300</v>
+        <v>11967700</v>
       </c>
       <c r="E72" s="3">
-        <v>10651400</v>
+        <v>10828200</v>
       </c>
       <c r="F72" s="3">
-        <v>11351800</v>
+        <v>11540300</v>
       </c>
       <c r="G72" s="3">
-        <v>10759400</v>
+        <v>10938000</v>
       </c>
       <c r="H72" s="3">
-        <v>9972300</v>
+        <v>10137800</v>
       </c>
       <c r="I72" s="3">
-        <v>8338500</v>
+        <v>8476900</v>
       </c>
       <c r="J72" s="3">
-        <v>7762600</v>
+        <v>7891500</v>
       </c>
       <c r="K72" s="3">
         <v>7519100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12972500</v>
+        <v>13187800</v>
       </c>
       <c r="E76" s="3">
-        <v>11744500</v>
+        <v>11939500</v>
       </c>
       <c r="F76" s="3">
-        <v>12448300</v>
+        <v>12654900</v>
       </c>
       <c r="G76" s="3">
-        <v>12698400</v>
+        <v>12909200</v>
       </c>
       <c r="H76" s="3">
-        <v>12364400</v>
+        <v>12569600</v>
       </c>
       <c r="I76" s="3">
-        <v>10468100</v>
+        <v>10641800</v>
       </c>
       <c r="J76" s="3">
-        <v>8967300</v>
+        <v>9116200</v>
       </c>
       <c r="K76" s="3">
         <v>8685900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1407700</v>
+        <v>1431000</v>
       </c>
       <c r="E81" s="3">
-        <v>-95300</v>
+        <v>-96900</v>
       </c>
       <c r="F81" s="3">
-        <v>1022500</v>
+        <v>1039500</v>
       </c>
       <c r="G81" s="3">
-        <v>1185100</v>
+        <v>1204800</v>
       </c>
       <c r="H81" s="3">
-        <v>2095000</v>
+        <v>2129700</v>
       </c>
       <c r="I81" s="3">
-        <v>1044300</v>
+        <v>1061700</v>
       </c>
       <c r="J81" s="3">
-        <v>873500</v>
+        <v>888000</v>
       </c>
       <c r="K81" s="3">
         <v>799100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1382600</v>
+        <v>1405500</v>
       </c>
       <c r="E83" s="3">
-        <v>1385600</v>
+        <v>1408600</v>
       </c>
       <c r="F83" s="3">
-        <v>1275000</v>
+        <v>1296200</v>
       </c>
       <c r="G83" s="3">
-        <v>851500</v>
+        <v>865600</v>
       </c>
       <c r="H83" s="3">
-        <v>772600</v>
+        <v>785400</v>
       </c>
       <c r="I83" s="3">
-        <v>677200</v>
+        <v>688500</v>
       </c>
       <c r="J83" s="3">
-        <v>534800</v>
+        <v>543600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3610600</v>
+        <v>3670600</v>
       </c>
       <c r="E89" s="3">
-        <v>2626700</v>
+        <v>2670300</v>
       </c>
       <c r="F89" s="3">
-        <v>3044900</v>
+        <v>3095500</v>
       </c>
       <c r="G89" s="3">
-        <v>2389800</v>
+        <v>2429500</v>
       </c>
       <c r="H89" s="3">
-        <v>2098000</v>
+        <v>2132800</v>
       </c>
       <c r="I89" s="3">
-        <v>2476500</v>
+        <v>2517600</v>
       </c>
       <c r="J89" s="3">
-        <v>1815100</v>
+        <v>1845200</v>
       </c>
       <c r="K89" s="3">
         <v>1787900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-953000</v>
+        <v>-968800</v>
       </c>
       <c r="E91" s="3">
-        <v>-975300</v>
+        <v>-991400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1190800</v>
+        <v>-1210600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1066200</v>
+        <v>-1083900</v>
       </c>
       <c r="H91" s="3">
-        <v>-962500</v>
+        <v>-978500</v>
       </c>
       <c r="I91" s="3">
-        <v>-942700</v>
+        <v>-958300</v>
       </c>
       <c r="J91" s="3">
-        <v>-863700</v>
+        <v>-878100</v>
       </c>
       <c r="K91" s="3">
         <v>-812700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2281000</v>
+        <v>-2318900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1549500</v>
+        <v>-1575300</v>
       </c>
       <c r="F94" s="3">
-        <v>-698100</v>
+        <v>-709700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2848500</v>
+        <v>-2895800</v>
       </c>
       <c r="H94" s="3">
-        <v>1412600</v>
+        <v>1436100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1909100</v>
+        <v>-1940800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1400900</v>
+        <v>-1424200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-661900</v>
+        <v>-672900</v>
       </c>
       <c r="E96" s="3">
-        <v>-783900</v>
+        <v>-796900</v>
       </c>
       <c r="F96" s="3">
-        <v>-673300</v>
+        <v>-684400</v>
       </c>
       <c r="G96" s="3">
-        <v>-638900</v>
+        <v>-649500</v>
       </c>
       <c r="H96" s="3">
-        <v>-615000</v>
+        <v>-625200</v>
       </c>
       <c r="I96" s="3">
-        <v>-595000</v>
+        <v>-604900</v>
       </c>
       <c r="J96" s="3">
-        <v>-528600</v>
+        <v>-537400</v>
       </c>
       <c r="K96" s="3">
         <v>-150800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1827300</v>
+        <v>-1857600</v>
       </c>
       <c r="E100" s="3">
-        <v>967000</v>
+        <v>983100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1898600</v>
+        <v>-1930100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1136700</v>
+        <v>-1155600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1040100</v>
+        <v>-1057300</v>
       </c>
       <c r="I100" s="3">
-        <v>64100</v>
+        <v>65100</v>
       </c>
       <c r="J100" s="3">
-        <v>-678800</v>
+        <v>-690100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="E101" s="3">
-        <v>33600</v>
+        <v>34200</v>
       </c>
       <c r="F101" s="3">
-        <v>-274600</v>
+        <v>-279100</v>
       </c>
       <c r="G101" s="3">
-        <v>-128500</v>
+        <v>-130700</v>
       </c>
       <c r="H101" s="3">
-        <v>162800</v>
+        <v>165500</v>
       </c>
       <c r="I101" s="3">
-        <v>72000</v>
+        <v>73200</v>
       </c>
       <c r="J101" s="3">
-        <v>-36700</v>
+        <v>-37300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-504700</v>
+        <v>-513100</v>
       </c>
       <c r="E102" s="3">
-        <v>2077900</v>
+        <v>2112400</v>
       </c>
       <c r="F102" s="3">
-        <v>173600</v>
+        <v>176500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1724000</v>
+        <v>-1752600</v>
       </c>
       <c r="H102" s="3">
-        <v>2633400</v>
+        <v>2677100</v>
       </c>
       <c r="I102" s="3">
-        <v>703500</v>
+        <v>715200</v>
       </c>
       <c r="J102" s="3">
-        <v>-301400</v>
+        <v>-306400</v>
       </c>
       <c r="K102" s="3">
         <v>394200</v>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27935400</v>
+        <v>28808800</v>
       </c>
       <c r="E8" s="3">
-        <v>24756800</v>
+        <v>25530700</v>
       </c>
       <c r="F8" s="3">
-        <v>25447000</v>
+        <v>26242600</v>
       </c>
       <c r="G8" s="3">
-        <v>23590500</v>
+        <v>24328000</v>
       </c>
       <c r="H8" s="3">
-        <v>22093400</v>
+        <v>22784100</v>
       </c>
       <c r="I8" s="3">
-        <v>20063200</v>
+        <v>20690500</v>
       </c>
       <c r="J8" s="3">
-        <v>15648000</v>
+        <v>16137200</v>
       </c>
       <c r="K8" s="3">
         <v>12606000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17202800</v>
+        <v>17740600</v>
       </c>
       <c r="E9" s="3">
-        <v>15232400</v>
+        <v>15708600</v>
       </c>
       <c r="F9" s="3">
-        <v>15830900</v>
+        <v>16325800</v>
       </c>
       <c r="G9" s="3">
-        <v>14793500</v>
+        <v>15256000</v>
       </c>
       <c r="H9" s="3">
-        <v>13953200</v>
+        <v>14389400</v>
       </c>
       <c r="I9" s="3">
-        <v>12620400</v>
+        <v>13015000</v>
       </c>
       <c r="J9" s="3">
-        <v>9462000</v>
+        <v>9757800</v>
       </c>
       <c r="K9" s="3">
         <v>7334400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10732700</v>
+        <v>11068200</v>
       </c>
       <c r="E10" s="3">
-        <v>9524400</v>
+        <v>9822100</v>
       </c>
       <c r="F10" s="3">
-        <v>9616200</v>
+        <v>9916800</v>
       </c>
       <c r="G10" s="3">
-        <v>8797000</v>
+        <v>9072100</v>
       </c>
       <c r="H10" s="3">
-        <v>8140200</v>
+        <v>8394600</v>
       </c>
       <c r="I10" s="3">
-        <v>7442800</v>
+        <v>7675500</v>
       </c>
       <c r="J10" s="3">
-        <v>6186000</v>
+        <v>6379400</v>
       </c>
       <c r="K10" s="3">
         <v>5271700</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>70400</v>
+        <v>72600</v>
       </c>
       <c r="E14" s="3">
-        <v>255200</v>
+        <v>263200</v>
       </c>
       <c r="F14" s="3">
-        <v>50100</v>
+        <v>51600</v>
       </c>
       <c r="G14" s="3">
-        <v>21000</v>
+        <v>21700</v>
       </c>
       <c r="H14" s="3">
-        <v>103500</v>
+        <v>106700</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="K14" s="3">
         <v>4800</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>122500</v>
+        <v>126400</v>
       </c>
       <c r="E15" s="3">
-        <v>109300</v>
+        <v>112700</v>
       </c>
       <c r="F15" s="3">
-        <v>75100</v>
+        <v>77400</v>
       </c>
       <c r="G15" s="3">
-        <v>76000</v>
+        <v>78400</v>
       </c>
       <c r="H15" s="3">
-        <v>56600</v>
+        <v>58400</v>
       </c>
       <c r="I15" s="3">
-        <v>42000</v>
+        <v>43300</v>
       </c>
       <c r="J15" s="3">
-        <v>27300</v>
+        <v>28100</v>
       </c>
       <c r="K15" s="3">
         <v>19700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25194700</v>
+        <v>25982300</v>
       </c>
       <c r="E17" s="3">
-        <v>23038100</v>
+        <v>23758400</v>
       </c>
       <c r="F17" s="3">
-        <v>23147600</v>
+        <v>23871200</v>
       </c>
       <c r="G17" s="3">
-        <v>21531000</v>
+        <v>22204100</v>
       </c>
       <c r="H17" s="3">
-        <v>20131100</v>
+        <v>20760500</v>
       </c>
       <c r="I17" s="3">
-        <v>18397200</v>
+        <v>18972300</v>
       </c>
       <c r="J17" s="3">
-        <v>14001700</v>
+        <v>14439500</v>
       </c>
       <c r="K17" s="3">
         <v>11135500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2740800</v>
+        <v>2826400</v>
       </c>
       <c r="E18" s="3">
-        <v>1718600</v>
+        <v>1772400</v>
       </c>
       <c r="F18" s="3">
-        <v>2299500</v>
+        <v>2371400</v>
       </c>
       <c r="G18" s="3">
-        <v>2059500</v>
+        <v>2123900</v>
       </c>
       <c r="H18" s="3">
-        <v>1962200</v>
+        <v>2023600</v>
       </c>
       <c r="I18" s="3">
-        <v>1666000</v>
+        <v>1718100</v>
       </c>
       <c r="J18" s="3">
-        <v>1646300</v>
+        <v>1697700</v>
       </c>
       <c r="K18" s="3">
         <v>1470500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>54700</v>
+        <v>56500</v>
       </c>
       <c r="E20" s="3">
-        <v>47900</v>
+        <v>49400</v>
       </c>
       <c r="F20" s="3">
-        <v>-354500</v>
+        <v>-365500</v>
       </c>
       <c r="G20" s="3">
-        <v>-31400</v>
+        <v>-32400</v>
       </c>
       <c r="H20" s="3">
-        <v>153900</v>
+        <v>158700</v>
       </c>
       <c r="I20" s="3">
-        <v>52400</v>
+        <v>54000</v>
       </c>
       <c r="J20" s="3">
-        <v>-155300</v>
+        <v>-160100</v>
       </c>
       <c r="K20" s="3">
         <v>-148700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4203000</v>
+        <v>4313300</v>
       </c>
       <c r="E21" s="3">
-        <v>3177100</v>
+        <v>3255300</v>
       </c>
       <c r="F21" s="3">
-        <v>3243000</v>
+        <v>3325000</v>
       </c>
       <c r="G21" s="3">
-        <v>2895000</v>
+        <v>2972500</v>
       </c>
       <c r="H21" s="3">
-        <v>2902700</v>
+        <v>2981700</v>
       </c>
       <c r="I21" s="3">
-        <v>2407900</v>
+        <v>2472800</v>
       </c>
       <c r="J21" s="3">
-        <v>2035400</v>
+        <v>2090900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>726900</v>
+        <v>749600</v>
       </c>
       <c r="E22" s="3">
-        <v>796700</v>
+        <v>821600</v>
       </c>
       <c r="F22" s="3">
-        <v>323100</v>
+        <v>333200</v>
       </c>
       <c r="G22" s="3">
-        <v>339200</v>
+        <v>349800</v>
       </c>
       <c r="H22" s="3">
-        <v>319800</v>
+        <v>329700</v>
       </c>
       <c r="I22" s="3">
-        <v>284300</v>
+        <v>293200</v>
       </c>
       <c r="J22" s="3">
-        <v>227300</v>
+        <v>234400</v>
       </c>
       <c r="K22" s="3">
         <v>185700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2068600</v>
+        <v>2133300</v>
       </c>
       <c r="E23" s="3">
-        <v>969800</v>
+        <v>1000100</v>
       </c>
       <c r="F23" s="3">
-        <v>1621900</v>
+        <v>1672600</v>
       </c>
       <c r="G23" s="3">
-        <v>1688900</v>
+        <v>1741700</v>
       </c>
       <c r="H23" s="3">
-        <v>1796400</v>
+        <v>1852600</v>
       </c>
       <c r="I23" s="3">
-        <v>1434100</v>
+        <v>1478900</v>
       </c>
       <c r="J23" s="3">
-        <v>1263700</v>
+        <v>1303200</v>
       </c>
       <c r="K23" s="3">
         <v>1136200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>717000</v>
+        <v>739500</v>
       </c>
       <c r="E24" s="3">
-        <v>744200</v>
+        <v>767500</v>
       </c>
       <c r="F24" s="3">
-        <v>526100</v>
+        <v>542600</v>
       </c>
       <c r="G24" s="3">
-        <v>510700</v>
+        <v>526700</v>
       </c>
       <c r="H24" s="3">
-        <v>512900</v>
+        <v>528900</v>
       </c>
       <c r="I24" s="3">
-        <v>396100</v>
+        <v>408500</v>
       </c>
       <c r="J24" s="3">
-        <v>398300</v>
+        <v>410800</v>
       </c>
       <c r="K24" s="3">
         <v>299200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1351600</v>
+        <v>1393800</v>
       </c>
       <c r="E26" s="3">
-        <v>225600</v>
+        <v>232600</v>
       </c>
       <c r="F26" s="3">
-        <v>1095800</v>
+        <v>1130100</v>
       </c>
       <c r="G26" s="3">
-        <v>1178200</v>
+        <v>1215000</v>
       </c>
       <c r="H26" s="3">
-        <v>1283500</v>
+        <v>1323600</v>
       </c>
       <c r="I26" s="3">
-        <v>1037900</v>
+        <v>1070400</v>
       </c>
       <c r="J26" s="3">
-        <v>865300</v>
+        <v>892400</v>
       </c>
       <c r="K26" s="3">
         <v>836900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1431000</v>
+        <v>1475800</v>
       </c>
       <c r="E27" s="3">
-        <v>-96900</v>
+        <v>-100000</v>
       </c>
       <c r="F27" s="3">
-        <v>1039500</v>
+        <v>1072000</v>
       </c>
       <c r="G27" s="3">
-        <v>1035700</v>
+        <v>1068100</v>
       </c>
       <c r="H27" s="3">
-        <v>1942600</v>
+        <v>2003300</v>
       </c>
       <c r="I27" s="3">
-        <v>1061700</v>
+        <v>1094800</v>
       </c>
       <c r="J27" s="3">
-        <v>888000</v>
+        <v>915800</v>
       </c>
       <c r="K27" s="3">
         <v>799100</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>169000</v>
+        <v>174300</v>
       </c>
       <c r="H29" s="3">
-        <v>187100</v>
+        <v>193000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-54700</v>
+        <v>-56500</v>
       </c>
       <c r="E32" s="3">
-        <v>-47900</v>
+        <v>-49400</v>
       </c>
       <c r="F32" s="3">
-        <v>354500</v>
+        <v>365500</v>
       </c>
       <c r="G32" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="H32" s="3">
-        <v>-153900</v>
+        <v>-158700</v>
       </c>
       <c r="I32" s="3">
-        <v>-52400</v>
+        <v>-54000</v>
       </c>
       <c r="J32" s="3">
-        <v>155300</v>
+        <v>160100</v>
       </c>
       <c r="K32" s="3">
         <v>148700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1431000</v>
+        <v>1475800</v>
       </c>
       <c r="E33" s="3">
-        <v>-96900</v>
+        <v>-100000</v>
       </c>
       <c r="F33" s="3">
-        <v>1039500</v>
+        <v>1072000</v>
       </c>
       <c r="G33" s="3">
-        <v>1204800</v>
+        <v>1242400</v>
       </c>
       <c r="H33" s="3">
-        <v>2129700</v>
+        <v>2196300</v>
       </c>
       <c r="I33" s="3">
-        <v>1061700</v>
+        <v>1094800</v>
       </c>
       <c r="J33" s="3">
-        <v>888000</v>
+        <v>915800</v>
       </c>
       <c r="K33" s="3">
         <v>799100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1431000</v>
+        <v>1475800</v>
       </c>
       <c r="E35" s="3">
-        <v>-96900</v>
+        <v>-100000</v>
       </c>
       <c r="F35" s="3">
-        <v>1039500</v>
+        <v>1072000</v>
       </c>
       <c r="G35" s="3">
-        <v>1204800</v>
+        <v>1242400</v>
       </c>
       <c r="H35" s="3">
-        <v>2129700</v>
+        <v>2196300</v>
       </c>
       <c r="I35" s="3">
-        <v>1061700</v>
+        <v>1094800</v>
       </c>
       <c r="J35" s="3">
-        <v>888000</v>
+        <v>915800</v>
       </c>
       <c r="K35" s="3">
         <v>799100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4891800</v>
+        <v>5044700</v>
       </c>
       <c r="E41" s="3">
-        <v>5404900</v>
+        <v>5573900</v>
       </c>
       <c r="F41" s="3">
-        <v>3292500</v>
+        <v>3395500</v>
       </c>
       <c r="G41" s="3">
-        <v>3116000</v>
+        <v>3213400</v>
       </c>
       <c r="H41" s="3">
-        <v>4868500</v>
+        <v>5020700</v>
       </c>
       <c r="I41" s="3">
-        <v>2191500</v>
+        <v>2260000</v>
       </c>
       <c r="J41" s="3">
-        <v>1476300</v>
+        <v>1522400</v>
       </c>
       <c r="K41" s="3">
         <v>1406600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1226100</v>
+        <v>1264500</v>
       </c>
       <c r="E42" s="3">
-        <v>100700</v>
+        <v>103800</v>
       </c>
       <c r="F42" s="3">
-        <v>621000</v>
+        <v>640400</v>
       </c>
       <c r="G42" s="3">
-        <v>1553000</v>
+        <v>1601600</v>
       </c>
       <c r="H42" s="3">
-        <v>108500</v>
+        <v>111900</v>
       </c>
       <c r="I42" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="J42" s="3">
-        <v>123300</v>
+        <v>127200</v>
       </c>
       <c r="K42" s="3">
         <v>117500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2619100</v>
+        <v>2701000</v>
       </c>
       <c r="E43" s="3">
-        <v>3476600</v>
+        <v>3585300</v>
       </c>
       <c r="F43" s="3">
-        <v>2432700</v>
+        <v>2508700</v>
       </c>
       <c r="G43" s="3">
-        <v>2244500</v>
+        <v>2314700</v>
       </c>
       <c r="H43" s="3">
-        <v>2190500</v>
+        <v>2259000</v>
       </c>
       <c r="I43" s="3">
-        <v>1780900</v>
+        <v>1836600</v>
       </c>
       <c r="J43" s="3">
-        <v>2088800</v>
+        <v>2154100</v>
       </c>
       <c r="K43" s="3">
         <v>1990200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2556000</v>
+        <v>2635900</v>
       </c>
       <c r="E44" s="3">
-        <v>2211400</v>
+        <v>2280500</v>
       </c>
       <c r="F44" s="3">
-        <v>2060200</v>
+        <v>2124600</v>
       </c>
       <c r="G44" s="3">
-        <v>1792200</v>
+        <v>1848200</v>
       </c>
       <c r="H44" s="3">
-        <v>1749700</v>
+        <v>1804400</v>
       </c>
       <c r="I44" s="3">
-        <v>1603600</v>
+        <v>1653800</v>
       </c>
       <c r="J44" s="3">
-        <v>1239500</v>
+        <v>1278200</v>
       </c>
       <c r="K44" s="3">
         <v>1181000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>293700</v>
+        <v>302900</v>
       </c>
       <c r="E45" s="3">
-        <v>325800</v>
+        <v>336000</v>
       </c>
       <c r="F45" s="3">
-        <v>260500</v>
+        <v>268700</v>
       </c>
       <c r="G45" s="3">
-        <v>213700</v>
+        <v>220400</v>
       </c>
       <c r="H45" s="3">
-        <v>182000</v>
+        <v>187700</v>
       </c>
       <c r="I45" s="3">
-        <v>341500</v>
+        <v>352200</v>
       </c>
       <c r="J45" s="3">
-        <v>428600</v>
+        <v>442000</v>
       </c>
       <c r="K45" s="3">
         <v>408400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11586700</v>
+        <v>11948900</v>
       </c>
       <c r="E46" s="3">
-        <v>10107700</v>
+        <v>10423700</v>
       </c>
       <c r="F46" s="3">
-        <v>8666900</v>
+        <v>8937900</v>
       </c>
       <c r="G46" s="3">
-        <v>8919400</v>
+        <v>9198300</v>
       </c>
       <c r="H46" s="3">
-        <v>9099300</v>
+        <v>9383700</v>
       </c>
       <c r="I46" s="3">
-        <v>5923500</v>
+        <v>6108700</v>
       </c>
       <c r="J46" s="3">
-        <v>4355200</v>
+        <v>4491400</v>
       </c>
       <c r="K46" s="3">
         <v>4149700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6375000</v>
+        <v>6574300</v>
       </c>
       <c r="E47" s="3">
-        <v>6696300</v>
+        <v>6905700</v>
       </c>
       <c r="F47" s="3">
-        <v>5462900</v>
+        <v>5633700</v>
       </c>
       <c r="G47" s="3">
-        <v>5377600</v>
+        <v>5545700</v>
       </c>
       <c r="H47" s="3">
-        <v>5456000</v>
+        <v>5626500</v>
       </c>
       <c r="I47" s="3">
-        <v>7306700</v>
+        <v>7535100</v>
       </c>
       <c r="J47" s="3">
-        <v>6144200</v>
+        <v>6336300</v>
       </c>
       <c r="K47" s="3">
         <v>5854200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8644900</v>
+        <v>8915200</v>
       </c>
       <c r="E48" s="3">
-        <v>16859100</v>
+        <v>17386200</v>
       </c>
       <c r="F48" s="3">
-        <v>8396600</v>
+        <v>8659100</v>
       </c>
       <c r="G48" s="3">
-        <v>5454000</v>
+        <v>5624500</v>
       </c>
       <c r="H48" s="3">
-        <v>5861300</v>
+        <v>6044500</v>
       </c>
       <c r="I48" s="3">
-        <v>5133600</v>
+        <v>5294100</v>
       </c>
       <c r="J48" s="3">
-        <v>8064900</v>
+        <v>8317000</v>
       </c>
       <c r="K48" s="3">
         <v>7684300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7941700</v>
+        <v>8190000</v>
       </c>
       <c r="E49" s="3">
-        <v>15618500</v>
+        <v>16106800</v>
       </c>
       <c r="F49" s="3">
-        <v>7360300</v>
+        <v>7590400</v>
       </c>
       <c r="G49" s="3">
-        <v>7312500</v>
+        <v>7541100</v>
       </c>
       <c r="H49" s="3">
-        <v>7738600</v>
+        <v>7980500</v>
       </c>
       <c r="I49" s="3">
-        <v>7697100</v>
+        <v>7937700</v>
       </c>
       <c r="J49" s="3">
-        <v>10881800</v>
+        <v>11222000</v>
       </c>
       <c r="K49" s="3">
         <v>10368200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2489000</v>
+        <v>2566800</v>
       </c>
       <c r="E52" s="3">
-        <v>1692100</v>
+        <v>1745000</v>
       </c>
       <c r="F52" s="3">
-        <v>2130500</v>
+        <v>2197100</v>
       </c>
       <c r="G52" s="3">
-        <v>1882300</v>
+        <v>1941200</v>
       </c>
       <c r="H52" s="3">
-        <v>1401500</v>
+        <v>1445300</v>
       </c>
       <c r="I52" s="3">
-        <v>1340200</v>
+        <v>1382100</v>
       </c>
       <c r="J52" s="3">
-        <v>799300</v>
+        <v>824300</v>
       </c>
       <c r="K52" s="3">
         <v>761600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37037300</v>
+        <v>38195100</v>
       </c>
       <c r="E54" s="3">
-        <v>34393100</v>
+        <v>35468300</v>
       </c>
       <c r="F54" s="3">
-        <v>32017300</v>
+        <v>33018200</v>
       </c>
       <c r="G54" s="3">
-        <v>28945900</v>
+        <v>29850800</v>
       </c>
       <c r="H54" s="3">
-        <v>29556500</v>
+        <v>30480500</v>
       </c>
       <c r="I54" s="3">
-        <v>27401200</v>
+        <v>28257800</v>
       </c>
       <c r="J54" s="3">
-        <v>20556700</v>
+        <v>21199300</v>
       </c>
       <c r="K54" s="3">
         <v>19586600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4688100</v>
+        <v>4834700</v>
       </c>
       <c r="E57" s="3">
-        <v>3774900</v>
+        <v>3893000</v>
       </c>
       <c r="F57" s="3">
-        <v>3850700</v>
+        <v>3971100</v>
       </c>
       <c r="G57" s="3">
-        <v>3297900</v>
+        <v>3401000</v>
       </c>
       <c r="H57" s="3">
-        <v>3322700</v>
+        <v>3426600</v>
       </c>
       <c r="I57" s="3">
-        <v>2967400</v>
+        <v>3060200</v>
       </c>
       <c r="J57" s="3">
-        <v>2260300</v>
+        <v>2331000</v>
       </c>
       <c r="K57" s="3">
         <v>2153700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>599900</v>
+        <v>618700</v>
       </c>
       <c r="E58" s="3">
-        <v>1564200</v>
+        <v>1613100</v>
       </c>
       <c r="F58" s="3">
-        <v>1184700</v>
+        <v>1221800</v>
       </c>
       <c r="G58" s="3">
-        <v>686700</v>
+        <v>708200</v>
       </c>
       <c r="H58" s="3">
-        <v>682500</v>
+        <v>703800</v>
       </c>
       <c r="I58" s="3">
-        <v>365700</v>
+        <v>377100</v>
       </c>
       <c r="J58" s="3">
-        <v>592800</v>
+        <v>611300</v>
       </c>
       <c r="K58" s="3">
         <v>564800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1578200</v>
+        <v>1627500</v>
       </c>
       <c r="E59" s="3">
-        <v>3260100</v>
+        <v>3362000</v>
       </c>
       <c r="F59" s="3">
-        <v>1821300</v>
+        <v>1878300</v>
       </c>
       <c r="G59" s="3">
-        <v>1110900</v>
+        <v>1145600</v>
       </c>
       <c r="H59" s="3">
-        <v>1269000</v>
+        <v>1308700</v>
       </c>
       <c r="I59" s="3">
-        <v>1000300</v>
+        <v>1031600</v>
       </c>
       <c r="J59" s="3">
-        <v>1454900</v>
+        <v>1500300</v>
       </c>
       <c r="K59" s="3">
         <v>1386200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6866200</v>
+        <v>7080900</v>
       </c>
       <c r="E60" s="3">
-        <v>5946700</v>
+        <v>6132600</v>
       </c>
       <c r="F60" s="3">
-        <v>6856700</v>
+        <v>7071100</v>
       </c>
       <c r="G60" s="3">
-        <v>5095500</v>
+        <v>5254800</v>
       </c>
       <c r="H60" s="3">
-        <v>5274200</v>
+        <v>5439100</v>
       </c>
       <c r="I60" s="3">
-        <v>4333400</v>
+        <v>4468900</v>
       </c>
       <c r="J60" s="3">
-        <v>3281700</v>
+        <v>3384300</v>
       </c>
       <c r="K60" s="3">
         <v>3126800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12102700</v>
+        <v>12481100</v>
       </c>
       <c r="E61" s="3">
-        <v>11620900</v>
+        <v>11984200</v>
       </c>
       <c r="F61" s="3">
-        <v>7484700</v>
+        <v>7718700</v>
       </c>
       <c r="G61" s="3">
-        <v>5774800</v>
+        <v>5955300</v>
       </c>
       <c r="H61" s="3">
-        <v>5913800</v>
+        <v>6098700</v>
       </c>
       <c r="I61" s="3">
-        <v>6627400</v>
+        <v>6834600</v>
       </c>
       <c r="J61" s="3">
-        <v>4317400</v>
+        <v>4452400</v>
       </c>
       <c r="K61" s="3">
         <v>4113600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1238700</v>
+        <v>1277500</v>
       </c>
       <c r="E62" s="3">
-        <v>2015000</v>
+        <v>2078000</v>
       </c>
       <c r="F62" s="3">
-        <v>1316600</v>
+        <v>1357800</v>
       </c>
       <c r="G62" s="3">
-        <v>1224600</v>
+        <v>1262900</v>
       </c>
       <c r="H62" s="3">
-        <v>1448800</v>
+        <v>1494100</v>
       </c>
       <c r="I62" s="3">
-        <v>2068900</v>
+        <v>2133600</v>
       </c>
       <c r="J62" s="3">
-        <v>1048800</v>
+        <v>1081600</v>
       </c>
       <c r="K62" s="3">
         <v>999400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23849400</v>
+        <v>24595000</v>
       </c>
       <c r="E66" s="3">
-        <v>22453600</v>
+        <v>23155600</v>
       </c>
       <c r="F66" s="3">
-        <v>19362400</v>
+        <v>19967700</v>
       </c>
       <c r="G66" s="3">
-        <v>16036700</v>
+        <v>16538000</v>
       </c>
       <c r="H66" s="3">
-        <v>16986900</v>
+        <v>17518000</v>
       </c>
       <c r="I66" s="3">
-        <v>16759400</v>
+        <v>17283300</v>
       </c>
       <c r="J66" s="3">
-        <v>11440500</v>
+        <v>11798200</v>
       </c>
       <c r="K66" s="3">
         <v>10900600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11967700</v>
+        <v>12341900</v>
       </c>
       <c r="E72" s="3">
-        <v>10828200</v>
+        <v>11166700</v>
       </c>
       <c r="F72" s="3">
-        <v>11540300</v>
+        <v>11901000</v>
       </c>
       <c r="G72" s="3">
-        <v>10938000</v>
+        <v>11280000</v>
       </c>
       <c r="H72" s="3">
-        <v>10137800</v>
+        <v>10454700</v>
       </c>
       <c r="I72" s="3">
-        <v>8476900</v>
+        <v>8741900</v>
       </c>
       <c r="J72" s="3">
-        <v>7891500</v>
+        <v>8138200</v>
       </c>
       <c r="K72" s="3">
         <v>7519100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13187800</v>
+        <v>13600100</v>
       </c>
       <c r="E76" s="3">
-        <v>11939500</v>
+        <v>12312700</v>
       </c>
       <c r="F76" s="3">
-        <v>12654900</v>
+        <v>13050500</v>
       </c>
       <c r="G76" s="3">
-        <v>12909200</v>
+        <v>13312800</v>
       </c>
       <c r="H76" s="3">
-        <v>12569600</v>
+        <v>12962600</v>
       </c>
       <c r="I76" s="3">
-        <v>10641800</v>
+        <v>10974500</v>
       </c>
       <c r="J76" s="3">
-        <v>9116200</v>
+        <v>9401100</v>
       </c>
       <c r="K76" s="3">
         <v>8685900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1431000</v>
+        <v>1475800</v>
       </c>
       <c r="E81" s="3">
-        <v>-96900</v>
+        <v>-100000</v>
       </c>
       <c r="F81" s="3">
-        <v>1039500</v>
+        <v>1072000</v>
       </c>
       <c r="G81" s="3">
-        <v>1204800</v>
+        <v>1242400</v>
       </c>
       <c r="H81" s="3">
-        <v>2129700</v>
+        <v>2196300</v>
       </c>
       <c r="I81" s="3">
-        <v>1061700</v>
+        <v>1094800</v>
       </c>
       <c r="J81" s="3">
-        <v>888000</v>
+        <v>915800</v>
       </c>
       <c r="K81" s="3">
         <v>799100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1405500</v>
+        <v>1449400</v>
       </c>
       <c r="E83" s="3">
-        <v>1408600</v>
+        <v>1452700</v>
       </c>
       <c r="F83" s="3">
-        <v>1296200</v>
+        <v>1336700</v>
       </c>
       <c r="G83" s="3">
-        <v>865600</v>
+        <v>892700</v>
       </c>
       <c r="H83" s="3">
-        <v>785400</v>
+        <v>810000</v>
       </c>
       <c r="I83" s="3">
-        <v>688500</v>
+        <v>710000</v>
       </c>
       <c r="J83" s="3">
-        <v>543600</v>
+        <v>560600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3670600</v>
+        <v>3785300</v>
       </c>
       <c r="E89" s="3">
-        <v>2670300</v>
+        <v>2753800</v>
       </c>
       <c r="F89" s="3">
-        <v>3095500</v>
+        <v>3192200</v>
       </c>
       <c r="G89" s="3">
-        <v>2429500</v>
+        <v>2505400</v>
       </c>
       <c r="H89" s="3">
-        <v>2132800</v>
+        <v>2199500</v>
       </c>
       <c r="I89" s="3">
-        <v>2517600</v>
+        <v>2596300</v>
       </c>
       <c r="J89" s="3">
-        <v>1845200</v>
+        <v>1902900</v>
       </c>
       <c r="K89" s="3">
         <v>1787900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-968800</v>
+        <v>-947400</v>
       </c>
       <c r="E91" s="3">
-        <v>-991400</v>
+        <v>-966400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1210600</v>
+        <v>-1187300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1083900</v>
+        <v>-1117800</v>
       </c>
       <c r="H91" s="3">
-        <v>-978500</v>
+        <v>-1009100</v>
       </c>
       <c r="I91" s="3">
-        <v>-958300</v>
+        <v>-988300</v>
       </c>
       <c r="J91" s="3">
-        <v>-878100</v>
+        <v>-905500</v>
       </c>
       <c r="K91" s="3">
         <v>-812700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2318900</v>
+        <v>-2391400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1575300</v>
+        <v>-1624500</v>
       </c>
       <c r="F94" s="3">
-        <v>-709700</v>
+        <v>-731900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2895800</v>
+        <v>-2986300</v>
       </c>
       <c r="H94" s="3">
-        <v>1436100</v>
+        <v>1481000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1940800</v>
+        <v>-2001400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1424200</v>
+        <v>-1468700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-672900</v>
+        <v>-693900</v>
       </c>
       <c r="E96" s="3">
-        <v>-796900</v>
+        <v>-821800</v>
       </c>
       <c r="F96" s="3">
-        <v>-684400</v>
+        <v>-705800</v>
       </c>
       <c r="G96" s="3">
-        <v>-649500</v>
+        <v>-669800</v>
       </c>
       <c r="H96" s="3">
-        <v>-625200</v>
+        <v>-644800</v>
       </c>
       <c r="I96" s="3">
-        <v>-604900</v>
+        <v>-623800</v>
       </c>
       <c r="J96" s="3">
-        <v>-537400</v>
+        <v>-554200</v>
       </c>
       <c r="K96" s="3">
         <v>-150800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1857600</v>
+        <v>-1915700</v>
       </c>
       <c r="E100" s="3">
-        <v>983100</v>
+        <v>1013800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1930100</v>
+        <v>-1990400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1155600</v>
+        <v>-1191700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1057300</v>
+        <v>-1090400</v>
       </c>
       <c r="I100" s="3">
-        <v>65100</v>
+        <v>67200</v>
       </c>
       <c r="J100" s="3">
-        <v>-690100</v>
+        <v>-711700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="E101" s="3">
-        <v>34200</v>
+        <v>35300</v>
       </c>
       <c r="F101" s="3">
-        <v>-279100</v>
+        <v>-287800</v>
       </c>
       <c r="G101" s="3">
-        <v>-130700</v>
+        <v>-134800</v>
       </c>
       <c r="H101" s="3">
-        <v>165500</v>
+        <v>170600</v>
       </c>
       <c r="I101" s="3">
-        <v>73200</v>
+        <v>75500</v>
       </c>
       <c r="J101" s="3">
-        <v>-37300</v>
+        <v>-38500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-513100</v>
+        <v>-529100</v>
       </c>
       <c r="E102" s="3">
-        <v>2112400</v>
+        <v>2178400</v>
       </c>
       <c r="F102" s="3">
-        <v>176500</v>
+        <v>182000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1752600</v>
+        <v>-1807400</v>
       </c>
       <c r="H102" s="3">
-        <v>2677100</v>
+        <v>2760800</v>
       </c>
       <c r="I102" s="3">
-        <v>715200</v>
+        <v>737500</v>
       </c>
       <c r="J102" s="3">
-        <v>-306400</v>
+        <v>-316000</v>
       </c>
       <c r="K102" s="3">
         <v>394200</v>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>FMX</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28808800</v>
+        <v>30321800</v>
       </c>
       <c r="E8" s="3">
-        <v>25530700</v>
+        <v>26871600</v>
       </c>
       <c r="F8" s="3">
-        <v>26242600</v>
+        <v>27620800</v>
       </c>
       <c r="G8" s="3">
-        <v>24328000</v>
+        <v>25605700</v>
       </c>
       <c r="H8" s="3">
-        <v>22784100</v>
+        <v>23980700</v>
       </c>
       <c r="I8" s="3">
-        <v>20690500</v>
+        <v>21777100</v>
       </c>
       <c r="J8" s="3">
-        <v>16137200</v>
+        <v>16984700</v>
       </c>
       <c r="K8" s="3">
         <v>12606000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17740600</v>
+        <v>18672300</v>
       </c>
       <c r="E9" s="3">
-        <v>15708600</v>
+        <v>16533600</v>
       </c>
       <c r="F9" s="3">
-        <v>16325800</v>
+        <v>17183200</v>
       </c>
       <c r="G9" s="3">
-        <v>15256000</v>
+        <v>16057200</v>
       </c>
       <c r="H9" s="3">
-        <v>14389400</v>
+        <v>15145200</v>
       </c>
       <c r="I9" s="3">
-        <v>13015000</v>
+        <v>13698500</v>
       </c>
       <c r="J9" s="3">
-        <v>9757800</v>
+        <v>10270200</v>
       </c>
       <c r="K9" s="3">
         <v>7334400</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11068200</v>
+        <v>11649500</v>
       </c>
       <c r="E10" s="3">
-        <v>9822100</v>
+        <v>10338000</v>
       </c>
       <c r="F10" s="3">
-        <v>9916800</v>
+        <v>10437600</v>
       </c>
       <c r="G10" s="3">
-        <v>9072100</v>
+        <v>9548500</v>
       </c>
       <c r="H10" s="3">
-        <v>8394600</v>
+        <v>8835500</v>
       </c>
       <c r="I10" s="3">
-        <v>7675500</v>
+        <v>8078600</v>
       </c>
       <c r="J10" s="3">
-        <v>6379400</v>
+        <v>6714500</v>
       </c>
       <c r="K10" s="3">
         <v>5271700</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>72600</v>
+        <v>76400</v>
       </c>
       <c r="E14" s="3">
-        <v>263200</v>
+        <v>277000</v>
       </c>
       <c r="F14" s="3">
-        <v>51600</v>
+        <v>54300</v>
       </c>
       <c r="G14" s="3">
-        <v>21700</v>
+        <v>22800</v>
       </c>
       <c r="H14" s="3">
-        <v>106700</v>
+        <v>112300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="K14" s="3">
         <v>4800</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>126400</v>
+        <v>133000</v>
       </c>
       <c r="E15" s="3">
-        <v>112700</v>
+        <v>118700</v>
       </c>
       <c r="F15" s="3">
-        <v>77400</v>
+        <v>81500</v>
       </c>
       <c r="G15" s="3">
-        <v>78400</v>
+        <v>82500</v>
       </c>
       <c r="H15" s="3">
-        <v>58400</v>
+        <v>61400</v>
       </c>
       <c r="I15" s="3">
-        <v>43300</v>
+        <v>45600</v>
       </c>
       <c r="J15" s="3">
-        <v>28100</v>
+        <v>29600</v>
       </c>
       <c r="K15" s="3">
         <v>19700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25982300</v>
+        <v>27346900</v>
       </c>
       <c r="E17" s="3">
-        <v>23758400</v>
+        <v>25006100</v>
       </c>
       <c r="F17" s="3">
-        <v>23871200</v>
+        <v>25124900</v>
       </c>
       <c r="G17" s="3">
-        <v>22204100</v>
+        <v>23370300</v>
       </c>
       <c r="H17" s="3">
-        <v>20760500</v>
+        <v>21850800</v>
       </c>
       <c r="I17" s="3">
-        <v>18972300</v>
+        <v>19968800</v>
       </c>
       <c r="J17" s="3">
-        <v>14439500</v>
+        <v>15197800</v>
       </c>
       <c r="K17" s="3">
         <v>11135500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2826400</v>
+        <v>2974900</v>
       </c>
       <c r="E18" s="3">
-        <v>1772400</v>
+        <v>1865400</v>
       </c>
       <c r="F18" s="3">
-        <v>2371400</v>
+        <v>2495900</v>
       </c>
       <c r="G18" s="3">
-        <v>2123900</v>
+        <v>2235500</v>
       </c>
       <c r="H18" s="3">
-        <v>2023600</v>
+        <v>2129900</v>
       </c>
       <c r="I18" s="3">
-        <v>1718100</v>
+        <v>1808400</v>
       </c>
       <c r="J18" s="3">
-        <v>1697700</v>
+        <v>1786900</v>
       </c>
       <c r="K18" s="3">
         <v>1470500</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>56500</v>
+        <v>59400</v>
       </c>
       <c r="E20" s="3">
-        <v>49400</v>
+        <v>51900</v>
       </c>
       <c r="F20" s="3">
-        <v>-365500</v>
+        <v>-384700</v>
       </c>
       <c r="G20" s="3">
-        <v>-32400</v>
+        <v>-34100</v>
       </c>
       <c r="H20" s="3">
-        <v>158700</v>
+        <v>167100</v>
       </c>
       <c r="I20" s="3">
-        <v>54000</v>
+        <v>56900</v>
       </c>
       <c r="J20" s="3">
-        <v>-160100</v>
+        <v>-168500</v>
       </c>
       <c r="K20" s="3">
         <v>-148700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4313300</v>
+        <v>4595200</v>
       </c>
       <c r="E21" s="3">
-        <v>3255300</v>
+        <v>3353700</v>
       </c>
       <c r="F21" s="3">
-        <v>3325000</v>
+        <v>3070400</v>
       </c>
       <c r="G21" s="3">
-        <v>2972500</v>
+        <v>3071800</v>
       </c>
       <c r="H21" s="3">
-        <v>2981700</v>
+        <v>3059800</v>
       </c>
       <c r="I21" s="3">
-        <v>2472800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2090900</v>
+        <v>2467700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>749600</v>
+        <v>789000</v>
       </c>
       <c r="E22" s="3">
-        <v>821600</v>
+        <v>864700</v>
       </c>
       <c r="F22" s="3">
-        <v>333200</v>
+        <v>350700</v>
       </c>
       <c r="G22" s="3">
-        <v>349800</v>
+        <v>368200</v>
       </c>
       <c r="H22" s="3">
-        <v>329700</v>
+        <v>347100</v>
       </c>
       <c r="I22" s="3">
-        <v>293200</v>
+        <v>308600</v>
       </c>
       <c r="J22" s="3">
-        <v>234400</v>
+        <v>246700</v>
       </c>
       <c r="K22" s="3">
         <v>185700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2133300</v>
+        <v>2245300</v>
       </c>
       <c r="E23" s="3">
-        <v>1000100</v>
+        <v>1052600</v>
       </c>
       <c r="F23" s="3">
-        <v>1672600</v>
+        <v>1760500</v>
       </c>
       <c r="G23" s="3">
-        <v>1741700</v>
+        <v>1833200</v>
       </c>
       <c r="H23" s="3">
-        <v>1852600</v>
+        <v>1949900</v>
       </c>
       <c r="I23" s="3">
-        <v>1478900</v>
+        <v>1556600</v>
       </c>
       <c r="J23" s="3">
-        <v>1303200</v>
+        <v>1371600</v>
       </c>
       <c r="K23" s="3">
         <v>1136200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>739500</v>
+        <v>778300</v>
       </c>
       <c r="E24" s="3">
-        <v>767500</v>
+        <v>807800</v>
       </c>
       <c r="F24" s="3">
-        <v>542600</v>
+        <v>571000</v>
       </c>
       <c r="G24" s="3">
-        <v>526700</v>
+        <v>554300</v>
       </c>
       <c r="H24" s="3">
-        <v>528900</v>
+        <v>556700</v>
       </c>
       <c r="I24" s="3">
-        <v>408500</v>
+        <v>430000</v>
       </c>
       <c r="J24" s="3">
-        <v>410800</v>
+        <v>432400</v>
       </c>
       <c r="K24" s="3">
         <v>299200</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1393800</v>
+        <v>1467000</v>
       </c>
       <c r="E26" s="3">
-        <v>232600</v>
+        <v>244900</v>
       </c>
       <c r="F26" s="3">
-        <v>1130100</v>
+        <v>1189400</v>
       </c>
       <c r="G26" s="3">
-        <v>1215000</v>
+        <v>1278900</v>
       </c>
       <c r="H26" s="3">
-        <v>1323600</v>
+        <v>1393200</v>
       </c>
       <c r="I26" s="3">
-        <v>1070400</v>
+        <v>1126600</v>
       </c>
       <c r="J26" s="3">
-        <v>892400</v>
+        <v>939300</v>
       </c>
       <c r="K26" s="3">
         <v>836900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1475800</v>
+        <v>1553300</v>
       </c>
       <c r="E27" s="3">
-        <v>-100000</v>
+        <v>-105200</v>
       </c>
       <c r="F27" s="3">
-        <v>1072000</v>
+        <v>1128300</v>
       </c>
       <c r="G27" s="3">
-        <v>1068100</v>
+        <v>1124200</v>
       </c>
       <c r="H27" s="3">
-        <v>2003300</v>
+        <v>2108600</v>
       </c>
       <c r="I27" s="3">
-        <v>1094800</v>
+        <v>1152300</v>
       </c>
       <c r="J27" s="3">
-        <v>915800</v>
+        <v>963900</v>
       </c>
       <c r="K27" s="3">
         <v>799100</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>174300</v>
+        <v>183500</v>
       </c>
       <c r="H29" s="3">
-        <v>193000</v>
+        <v>203100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-56500</v>
+        <v>-59400</v>
       </c>
       <c r="E32" s="3">
-        <v>-49400</v>
+        <v>-51900</v>
       </c>
       <c r="F32" s="3">
-        <v>365500</v>
+        <v>384700</v>
       </c>
       <c r="G32" s="3">
-        <v>32400</v>
+        <v>34100</v>
       </c>
       <c r="H32" s="3">
-        <v>-158700</v>
+        <v>-167100</v>
       </c>
       <c r="I32" s="3">
-        <v>-54000</v>
+        <v>-56900</v>
       </c>
       <c r="J32" s="3">
-        <v>160100</v>
+        <v>168500</v>
       </c>
       <c r="K32" s="3">
         <v>148700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1475800</v>
+        <v>1553300</v>
       </c>
       <c r="E33" s="3">
-        <v>-100000</v>
+        <v>-105200</v>
       </c>
       <c r="F33" s="3">
-        <v>1072000</v>
+        <v>1128300</v>
       </c>
       <c r="G33" s="3">
-        <v>1242400</v>
+        <v>1307700</v>
       </c>
       <c r="H33" s="3">
-        <v>2196300</v>
+        <v>2311700</v>
       </c>
       <c r="I33" s="3">
-        <v>1094800</v>
+        <v>1152300</v>
       </c>
       <c r="J33" s="3">
-        <v>915800</v>
+        <v>963900</v>
       </c>
       <c r="K33" s="3">
         <v>799100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1475800</v>
+        <v>1553300</v>
       </c>
       <c r="E35" s="3">
-        <v>-100000</v>
+        <v>-105200</v>
       </c>
       <c r="F35" s="3">
-        <v>1072000</v>
+        <v>1128300</v>
       </c>
       <c r="G35" s="3">
-        <v>1242400</v>
+        <v>1307700</v>
       </c>
       <c r="H35" s="3">
-        <v>2196300</v>
+        <v>2311700</v>
       </c>
       <c r="I35" s="3">
-        <v>1094800</v>
+        <v>1152300</v>
       </c>
       <c r="J35" s="3">
-        <v>915800</v>
+        <v>963900</v>
       </c>
       <c r="K35" s="3">
         <v>799100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5044700</v>
+        <v>5309700</v>
       </c>
       <c r="E41" s="3">
-        <v>5573900</v>
+        <v>5866600</v>
       </c>
       <c r="F41" s="3">
-        <v>3395500</v>
+        <v>3573800</v>
       </c>
       <c r="G41" s="3">
-        <v>3213400</v>
+        <v>3382200</v>
       </c>
       <c r="H41" s="3">
-        <v>5020700</v>
+        <v>5284400</v>
       </c>
       <c r="I41" s="3">
-        <v>2260000</v>
+        <v>2378700</v>
       </c>
       <c r="J41" s="3">
-        <v>1522400</v>
+        <v>1602400</v>
       </c>
       <c r="K41" s="3">
         <v>1406600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1264500</v>
+        <v>1330900</v>
       </c>
       <c r="E42" s="3">
-        <v>103800</v>
+        <v>109300</v>
       </c>
       <c r="F42" s="3">
-        <v>640400</v>
+        <v>674100</v>
       </c>
       <c r="G42" s="3">
-        <v>1601600</v>
+        <v>1685700</v>
       </c>
       <c r="H42" s="3">
-        <v>111900</v>
+        <v>117700</v>
       </c>
       <c r="I42" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="J42" s="3">
-        <v>127200</v>
+        <v>133900</v>
       </c>
       <c r="K42" s="3">
         <v>117500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2701000</v>
+        <v>2842800</v>
       </c>
       <c r="E43" s="3">
-        <v>3585300</v>
+        <v>3773600</v>
       </c>
       <c r="F43" s="3">
-        <v>2508700</v>
+        <v>2640500</v>
       </c>
       <c r="G43" s="3">
-        <v>2314700</v>
+        <v>2436300</v>
       </c>
       <c r="H43" s="3">
-        <v>2259000</v>
+        <v>2377700</v>
       </c>
       <c r="I43" s="3">
-        <v>1836600</v>
+        <v>1933000</v>
       </c>
       <c r="J43" s="3">
-        <v>2154100</v>
+        <v>2267300</v>
       </c>
       <c r="K43" s="3">
         <v>1990200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2635900</v>
+        <v>2774300</v>
       </c>
       <c r="E44" s="3">
-        <v>2280500</v>
+        <v>2400300</v>
       </c>
       <c r="F44" s="3">
-        <v>2124600</v>
+        <v>2236200</v>
       </c>
       <c r="G44" s="3">
-        <v>1848200</v>
+        <v>1945200</v>
       </c>
       <c r="H44" s="3">
-        <v>1804400</v>
+        <v>1899100</v>
       </c>
       <c r="I44" s="3">
-        <v>1653800</v>
+        <v>1740600</v>
       </c>
       <c r="J44" s="3">
-        <v>1278200</v>
+        <v>1345300</v>
       </c>
       <c r="K44" s="3">
         <v>1181000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>302900</v>
+        <v>318800</v>
       </c>
       <c r="E45" s="3">
-        <v>336000</v>
+        <v>353600</v>
       </c>
       <c r="F45" s="3">
-        <v>268700</v>
+        <v>282800</v>
       </c>
       <c r="G45" s="3">
-        <v>220400</v>
+        <v>232000</v>
       </c>
       <c r="H45" s="3">
-        <v>187700</v>
+        <v>197600</v>
       </c>
       <c r="I45" s="3">
-        <v>352200</v>
+        <v>370700</v>
       </c>
       <c r="J45" s="3">
-        <v>442000</v>
+        <v>465300</v>
       </c>
       <c r="K45" s="3">
         <v>408400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11948900</v>
+        <v>12576400</v>
       </c>
       <c r="E46" s="3">
-        <v>10423700</v>
+        <v>10971200</v>
       </c>
       <c r="F46" s="3">
-        <v>8937900</v>
+        <v>9407300</v>
       </c>
       <c r="G46" s="3">
-        <v>9198300</v>
+        <v>9681400</v>
       </c>
       <c r="H46" s="3">
-        <v>9383700</v>
+        <v>9876600</v>
       </c>
       <c r="I46" s="3">
-        <v>6108700</v>
+        <v>6429500</v>
       </c>
       <c r="J46" s="3">
-        <v>4491400</v>
+        <v>4727300</v>
       </c>
       <c r="K46" s="3">
         <v>4149700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6574300</v>
+        <v>6919600</v>
       </c>
       <c r="E47" s="3">
-        <v>6905700</v>
+        <v>7268400</v>
       </c>
       <c r="F47" s="3">
-        <v>5633700</v>
+        <v>5929500</v>
       </c>
       <c r="G47" s="3">
-        <v>5545700</v>
+        <v>5836900</v>
       </c>
       <c r="H47" s="3">
-        <v>5626500</v>
+        <v>5922000</v>
       </c>
       <c r="I47" s="3">
-        <v>7535100</v>
+        <v>7930900</v>
       </c>
       <c r="J47" s="3">
-        <v>6336300</v>
+        <v>6669100</v>
       </c>
       <c r="K47" s="3">
         <v>5854200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8915200</v>
+        <v>9383400</v>
       </c>
       <c r="E48" s="3">
-        <v>17386200</v>
+        <v>18299300</v>
       </c>
       <c r="F48" s="3">
-        <v>8659100</v>
+        <v>9113900</v>
       </c>
       <c r="G48" s="3">
-        <v>5624500</v>
+        <v>5919900</v>
       </c>
       <c r="H48" s="3">
-        <v>6044500</v>
+        <v>6362000</v>
       </c>
       <c r="I48" s="3">
-        <v>5294100</v>
+        <v>5572200</v>
       </c>
       <c r="J48" s="3">
-        <v>8317000</v>
+        <v>8753900</v>
       </c>
       <c r="K48" s="3">
         <v>7684300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8190000</v>
+        <v>8620100</v>
       </c>
       <c r="E49" s="3">
-        <v>16106800</v>
+        <v>16952700</v>
       </c>
       <c r="F49" s="3">
-        <v>7590400</v>
+        <v>7989100</v>
       </c>
       <c r="G49" s="3">
-        <v>7541100</v>
+        <v>7937200</v>
       </c>
       <c r="H49" s="3">
-        <v>7980500</v>
+        <v>8399600</v>
       </c>
       <c r="I49" s="3">
-        <v>7937700</v>
+        <v>8354600</v>
       </c>
       <c r="J49" s="3">
-        <v>11222000</v>
+        <v>11811300</v>
       </c>
       <c r="K49" s="3">
         <v>10368200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2566800</v>
+        <v>2701600</v>
       </c>
       <c r="E52" s="3">
-        <v>1745000</v>
+        <v>1836600</v>
       </c>
       <c r="F52" s="3">
-        <v>2197100</v>
+        <v>2312500</v>
       </c>
       <c r="G52" s="3">
-        <v>1941200</v>
+        <v>2043100</v>
       </c>
       <c r="H52" s="3">
-        <v>1445300</v>
+        <v>1521200</v>
       </c>
       <c r="I52" s="3">
-        <v>1382100</v>
+        <v>1454700</v>
       </c>
       <c r="J52" s="3">
-        <v>824300</v>
+        <v>867600</v>
       </c>
       <c r="K52" s="3">
         <v>761600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38195100</v>
+        <v>40201100</v>
       </c>
       <c r="E54" s="3">
-        <v>35468300</v>
+        <v>37331100</v>
       </c>
       <c r="F54" s="3">
-        <v>33018200</v>
+        <v>34752400</v>
       </c>
       <c r="G54" s="3">
-        <v>29850800</v>
+        <v>31418500</v>
       </c>
       <c r="H54" s="3">
-        <v>30480500</v>
+        <v>32081400</v>
       </c>
       <c r="I54" s="3">
-        <v>28257800</v>
+        <v>29741900</v>
       </c>
       <c r="J54" s="3">
-        <v>21199300</v>
+        <v>22312700</v>
       </c>
       <c r="K54" s="3">
         <v>19586600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4834700</v>
+        <v>5088600</v>
       </c>
       <c r="E57" s="3">
-        <v>3893000</v>
+        <v>4097400</v>
       </c>
       <c r="F57" s="3">
-        <v>3971100</v>
+        <v>4179600</v>
       </c>
       <c r="G57" s="3">
-        <v>3401000</v>
+        <v>3579600</v>
       </c>
       <c r="H57" s="3">
-        <v>3426600</v>
+        <v>3606500</v>
       </c>
       <c r="I57" s="3">
-        <v>3060200</v>
+        <v>3220900</v>
       </c>
       <c r="J57" s="3">
-        <v>2331000</v>
+        <v>2453400</v>
       </c>
       <c r="K57" s="3">
         <v>2153700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>618700</v>
+        <v>651200</v>
       </c>
       <c r="E58" s="3">
-        <v>1613100</v>
+        <v>1697800</v>
       </c>
       <c r="F58" s="3">
-        <v>1221800</v>
+        <v>1285900</v>
       </c>
       <c r="G58" s="3">
-        <v>708200</v>
+        <v>745400</v>
       </c>
       <c r="H58" s="3">
-        <v>703800</v>
+        <v>740800</v>
       </c>
       <c r="I58" s="3">
-        <v>377100</v>
+        <v>396900</v>
       </c>
       <c r="J58" s="3">
-        <v>611300</v>
+        <v>643500</v>
       </c>
       <c r="K58" s="3">
         <v>564800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1627500</v>
+        <v>1713000</v>
       </c>
       <c r="E59" s="3">
-        <v>3362000</v>
+        <v>3538600</v>
       </c>
       <c r="F59" s="3">
-        <v>1878300</v>
+        <v>1976900</v>
       </c>
       <c r="G59" s="3">
-        <v>1145600</v>
+        <v>1205800</v>
       </c>
       <c r="H59" s="3">
-        <v>1308700</v>
+        <v>1377400</v>
       </c>
       <c r="I59" s="3">
-        <v>1031600</v>
+        <v>1085800</v>
       </c>
       <c r="J59" s="3">
-        <v>1500300</v>
+        <v>1579100</v>
       </c>
       <c r="K59" s="3">
         <v>1386200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7080900</v>
+        <v>7452800</v>
       </c>
       <c r="E60" s="3">
-        <v>6132600</v>
+        <v>6454700</v>
       </c>
       <c r="F60" s="3">
-        <v>7071100</v>
+        <v>7442500</v>
       </c>
       <c r="G60" s="3">
-        <v>5254800</v>
+        <v>5530800</v>
       </c>
       <c r="H60" s="3">
-        <v>5439100</v>
+        <v>5724700</v>
       </c>
       <c r="I60" s="3">
-        <v>4468900</v>
+        <v>4703600</v>
       </c>
       <c r="J60" s="3">
-        <v>3384300</v>
+        <v>3562000</v>
       </c>
       <c r="K60" s="3">
         <v>3126800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12481100</v>
+        <v>13136600</v>
       </c>
       <c r="E61" s="3">
-        <v>11984200</v>
+        <v>12613600</v>
       </c>
       <c r="F61" s="3">
-        <v>7718700</v>
+        <v>8124100</v>
       </c>
       <c r="G61" s="3">
-        <v>5955300</v>
+        <v>6268100</v>
       </c>
       <c r="H61" s="3">
-        <v>6098700</v>
+        <v>6419000</v>
       </c>
       <c r="I61" s="3">
-        <v>6834600</v>
+        <v>7193500</v>
       </c>
       <c r="J61" s="3">
-        <v>4452400</v>
+        <v>4686200</v>
       </c>
       <c r="K61" s="3">
         <v>4113600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1277500</v>
+        <v>1344500</v>
       </c>
       <c r="E62" s="3">
-        <v>2078000</v>
+        <v>2187100</v>
       </c>
       <c r="F62" s="3">
-        <v>1357800</v>
+        <v>1429100</v>
       </c>
       <c r="G62" s="3">
-        <v>1262900</v>
+        <v>1329200</v>
       </c>
       <c r="H62" s="3">
-        <v>1494100</v>
+        <v>1572600</v>
       </c>
       <c r="I62" s="3">
-        <v>2133600</v>
+        <v>2245600</v>
       </c>
       <c r="J62" s="3">
-        <v>1081600</v>
+        <v>1138400</v>
       </c>
       <c r="K62" s="3">
         <v>999400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24595000</v>
+        <v>25886700</v>
       </c>
       <c r="E66" s="3">
-        <v>23155600</v>
+        <v>24371700</v>
       </c>
       <c r="F66" s="3">
-        <v>19967700</v>
+        <v>21016400</v>
       </c>
       <c r="G66" s="3">
-        <v>16538000</v>
+        <v>17406600</v>
       </c>
       <c r="H66" s="3">
-        <v>17518000</v>
+        <v>18438000</v>
       </c>
       <c r="I66" s="3">
-        <v>17283300</v>
+        <v>18191000</v>
       </c>
       <c r="J66" s="3">
-        <v>11798200</v>
+        <v>12417800</v>
       </c>
       <c r="K66" s="3">
         <v>10900600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12341900</v>
+        <v>12990100</v>
       </c>
       <c r="E72" s="3">
-        <v>11166700</v>
+        <v>11753100</v>
       </c>
       <c r="F72" s="3">
-        <v>11901000</v>
+        <v>12526100</v>
       </c>
       <c r="G72" s="3">
-        <v>11280000</v>
+        <v>11872400</v>
       </c>
       <c r="H72" s="3">
-        <v>10454700</v>
+        <v>11003800</v>
       </c>
       <c r="I72" s="3">
-        <v>8741900</v>
+        <v>9201100</v>
       </c>
       <c r="J72" s="3">
-        <v>8138200</v>
+        <v>8565600</v>
       </c>
       <c r="K72" s="3">
         <v>7519100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13600100</v>
+        <v>14314400</v>
       </c>
       <c r="E76" s="3">
-        <v>12312700</v>
+        <v>12959400</v>
       </c>
       <c r="F76" s="3">
-        <v>13050500</v>
+        <v>13735900</v>
       </c>
       <c r="G76" s="3">
-        <v>13312800</v>
+        <v>14012000</v>
       </c>
       <c r="H76" s="3">
-        <v>12962600</v>
+        <v>13643400</v>
       </c>
       <c r="I76" s="3">
-        <v>10974500</v>
+        <v>11550900</v>
       </c>
       <c r="J76" s="3">
-        <v>9401100</v>
+        <v>9894900</v>
       </c>
       <c r="K76" s="3">
         <v>8685900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1475800</v>
+        <v>1553300</v>
       </c>
       <c r="E81" s="3">
-        <v>-100000</v>
+        <v>-105200</v>
       </c>
       <c r="F81" s="3">
-        <v>1072000</v>
+        <v>1128300</v>
       </c>
       <c r="G81" s="3">
-        <v>1242400</v>
+        <v>1307700</v>
       </c>
       <c r="H81" s="3">
-        <v>2196300</v>
+        <v>2311700</v>
       </c>
       <c r="I81" s="3">
-        <v>1094800</v>
+        <v>1152300</v>
       </c>
       <c r="J81" s="3">
-        <v>915800</v>
+        <v>963900</v>
       </c>
       <c r="K81" s="3">
         <v>799100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1449400</v>
+        <v>1529000</v>
       </c>
       <c r="E83" s="3">
-        <v>1452700</v>
+        <v>1406900</v>
       </c>
       <c r="F83" s="3">
-        <v>1336700</v>
+        <v>939600</v>
       </c>
       <c r="G83" s="3">
-        <v>892700</v>
+        <v>852500</v>
       </c>
       <c r="H83" s="3">
-        <v>810000</v>
+        <v>747300</v>
       </c>
       <c r="I83" s="3">
-        <v>710000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>560600</v>
+        <v>590100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3785300</v>
+        <v>2898500</v>
       </c>
       <c r="E89" s="3">
-        <v>2753800</v>
+        <v>3359900</v>
       </c>
       <c r="F89" s="3">
-        <v>3192200</v>
+        <v>2637000</v>
       </c>
       <c r="G89" s="3">
-        <v>2505400</v>
+        <v>2315000</v>
       </c>
       <c r="H89" s="3">
-        <v>2199500</v>
+        <v>2732600</v>
       </c>
       <c r="I89" s="3">
-        <v>2596300</v>
+        <v>2002800</v>
       </c>
       <c r="J89" s="3">
-        <v>1902900</v>
+        <v>2036700</v>
       </c>
       <c r="K89" s="3">
         <v>1787900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-947400</v>
+        <v>-1017200</v>
       </c>
       <c r="E91" s="3">
-        <v>-966400</v>
+        <v>-1249700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1187300</v>
+        <v>-1176500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1117800</v>
+        <v>-1062100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1009100</v>
+        <v>-1040200</v>
       </c>
       <c r="I91" s="3">
-        <v>-988300</v>
+        <v>-953100</v>
       </c>
       <c r="J91" s="3">
-        <v>-905500</v>
+        <v>-925900</v>
       </c>
       <c r="K91" s="3">
         <v>-812700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2391400</v>
+        <v>-1709800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1624500</v>
+        <v>-770300</v>
       </c>
       <c r="F94" s="3">
-        <v>-731900</v>
+        <v>-3143200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2986300</v>
+        <v>1558800</v>
       </c>
       <c r="H94" s="3">
-        <v>1481000</v>
+        <v>-2106500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2001400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1468700</v>
+        <v>-1545800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-693900</v>
+        <v>-865000</v>
       </c>
       <c r="E96" s="3">
-        <v>-821800</v>
+        <v>-742900</v>
       </c>
       <c r="F96" s="3">
-        <v>-705800</v>
+        <v>-705000</v>
       </c>
       <c r="G96" s="3">
-        <v>-669800</v>
+        <v>-678600</v>
       </c>
       <c r="H96" s="3">
-        <v>-644800</v>
+        <v>-656600</v>
       </c>
       <c r="I96" s="3">
-        <v>-623800</v>
+        <v>-583300</v>
       </c>
       <c r="J96" s="3">
-        <v>-554200</v>
+        <v>-171800</v>
       </c>
       <c r="K96" s="3">
         <v>-150800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1915700</v>
+        <v>1067000</v>
       </c>
       <c r="E100" s="3">
-        <v>1013800</v>
+        <v>-2095000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1990400</v>
+        <v>-1254300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1191700</v>
+        <v>-1147700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1090400</v>
+        <v>70700</v>
       </c>
       <c r="I100" s="3">
-        <v>67200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-711700</v>
+        <v>-749000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7400</v>
+        <v>37100</v>
       </c>
       <c r="E101" s="3">
-        <v>35300</v>
+        <v>-303000</v>
       </c>
       <c r="F101" s="3">
-        <v>-287800</v>
+        <v>-141800</v>
       </c>
       <c r="G101" s="3">
-        <v>-134800</v>
+        <v>179600</v>
       </c>
       <c r="H101" s="3">
-        <v>170600</v>
+        <v>79500</v>
       </c>
       <c r="I101" s="3">
-        <v>75500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-38500</v>
+        <v>-40500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-529100</v>
+        <v>2292800</v>
       </c>
       <c r="E102" s="3">
-        <v>2178400</v>
+        <v>191600</v>
       </c>
       <c r="F102" s="3">
-        <v>182000</v>
+        <v>-1902300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1807400</v>
+        <v>2905800</v>
       </c>
       <c r="H102" s="3">
-        <v>2760800</v>
+        <v>776300</v>
       </c>
       <c r="I102" s="3">
-        <v>737500</v>
+        <v>-332500</v>
       </c>
       <c r="J102" s="3">
-        <v>-316000</v>
+        <v>449100</v>
       </c>
       <c r="K102" s="3">
         <v>394200</v>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>FMX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30321800</v>
+        <v>38029200</v>
       </c>
       <c r="E8" s="3">
-        <v>26871600</v>
+        <v>31423200</v>
       </c>
       <c r="F8" s="3">
-        <v>27620800</v>
+        <v>27847600</v>
       </c>
       <c r="G8" s="3">
-        <v>25605700</v>
+        <v>28624100</v>
       </c>
       <c r="H8" s="3">
-        <v>23980700</v>
+        <v>26535800</v>
       </c>
       <c r="I8" s="3">
-        <v>21777100</v>
+        <v>24851800</v>
       </c>
       <c r="J8" s="3">
+        <v>22568200</v>
+      </c>
+      <c r="K8" s="3">
         <v>16984700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12606000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12484200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12775700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10423600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18672300</v>
+        <v>23812500</v>
       </c>
       <c r="E9" s="3">
-        <v>16533600</v>
+        <v>19350500</v>
       </c>
       <c r="F9" s="3">
-        <v>17183200</v>
+        <v>17134200</v>
       </c>
       <c r="G9" s="3">
-        <v>16057200</v>
+        <v>17807300</v>
       </c>
       <c r="H9" s="3">
-        <v>15145200</v>
+        <v>16640500</v>
       </c>
       <c r="I9" s="3">
-        <v>13698500</v>
+        <v>15695300</v>
       </c>
       <c r="J9" s="3">
+        <v>14196100</v>
+      </c>
+      <c r="K9" s="3">
         <v>10270200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7334400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7180200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7345100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6063900</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11649500</v>
+        <v>14216700</v>
       </c>
       <c r="E10" s="3">
-        <v>10338000</v>
+        <v>12072600</v>
       </c>
       <c r="F10" s="3">
-        <v>10437600</v>
+        <v>10713500</v>
       </c>
       <c r="G10" s="3">
-        <v>9548500</v>
+        <v>10816800</v>
       </c>
       <c r="H10" s="3">
-        <v>8835500</v>
+        <v>9895400</v>
       </c>
       <c r="I10" s="3">
-        <v>8078600</v>
+        <v>9156500</v>
       </c>
       <c r="J10" s="3">
+        <v>8372000</v>
+      </c>
+      <c r="K10" s="3">
         <v>6714500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5271700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5304000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5430700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4359800</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>76400</v>
+        <v>45200</v>
       </c>
       <c r="E14" s="3">
-        <v>277000</v>
+        <v>79200</v>
       </c>
       <c r="F14" s="3">
-        <v>54300</v>
+        <v>287100</v>
       </c>
       <c r="G14" s="3">
-        <v>22800</v>
+        <v>56300</v>
       </c>
       <c r="H14" s="3">
-        <v>112300</v>
+        <v>23700</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>116400</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>7300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>133000</v>
+        <v>140600</v>
       </c>
       <c r="E15" s="3">
-        <v>118700</v>
+        <v>137800</v>
       </c>
       <c r="F15" s="3">
-        <v>81500</v>
+        <v>123000</v>
       </c>
       <c r="G15" s="3">
-        <v>82500</v>
+        <v>84500</v>
       </c>
       <c r="H15" s="3">
-        <v>61400</v>
+        <v>85500</v>
       </c>
       <c r="I15" s="3">
-        <v>45600</v>
+        <v>63700</v>
       </c>
       <c r="J15" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K15" s="3">
         <v>29600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27346900</v>
+        <v>34749400</v>
       </c>
       <c r="E17" s="3">
-        <v>25006100</v>
+        <v>28340200</v>
       </c>
       <c r="F17" s="3">
-        <v>25124900</v>
+        <v>25914400</v>
       </c>
       <c r="G17" s="3">
-        <v>23370300</v>
+        <v>26037500</v>
       </c>
       <c r="H17" s="3">
-        <v>21850800</v>
+        <v>24219200</v>
       </c>
       <c r="I17" s="3">
-        <v>19968800</v>
+        <v>22644500</v>
       </c>
       <c r="J17" s="3">
+        <v>20694100</v>
+      </c>
+      <c r="K17" s="3">
         <v>15197800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11135500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11065500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11197800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9195400</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2974900</v>
+        <v>3279800</v>
       </c>
       <c r="E18" s="3">
-        <v>1865400</v>
+        <v>3082900</v>
       </c>
       <c r="F18" s="3">
-        <v>2495900</v>
+        <v>1933200</v>
       </c>
       <c r="G18" s="3">
-        <v>2235500</v>
+        <v>2586600</v>
       </c>
       <c r="H18" s="3">
-        <v>2129900</v>
+        <v>2316700</v>
       </c>
       <c r="I18" s="3">
-        <v>1808400</v>
+        <v>2207200</v>
       </c>
       <c r="J18" s="3">
+        <v>1874100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1786900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1470500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1418600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1578000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1228200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,70 +1148,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>59400</v>
+        <v>-139100</v>
       </c>
       <c r="E20" s="3">
-        <v>51900</v>
+        <v>61600</v>
       </c>
       <c r="F20" s="3">
-        <v>-384700</v>
+        <v>53800</v>
       </c>
       <c r="G20" s="3">
-        <v>-34100</v>
+        <v>-398700</v>
       </c>
       <c r="H20" s="3">
-        <v>167100</v>
+        <v>-35300</v>
       </c>
       <c r="I20" s="3">
-        <v>56900</v>
+        <v>173100</v>
       </c>
       <c r="J20" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-168500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-148700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-59800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>108900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4595200</v>
+        <v>4876500</v>
       </c>
       <c r="E21" s="3">
-        <v>3353700</v>
+        <v>4735900</v>
       </c>
       <c r="F21" s="3">
-        <v>3070400</v>
+        <v>3581900</v>
       </c>
       <c r="G21" s="3">
-        <v>3071800</v>
+        <v>3655400</v>
       </c>
       <c r="H21" s="3">
-        <v>3059800</v>
+        <v>3261400</v>
       </c>
       <c r="I21" s="3">
-        <v>2467700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>3269700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2712500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1187,132 +1223,144 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>2034600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>789000</v>
+        <v>786200</v>
       </c>
       <c r="E22" s="3">
-        <v>864700</v>
+        <v>817600</v>
       </c>
       <c r="F22" s="3">
-        <v>350700</v>
+        <v>896200</v>
       </c>
       <c r="G22" s="3">
-        <v>368200</v>
+        <v>363500</v>
       </c>
       <c r="H22" s="3">
-        <v>347100</v>
+        <v>381600</v>
       </c>
       <c r="I22" s="3">
-        <v>308600</v>
+        <v>359700</v>
       </c>
       <c r="J22" s="3">
+        <v>319800</v>
+      </c>
+      <c r="K22" s="3">
         <v>246700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>185700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>145700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>134300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>119100</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2245300</v>
+        <v>2354500</v>
       </c>
       <c r="E23" s="3">
-        <v>1052600</v>
+        <v>2326900</v>
       </c>
       <c r="F23" s="3">
-        <v>1760500</v>
+        <v>1090900</v>
       </c>
       <c r="G23" s="3">
-        <v>1833200</v>
+        <v>1824400</v>
       </c>
       <c r="H23" s="3">
-        <v>1949900</v>
+        <v>1899800</v>
       </c>
       <c r="I23" s="3">
-        <v>1556600</v>
+        <v>2020700</v>
       </c>
       <c r="J23" s="3">
+        <v>1613100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1371600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1136200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1213100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1475900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1218100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>778300</v>
+        <v>813200</v>
       </c>
       <c r="E24" s="3">
-        <v>807800</v>
+        <v>806600</v>
       </c>
       <c r="F24" s="3">
-        <v>571000</v>
+        <v>837100</v>
       </c>
       <c r="G24" s="3">
-        <v>554300</v>
+        <v>591800</v>
       </c>
       <c r="H24" s="3">
-        <v>556700</v>
+        <v>574400</v>
       </c>
       <c r="I24" s="3">
-        <v>430000</v>
+        <v>576900</v>
       </c>
       <c r="J24" s="3">
+        <v>445600</v>
+      </c>
+      <c r="K24" s="3">
         <v>432400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>299200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>375200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>426100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>394000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1467000</v>
+        <v>1541300</v>
       </c>
       <c r="E26" s="3">
-        <v>244900</v>
+        <v>1520300</v>
       </c>
       <c r="F26" s="3">
-        <v>1189400</v>
+        <v>253800</v>
       </c>
       <c r="G26" s="3">
-        <v>1278900</v>
+        <v>1232600</v>
       </c>
       <c r="H26" s="3">
-        <v>1393200</v>
+        <v>1325300</v>
       </c>
       <c r="I26" s="3">
-        <v>1126600</v>
+        <v>1443800</v>
       </c>
       <c r="J26" s="3">
+        <v>1167500</v>
+      </c>
+      <c r="K26" s="3">
         <v>939300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>836900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>838000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1049700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>824100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1553300</v>
+        <v>1350600</v>
       </c>
       <c r="E27" s="3">
-        <v>-105200</v>
+        <v>1609700</v>
       </c>
       <c r="F27" s="3">
-        <v>1128300</v>
+        <v>-109000</v>
       </c>
       <c r="G27" s="3">
-        <v>1124200</v>
+        <v>1169300</v>
       </c>
       <c r="H27" s="3">
-        <v>2108600</v>
+        <v>1165000</v>
       </c>
       <c r="I27" s="3">
-        <v>1152300</v>
+        <v>2185100</v>
       </c>
       <c r="J27" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="K27" s="3">
         <v>963900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>799100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>770100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1110100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>797500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,29 +1523,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>183500</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>203100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>190100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>210500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-59400</v>
+        <v>139100</v>
       </c>
       <c r="E32" s="3">
-        <v>-51900</v>
+        <v>-61600</v>
       </c>
       <c r="F32" s="3">
-        <v>384700</v>
+        <v>-53800</v>
       </c>
       <c r="G32" s="3">
-        <v>34100</v>
+        <v>398700</v>
       </c>
       <c r="H32" s="3">
-        <v>-167100</v>
+        <v>35300</v>
       </c>
       <c r="I32" s="3">
-        <v>-56900</v>
+        <v>-173100</v>
       </c>
       <c r="J32" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="K32" s="3">
         <v>168500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>148700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>59800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-108900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1553300</v>
+        <v>1350600</v>
       </c>
       <c r="E33" s="3">
-        <v>-105200</v>
+        <v>1609700</v>
       </c>
       <c r="F33" s="3">
-        <v>1128300</v>
+        <v>-109000</v>
       </c>
       <c r="G33" s="3">
-        <v>1307700</v>
+        <v>1169300</v>
       </c>
       <c r="H33" s="3">
-        <v>2311700</v>
+        <v>1355200</v>
       </c>
       <c r="I33" s="3">
-        <v>1152300</v>
+        <v>2395600</v>
       </c>
       <c r="J33" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="K33" s="3">
         <v>963900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>799100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>770100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1110100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>797500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1553300</v>
+        <v>1350600</v>
       </c>
       <c r="E35" s="3">
-        <v>-105200</v>
+        <v>1609700</v>
       </c>
       <c r="F35" s="3">
-        <v>1128300</v>
+        <v>-109000</v>
       </c>
       <c r="G35" s="3">
-        <v>1307700</v>
+        <v>1169300</v>
       </c>
       <c r="H35" s="3">
-        <v>2311700</v>
+        <v>1355200</v>
       </c>
       <c r="I35" s="3">
-        <v>1152300</v>
+        <v>2395600</v>
       </c>
       <c r="J35" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="K35" s="3">
         <v>963900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>799100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>770100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1110100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>797500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5309700</v>
+        <v>4713500</v>
       </c>
       <c r="E41" s="3">
-        <v>5866600</v>
+        <v>5502500</v>
       </c>
       <c r="F41" s="3">
-        <v>3573800</v>
+        <v>6079700</v>
       </c>
       <c r="G41" s="3">
-        <v>3382200</v>
+        <v>3703600</v>
       </c>
       <c r="H41" s="3">
-        <v>5284400</v>
+        <v>3505000</v>
       </c>
       <c r="I41" s="3">
-        <v>2378700</v>
+        <v>5476400</v>
       </c>
       <c r="J41" s="3">
+        <v>2465100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1602400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1406600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2643100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1957900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1336500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1330900</v>
+        <v>2900</v>
       </c>
       <c r="E42" s="3">
-        <v>109300</v>
+        <v>1379200</v>
       </c>
       <c r="F42" s="3">
-        <v>674100</v>
+        <v>113200</v>
       </c>
       <c r="G42" s="3">
-        <v>1685700</v>
+        <v>698600</v>
       </c>
       <c r="H42" s="3">
-        <v>117700</v>
+        <v>1746900</v>
       </c>
       <c r="I42" s="3">
-        <v>6500</v>
+        <v>122000</v>
       </c>
       <c r="J42" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K42" s="3">
         <v>133900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>117500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>91200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>96100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2842800</v>
+        <v>3677100</v>
       </c>
       <c r="E43" s="3">
-        <v>3773600</v>
+        <v>2946100</v>
       </c>
       <c r="F43" s="3">
-        <v>2640500</v>
+        <v>3910600</v>
       </c>
       <c r="G43" s="3">
-        <v>2436300</v>
+        <v>2736400</v>
       </c>
       <c r="H43" s="3">
-        <v>2377700</v>
+        <v>2524800</v>
       </c>
       <c r="I43" s="3">
-        <v>1933000</v>
+        <v>2464000</v>
       </c>
       <c r="J43" s="3">
+        <v>2003200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2267300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1990200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1761800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>969800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>819300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2774300</v>
+        <v>3515000</v>
       </c>
       <c r="E44" s="3">
-        <v>2400300</v>
+        <v>2875100</v>
       </c>
       <c r="F44" s="3">
-        <v>2236200</v>
+        <v>2487500</v>
       </c>
       <c r="G44" s="3">
-        <v>1945200</v>
+        <v>2317400</v>
       </c>
       <c r="H44" s="3">
-        <v>1899100</v>
+        <v>2015900</v>
       </c>
       <c r="I44" s="3">
-        <v>1740600</v>
+        <v>1968100</v>
       </c>
       <c r="J44" s="3">
+        <v>1803800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1345300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1181000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1769300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>876300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1486600</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>318800</v>
+        <v>883600</v>
       </c>
       <c r="E45" s="3">
-        <v>353600</v>
+        <v>330400</v>
       </c>
       <c r="F45" s="3">
-        <v>282800</v>
+        <v>366500</v>
       </c>
       <c r="G45" s="3">
-        <v>232000</v>
+        <v>293100</v>
       </c>
       <c r="H45" s="3">
-        <v>197600</v>
+        <v>240400</v>
       </c>
       <c r="I45" s="3">
-        <v>370700</v>
+        <v>204800</v>
       </c>
       <c r="J45" s="3">
+        <v>384100</v>
+      </c>
+      <c r="K45" s="3">
         <v>465300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>408400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>921600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>150100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>107700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12576400</v>
+        <v>12792100</v>
       </c>
       <c r="E46" s="3">
-        <v>10971200</v>
+        <v>13033300</v>
       </c>
       <c r="F46" s="3">
-        <v>9407300</v>
+        <v>11369700</v>
       </c>
       <c r="G46" s="3">
-        <v>9681400</v>
+        <v>9749000</v>
       </c>
       <c r="H46" s="3">
-        <v>9876600</v>
+        <v>10033000</v>
       </c>
       <c r="I46" s="3">
-        <v>6429500</v>
+        <v>10235300</v>
       </c>
       <c r="J46" s="3">
+        <v>6663100</v>
+      </c>
+      <c r="K46" s="3">
         <v>4727300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4149700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3558500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4045100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3102300</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6919600</v>
+        <v>6254500</v>
       </c>
       <c r="E47" s="3">
-        <v>7268400</v>
+        <v>7170900</v>
       </c>
       <c r="F47" s="3">
-        <v>5929500</v>
+        <v>7532400</v>
       </c>
       <c r="G47" s="3">
-        <v>5836900</v>
+        <v>6144900</v>
       </c>
       <c r="H47" s="3">
-        <v>5922000</v>
+        <v>6048900</v>
       </c>
       <c r="I47" s="3">
-        <v>7930900</v>
+        <v>6137100</v>
       </c>
       <c r="J47" s="3">
+        <v>8219000</v>
+      </c>
+      <c r="K47" s="3">
         <v>6669100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5854200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4890500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4705500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8044400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9383400</v>
+        <v>12313000</v>
       </c>
       <c r="E48" s="3">
-        <v>18299300</v>
+        <v>9724200</v>
       </c>
       <c r="F48" s="3">
-        <v>9113900</v>
+        <v>18964000</v>
       </c>
       <c r="G48" s="3">
-        <v>5919900</v>
+        <v>9445000</v>
       </c>
       <c r="H48" s="3">
-        <v>6362000</v>
+        <v>6134900</v>
       </c>
       <c r="I48" s="3">
-        <v>5572200</v>
+        <v>6593100</v>
       </c>
       <c r="J48" s="3">
+        <v>5774600</v>
+      </c>
+      <c r="K48" s="3">
         <v>8753900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7684300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7154400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3305000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6016600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8620100</v>
+        <v>10776700</v>
       </c>
       <c r="E49" s="3">
-        <v>16952700</v>
+        <v>8933200</v>
       </c>
       <c r="F49" s="3">
-        <v>7989100</v>
+        <v>17568500</v>
       </c>
       <c r="G49" s="3">
-        <v>7937200</v>
+        <v>8279300</v>
       </c>
       <c r="H49" s="3">
-        <v>8399600</v>
+        <v>8225500</v>
       </c>
       <c r="I49" s="3">
-        <v>8354600</v>
+        <v>8704700</v>
       </c>
       <c r="J49" s="3">
+        <v>8658100</v>
+      </c>
+      <c r="K49" s="3">
         <v>11811300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10368200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9992600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3639700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>13061400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2701600</v>
+        <v>2988800</v>
       </c>
       <c r="E52" s="3">
-        <v>1836600</v>
+        <v>2799800</v>
       </c>
       <c r="F52" s="3">
-        <v>2312500</v>
+        <v>1903300</v>
       </c>
       <c r="G52" s="3">
-        <v>2043100</v>
+        <v>2396500</v>
       </c>
       <c r="H52" s="3">
-        <v>1521200</v>
+        <v>2117400</v>
       </c>
       <c r="I52" s="3">
-        <v>1454700</v>
+        <v>1576500</v>
       </c>
       <c r="J52" s="3">
+        <v>1507500</v>
+      </c>
+      <c r="K52" s="3">
         <v>867600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>761600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>829600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>170100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>328300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40201100</v>
+        <v>45125100</v>
       </c>
       <c r="E54" s="3">
-        <v>37331100</v>
+        <v>41661400</v>
       </c>
       <c r="F54" s="3">
-        <v>34752400</v>
+        <v>38687100</v>
       </c>
       <c r="G54" s="3">
-        <v>31418500</v>
+        <v>36014700</v>
       </c>
       <c r="H54" s="3">
-        <v>32081400</v>
+        <v>32559800</v>
       </c>
       <c r="I54" s="3">
-        <v>29741900</v>
+        <v>33246700</v>
       </c>
       <c r="J54" s="3">
+        <v>30822200</v>
+      </c>
+      <c r="K54" s="3">
         <v>22312700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19586600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17374100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15865500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13621100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5088600</v>
+        <v>6227600</v>
       </c>
       <c r="E57" s="3">
-        <v>4097400</v>
+        <v>5273500</v>
       </c>
       <c r="F57" s="3">
-        <v>4179600</v>
+        <v>4246200</v>
       </c>
       <c r="G57" s="3">
-        <v>3579600</v>
+        <v>4331400</v>
       </c>
       <c r="H57" s="3">
-        <v>3606500</v>
+        <v>3709600</v>
       </c>
       <c r="I57" s="3">
-        <v>3220900</v>
+        <v>3737500</v>
       </c>
       <c r="J57" s="3">
+        <v>3337900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2453400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2153700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1622500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1833700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1925900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>651200</v>
+        <v>1719300</v>
       </c>
       <c r="E58" s="3">
-        <v>1697800</v>
+        <v>674800</v>
       </c>
       <c r="F58" s="3">
-        <v>1285900</v>
+        <v>1759400</v>
       </c>
       <c r="G58" s="3">
-        <v>745400</v>
+        <v>1332700</v>
       </c>
       <c r="H58" s="3">
-        <v>740800</v>
+        <v>772400</v>
       </c>
       <c r="I58" s="3">
-        <v>396900</v>
+        <v>767700</v>
       </c>
       <c r="J58" s="3">
+        <v>411300</v>
+      </c>
+      <c r="K58" s="3">
         <v>643500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>564800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>185100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>466500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>288200</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1713000</v>
+        <v>2047400</v>
       </c>
       <c r="E59" s="3">
-        <v>3538600</v>
+        <v>1775200</v>
       </c>
       <c r="F59" s="3">
-        <v>1976900</v>
+        <v>3667100</v>
       </c>
       <c r="G59" s="3">
-        <v>1205800</v>
+        <v>2048700</v>
       </c>
       <c r="H59" s="3">
-        <v>1377400</v>
+        <v>1249600</v>
       </c>
       <c r="I59" s="3">
-        <v>1085800</v>
+        <v>1427400</v>
       </c>
       <c r="J59" s="3">
+        <v>1125200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1579100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1386200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2408600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>244100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7452800</v>
+        <v>9994300</v>
       </c>
       <c r="E60" s="3">
-        <v>6454700</v>
+        <v>7723500</v>
       </c>
       <c r="F60" s="3">
-        <v>7442500</v>
+        <v>6689200</v>
       </c>
       <c r="G60" s="3">
-        <v>5530800</v>
+        <v>7712800</v>
       </c>
       <c r="H60" s="3">
-        <v>5724700</v>
+        <v>5731700</v>
       </c>
       <c r="I60" s="3">
-        <v>4703600</v>
+        <v>5932700</v>
       </c>
       <c r="J60" s="3">
+        <v>4874500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3562000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3126800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2363800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2033900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13136600</v>
+        <v>14383600</v>
       </c>
       <c r="E61" s="3">
-        <v>12613600</v>
+        <v>13613800</v>
       </c>
       <c r="F61" s="3">
-        <v>8124100</v>
+        <v>13071800</v>
       </c>
       <c r="G61" s="3">
-        <v>6268100</v>
+        <v>8419200</v>
       </c>
       <c r="H61" s="3">
-        <v>6419000</v>
+        <v>6495800</v>
       </c>
       <c r="I61" s="3">
-        <v>7193500</v>
+        <v>6652100</v>
       </c>
       <c r="J61" s="3">
+        <v>7454800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4686200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4113600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3491600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1535400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1231900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1344500</v>
+        <v>1664800</v>
       </c>
       <c r="E62" s="3">
-        <v>2187100</v>
+        <v>1393400</v>
       </c>
       <c r="F62" s="3">
-        <v>1429100</v>
+        <v>2266500</v>
       </c>
       <c r="G62" s="3">
-        <v>1329200</v>
+        <v>1481000</v>
       </c>
       <c r="H62" s="3">
-        <v>1572600</v>
+        <v>1377500</v>
       </c>
       <c r="I62" s="3">
-        <v>2245600</v>
+        <v>1629700</v>
       </c>
       <c r="J62" s="3">
+        <v>2327200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1138400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>999400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1472400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>462400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>416200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25886700</v>
+        <v>30290600</v>
       </c>
       <c r="E66" s="3">
-        <v>24371700</v>
+        <v>26827000</v>
       </c>
       <c r="F66" s="3">
-        <v>21016400</v>
+        <v>25257000</v>
       </c>
       <c r="G66" s="3">
-        <v>17406600</v>
+        <v>21779800</v>
       </c>
       <c r="H66" s="3">
-        <v>18438000</v>
+        <v>18038800</v>
       </c>
       <c r="I66" s="3">
-        <v>18191000</v>
+        <v>19107700</v>
       </c>
       <c r="J66" s="3">
+        <v>18851800</v>
+      </c>
+      <c r="K66" s="3">
         <v>12417800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10900600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6609400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7542000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6161900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12990100</v>
+        <v>14189800</v>
       </c>
       <c r="E72" s="3">
-        <v>11753100</v>
+        <v>13461900</v>
       </c>
       <c r="F72" s="3">
-        <v>12526100</v>
+        <v>12180100</v>
       </c>
       <c r="G72" s="3">
-        <v>11872400</v>
+        <v>12981100</v>
       </c>
       <c r="H72" s="3">
-        <v>11003800</v>
+        <v>12303600</v>
       </c>
       <c r="I72" s="3">
-        <v>9201100</v>
+        <v>11403500</v>
       </c>
       <c r="J72" s="3">
+        <v>9535300</v>
+      </c>
+      <c r="K72" s="3">
         <v>8565600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7519100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6328700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6889300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5921300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14314400</v>
+        <v>14834500</v>
       </c>
       <c r="E76" s="3">
-        <v>12959400</v>
+        <v>14834300</v>
       </c>
       <c r="F76" s="3">
-        <v>13735900</v>
+        <v>13430100</v>
       </c>
       <c r="G76" s="3">
-        <v>14012000</v>
+        <v>14234900</v>
       </c>
       <c r="H76" s="3">
-        <v>13643400</v>
+        <v>14520900</v>
       </c>
       <c r="I76" s="3">
-        <v>11550900</v>
+        <v>14138900</v>
       </c>
       <c r="J76" s="3">
+        <v>11970500</v>
+      </c>
+      <c r="K76" s="3">
         <v>9894900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8685900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10764700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8323400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7459200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1553300</v>
+        <v>1350600</v>
       </c>
       <c r="E81" s="3">
-        <v>-105200</v>
+        <v>1609700</v>
       </c>
       <c r="F81" s="3">
-        <v>1128300</v>
+        <v>-109000</v>
       </c>
       <c r="G81" s="3">
-        <v>1307700</v>
+        <v>1169300</v>
       </c>
       <c r="H81" s="3">
-        <v>2311700</v>
+        <v>1355200</v>
       </c>
       <c r="I81" s="3">
-        <v>1152300</v>
+        <v>2395600</v>
       </c>
       <c r="J81" s="3">
+        <v>1194200</v>
+      </c>
+      <c r="K81" s="3">
         <v>963900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>799100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>770100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1110100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>797500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,31 +3492,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1529000</v>
+        <v>1724500</v>
       </c>
       <c r="E83" s="3">
-        <v>1406900</v>
+        <v>1581000</v>
       </c>
       <c r="F83" s="3">
-        <v>939600</v>
+        <v>1584500</v>
       </c>
       <c r="G83" s="3">
-        <v>852500</v>
+        <v>1458000</v>
       </c>
       <c r="H83" s="3">
-        <v>747300</v>
+        <v>973700</v>
       </c>
       <c r="I83" s="3">
-        <v>590100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>883500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>774400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3327,15 +3525,18 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>423000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2898500</v>
+        <v>4099800</v>
       </c>
       <c r="E89" s="3">
-        <v>3359900</v>
+        <v>4128900</v>
       </c>
       <c r="F89" s="3">
-        <v>2637000</v>
+        <v>3003700</v>
       </c>
       <c r="G89" s="3">
-        <v>2315000</v>
+        <v>3481900</v>
       </c>
       <c r="H89" s="3">
-        <v>2732600</v>
+        <v>2732800</v>
       </c>
       <c r="I89" s="3">
-        <v>2002800</v>
+        <v>2399100</v>
       </c>
       <c r="J89" s="3">
+        <v>2831900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2036700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1787900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1391000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1650400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1098900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1017200</v>
+        <v>-1706500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1249700</v>
+        <v>-1033400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1176500</v>
+        <v>-1054100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1062100</v>
+        <v>-1295100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1040200</v>
+        <v>-1219300</v>
       </c>
       <c r="I91" s="3">
-        <v>-953100</v>
+        <v>-1100700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1078000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-925900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-812700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-792300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-795800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1172000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,32 +3927,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1709800</v>
+        <v>-2622900</v>
       </c>
       <c r="E94" s="3">
-        <v>-770300</v>
+        <v>-2608400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3143200</v>
+        <v>-1771900</v>
       </c>
       <c r="G94" s="3">
-        <v>1558800</v>
+        <v>-798300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2106500</v>
+        <v>-3257300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1545800</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>1615400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2183100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3734,15 +3963,18 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-785000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-865000</v>
+        <v>-988900</v>
       </c>
       <c r="E96" s="3">
-        <v>-742900</v>
+        <v>-756900</v>
       </c>
       <c r="F96" s="3">
-        <v>-705000</v>
+        <v>-896400</v>
       </c>
       <c r="G96" s="3">
-        <v>-678600</v>
+        <v>-769900</v>
       </c>
       <c r="H96" s="3">
-        <v>-656600</v>
+        <v>-730600</v>
       </c>
       <c r="I96" s="3">
-        <v>-583300</v>
+        <v>-703300</v>
       </c>
       <c r="J96" s="3">
+        <v>-680400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-171800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-150800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-797800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-492500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-342600</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,32 +4155,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1067000</v>
+        <v>-2027900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2095000</v>
+        <v>-2089500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1254300</v>
+        <v>1105800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1147700</v>
+        <v>-2171100</v>
       </c>
       <c r="H100" s="3">
-        <v>70700</v>
+        <v>-1299900</v>
       </c>
       <c r="I100" s="3">
-        <v>-749000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-1189300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>73300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3946,38 +4191,41 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-183200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37100</v>
+        <v>-238000</v>
       </c>
       <c r="E101" s="3">
-        <v>-303000</v>
+        <v>-8100</v>
       </c>
       <c r="F101" s="3">
-        <v>-141800</v>
+        <v>38500</v>
       </c>
       <c r="G101" s="3">
-        <v>179600</v>
+        <v>-314000</v>
       </c>
       <c r="H101" s="3">
-        <v>79500</v>
+        <v>-147000</v>
       </c>
       <c r="I101" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>186100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>82400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3985,52 +4233,58 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-109600</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2292800</v>
+        <v>-789100</v>
       </c>
       <c r="E102" s="3">
-        <v>191600</v>
+        <v>-577200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1902300</v>
+        <v>2376100</v>
       </c>
       <c r="G102" s="3">
-        <v>2905800</v>
+        <v>198600</v>
       </c>
       <c r="H102" s="3">
-        <v>776300</v>
+        <v>-1971400</v>
       </c>
       <c r="I102" s="3">
-        <v>-332500</v>
+        <v>3011300</v>
       </c>
       <c r="J102" s="3">
+        <v>804500</v>
+      </c>
+      <c r="K102" s="3">
         <v>449100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>394200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-448000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>572600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-44700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38029200</v>
+        <v>39537200</v>
       </c>
       <c r="E8" s="3">
-        <v>31423200</v>
+        <v>32669200</v>
       </c>
       <c r="F8" s="3">
-        <v>27847600</v>
+        <v>28951900</v>
       </c>
       <c r="G8" s="3">
-        <v>28624100</v>
+        <v>29759100</v>
       </c>
       <c r="H8" s="3">
-        <v>26535800</v>
+        <v>27588100</v>
       </c>
       <c r="I8" s="3">
-        <v>24851800</v>
+        <v>25837200</v>
       </c>
       <c r="J8" s="3">
-        <v>22568200</v>
+        <v>23463000</v>
       </c>
       <c r="K8" s="3">
         <v>16984700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23812500</v>
+        <v>24756700</v>
       </c>
       <c r="E9" s="3">
-        <v>19350500</v>
+        <v>20117800</v>
       </c>
       <c r="F9" s="3">
-        <v>17134200</v>
+        <v>17813600</v>
       </c>
       <c r="G9" s="3">
-        <v>17807300</v>
+        <v>18513500</v>
       </c>
       <c r="H9" s="3">
-        <v>16640500</v>
+        <v>17300300</v>
       </c>
       <c r="I9" s="3">
-        <v>15695300</v>
+        <v>16317700</v>
       </c>
       <c r="J9" s="3">
-        <v>14196100</v>
+        <v>14759000</v>
       </c>
       <c r="K9" s="3">
         <v>10270200</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14216700</v>
+        <v>14780500</v>
       </c>
       <c r="E10" s="3">
-        <v>12072600</v>
+        <v>12551400</v>
       </c>
       <c r="F10" s="3">
-        <v>10713500</v>
+        <v>11138300</v>
       </c>
       <c r="G10" s="3">
-        <v>10816800</v>
+        <v>11245700</v>
       </c>
       <c r="H10" s="3">
-        <v>9895400</v>
+        <v>10287700</v>
       </c>
       <c r="I10" s="3">
-        <v>9156500</v>
+        <v>9519500</v>
       </c>
       <c r="J10" s="3">
-        <v>8372000</v>
+        <v>8704000</v>
       </c>
       <c r="K10" s="3">
         <v>6714500</v>
@@ -954,22 +954,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>45200</v>
+        <v>60600</v>
       </c>
       <c r="E14" s="3">
-        <v>79200</v>
+        <v>82300</v>
       </c>
       <c r="F14" s="3">
-        <v>287100</v>
+        <v>298500</v>
       </c>
       <c r="G14" s="3">
-        <v>56300</v>
+        <v>58600</v>
       </c>
       <c r="H14" s="3">
-        <v>23700</v>
+        <v>24600</v>
       </c>
       <c r="I14" s="3">
-        <v>116400</v>
+        <v>121000</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>140600</v>
+        <v>146200</v>
       </c>
       <c r="E15" s="3">
-        <v>137800</v>
+        <v>143300</v>
       </c>
       <c r="F15" s="3">
-        <v>123000</v>
+        <v>127900</v>
       </c>
       <c r="G15" s="3">
-        <v>84500</v>
+        <v>87800</v>
       </c>
       <c r="H15" s="3">
-        <v>85500</v>
+        <v>88900</v>
       </c>
       <c r="I15" s="3">
-        <v>63700</v>
+        <v>66200</v>
       </c>
       <c r="J15" s="3">
-        <v>47300</v>
+        <v>49200</v>
       </c>
       <c r="K15" s="3">
         <v>29600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34749400</v>
+        <v>36127300</v>
       </c>
       <c r="E17" s="3">
-        <v>28340200</v>
+        <v>29464000</v>
       </c>
       <c r="F17" s="3">
-        <v>25914400</v>
+        <v>26942000</v>
       </c>
       <c r="G17" s="3">
-        <v>26037500</v>
+        <v>27070000</v>
       </c>
       <c r="H17" s="3">
-        <v>24219200</v>
+        <v>25179500</v>
       </c>
       <c r="I17" s="3">
-        <v>22644500</v>
+        <v>23542400</v>
       </c>
       <c r="J17" s="3">
-        <v>20694100</v>
+        <v>21514700</v>
       </c>
       <c r="K17" s="3">
         <v>15197800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3279800</v>
+        <v>3409900</v>
       </c>
       <c r="E18" s="3">
-        <v>3082900</v>
+        <v>3205200</v>
       </c>
       <c r="F18" s="3">
-        <v>1933200</v>
+        <v>2009900</v>
       </c>
       <c r="G18" s="3">
-        <v>2586600</v>
+        <v>2689100</v>
       </c>
       <c r="H18" s="3">
-        <v>2316700</v>
+        <v>2408500</v>
       </c>
       <c r="I18" s="3">
-        <v>2207200</v>
+        <v>2294800</v>
       </c>
       <c r="J18" s="3">
-        <v>1874100</v>
+        <v>1948400</v>
       </c>
       <c r="K18" s="3">
         <v>1786900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-139100</v>
+        <v>-144600</v>
       </c>
       <c r="E20" s="3">
-        <v>61600</v>
+        <v>64000</v>
       </c>
       <c r="F20" s="3">
-        <v>53800</v>
+        <v>56000</v>
       </c>
       <c r="G20" s="3">
-        <v>-398700</v>
+        <v>-414500</v>
       </c>
       <c r="H20" s="3">
-        <v>-35300</v>
+        <v>-36700</v>
       </c>
       <c r="I20" s="3">
-        <v>173100</v>
+        <v>180000</v>
       </c>
       <c r="J20" s="3">
-        <v>58900</v>
+        <v>61300</v>
       </c>
       <c r="K20" s="3">
         <v>-168500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4876500</v>
+        <v>5058100</v>
       </c>
       <c r="E21" s="3">
-        <v>4735900</v>
+        <v>4912900</v>
       </c>
       <c r="F21" s="3">
-        <v>3581900</v>
+        <v>3713100</v>
       </c>
       <c r="G21" s="3">
-        <v>3655400</v>
+        <v>3790400</v>
       </c>
       <c r="H21" s="3">
-        <v>3261400</v>
+        <v>3384100</v>
       </c>
       <c r="I21" s="3">
-        <v>3269700</v>
+        <v>3393300</v>
       </c>
       <c r="J21" s="3">
-        <v>2712500</v>
+        <v>2814800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>786200</v>
+        <v>817400</v>
       </c>
       <c r="E22" s="3">
-        <v>817600</v>
+        <v>850100</v>
       </c>
       <c r="F22" s="3">
-        <v>896200</v>
+        <v>931700</v>
       </c>
       <c r="G22" s="3">
-        <v>363500</v>
+        <v>377900</v>
       </c>
       <c r="H22" s="3">
-        <v>381600</v>
+        <v>396700</v>
       </c>
       <c r="I22" s="3">
-        <v>359700</v>
+        <v>373900</v>
       </c>
       <c r="J22" s="3">
-        <v>319800</v>
+        <v>332500</v>
       </c>
       <c r="K22" s="3">
         <v>246700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2354500</v>
+        <v>2447900</v>
       </c>
       <c r="E23" s="3">
-        <v>2326900</v>
+        <v>2419100</v>
       </c>
       <c r="F23" s="3">
-        <v>1090900</v>
+        <v>1134100</v>
       </c>
       <c r="G23" s="3">
-        <v>1824400</v>
+        <v>1896700</v>
       </c>
       <c r="H23" s="3">
-        <v>1899800</v>
+        <v>1975100</v>
       </c>
       <c r="I23" s="3">
-        <v>2020700</v>
+        <v>2100800</v>
       </c>
       <c r="J23" s="3">
-        <v>1613100</v>
+        <v>1677100</v>
       </c>
       <c r="K23" s="3">
         <v>1371600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>813200</v>
+        <v>845400</v>
       </c>
       <c r="E24" s="3">
-        <v>806600</v>
+        <v>838500</v>
       </c>
       <c r="F24" s="3">
-        <v>837100</v>
+        <v>870300</v>
       </c>
       <c r="G24" s="3">
-        <v>591800</v>
+        <v>615300</v>
       </c>
       <c r="H24" s="3">
-        <v>574400</v>
+        <v>597200</v>
       </c>
       <c r="I24" s="3">
-        <v>576900</v>
+        <v>599800</v>
       </c>
       <c r="J24" s="3">
-        <v>445600</v>
+        <v>463300</v>
       </c>
       <c r="K24" s="3">
         <v>432400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1541300</v>
+        <v>1602400</v>
       </c>
       <c r="E26" s="3">
-        <v>1520300</v>
+        <v>1580600</v>
       </c>
       <c r="F26" s="3">
-        <v>253800</v>
+        <v>263800</v>
       </c>
       <c r="G26" s="3">
-        <v>1232600</v>
+        <v>1281500</v>
       </c>
       <c r="H26" s="3">
-        <v>1325300</v>
+        <v>1377900</v>
       </c>
       <c r="I26" s="3">
-        <v>1443800</v>
+        <v>1501000</v>
       </c>
       <c r="J26" s="3">
-        <v>1167500</v>
+        <v>1213800</v>
       </c>
       <c r="K26" s="3">
         <v>939300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1350600</v>
+        <v>1404200</v>
       </c>
       <c r="E27" s="3">
-        <v>1609700</v>
+        <v>1673500</v>
       </c>
       <c r="F27" s="3">
-        <v>-109000</v>
+        <v>-113300</v>
       </c>
       <c r="G27" s="3">
-        <v>1169300</v>
+        <v>1215700</v>
       </c>
       <c r="H27" s="3">
-        <v>1165000</v>
+        <v>1211200</v>
       </c>
       <c r="I27" s="3">
-        <v>2185100</v>
+        <v>2271800</v>
       </c>
       <c r="J27" s="3">
-        <v>1194200</v>
+        <v>1241600</v>
       </c>
       <c r="K27" s="3">
         <v>963900</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>190100</v>
+        <v>197700</v>
       </c>
       <c r="I29" s="3">
-        <v>210500</v>
+        <v>218800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>139100</v>
+        <v>144600</v>
       </c>
       <c r="E32" s="3">
-        <v>-61600</v>
+        <v>-64000</v>
       </c>
       <c r="F32" s="3">
-        <v>-53800</v>
+        <v>-56000</v>
       </c>
       <c r="G32" s="3">
-        <v>398700</v>
+        <v>414500</v>
       </c>
       <c r="H32" s="3">
-        <v>35300</v>
+        <v>36700</v>
       </c>
       <c r="I32" s="3">
-        <v>-173100</v>
+        <v>-180000</v>
       </c>
       <c r="J32" s="3">
-        <v>-58900</v>
+        <v>-61300</v>
       </c>
       <c r="K32" s="3">
         <v>168500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1350600</v>
+        <v>1404200</v>
       </c>
       <c r="E33" s="3">
-        <v>1609700</v>
+        <v>1673500</v>
       </c>
       <c r="F33" s="3">
-        <v>-109000</v>
+        <v>-113300</v>
       </c>
       <c r="G33" s="3">
-        <v>1169300</v>
+        <v>1215700</v>
       </c>
       <c r="H33" s="3">
-        <v>1355200</v>
+        <v>1408900</v>
       </c>
       <c r="I33" s="3">
-        <v>2395600</v>
+        <v>2490600</v>
       </c>
       <c r="J33" s="3">
-        <v>1194200</v>
+        <v>1241600</v>
       </c>
       <c r="K33" s="3">
         <v>963900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1350600</v>
+        <v>1404200</v>
       </c>
       <c r="E35" s="3">
-        <v>1609700</v>
+        <v>1673500</v>
       </c>
       <c r="F35" s="3">
-        <v>-109000</v>
+        <v>-113300</v>
       </c>
       <c r="G35" s="3">
-        <v>1169300</v>
+        <v>1215700</v>
       </c>
       <c r="H35" s="3">
-        <v>1355200</v>
+        <v>1408900</v>
       </c>
       <c r="I35" s="3">
-        <v>2395600</v>
+        <v>2490600</v>
       </c>
       <c r="J35" s="3">
-        <v>1194200</v>
+        <v>1241600</v>
       </c>
       <c r="K35" s="3">
         <v>963900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4713500</v>
+        <v>4900400</v>
       </c>
       <c r="E41" s="3">
-        <v>5502500</v>
+        <v>5720700</v>
       </c>
       <c r="F41" s="3">
-        <v>6079700</v>
+        <v>6320800</v>
       </c>
       <c r="G41" s="3">
-        <v>3703600</v>
+        <v>3850500</v>
       </c>
       <c r="H41" s="3">
-        <v>3505000</v>
+        <v>3644000</v>
       </c>
       <c r="I41" s="3">
-        <v>5476400</v>
+        <v>5693500</v>
       </c>
       <c r="J41" s="3">
-        <v>2465100</v>
+        <v>2562800</v>
       </c>
       <c r="K41" s="3">
         <v>1602400</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E42" s="3">
-        <v>1379200</v>
+        <v>1433900</v>
       </c>
       <c r="F42" s="3">
-        <v>113200</v>
+        <v>117700</v>
       </c>
       <c r="G42" s="3">
-        <v>698600</v>
+        <v>726300</v>
       </c>
       <c r="H42" s="3">
-        <v>1746900</v>
+        <v>1816200</v>
       </c>
       <c r="I42" s="3">
-        <v>122000</v>
+        <v>126900</v>
       </c>
       <c r="J42" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="K42" s="3">
         <v>133900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3677100</v>
+        <v>3822900</v>
       </c>
       <c r="E43" s="3">
-        <v>2946100</v>
+        <v>3062900</v>
       </c>
       <c r="F43" s="3">
-        <v>3910600</v>
+        <v>4065700</v>
       </c>
       <c r="G43" s="3">
-        <v>2736400</v>
+        <v>2844900</v>
       </c>
       <c r="H43" s="3">
-        <v>2524800</v>
+        <v>2624900</v>
       </c>
       <c r="I43" s="3">
-        <v>2464000</v>
+        <v>2561700</v>
       </c>
       <c r="J43" s="3">
-        <v>2003200</v>
+        <v>2082700</v>
       </c>
       <c r="K43" s="3">
         <v>2267300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3515000</v>
+        <v>3654400</v>
       </c>
       <c r="E44" s="3">
-        <v>2875100</v>
+        <v>2989100</v>
       </c>
       <c r="F44" s="3">
-        <v>2487500</v>
+        <v>2586100</v>
       </c>
       <c r="G44" s="3">
-        <v>2317400</v>
+        <v>2409300</v>
       </c>
       <c r="H44" s="3">
-        <v>2015900</v>
+        <v>2095800</v>
       </c>
       <c r="I44" s="3">
-        <v>1968100</v>
+        <v>2046200</v>
       </c>
       <c r="J44" s="3">
-        <v>1803800</v>
+        <v>1875400</v>
       </c>
       <c r="K44" s="3">
         <v>1345300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>883600</v>
+        <v>918700</v>
       </c>
       <c r="E45" s="3">
-        <v>330400</v>
+        <v>343500</v>
       </c>
       <c r="F45" s="3">
-        <v>366500</v>
+        <v>381000</v>
       </c>
       <c r="G45" s="3">
-        <v>293100</v>
+        <v>304700</v>
       </c>
       <c r="H45" s="3">
-        <v>240400</v>
+        <v>250000</v>
       </c>
       <c r="I45" s="3">
-        <v>204800</v>
+        <v>212900</v>
       </c>
       <c r="J45" s="3">
-        <v>384100</v>
+        <v>399400</v>
       </c>
       <c r="K45" s="3">
         <v>465300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12792100</v>
+        <v>13299300</v>
       </c>
       <c r="E46" s="3">
-        <v>13033300</v>
+        <v>13550100</v>
       </c>
       <c r="F46" s="3">
-        <v>11369700</v>
+        <v>11820500</v>
       </c>
       <c r="G46" s="3">
-        <v>9749000</v>
+        <v>10135600</v>
       </c>
       <c r="H46" s="3">
-        <v>10033000</v>
+        <v>10430900</v>
       </c>
       <c r="I46" s="3">
-        <v>10235300</v>
+        <v>10641200</v>
       </c>
       <c r="J46" s="3">
-        <v>6663100</v>
+        <v>6927300</v>
       </c>
       <c r="K46" s="3">
         <v>4727300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6254500</v>
+        <v>6502500</v>
       </c>
       <c r="E47" s="3">
-        <v>7170900</v>
+        <v>7455200</v>
       </c>
       <c r="F47" s="3">
-        <v>7532400</v>
+        <v>7831100</v>
       </c>
       <c r="G47" s="3">
-        <v>6144900</v>
+        <v>6388600</v>
       </c>
       <c r="H47" s="3">
-        <v>6048900</v>
+        <v>6288800</v>
       </c>
       <c r="I47" s="3">
-        <v>6137100</v>
+        <v>6380500</v>
       </c>
       <c r="J47" s="3">
-        <v>8219000</v>
+        <v>8544900</v>
       </c>
       <c r="K47" s="3">
         <v>6669100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12313000</v>
+        <v>12801200</v>
       </c>
       <c r="E48" s="3">
-        <v>9724200</v>
+        <v>10109800</v>
       </c>
       <c r="F48" s="3">
-        <v>18964000</v>
+        <v>19716000</v>
       </c>
       <c r="G48" s="3">
-        <v>9445000</v>
+        <v>9819500</v>
       </c>
       <c r="H48" s="3">
-        <v>6134900</v>
+        <v>6378200</v>
       </c>
       <c r="I48" s="3">
-        <v>6593100</v>
+        <v>6854500</v>
       </c>
       <c r="J48" s="3">
-        <v>5774600</v>
+        <v>6003600</v>
       </c>
       <c r="K48" s="3">
         <v>8753900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10776700</v>
+        <v>11204000</v>
       </c>
       <c r="E49" s="3">
-        <v>8933200</v>
+        <v>9287400</v>
       </c>
       <c r="F49" s="3">
-        <v>17568500</v>
+        <v>18265200</v>
       </c>
       <c r="G49" s="3">
-        <v>8279300</v>
+        <v>8607600</v>
       </c>
       <c r="H49" s="3">
-        <v>8225500</v>
+        <v>8551700</v>
       </c>
       <c r="I49" s="3">
-        <v>8704700</v>
+        <v>9049900</v>
       </c>
       <c r="J49" s="3">
-        <v>8658100</v>
+        <v>9001400</v>
       </c>
       <c r="K49" s="3">
         <v>11811300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2988800</v>
+        <v>3107300</v>
       </c>
       <c r="E52" s="3">
-        <v>2799800</v>
+        <v>2910800</v>
       </c>
       <c r="F52" s="3">
-        <v>1903300</v>
+        <v>1978800</v>
       </c>
       <c r="G52" s="3">
-        <v>2396500</v>
+        <v>2491600</v>
       </c>
       <c r="H52" s="3">
-        <v>2117400</v>
+        <v>2201300</v>
       </c>
       <c r="I52" s="3">
-        <v>1576500</v>
+        <v>1639000</v>
       </c>
       <c r="J52" s="3">
-        <v>1507500</v>
+        <v>1567300</v>
       </c>
       <c r="K52" s="3">
         <v>867600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45125100</v>
+        <v>46914400</v>
       </c>
       <c r="E54" s="3">
-        <v>41661400</v>
+        <v>43313400</v>
       </c>
       <c r="F54" s="3">
-        <v>38687100</v>
+        <v>40221200</v>
       </c>
       <c r="G54" s="3">
-        <v>36014700</v>
+        <v>37442800</v>
       </c>
       <c r="H54" s="3">
-        <v>32559800</v>
+        <v>33850900</v>
       </c>
       <c r="I54" s="3">
-        <v>33246700</v>
+        <v>34565000</v>
       </c>
       <c r="J54" s="3">
-        <v>30822200</v>
+        <v>32044400</v>
       </c>
       <c r="K54" s="3">
         <v>22312700</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6227600</v>
+        <v>6474500</v>
       </c>
       <c r="E57" s="3">
-        <v>5273500</v>
+        <v>5482600</v>
       </c>
       <c r="F57" s="3">
-        <v>4246200</v>
+        <v>4414600</v>
       </c>
       <c r="G57" s="3">
-        <v>4331400</v>
+        <v>4503200</v>
       </c>
       <c r="H57" s="3">
-        <v>3709600</v>
+        <v>3856700</v>
       </c>
       <c r="I57" s="3">
-        <v>3737500</v>
+        <v>3885800</v>
       </c>
       <c r="J57" s="3">
-        <v>3337900</v>
+        <v>3470300</v>
       </c>
       <c r="K57" s="3">
         <v>2453400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1719300</v>
+        <v>1787500</v>
       </c>
       <c r="E58" s="3">
-        <v>674800</v>
+        <v>701600</v>
       </c>
       <c r="F58" s="3">
-        <v>1759400</v>
+        <v>1829200</v>
       </c>
       <c r="G58" s="3">
-        <v>1332700</v>
+        <v>1385500</v>
       </c>
       <c r="H58" s="3">
-        <v>772400</v>
+        <v>803100</v>
       </c>
       <c r="I58" s="3">
-        <v>767700</v>
+        <v>798100</v>
       </c>
       <c r="J58" s="3">
-        <v>411300</v>
+        <v>427600</v>
       </c>
       <c r="K58" s="3">
         <v>643500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2047400</v>
+        <v>2128600</v>
       </c>
       <c r="E59" s="3">
-        <v>1775200</v>
+        <v>1845600</v>
       </c>
       <c r="F59" s="3">
-        <v>3667100</v>
+        <v>3812500</v>
       </c>
       <c r="G59" s="3">
-        <v>2048700</v>
+        <v>2130000</v>
       </c>
       <c r="H59" s="3">
-        <v>1249600</v>
+        <v>1299200</v>
       </c>
       <c r="I59" s="3">
-        <v>1427400</v>
+        <v>1484000</v>
       </c>
       <c r="J59" s="3">
-        <v>1125200</v>
+        <v>1169800</v>
       </c>
       <c r="K59" s="3">
         <v>1579100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9994300</v>
+        <v>10390600</v>
       </c>
       <c r="E60" s="3">
-        <v>7723500</v>
+        <v>8029700</v>
       </c>
       <c r="F60" s="3">
-        <v>6689200</v>
+        <v>6954400</v>
       </c>
       <c r="G60" s="3">
-        <v>7712800</v>
+        <v>8018600</v>
       </c>
       <c r="H60" s="3">
-        <v>5731700</v>
+        <v>5959000</v>
       </c>
       <c r="I60" s="3">
-        <v>5932700</v>
+        <v>6167900</v>
       </c>
       <c r="J60" s="3">
-        <v>4874500</v>
+        <v>5067800</v>
       </c>
       <c r="K60" s="3">
         <v>3562000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14383600</v>
+        <v>14954000</v>
       </c>
       <c r="E61" s="3">
-        <v>13613800</v>
+        <v>14153600</v>
       </c>
       <c r="F61" s="3">
-        <v>13071800</v>
+        <v>13590100</v>
       </c>
       <c r="G61" s="3">
-        <v>8419200</v>
+        <v>8753100</v>
       </c>
       <c r="H61" s="3">
-        <v>6495800</v>
+        <v>6753400</v>
       </c>
       <c r="I61" s="3">
-        <v>6652100</v>
+        <v>6915900</v>
       </c>
       <c r="J61" s="3">
-        <v>7454800</v>
+        <v>7750400</v>
       </c>
       <c r="K61" s="3">
         <v>4686200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1664800</v>
+        <v>1730800</v>
       </c>
       <c r="E62" s="3">
-        <v>1393400</v>
+        <v>1448600</v>
       </c>
       <c r="F62" s="3">
-        <v>2266500</v>
+        <v>2356400</v>
       </c>
       <c r="G62" s="3">
-        <v>1481000</v>
+        <v>1539700</v>
       </c>
       <c r="H62" s="3">
-        <v>1377500</v>
+        <v>1432100</v>
       </c>
       <c r="I62" s="3">
-        <v>1629700</v>
+        <v>1694300</v>
       </c>
       <c r="J62" s="3">
-        <v>2327200</v>
+        <v>2419500</v>
       </c>
       <c r="K62" s="3">
         <v>1138400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30290600</v>
+        <v>31491700</v>
       </c>
       <c r="E66" s="3">
-        <v>26827000</v>
+        <v>27890800</v>
       </c>
       <c r="F66" s="3">
-        <v>25257000</v>
+        <v>26258500</v>
       </c>
       <c r="G66" s="3">
-        <v>21779800</v>
+        <v>22643500</v>
       </c>
       <c r="H66" s="3">
-        <v>18038800</v>
+        <v>18754100</v>
       </c>
       <c r="I66" s="3">
-        <v>19107700</v>
+        <v>19865400</v>
       </c>
       <c r="J66" s="3">
-        <v>18851800</v>
+        <v>19599300</v>
       </c>
       <c r="K66" s="3">
         <v>12417800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14189800</v>
+        <v>14752500</v>
       </c>
       <c r="E72" s="3">
-        <v>13461900</v>
+        <v>13995700</v>
       </c>
       <c r="F72" s="3">
-        <v>12180100</v>
+        <v>12663000</v>
       </c>
       <c r="G72" s="3">
-        <v>12981100</v>
+        <v>13495800</v>
       </c>
       <c r="H72" s="3">
-        <v>12303600</v>
+        <v>12791500</v>
       </c>
       <c r="I72" s="3">
-        <v>11403500</v>
+        <v>11855700</v>
       </c>
       <c r="J72" s="3">
-        <v>9535300</v>
+        <v>9913400</v>
       </c>
       <c r="K72" s="3">
         <v>8565600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14834500</v>
+        <v>15422700</v>
       </c>
       <c r="E76" s="3">
-        <v>14834300</v>
+        <v>15422600</v>
       </c>
       <c r="F76" s="3">
-        <v>13430100</v>
+        <v>13962700</v>
       </c>
       <c r="G76" s="3">
-        <v>14234900</v>
+        <v>14799300</v>
       </c>
       <c r="H76" s="3">
-        <v>14520900</v>
+        <v>15096700</v>
       </c>
       <c r="I76" s="3">
-        <v>14138900</v>
+        <v>14699600</v>
       </c>
       <c r="J76" s="3">
-        <v>11970500</v>
+        <v>12445100</v>
       </c>
       <c r="K76" s="3">
         <v>9894900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1350600</v>
+        <v>1404200</v>
       </c>
       <c r="E81" s="3">
-        <v>1609700</v>
+        <v>1673500</v>
       </c>
       <c r="F81" s="3">
-        <v>-109000</v>
+        <v>-113300</v>
       </c>
       <c r="G81" s="3">
-        <v>1169300</v>
+        <v>1215700</v>
       </c>
       <c r="H81" s="3">
-        <v>1355200</v>
+        <v>1408900</v>
       </c>
       <c r="I81" s="3">
-        <v>2395600</v>
+        <v>2490600</v>
       </c>
       <c r="J81" s="3">
-        <v>1194200</v>
+        <v>1241600</v>
       </c>
       <c r="K81" s="3">
         <v>963900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1724500</v>
+        <v>1792900</v>
       </c>
       <c r="E83" s="3">
-        <v>1581000</v>
+        <v>1643700</v>
       </c>
       <c r="F83" s="3">
-        <v>1584500</v>
+        <v>1647300</v>
       </c>
       <c r="G83" s="3">
-        <v>1458000</v>
+        <v>1515800</v>
       </c>
       <c r="H83" s="3">
-        <v>973700</v>
+        <v>1012300</v>
       </c>
       <c r="I83" s="3">
-        <v>883500</v>
+        <v>918500</v>
       </c>
       <c r="J83" s="3">
-        <v>774400</v>
+        <v>805100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4099800</v>
+        <v>4262400</v>
       </c>
       <c r="E89" s="3">
-        <v>4128900</v>
+        <v>4292600</v>
       </c>
       <c r="F89" s="3">
-        <v>3003700</v>
+        <v>3122900</v>
       </c>
       <c r="G89" s="3">
-        <v>3481900</v>
+        <v>3620000</v>
       </c>
       <c r="H89" s="3">
-        <v>2732800</v>
+        <v>2841200</v>
       </c>
       <c r="I89" s="3">
-        <v>2399100</v>
+        <v>2494300</v>
       </c>
       <c r="J89" s="3">
-        <v>2831900</v>
+        <v>2944200</v>
       </c>
       <c r="K89" s="3">
         <v>2036700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1706500</v>
+        <v>-1774200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1033400</v>
+        <v>-1074400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1054100</v>
+        <v>-1095900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1295100</v>
+        <v>-1346400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1219300</v>
+        <v>-1267600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1100700</v>
+        <v>-1144300</v>
       </c>
       <c r="J91" s="3">
-        <v>-1078000</v>
+        <v>-1120700</v>
       </c>
       <c r="K91" s="3">
         <v>-925900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2622900</v>
+        <v>-2727000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2608400</v>
+        <v>-2711900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1771900</v>
+        <v>-1842200</v>
       </c>
       <c r="G94" s="3">
-        <v>-798300</v>
+        <v>-830000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3257300</v>
+        <v>-3386500</v>
       </c>
       <c r="I94" s="3">
-        <v>1615400</v>
+        <v>1679400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2183100</v>
+        <v>-2269600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-988900</v>
+        <v>-1028100</v>
       </c>
       <c r="E96" s="3">
-        <v>-756900</v>
+        <v>-786900</v>
       </c>
       <c r="F96" s="3">
-        <v>-896400</v>
+        <v>-931900</v>
       </c>
       <c r="G96" s="3">
-        <v>-769900</v>
+        <v>-800400</v>
       </c>
       <c r="H96" s="3">
-        <v>-730600</v>
+        <v>-759600</v>
       </c>
       <c r="I96" s="3">
-        <v>-703300</v>
+        <v>-731200</v>
       </c>
       <c r="J96" s="3">
-        <v>-680400</v>
+        <v>-707400</v>
       </c>
       <c r="K96" s="3">
         <v>-171800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2027900</v>
+        <v>-2108300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2089500</v>
+        <v>-2172400</v>
       </c>
       <c r="F100" s="3">
-        <v>1105800</v>
+        <v>1149600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2171100</v>
+        <v>-2257200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1299900</v>
+        <v>-1351400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1189300</v>
+        <v>-1236500</v>
       </c>
       <c r="J100" s="3">
-        <v>73300</v>
+        <v>76200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-238000</v>
+        <v>-247500</v>
       </c>
       <c r="E101" s="3">
-        <v>-8100</v>
+        <v>-8400</v>
       </c>
       <c r="F101" s="3">
-        <v>38500</v>
+        <v>40000</v>
       </c>
       <c r="G101" s="3">
-        <v>-314000</v>
+        <v>-326400</v>
       </c>
       <c r="H101" s="3">
-        <v>-147000</v>
+        <v>-152800</v>
       </c>
       <c r="I101" s="3">
-        <v>186100</v>
+        <v>193500</v>
       </c>
       <c r="J101" s="3">
-        <v>82400</v>
+        <v>85600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-789100</v>
+        <v>-820300</v>
       </c>
       <c r="E102" s="3">
-        <v>-577200</v>
+        <v>-600000</v>
       </c>
       <c r="F102" s="3">
-        <v>2376100</v>
+        <v>2470300</v>
       </c>
       <c r="G102" s="3">
-        <v>198600</v>
+        <v>206400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1971400</v>
+        <v>-2049600</v>
       </c>
       <c r="I102" s="3">
-        <v>3011300</v>
+        <v>3130700</v>
       </c>
       <c r="J102" s="3">
-        <v>804500</v>
+        <v>836400</v>
       </c>
       <c r="K102" s="3">
         <v>449100</v>

--- a/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FMX_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>39537200</v>
+        <v>39086100</v>
       </c>
       <c r="E8" s="3">
-        <v>32669200</v>
+        <v>32296500</v>
       </c>
       <c r="F8" s="3">
-        <v>28951900</v>
+        <v>28621600</v>
       </c>
       <c r="G8" s="3">
-        <v>29759100</v>
+        <v>29419600</v>
       </c>
       <c r="H8" s="3">
-        <v>27588100</v>
+        <v>27273300</v>
       </c>
       <c r="I8" s="3">
-        <v>25837200</v>
+        <v>25542500</v>
       </c>
       <c r="J8" s="3">
-        <v>23463000</v>
+        <v>23195400</v>
       </c>
       <c r="K8" s="3">
         <v>16984700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24756700</v>
+        <v>24474300</v>
       </c>
       <c r="E9" s="3">
-        <v>20117800</v>
+        <v>19888300</v>
       </c>
       <c r="F9" s="3">
-        <v>17813600</v>
+        <v>17610400</v>
       </c>
       <c r="G9" s="3">
-        <v>18513500</v>
+        <v>18302300</v>
       </c>
       <c r="H9" s="3">
-        <v>17300300</v>
+        <v>17103000</v>
       </c>
       <c r="I9" s="3">
-        <v>16317700</v>
+        <v>16131500</v>
       </c>
       <c r="J9" s="3">
-        <v>14759000</v>
+        <v>14590700</v>
       </c>
       <c r="K9" s="3">
         <v>10270200</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14780500</v>
+        <v>14611800</v>
       </c>
       <c r="E10" s="3">
-        <v>12551400</v>
+        <v>12408200</v>
       </c>
       <c r="F10" s="3">
-        <v>11138300</v>
+        <v>11011300</v>
       </c>
       <c r="G10" s="3">
-        <v>11245700</v>
+        <v>11117400</v>
       </c>
       <c r="H10" s="3">
-        <v>10287700</v>
+        <v>10170400</v>
       </c>
       <c r="I10" s="3">
-        <v>9519500</v>
+        <v>9410900</v>
       </c>
       <c r="J10" s="3">
-        <v>8704000</v>
+        <v>8604700</v>
       </c>
       <c r="K10" s="3">
         <v>6714500</v>
@@ -954,22 +954,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>60600</v>
+        <v>59900</v>
       </c>
       <c r="E14" s="3">
-        <v>82300</v>
+        <v>81400</v>
       </c>
       <c r="F14" s="3">
-        <v>298500</v>
+        <v>295100</v>
       </c>
       <c r="G14" s="3">
-        <v>58600</v>
+        <v>57900</v>
       </c>
       <c r="H14" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="I14" s="3">
-        <v>121000</v>
+        <v>119600</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>146200</v>
+        <v>144500</v>
       </c>
       <c r="E15" s="3">
-        <v>143300</v>
+        <v>141700</v>
       </c>
       <c r="F15" s="3">
-        <v>127900</v>
+        <v>126400</v>
       </c>
       <c r="G15" s="3">
-        <v>87800</v>
+        <v>86800</v>
       </c>
       <c r="H15" s="3">
-        <v>88900</v>
+        <v>87900</v>
       </c>
       <c r="I15" s="3">
-        <v>66200</v>
+        <v>65400</v>
       </c>
       <c r="J15" s="3">
-        <v>49200</v>
+        <v>48600</v>
       </c>
       <c r="K15" s="3">
         <v>29600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36127300</v>
+        <v>35715100</v>
       </c>
       <c r="E17" s="3">
-        <v>29464000</v>
+        <v>29127900</v>
       </c>
       <c r="F17" s="3">
-        <v>26942000</v>
+        <v>26634700</v>
       </c>
       <c r="G17" s="3">
-        <v>27070000</v>
+        <v>26761200</v>
       </c>
       <c r="H17" s="3">
-        <v>25179500</v>
+        <v>24892300</v>
       </c>
       <c r="I17" s="3">
-        <v>23542400</v>
+        <v>23273900</v>
       </c>
       <c r="J17" s="3">
-        <v>21514700</v>
+        <v>21269200</v>
       </c>
       <c r="K17" s="3">
         <v>15197800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3409900</v>
+        <v>3371000</v>
       </c>
       <c r="E18" s="3">
-        <v>3205200</v>
+        <v>3168600</v>
       </c>
       <c r="F18" s="3">
-        <v>2009900</v>
+        <v>1986900</v>
       </c>
       <c r="G18" s="3">
-        <v>2689100</v>
+        <v>2658500</v>
       </c>
       <c r="H18" s="3">
-        <v>2408500</v>
+        <v>2381000</v>
       </c>
       <c r="I18" s="3">
-        <v>2294800</v>
+        <v>2268600</v>
       </c>
       <c r="J18" s="3">
-        <v>1948400</v>
+        <v>1926100</v>
       </c>
       <c r="K18" s="3">
         <v>1786900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-144600</v>
+        <v>-142900</v>
       </c>
       <c r="E20" s="3">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="F20" s="3">
-        <v>56000</v>
+        <v>55300</v>
       </c>
       <c r="G20" s="3">
-        <v>-414500</v>
+        <v>-409800</v>
       </c>
       <c r="H20" s="3">
-        <v>-36700</v>
+        <v>-36300</v>
       </c>
       <c r="I20" s="3">
-        <v>180000</v>
+        <v>178000</v>
       </c>
       <c r="J20" s="3">
-        <v>61300</v>
+        <v>60600</v>
       </c>
       <c r="K20" s="3">
         <v>-168500</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5058100</v>
+        <v>4993100</v>
       </c>
       <c r="E21" s="3">
-        <v>4912900</v>
+        <v>4850100</v>
       </c>
       <c r="F21" s="3">
-        <v>3713100</v>
+        <v>3664100</v>
       </c>
       <c r="G21" s="3">
-        <v>3790400</v>
+        <v>3741000</v>
       </c>
       <c r="H21" s="3">
-        <v>3384100</v>
+        <v>3341400</v>
       </c>
       <c r="I21" s="3">
-        <v>3393300</v>
+        <v>3350800</v>
       </c>
       <c r="J21" s="3">
-        <v>2814800</v>
+        <v>2779400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>817400</v>
+        <v>808100</v>
       </c>
       <c r="E22" s="3">
-        <v>850100</v>
+        <v>840400</v>
       </c>
       <c r="F22" s="3">
-        <v>931700</v>
+        <v>921100</v>
       </c>
       <c r="G22" s="3">
-        <v>377900</v>
+        <v>373600</v>
       </c>
       <c r="H22" s="3">
-        <v>396700</v>
+        <v>392200</v>
       </c>
       <c r="I22" s="3">
-        <v>373900</v>
+        <v>369700</v>
       </c>
       <c r="J22" s="3">
-        <v>332500</v>
+        <v>328700</v>
       </c>
       <c r="K22" s="3">
         <v>246700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2447900</v>
+        <v>2419900</v>
       </c>
       <c r="E23" s="3">
-        <v>2419100</v>
+        <v>2391500</v>
       </c>
       <c r="F23" s="3">
-        <v>1134100</v>
+        <v>1121200</v>
       </c>
       <c r="G23" s="3">
-        <v>1896700</v>
+        <v>1875100</v>
       </c>
       <c r="H23" s="3">
-        <v>1975100</v>
+        <v>1952600</v>
       </c>
       <c r="I23" s="3">
-        <v>2100800</v>
+        <v>2076900</v>
       </c>
       <c r="J23" s="3">
-        <v>1677100</v>
+        <v>1658000</v>
       </c>
       <c r="K23" s="3">
         <v>1371600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>845400</v>
+        <v>835800</v>
       </c>
       <c r="E24" s="3">
-        <v>838500</v>
+        <v>829000</v>
       </c>
       <c r="F24" s="3">
-        <v>870300</v>
+        <v>860400</v>
       </c>
       <c r="G24" s="3">
-        <v>615300</v>
+        <v>608200</v>
       </c>
       <c r="H24" s="3">
-        <v>597200</v>
+        <v>590400</v>
       </c>
       <c r="I24" s="3">
-        <v>599800</v>
+        <v>593000</v>
       </c>
       <c r="J24" s="3">
-        <v>463300</v>
+        <v>458000</v>
       </c>
       <c r="K24" s="3">
         <v>432400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1602400</v>
+        <v>1584200</v>
       </c>
       <c r="E26" s="3">
-        <v>1580600</v>
+        <v>1562600</v>
       </c>
       <c r="F26" s="3">
-        <v>263800</v>
+        <v>260800</v>
       </c>
       <c r="G26" s="3">
-        <v>1281500</v>
+        <v>1266900</v>
       </c>
       <c r="H26" s="3">
-        <v>1377900</v>
+        <v>1362100</v>
       </c>
       <c r="I26" s="3">
-        <v>1501000</v>
+        <v>1483900</v>
       </c>
       <c r="J26" s="3">
-        <v>1213800</v>
+        <v>1200000</v>
       </c>
       <c r="K26" s="3">
         <v>939300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1404200</v>
+        <v>1388200</v>
       </c>
       <c r="E27" s="3">
-        <v>1673500</v>
+        <v>1654400</v>
       </c>
       <c r="F27" s="3">
-        <v>-113300</v>
+        <v>-112100</v>
       </c>
       <c r="G27" s="3">
-        <v>1215700</v>
+        <v>1201800</v>
       </c>
       <c r="H27" s="3">
-        <v>1211200</v>
+        <v>1197400</v>
       </c>
       <c r="I27" s="3">
-        <v>2271800</v>
+        <v>2245900</v>
       </c>
       <c r="J27" s="3">
-        <v>1241600</v>
+        <v>1227400</v>
       </c>
       <c r="K27" s="3">
         <v>963900</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>197700</v>
+        <v>195400</v>
       </c>
       <c r="I29" s="3">
-        <v>218800</v>
+        <v>216300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>144600</v>
+        <v>142900</v>
       </c>
       <c r="E32" s="3">
-        <v>-64000</v>
+        <v>-63300</v>
       </c>
       <c r="F32" s="3">
-        <v>-56000</v>
+        <v>-55300</v>
       </c>
       <c r="G32" s="3">
-        <v>414500</v>
+        <v>409800</v>
       </c>
       <c r="H32" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="I32" s="3">
-        <v>-180000</v>
+        <v>-178000</v>
       </c>
       <c r="J32" s="3">
-        <v>-61300</v>
+        <v>-60600</v>
       </c>
       <c r="K32" s="3">
         <v>168500</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1404200</v>
+        <v>1388200</v>
       </c>
       <c r="E33" s="3">
-        <v>1673500</v>
+        <v>1654400</v>
       </c>
       <c r="F33" s="3">
-        <v>-113300</v>
+        <v>-112100</v>
       </c>
       <c r="G33" s="3">
-        <v>1215700</v>
+        <v>1201800</v>
       </c>
       <c r="H33" s="3">
-        <v>1408900</v>
+        <v>1392900</v>
       </c>
       <c r="I33" s="3">
-        <v>2490600</v>
+        <v>2462200</v>
       </c>
       <c r="J33" s="3">
-        <v>1241600</v>
+        <v>1227400</v>
       </c>
       <c r="K33" s="3">
         <v>963900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1404200</v>
+        <v>1388200</v>
       </c>
       <c r="E35" s="3">
-        <v>1673500</v>
+        <v>1654400</v>
       </c>
       <c r="F35" s="3">
-        <v>-113300</v>
+        <v>-112100</v>
       </c>
       <c r="G35" s="3">
-        <v>1215700</v>
+        <v>1201800</v>
       </c>
       <c r="H35" s="3">
-        <v>1408900</v>
+        <v>1392900</v>
       </c>
       <c r="I35" s="3">
-        <v>2490600</v>
+        <v>2462200</v>
       </c>
       <c r="J35" s="3">
-        <v>1241600</v>
+        <v>1227400</v>
       </c>
       <c r="K35" s="3">
         <v>963900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4900400</v>
+        <v>4844500</v>
       </c>
       <c r="E41" s="3">
-        <v>5720700</v>
+        <v>5655500</v>
       </c>
       <c r="F41" s="3">
-        <v>6320800</v>
+        <v>6248700</v>
       </c>
       <c r="G41" s="3">
-        <v>3850500</v>
+        <v>3806500</v>
       </c>
       <c r="H41" s="3">
-        <v>3644000</v>
+        <v>3602400</v>
       </c>
       <c r="I41" s="3">
-        <v>5693500</v>
+        <v>5628600</v>
       </c>
       <c r="J41" s="3">
-        <v>2562800</v>
+        <v>2533600</v>
       </c>
       <c r="K41" s="3">
         <v>1602400</v>
@@ -1955,19 +1955,19 @@
         <v>3000</v>
       </c>
       <c r="E42" s="3">
-        <v>1433900</v>
+        <v>1417500</v>
       </c>
       <c r="F42" s="3">
-        <v>117700</v>
+        <v>116400</v>
       </c>
       <c r="G42" s="3">
-        <v>726300</v>
+        <v>718000</v>
       </c>
       <c r="H42" s="3">
-        <v>1816200</v>
+        <v>1795400</v>
       </c>
       <c r="I42" s="3">
-        <v>126900</v>
+        <v>125400</v>
       </c>
       <c r="J42" s="3">
         <v>7000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3822900</v>
+        <v>3779300</v>
       </c>
       <c r="E43" s="3">
-        <v>3062900</v>
+        <v>3027900</v>
       </c>
       <c r="F43" s="3">
-        <v>4065700</v>
+        <v>4019300</v>
       </c>
       <c r="G43" s="3">
-        <v>2844900</v>
+        <v>2812400</v>
       </c>
       <c r="H43" s="3">
-        <v>2624900</v>
+        <v>2594900</v>
       </c>
       <c r="I43" s="3">
-        <v>2561700</v>
+        <v>2532500</v>
       </c>
       <c r="J43" s="3">
-        <v>2082700</v>
+        <v>2058900</v>
       </c>
       <c r="K43" s="3">
         <v>2267300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3654400</v>
+        <v>3612700</v>
       </c>
       <c r="E44" s="3">
-        <v>2989100</v>
+        <v>2955000</v>
       </c>
       <c r="F44" s="3">
-        <v>2586100</v>
+        <v>2556600</v>
       </c>
       <c r="G44" s="3">
-        <v>2409300</v>
+        <v>2381800</v>
       </c>
       <c r="H44" s="3">
-        <v>2095800</v>
+        <v>2071900</v>
       </c>
       <c r="I44" s="3">
-        <v>2046200</v>
+        <v>2022800</v>
       </c>
       <c r="J44" s="3">
-        <v>1875400</v>
+        <v>1854000</v>
       </c>
       <c r="K44" s="3">
         <v>1345300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>918700</v>
+        <v>908200</v>
       </c>
       <c r="E45" s="3">
-        <v>343500</v>
+        <v>339500</v>
       </c>
       <c r="F45" s="3">
-        <v>381000</v>
+        <v>376700</v>
       </c>
       <c r="G45" s="3">
-        <v>304700</v>
+        <v>301200</v>
       </c>
       <c r="H45" s="3">
-        <v>250000</v>
+        <v>247100</v>
       </c>
       <c r="I45" s="3">
-        <v>212900</v>
+        <v>210500</v>
       </c>
       <c r="J45" s="3">
-        <v>399400</v>
+        <v>394800</v>
       </c>
       <c r="K45" s="3">
         <v>465300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13299300</v>
+        <v>13147600</v>
       </c>
       <c r="E46" s="3">
-        <v>13550100</v>
+        <v>13395500</v>
       </c>
       <c r="F46" s="3">
-        <v>11820500</v>
+        <v>11685700</v>
       </c>
       <c r="G46" s="3">
-        <v>10135600</v>
+        <v>10019900</v>
       </c>
       <c r="H46" s="3">
-        <v>10430900</v>
+        <v>10311900</v>
       </c>
       <c r="I46" s="3">
-        <v>10641200</v>
+        <v>10519800</v>
       </c>
       <c r="J46" s="3">
-        <v>6927300</v>
+        <v>6848200</v>
       </c>
       <c r="K46" s="3">
         <v>4727300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6502500</v>
+        <v>6428300</v>
       </c>
       <c r="E47" s="3">
-        <v>7455200</v>
+        <v>7370200</v>
       </c>
       <c r="F47" s="3">
-        <v>7831100</v>
+        <v>7741700</v>
       </c>
       <c r="G47" s="3">
-        <v>6388600</v>
+        <v>6315700</v>
       </c>
       <c r="H47" s="3">
-        <v>6288800</v>
+        <v>6217100</v>
       </c>
       <c r="I47" s="3">
-        <v>6380500</v>
+        <v>6307700</v>
       </c>
       <c r="J47" s="3">
-        <v>8544900</v>
+        <v>8447400</v>
       </c>
       <c r="K47" s="3">
         <v>6669100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12801200</v>
+        <v>12655200</v>
       </c>
       <c r="E48" s="3">
-        <v>10109800</v>
+        <v>9994500</v>
       </c>
       <c r="F48" s="3">
-        <v>19716000</v>
+        <v>19491100</v>
       </c>
       <c r="G48" s="3">
-        <v>9819500</v>
+        <v>9707500</v>
       </c>
       <c r="H48" s="3">
-        <v>6378200</v>
+        <v>6305400</v>
       </c>
       <c r="I48" s="3">
-        <v>6854500</v>
+        <v>6776300</v>
       </c>
       <c r="J48" s="3">
-        <v>6003600</v>
+        <v>5935100</v>
       </c>
       <c r="K48" s="3">
         <v>8753900</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11204000</v>
+        <v>11076200</v>
       </c>
       <c r="E49" s="3">
-        <v>9287400</v>
+        <v>9181500</v>
       </c>
       <c r="F49" s="3">
-        <v>18265200</v>
+        <v>18056800</v>
       </c>
       <c r="G49" s="3">
-        <v>8607600</v>
+        <v>8509400</v>
       </c>
       <c r="H49" s="3">
-        <v>8551700</v>
+        <v>8454100</v>
       </c>
       <c r="I49" s="3">
-        <v>9049900</v>
+        <v>8946600</v>
       </c>
       <c r="J49" s="3">
-        <v>9001400</v>
+        <v>8898700</v>
       </c>
       <c r="K49" s="3">
         <v>11811300</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3107300</v>
+        <v>3071800</v>
       </c>
       <c r="E52" s="3">
-        <v>2910800</v>
+        <v>2877600</v>
       </c>
       <c r="F52" s="3">
-        <v>1978800</v>
+        <v>1956200</v>
       </c>
       <c r="G52" s="3">
-        <v>2491600</v>
+        <v>2463100</v>
       </c>
       <c r="H52" s="3">
-        <v>2201300</v>
+        <v>2176200</v>
       </c>
       <c r="I52" s="3">
-        <v>1639000</v>
+        <v>1620300</v>
       </c>
       <c r="J52" s="3">
-        <v>1567300</v>
+        <v>1549400</v>
       </c>
       <c r="K52" s="3">
         <v>867600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46914400</v>
+        <v>46379200</v>
       </c>
       <c r="E54" s="3">
-        <v>43313400</v>
+        <v>42819300</v>
       </c>
       <c r="F54" s="3">
-        <v>40221200</v>
+        <v>39762300</v>
       </c>
       <c r="G54" s="3">
-        <v>37442800</v>
+        <v>37015600</v>
       </c>
       <c r="H54" s="3">
-        <v>33850900</v>
+        <v>33464700</v>
       </c>
       <c r="I54" s="3">
-        <v>34565000</v>
+        <v>34170700</v>
       </c>
       <c r="J54" s="3">
-        <v>32044400</v>
+        <v>31678900</v>
       </c>
       <c r="K54" s="3">
         <v>22312700</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6474500</v>
+        <v>6400700</v>
       </c>
       <c r="E57" s="3">
-        <v>5482600</v>
+        <v>5420000</v>
       </c>
       <c r="F57" s="3">
-        <v>4414600</v>
+        <v>4364300</v>
       </c>
       <c r="G57" s="3">
-        <v>4503200</v>
+        <v>4451800</v>
       </c>
       <c r="H57" s="3">
-        <v>3856700</v>
+        <v>3812700</v>
       </c>
       <c r="I57" s="3">
-        <v>3885800</v>
+        <v>3841400</v>
       </c>
       <c r="J57" s="3">
-        <v>3470300</v>
+        <v>3430700</v>
       </c>
       <c r="K57" s="3">
         <v>2453400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1787500</v>
+        <v>1767100</v>
       </c>
       <c r="E58" s="3">
-        <v>701600</v>
+        <v>693600</v>
       </c>
       <c r="F58" s="3">
-        <v>1829200</v>
+        <v>1808300</v>
       </c>
       <c r="G58" s="3">
-        <v>1385500</v>
+        <v>1369700</v>
       </c>
       <c r="H58" s="3">
-        <v>803100</v>
+        <v>793900</v>
       </c>
       <c r="I58" s="3">
-        <v>798100</v>
+        <v>789000</v>
       </c>
       <c r="J58" s="3">
-        <v>427600</v>
+        <v>422700</v>
       </c>
       <c r="K58" s="3">
         <v>643500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2128600</v>
+        <v>2104300</v>
       </c>
       <c r="E59" s="3">
-        <v>1845600</v>
+        <v>1824500</v>
       </c>
       <c r="F59" s="3">
-        <v>3812500</v>
+        <v>3769000</v>
       </c>
       <c r="G59" s="3">
-        <v>2130000</v>
+        <v>2105700</v>
       </c>
       <c r="H59" s="3">
-        <v>1299200</v>
+        <v>1284300</v>
       </c>
       <c r="I59" s="3">
-        <v>1484000</v>
+        <v>1467100</v>
       </c>
       <c r="J59" s="3">
-        <v>1169800</v>
+        <v>1156500</v>
       </c>
       <c r="K59" s="3">
         <v>1579100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10390600</v>
+        <v>10272100</v>
       </c>
       <c r="E60" s="3">
-        <v>8029700</v>
+        <v>7938100</v>
       </c>
       <c r="F60" s="3">
-        <v>6954400</v>
+        <v>6875100</v>
       </c>
       <c r="G60" s="3">
-        <v>8018600</v>
+        <v>7927200</v>
       </c>
       <c r="H60" s="3">
-        <v>5959000</v>
+        <v>5891000</v>
       </c>
       <c r="I60" s="3">
-        <v>6167900</v>
+        <v>6097600</v>
       </c>
       <c r="J60" s="3">
-        <v>5067800</v>
+        <v>5009900</v>
       </c>
       <c r="K60" s="3">
         <v>3562000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14954000</v>
+        <v>14783400</v>
       </c>
       <c r="E61" s="3">
-        <v>14153600</v>
+        <v>13992100</v>
       </c>
       <c r="F61" s="3">
-        <v>13590100</v>
+        <v>13435100</v>
       </c>
       <c r="G61" s="3">
-        <v>8753100</v>
+        <v>8653200</v>
       </c>
       <c r="H61" s="3">
-        <v>6753400</v>
+        <v>6676300</v>
       </c>
       <c r="I61" s="3">
-        <v>6915900</v>
+        <v>6837000</v>
       </c>
       <c r="J61" s="3">
-        <v>7750400</v>
+        <v>7662000</v>
       </c>
       <c r="K61" s="3">
         <v>4686200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1730800</v>
+        <v>1711000</v>
       </c>
       <c r="E62" s="3">
-        <v>1448600</v>
+        <v>1432100</v>
       </c>
       <c r="F62" s="3">
-        <v>2356400</v>
+        <v>2329500</v>
       </c>
       <c r="G62" s="3">
-        <v>1539700</v>
+        <v>1522200</v>
       </c>
       <c r="H62" s="3">
-        <v>1432100</v>
+        <v>1415800</v>
       </c>
       <c r="I62" s="3">
-        <v>1694300</v>
+        <v>1675000</v>
       </c>
       <c r="J62" s="3">
-        <v>2419500</v>
+        <v>2391900</v>
       </c>
       <c r="K62" s="3">
         <v>1138400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31491700</v>
+        <v>31132400</v>
       </c>
       <c r="E66" s="3">
-        <v>27890800</v>
+        <v>27572600</v>
       </c>
       <c r="F66" s="3">
-        <v>26258500</v>
+        <v>25958900</v>
       </c>
       <c r="G66" s="3">
-        <v>22643500</v>
+        <v>22385100</v>
       </c>
       <c r="H66" s="3">
-        <v>18754100</v>
+        <v>18540200</v>
       </c>
       <c r="I66" s="3">
-        <v>19865400</v>
+        <v>19638800</v>
       </c>
       <c r="J66" s="3">
-        <v>19599300</v>
+        <v>19375700</v>
       </c>
       <c r="K66" s="3">
         <v>12417800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14752500</v>
+        <v>14584200</v>
       </c>
       <c r="E72" s="3">
-        <v>13995700</v>
+        <v>13836000</v>
       </c>
       <c r="F72" s="3">
-        <v>12663000</v>
+        <v>12518600</v>
       </c>
       <c r="G72" s="3">
-        <v>13495800</v>
+        <v>13341800</v>
       </c>
       <c r="H72" s="3">
-        <v>12791500</v>
+        <v>12645600</v>
       </c>
       <c r="I72" s="3">
-        <v>11855700</v>
+        <v>11720500</v>
       </c>
       <c r="J72" s="3">
-        <v>9913400</v>
+        <v>9800300</v>
       </c>
       <c r="K72" s="3">
         <v>8565600</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15422700</v>
+        <v>15246800</v>
       </c>
       <c r="E76" s="3">
-        <v>15422600</v>
+        <v>15246600</v>
       </c>
       <c r="F76" s="3">
-        <v>13962700</v>
+        <v>13803400</v>
       </c>
       <c r="G76" s="3">
-        <v>14799300</v>
+        <v>14630500</v>
       </c>
       <c r="H76" s="3">
-        <v>15096700</v>
+        <v>14924500</v>
       </c>
       <c r="I76" s="3">
-        <v>14699600</v>
+        <v>14531900</v>
       </c>
       <c r="J76" s="3">
-        <v>12445100</v>
+        <v>12303100</v>
       </c>
       <c r="K76" s="3">
         <v>9894900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1404200</v>
+        <v>1388200</v>
       </c>
       <c r="E81" s="3">
-        <v>1673500</v>
+        <v>1654400</v>
       </c>
       <c r="F81" s="3">
-        <v>-113300</v>
+        <v>-112100</v>
       </c>
       <c r="G81" s="3">
-        <v>1215700</v>
+        <v>1201800</v>
       </c>
       <c r="H81" s="3">
-        <v>1408900</v>
+        <v>1392900</v>
       </c>
       <c r="I81" s="3">
-        <v>2490600</v>
+        <v>2462200</v>
       </c>
       <c r="J81" s="3">
-        <v>1241600</v>
+        <v>1227400</v>
       </c>
       <c r="K81" s="3">
         <v>963900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1792900</v>
+        <v>1772400</v>
       </c>
       <c r="E83" s="3">
-        <v>1643700</v>
+        <v>1624900</v>
       </c>
       <c r="F83" s="3">
-        <v>1647300</v>
+        <v>1628500</v>
       </c>
       <c r="G83" s="3">
-        <v>1515800</v>
+        <v>1498500</v>
       </c>
       <c r="H83" s="3">
-        <v>1012300</v>
+        <v>1000800</v>
       </c>
       <c r="I83" s="3">
-        <v>918500</v>
+        <v>908100</v>
       </c>
       <c r="J83" s="3">
-        <v>805100</v>
+        <v>795900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4262400</v>
+        <v>4213800</v>
       </c>
       <c r="E89" s="3">
-        <v>4292600</v>
+        <v>4243600</v>
       </c>
       <c r="F89" s="3">
-        <v>3122900</v>
+        <v>3087200</v>
       </c>
       <c r="G89" s="3">
-        <v>3620000</v>
+        <v>3578700</v>
       </c>
       <c r="H89" s="3">
-        <v>2841200</v>
+        <v>2808800</v>
       </c>
       <c r="I89" s="3">
-        <v>2494300</v>
+        <v>2465800</v>
       </c>
       <c r="J89" s="3">
-        <v>2944200</v>
+        <v>2910600</v>
       </c>
       <c r="K89" s="3">
         <v>2036700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1774200</v>
+        <v>-1753900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1074400</v>
+        <v>-1062100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1095900</v>
+        <v>-1083400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1346400</v>
+        <v>-1331100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1267600</v>
+        <v>-1253200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1144300</v>
+        <v>-1131200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1120700</v>
+        <v>-1108000</v>
       </c>
       <c r="K91" s="3">
         <v>-925900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2727000</v>
+        <v>-2695800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2711900</v>
+        <v>-2680900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1842200</v>
+        <v>-1821200</v>
       </c>
       <c r="G94" s="3">
-        <v>-830000</v>
+        <v>-820500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3386500</v>
+        <v>-3347900</v>
       </c>
       <c r="I94" s="3">
-        <v>1679400</v>
+        <v>1660300</v>
       </c>
       <c r="J94" s="3">
-        <v>-2269600</v>
+        <v>-2243700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1028100</v>
+        <v>-1016400</v>
       </c>
       <c r="E96" s="3">
-        <v>-786900</v>
+        <v>-777900</v>
       </c>
       <c r="F96" s="3">
-        <v>-931900</v>
+        <v>-921300</v>
       </c>
       <c r="G96" s="3">
-        <v>-800400</v>
+        <v>-791300</v>
       </c>
       <c r="H96" s="3">
-        <v>-759600</v>
+        <v>-750900</v>
       </c>
       <c r="I96" s="3">
-        <v>-731200</v>
+        <v>-722800</v>
       </c>
       <c r="J96" s="3">
-        <v>-707400</v>
+        <v>-699300</v>
       </c>
       <c r="K96" s="3">
         <v>-171800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2108300</v>
+        <v>-2084200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2172400</v>
+        <v>-2147600</v>
       </c>
       <c r="F100" s="3">
-        <v>1149600</v>
+        <v>1136500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2257200</v>
+        <v>-2231400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1351400</v>
+        <v>-1336000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1236500</v>
+        <v>-1222400</v>
       </c>
       <c r="J100" s="3">
-        <v>76200</v>
+        <v>75300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-247500</v>
+        <v>-244700</v>
       </c>
       <c r="E101" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="F101" s="3">
-        <v>40000</v>
+        <v>39500</v>
       </c>
       <c r="G101" s="3">
-        <v>-326400</v>
+        <v>-322700</v>
       </c>
       <c r="H101" s="3">
-        <v>-152800</v>
+        <v>-151100</v>
       </c>
       <c r="I101" s="3">
-        <v>193500</v>
+        <v>191300</v>
       </c>
       <c r="J101" s="3">
-        <v>85600</v>
+        <v>84700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-820300</v>
+        <v>-811000</v>
       </c>
       <c r="E102" s="3">
-        <v>-600000</v>
+        <v>-593200</v>
       </c>
       <c r="F102" s="3">
-        <v>2470300</v>
+        <v>2442100</v>
       </c>
       <c r="G102" s="3">
-        <v>206400</v>
+        <v>204100</v>
       </c>
       <c r="H102" s="3">
-        <v>-2049600</v>
+        <v>-2026200</v>
       </c>
       <c r="I102" s="3">
-        <v>3130700</v>
+        <v>3095000</v>
       </c>
       <c r="J102" s="3">
-        <v>836400</v>
+        <v>826800</v>
       </c>
       <c r="K102" s="3">
         <v>449100</v>
